--- a/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3232700</v>
+        <v>2790500</v>
       </c>
       <c r="E8" s="3">
-        <v>3365200</v>
+        <v>3303800</v>
       </c>
       <c r="F8" s="3">
-        <v>3061600</v>
+        <v>3439300</v>
       </c>
       <c r="G8" s="3">
-        <v>2809400</v>
+        <v>3129000</v>
       </c>
       <c r="H8" s="3">
-        <v>3188800</v>
+        <v>2871200</v>
       </c>
       <c r="I8" s="3">
-        <v>3443900</v>
+        <v>3259000</v>
       </c>
       <c r="J8" s="3">
+        <v>3519700</v>
+      </c>
+      <c r="K8" s="3">
         <v>3118500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2775700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3083800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3019800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2617300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2433100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2880700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2664700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2199300</v>
+        <v>2070500</v>
       </c>
       <c r="E9" s="3">
-        <v>2309500</v>
+        <v>2247700</v>
       </c>
       <c r="F9" s="3">
-        <v>2189100</v>
+        <v>2360300</v>
       </c>
       <c r="G9" s="3">
-        <v>2083200</v>
+        <v>2237200</v>
       </c>
       <c r="H9" s="3">
-        <v>2218200</v>
+        <v>2129000</v>
       </c>
       <c r="I9" s="3">
-        <v>2398400</v>
+        <v>2267000</v>
       </c>
       <c r="J9" s="3">
+        <v>2451100</v>
+      </c>
+      <c r="K9" s="3">
         <v>2256800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2084000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2201600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2193800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1923900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1831500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2033200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1915700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1033400</v>
+        <v>719900</v>
       </c>
       <c r="E10" s="3">
-        <v>1055800</v>
+        <v>1056200</v>
       </c>
       <c r="F10" s="3">
-        <v>872600</v>
+        <v>1079000</v>
       </c>
       <c r="G10" s="3">
-        <v>726200</v>
+        <v>891800</v>
       </c>
       <c r="H10" s="3">
-        <v>970600</v>
+        <v>742200</v>
       </c>
       <c r="I10" s="3">
-        <v>1045600</v>
+        <v>991900</v>
       </c>
       <c r="J10" s="3">
+        <v>1068600</v>
+      </c>
+      <c r="K10" s="3">
         <v>861700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>691800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>882100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>825900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>693400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>601500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>847600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>749000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,19 +1005,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>2200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1014,8 +1034,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2865500</v>
+        <v>2896100</v>
       </c>
       <c r="E17" s="3">
-        <v>2966500</v>
+        <v>2928600</v>
       </c>
       <c r="F17" s="3">
-        <v>2834600</v>
+        <v>3031800</v>
       </c>
       <c r="G17" s="3">
-        <v>2692300</v>
+        <v>2896900</v>
       </c>
       <c r="H17" s="3">
-        <v>2891000</v>
+        <v>2751500</v>
       </c>
       <c r="I17" s="3">
-        <v>3109800</v>
+        <v>2954600</v>
       </c>
       <c r="J17" s="3">
+        <v>3178200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2887400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2677000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2790500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2770200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2467200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1263700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2592300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2418000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>367200</v>
+        <v>-105600</v>
       </c>
       <c r="E18" s="3">
-        <v>398700</v>
+        <v>375300</v>
       </c>
       <c r="F18" s="3">
-        <v>227100</v>
+        <v>407500</v>
       </c>
       <c r="G18" s="3">
-        <v>117100</v>
+        <v>232100</v>
       </c>
       <c r="H18" s="3">
-        <v>297800</v>
+        <v>119700</v>
       </c>
       <c r="I18" s="3">
-        <v>334100</v>
+        <v>304300</v>
       </c>
       <c r="J18" s="3">
+        <v>341500</v>
+      </c>
+      <c r="K18" s="3">
         <v>231100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>98700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>293300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>249600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>150100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1169400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>288400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>246700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13300</v>
+        <v>-14700</v>
       </c>
       <c r="E20" s="3">
-        <v>8800</v>
+        <v>13600</v>
       </c>
       <c r="F20" s="3">
-        <v>7600</v>
+        <v>8900</v>
       </c>
       <c r="G20" s="3">
-        <v>134800</v>
+        <v>7800</v>
       </c>
       <c r="H20" s="3">
-        <v>-6800</v>
+        <v>137700</v>
       </c>
       <c r="I20" s="3">
-        <v>-14800</v>
+        <v>-6900</v>
       </c>
       <c r="J20" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>38400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>668500</v>
+        <v>191900</v>
       </c>
       <c r="E21" s="3">
-        <v>681200</v>
+        <v>683200</v>
       </c>
       <c r="F21" s="3">
-        <v>503500</v>
+        <v>696200</v>
       </c>
       <c r="G21" s="3">
-        <v>496100</v>
+        <v>514600</v>
       </c>
       <c r="H21" s="3">
-        <v>540100</v>
+        <v>507000</v>
       </c>
       <c r="I21" s="3">
-        <v>563800</v>
+        <v>551900</v>
       </c>
       <c r="J21" s="3">
+        <v>576200</v>
+      </c>
+      <c r="K21" s="3">
         <v>457500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>345200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>529600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>463300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>347400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1411900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>498300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6200</v>
+        <v>9200</v>
       </c>
       <c r="E22" s="3">
-        <v>8000</v>
+        <v>6300</v>
       </c>
       <c r="F22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K22" s="3">
         <v>10200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="L22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>10500</v>
+      </c>
+      <c r="N22" s="3">
+        <v>11100</v>
+      </c>
+      <c r="O22" s="3">
         <v>8600</v>
       </c>
-      <c r="H22" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>10200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>10100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>10500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>11100</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="Q22" s="3">
         <v>8600</v>
       </c>
-      <c r="O22" s="3">
-        <v>7800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>8600</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>374300</v>
+        <v>-129600</v>
       </c>
       <c r="E23" s="3">
-        <v>399500</v>
+        <v>382500</v>
       </c>
       <c r="F23" s="3">
-        <v>224600</v>
+        <v>408200</v>
       </c>
       <c r="G23" s="3">
-        <v>243300</v>
+        <v>229500</v>
       </c>
       <c r="H23" s="3">
-        <v>281700</v>
+        <v>248600</v>
       </c>
       <c r="I23" s="3">
-        <v>309600</v>
+        <v>287900</v>
       </c>
       <c r="J23" s="3">
+        <v>316500</v>
+      </c>
+      <c r="K23" s="3">
         <v>215800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>109200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>302600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>247000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>153100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1200000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>284800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>247900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>106400</v>
+        <v>31700</v>
       </c>
       <c r="E24" s="3">
-        <v>132400</v>
+        <v>108700</v>
       </c>
       <c r="F24" s="3">
-        <v>82200</v>
+        <v>135300</v>
       </c>
       <c r="G24" s="3">
-        <v>71600</v>
+        <v>84100</v>
       </c>
       <c r="H24" s="3">
-        <v>78000</v>
+        <v>73200</v>
       </c>
       <c r="I24" s="3">
-        <v>82700</v>
+        <v>79700</v>
       </c>
       <c r="J24" s="3">
+        <v>84500</v>
+      </c>
+      <c r="K24" s="3">
         <v>67600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>74000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>67300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>52100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>421800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>65000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>267900</v>
+        <v>-161200</v>
       </c>
       <c r="E26" s="3">
-        <v>267100</v>
+        <v>273800</v>
       </c>
       <c r="F26" s="3">
-        <v>142300</v>
+        <v>273000</v>
       </c>
       <c r="G26" s="3">
-        <v>171600</v>
+        <v>145400</v>
       </c>
       <c r="H26" s="3">
-        <v>203700</v>
+        <v>175400</v>
       </c>
       <c r="I26" s="3">
-        <v>226900</v>
+        <v>208200</v>
       </c>
       <c r="J26" s="3">
+        <v>231900</v>
+      </c>
+      <c r="K26" s="3">
         <v>148100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>228600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>179700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>101000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>778200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>219800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>181500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>267900</v>
+        <v>-154500</v>
       </c>
       <c r="E27" s="3">
-        <v>266800</v>
+        <v>273800</v>
       </c>
       <c r="F27" s="3">
-        <v>141700</v>
+        <v>272700</v>
       </c>
       <c r="G27" s="3">
-        <v>170200</v>
+        <v>144800</v>
       </c>
       <c r="H27" s="3">
-        <v>203700</v>
+        <v>173900</v>
       </c>
       <c r="I27" s="3">
-        <v>226200</v>
+        <v>208200</v>
       </c>
       <c r="J27" s="3">
+        <v>231100</v>
+      </c>
+      <c r="K27" s="3">
         <v>147200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>101200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>226800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>178400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>99000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>780600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>216600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1660,14 +1721,14 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-31800</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13300</v>
+        <v>14700</v>
       </c>
       <c r="E32" s="3">
-        <v>-8800</v>
+        <v>-13600</v>
       </c>
       <c r="F32" s="3">
-        <v>-7600</v>
+        <v>-8900</v>
       </c>
       <c r="G32" s="3">
-        <v>-134800</v>
+        <v>-7800</v>
       </c>
       <c r="H32" s="3">
-        <v>6800</v>
+        <v>-137700</v>
       </c>
       <c r="I32" s="3">
-        <v>14800</v>
+        <v>6900</v>
       </c>
       <c r="J32" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K32" s="3">
         <v>5200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-38400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>267900</v>
+        <v>-154500</v>
       </c>
       <c r="E33" s="3">
-        <v>266800</v>
+        <v>273800</v>
       </c>
       <c r="F33" s="3">
-        <v>141700</v>
+        <v>272700</v>
       </c>
       <c r="G33" s="3">
-        <v>170200</v>
+        <v>144800</v>
       </c>
       <c r="H33" s="3">
-        <v>203700</v>
+        <v>173900</v>
       </c>
       <c r="I33" s="3">
-        <v>226200</v>
+        <v>208200</v>
       </c>
       <c r="J33" s="3">
+        <v>231100</v>
+      </c>
+      <c r="K33" s="3">
         <v>147200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>101200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>195100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>178400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>99000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>780600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>216600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>267900</v>
+        <v>-154500</v>
       </c>
       <c r="E35" s="3">
-        <v>266800</v>
+        <v>273800</v>
       </c>
       <c r="F35" s="3">
-        <v>141700</v>
+        <v>272700</v>
       </c>
       <c r="G35" s="3">
-        <v>170200</v>
+        <v>144800</v>
       </c>
       <c r="H35" s="3">
-        <v>203700</v>
+        <v>173900</v>
       </c>
       <c r="I35" s="3">
-        <v>226200</v>
+        <v>208200</v>
       </c>
       <c r="J35" s="3">
+        <v>231100</v>
+      </c>
+      <c r="K35" s="3">
         <v>147200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>101200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>195100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>178400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>99000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>780600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>216600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2139,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3212900</v>
+        <v>3090900</v>
       </c>
       <c r="E41" s="3">
-        <v>2912200</v>
+        <v>3283600</v>
       </c>
       <c r="F41" s="3">
-        <v>2384200</v>
+        <v>2976300</v>
       </c>
       <c r="G41" s="3">
-        <v>2628600</v>
+        <v>2436700</v>
       </c>
       <c r="H41" s="3">
-        <v>2668000</v>
+        <v>2686400</v>
       </c>
       <c r="I41" s="3">
-        <v>2282600</v>
+        <v>2726700</v>
       </c>
       <c r="J41" s="3">
+        <v>2332800</v>
+      </c>
+      <c r="K41" s="3">
         <v>2285000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2527800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2525900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2446500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2758400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2930500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2607000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2525500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>217200</v>
+        <v>302400</v>
       </c>
       <c r="E42" s="3">
-        <v>89000</v>
+        <v>221900</v>
       </c>
       <c r="F42" s="3">
-        <v>314600</v>
+        <v>91000</v>
       </c>
       <c r="G42" s="3">
-        <v>368700</v>
+        <v>321500</v>
       </c>
       <c r="H42" s="3">
-        <v>282100</v>
+        <v>376800</v>
       </c>
       <c r="I42" s="3">
-        <v>269800</v>
+        <v>288300</v>
       </c>
       <c r="J42" s="3">
+        <v>275700</v>
+      </c>
+      <c r="K42" s="3">
         <v>279700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>394700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>342100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>714600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>731400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>497900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>157800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>175500</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3312500</v>
+        <v>2881200</v>
       </c>
       <c r="E43" s="3">
-        <v>3384300</v>
+        <v>3385400</v>
       </c>
       <c r="F43" s="3">
-        <v>3005400</v>
+        <v>3458700</v>
       </c>
       <c r="G43" s="3">
-        <v>2801100</v>
+        <v>3071500</v>
       </c>
       <c r="H43" s="3">
-        <v>3081400</v>
+        <v>2862800</v>
       </c>
       <c r="I43" s="3">
-        <v>3579500</v>
+        <v>3149200</v>
       </c>
       <c r="J43" s="3">
+        <v>3658300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3144100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2748300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3100600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3055200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2624700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2261000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2509700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2325300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2219400</v>
+        <v>2196600</v>
       </c>
       <c r="E44" s="3">
-        <v>2011400</v>
+        <v>2268200</v>
       </c>
       <c r="F44" s="3">
-        <v>2129000</v>
+        <v>2055700</v>
       </c>
       <c r="G44" s="3">
-        <v>2062400</v>
+        <v>2175900</v>
       </c>
       <c r="H44" s="3">
-        <v>2173700</v>
+        <v>2107800</v>
       </c>
       <c r="I44" s="3">
-        <v>2094900</v>
+        <v>2221500</v>
       </c>
       <c r="J44" s="3">
+        <v>2141000</v>
+      </c>
+      <c r="K44" s="3">
         <v>2071700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1876100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1910700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1803700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1689800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1370400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1319200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1353300</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>607300</v>
+        <v>507400</v>
       </c>
       <c r="E45" s="3">
-        <v>532100</v>
+        <v>620700</v>
       </c>
       <c r="F45" s="3">
-        <v>557500</v>
+        <v>543900</v>
       </c>
       <c r="G45" s="3">
-        <v>524500</v>
+        <v>569800</v>
       </c>
       <c r="H45" s="3">
-        <v>614200</v>
+        <v>536100</v>
       </c>
       <c r="I45" s="3">
-        <v>579800</v>
+        <v>627700</v>
       </c>
       <c r="J45" s="3">
+        <v>592600</v>
+      </c>
+      <c r="K45" s="3">
         <v>661500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>588500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>731100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>673600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>810400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>622800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2047000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9569300</v>
+        <v>8978600</v>
       </c>
       <c r="E46" s="3">
-        <v>8929000</v>
+        <v>9779800</v>
       </c>
       <c r="F46" s="3">
-        <v>8390800</v>
+        <v>9125500</v>
       </c>
       <c r="G46" s="3">
-        <v>8385400</v>
+        <v>8575400</v>
       </c>
       <c r="H46" s="3">
-        <v>8819400</v>
+        <v>8569900</v>
       </c>
       <c r="I46" s="3">
-        <v>8806600</v>
+        <v>9013400</v>
       </c>
       <c r="J46" s="3">
+        <v>9000400</v>
+      </c>
+      <c r="K46" s="3">
         <v>8442000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8135400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8610400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8693700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8614700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7682600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8640700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6876600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>305600</v>
+        <v>308700</v>
       </c>
       <c r="E47" s="3">
-        <v>297500</v>
+        <v>312400</v>
       </c>
       <c r="F47" s="3">
-        <v>1375700</v>
+        <v>304000</v>
       </c>
       <c r="G47" s="3">
-        <v>1411700</v>
+        <v>1405900</v>
       </c>
       <c r="H47" s="3">
-        <v>1443200</v>
+        <v>1442800</v>
       </c>
       <c r="I47" s="3">
-        <v>1482500</v>
+        <v>1474900</v>
       </c>
       <c r="J47" s="3">
+        <v>1515200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1447400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1403400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1460000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1353700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1385500</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>317100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6085300</v>
+        <v>6041900</v>
       </c>
       <c r="E48" s="3">
-        <v>5864000</v>
+        <v>6219200</v>
       </c>
       <c r="F48" s="3">
-        <v>5857700</v>
+        <v>5993000</v>
       </c>
       <c r="G48" s="3">
-        <v>5482300</v>
+        <v>5986600</v>
       </c>
       <c r="H48" s="3">
-        <v>5292500</v>
+        <v>5602900</v>
       </c>
       <c r="I48" s="3">
-        <v>5268600</v>
+        <v>5408900</v>
       </c>
       <c r="J48" s="3">
+        <v>5384500</v>
+      </c>
+      <c r="K48" s="3">
         <v>5208000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4932600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4870000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4685800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4547500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4121600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4223600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4500600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1475800</v>
+        <v>1495200</v>
       </c>
       <c r="E49" s="3">
-        <v>2215500</v>
+        <v>2278100</v>
       </c>
       <c r="F49" s="3">
-        <v>2245100</v>
+        <v>2264200</v>
       </c>
       <c r="G49" s="3">
-        <v>2304200</v>
+        <v>2294500</v>
       </c>
       <c r="H49" s="3">
-        <v>2309200</v>
+        <v>2354900</v>
       </c>
       <c r="I49" s="3">
-        <v>2327200</v>
+        <v>2360000</v>
       </c>
       <c r="J49" s="3">
+        <v>2378400</v>
+      </c>
+      <c r="K49" s="3">
         <v>2277900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2200200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2272200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2276900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2205800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1001000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1092000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>933100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1210900</v>
+        <v>1229600</v>
       </c>
       <c r="E52" s="3">
-        <v>444100</v>
+        <v>467700</v>
       </c>
       <c r="F52" s="3">
-        <v>468800</v>
+        <v>453900</v>
       </c>
       <c r="G52" s="3">
-        <v>528100</v>
+        <v>479100</v>
       </c>
       <c r="H52" s="3">
-        <v>518400</v>
+        <v>539700</v>
       </c>
       <c r="I52" s="3">
-        <v>552300</v>
+        <v>529800</v>
       </c>
       <c r="J52" s="3">
+        <v>564400</v>
+      </c>
+      <c r="K52" s="3">
         <v>528400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>551500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>539100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>565900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>539800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1957400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>599700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18646900</v>
+        <v>18054000</v>
       </c>
       <c r="E54" s="3">
-        <v>17750000</v>
+        <v>19057200</v>
       </c>
       <c r="F54" s="3">
-        <v>18338000</v>
+        <v>18140600</v>
       </c>
       <c r="G54" s="3">
-        <v>18111600</v>
+        <v>18741500</v>
       </c>
       <c r="H54" s="3">
-        <v>18382600</v>
+        <v>18510100</v>
       </c>
       <c r="I54" s="3">
-        <v>18437300</v>
+        <v>18787100</v>
       </c>
       <c r="J54" s="3">
+        <v>18842900</v>
+      </c>
+      <c r="K54" s="3">
         <v>17903800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17223100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17751700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17575900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17293200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14762600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14873100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13158900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2106400</v>
+        <v>1875000</v>
       </c>
       <c r="E57" s="3">
-        <v>1881800</v>
+        <v>2152800</v>
       </c>
       <c r="F57" s="3">
-        <v>1760600</v>
+        <v>1923200</v>
       </c>
       <c r="G57" s="3">
-        <v>1726100</v>
+        <v>1799300</v>
       </c>
       <c r="H57" s="3">
-        <v>1863300</v>
+        <v>1764100</v>
       </c>
       <c r="I57" s="3">
-        <v>1963500</v>
+        <v>1904300</v>
       </c>
       <c r="J57" s="3">
+        <v>2006800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2067400</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2138200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2066200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1807900</v>
       </c>
-      <c r="O57" s="3" t="s">
+      <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1648400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1383400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2882100</v>
+        <v>2644200</v>
       </c>
       <c r="E58" s="3">
-        <v>2489900</v>
+        <v>2945500</v>
       </c>
       <c r="F58" s="3">
-        <v>3324500</v>
+        <v>2544700</v>
       </c>
       <c r="G58" s="3">
-        <v>2841400</v>
+        <v>3397700</v>
       </c>
       <c r="H58" s="3">
-        <v>2867700</v>
+        <v>2903900</v>
       </c>
       <c r="I58" s="3">
-        <v>2595100</v>
+        <v>2930800</v>
       </c>
       <c r="J58" s="3">
+        <v>2652200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2038100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1709800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1551100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1679200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2316800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1066100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1614500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2222200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2097900</v>
+        <v>2159500</v>
       </c>
       <c r="E59" s="3">
-        <v>1939500</v>
+        <v>2144100</v>
       </c>
       <c r="F59" s="3">
-        <v>1891300</v>
+        <v>1982200</v>
       </c>
       <c r="G59" s="3">
-        <v>1925600</v>
+        <v>1932900</v>
       </c>
       <c r="H59" s="3">
-        <v>2171000</v>
+        <v>1968000</v>
       </c>
       <c r="I59" s="3">
-        <v>2119300</v>
+        <v>2218700</v>
       </c>
       <c r="J59" s="3">
+        <v>2165900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1835800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3741600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1669900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1728700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1794900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3170100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1663200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1357600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7086500</v>
+        <v>6678600</v>
       </c>
       <c r="E60" s="3">
-        <v>6311100</v>
+        <v>7242400</v>
       </c>
       <c r="F60" s="3">
-        <v>6976500</v>
+        <v>6450000</v>
       </c>
       <c r="G60" s="3">
-        <v>6493200</v>
+        <v>7130000</v>
       </c>
       <c r="H60" s="3">
-        <v>6901900</v>
+        <v>6636000</v>
       </c>
       <c r="I60" s="3">
-        <v>6678000</v>
+        <v>7053800</v>
       </c>
       <c r="J60" s="3">
+        <v>6824900</v>
+      </c>
+      <c r="K60" s="3">
         <v>5941300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5451500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5359300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5474200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5919500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4236300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4926200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4963300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1277000</v>
+        <v>1301200</v>
       </c>
       <c r="E61" s="3">
-        <v>1675000</v>
+        <v>1305100</v>
       </c>
       <c r="F61" s="3">
-        <v>1676800</v>
+        <v>1711800</v>
       </c>
       <c r="G61" s="3">
-        <v>1887800</v>
+        <v>1713700</v>
       </c>
       <c r="H61" s="3">
-        <v>1968900</v>
+        <v>1929400</v>
       </c>
       <c r="I61" s="3">
-        <v>2114300</v>
+        <v>2012200</v>
       </c>
       <c r="J61" s="3">
+        <v>2160800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2705700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2656700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2905000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2974300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2470000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1897600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2078800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1355200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1992400</v>
+        <v>2191000</v>
       </c>
       <c r="E62" s="3">
-        <v>1932300</v>
+        <v>2036200</v>
       </c>
       <c r="F62" s="3">
-        <v>1937700</v>
+        <v>1974800</v>
       </c>
       <c r="G62" s="3">
-        <v>1697300</v>
+        <v>1980300</v>
       </c>
       <c r="H62" s="3">
-        <v>1607400</v>
+        <v>1734600</v>
       </c>
       <c r="I62" s="3">
-        <v>1637100</v>
+        <v>1642800</v>
       </c>
       <c r="J62" s="3">
+        <v>1673200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1604900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1600600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1619600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1597900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1582700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1514000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1409500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1440600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10404900</v>
+        <v>10213600</v>
       </c>
       <c r="E66" s="3">
-        <v>9966500</v>
+        <v>10633800</v>
       </c>
       <c r="F66" s="3">
-        <v>10646900</v>
+        <v>10185800</v>
       </c>
       <c r="G66" s="3">
-        <v>10137100</v>
+        <v>10881200</v>
       </c>
       <c r="H66" s="3">
-        <v>10534800</v>
+        <v>10360100</v>
       </c>
       <c r="I66" s="3">
-        <v>10486900</v>
+        <v>10766600</v>
       </c>
       <c r="J66" s="3">
+        <v>10717600</v>
+      </c>
+      <c r="K66" s="3">
         <v>10314600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9768400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9946100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10106300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10050400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7723300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8487700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7822400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9390200</v>
+        <v>9442300</v>
       </c>
       <c r="E72" s="3">
-        <v>9225600</v>
+        <v>9596800</v>
       </c>
       <c r="F72" s="3">
-        <v>8958800</v>
+        <v>9428600</v>
       </c>
       <c r="G72" s="3">
-        <v>8909000</v>
+        <v>9155900</v>
       </c>
       <c r="H72" s="3">
-        <v>8738800</v>
+        <v>9105000</v>
       </c>
       <c r="I72" s="3">
-        <v>8626900</v>
+        <v>8931100</v>
       </c>
       <c r="J72" s="3">
+        <v>8816700</v>
+      </c>
+      <c r="K72" s="3">
         <v>8400800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8316200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8215000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8088300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7909900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7731200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6951300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6801800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8242000</v>
+        <v>7840400</v>
       </c>
       <c r="E76" s="3">
-        <v>7783500</v>
+        <v>8423400</v>
       </c>
       <c r="F76" s="3">
-        <v>7691100</v>
+        <v>7954800</v>
       </c>
       <c r="G76" s="3">
-        <v>7974600</v>
+        <v>7860300</v>
       </c>
       <c r="H76" s="3">
-        <v>7847900</v>
+        <v>8150000</v>
       </c>
       <c r="I76" s="3">
-        <v>7950400</v>
+        <v>8020500</v>
       </c>
       <c r="J76" s="3">
+        <v>8125300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7589200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7454700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7805600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7469600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7242800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7039400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6385400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5336600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>267900</v>
+        <v>-154500</v>
       </c>
       <c r="E81" s="3">
-        <v>266800</v>
+        <v>273800</v>
       </c>
       <c r="F81" s="3">
-        <v>141700</v>
+        <v>272700</v>
       </c>
       <c r="G81" s="3">
-        <v>170200</v>
+        <v>144800</v>
       </c>
       <c r="H81" s="3">
-        <v>203700</v>
+        <v>173900</v>
       </c>
       <c r="I81" s="3">
-        <v>226200</v>
+        <v>208200</v>
       </c>
       <c r="J81" s="3">
+        <v>231100</v>
+      </c>
+      <c r="K81" s="3">
         <v>147200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>101200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>195100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>178400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>99000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>780600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>216600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>288000</v>
+        <v>312300</v>
       </c>
       <c r="E83" s="3">
-        <v>273700</v>
+        <v>294300</v>
       </c>
       <c r="F83" s="3">
-        <v>268800</v>
+        <v>279700</v>
       </c>
       <c r="G83" s="3">
-        <v>244200</v>
+        <v>274700</v>
       </c>
       <c r="H83" s="3">
-        <v>249100</v>
+        <v>249500</v>
       </c>
       <c r="I83" s="3">
-        <v>244500</v>
+        <v>254500</v>
       </c>
       <c r="J83" s="3">
+        <v>249900</v>
+      </c>
+      <c r="K83" s="3">
         <v>231500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>225800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>216500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>205200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>185800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>204100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>205000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>814900</v>
+        <v>677000</v>
       </c>
       <c r="E89" s="3">
-        <v>473300</v>
+        <v>832800</v>
       </c>
       <c r="F89" s="3">
-        <v>70900</v>
+        <v>483700</v>
       </c>
       <c r="G89" s="3">
-        <v>453600</v>
+        <v>72500</v>
       </c>
       <c r="H89" s="3">
-        <v>751700</v>
+        <v>463600</v>
       </c>
       <c r="I89" s="3">
-        <v>399600</v>
+        <v>768200</v>
       </c>
       <c r="J89" s="3">
+        <v>408400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-329800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>545400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>378100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>79500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-177600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>545700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>390400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>406900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-354800</v>
+        <v>-404600</v>
       </c>
       <c r="E91" s="3">
-        <v>-363200</v>
+        <v>-362600</v>
       </c>
       <c r="F91" s="3">
-        <v>-462600</v>
+        <v>-371200</v>
       </c>
       <c r="G91" s="3">
-        <v>-512200</v>
+        <v>-472800</v>
       </c>
       <c r="H91" s="3">
-        <v>-365600</v>
+        <v>-523500</v>
       </c>
       <c r="I91" s="3">
-        <v>-315800</v>
+        <v>-373600</v>
       </c>
       <c r="J91" s="3">
+        <v>-322700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-384400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-412700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-436500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-377400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-388000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-293800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-413900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-304700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-483300</v>
+        <v>-496000</v>
       </c>
       <c r="E94" s="3">
-        <v>999900</v>
+        <v>-493900</v>
       </c>
       <c r="F94" s="3">
-        <v>-412800</v>
+        <v>1021900</v>
       </c>
       <c r="G94" s="3">
-        <v>-403300</v>
+        <v>-421800</v>
       </c>
       <c r="H94" s="3">
-        <v>-370500</v>
+        <v>-412200</v>
       </c>
       <c r="I94" s="3">
-        <v>-286800</v>
+        <v>-378700</v>
       </c>
       <c r="J94" s="3">
+        <v>-293100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-213600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-383600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-44100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-203600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1593400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>591900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-446200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-348600</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-95900</v>
+        <v>-200</v>
       </c>
       <c r="E96" s="3">
-        <v>-8500</v>
+        <v>-98000</v>
       </c>
       <c r="F96" s="3">
-        <v>-90600</v>
+        <v>-8700</v>
       </c>
       <c r="G96" s="3">
+        <v>-92500</v>
+      </c>
+      <c r="H96" s="3">
         <v>-200</v>
       </c>
-      <c r="H96" s="3">
-        <v>-91700</v>
-      </c>
       <c r="I96" s="3">
+        <v>-93700</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-79200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-68300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-67100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-67000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-112100</v>
+        <v>-301000</v>
       </c>
       <c r="E100" s="3">
-        <v>-905900</v>
+        <v>-114600</v>
       </c>
       <c r="F100" s="3">
-        <v>205700</v>
+        <v>-925800</v>
       </c>
       <c r="G100" s="3">
-        <v>-106900</v>
+        <v>210200</v>
       </c>
       <c r="H100" s="3">
-        <v>58800</v>
+        <v>-109300</v>
       </c>
       <c r="I100" s="3">
-        <v>-102600</v>
+        <v>60100</v>
       </c>
       <c r="J100" s="3">
+        <v>-104900</v>
+      </c>
+      <c r="K100" s="3">
         <v>236500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-26100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-274500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-226100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1521900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-716900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-170900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>221900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>81200</v>
+        <v>-72600</v>
       </c>
       <c r="E101" s="3">
-        <v>-39400</v>
+        <v>83000</v>
       </c>
       <c r="F101" s="3">
-        <v>-108200</v>
+        <v>-40200</v>
       </c>
       <c r="G101" s="3">
-        <v>17200</v>
+        <v>-110600</v>
       </c>
       <c r="H101" s="3">
-        <v>-54400</v>
+        <v>17600</v>
       </c>
       <c r="I101" s="3">
-        <v>-12600</v>
+        <v>-55600</v>
       </c>
       <c r="J101" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K101" s="3">
         <v>50100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-133700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>19900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>38300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>20800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-97200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>308200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>300700</v>
+        <v>-192600</v>
       </c>
       <c r="E102" s="3">
-        <v>528000</v>
+        <v>307300</v>
       </c>
       <c r="F102" s="3">
-        <v>-244400</v>
+        <v>539600</v>
       </c>
       <c r="G102" s="3">
-        <v>-39400</v>
+        <v>-249800</v>
       </c>
       <c r="H102" s="3">
-        <v>385500</v>
+        <v>-40300</v>
       </c>
       <c r="I102" s="3">
+        <v>394000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-256800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>79400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-311900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-228300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>323600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>81500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>233900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2790500</v>
+        <v>2920700</v>
       </c>
       <c r="E8" s="3">
-        <v>3303800</v>
+        <v>2835500</v>
       </c>
       <c r="F8" s="3">
-        <v>3439300</v>
+        <v>3357200</v>
       </c>
       <c r="G8" s="3">
-        <v>3129000</v>
+        <v>3494800</v>
       </c>
       <c r="H8" s="3">
-        <v>2871200</v>
+        <v>3179500</v>
       </c>
       <c r="I8" s="3">
-        <v>3259000</v>
+        <v>2917600</v>
       </c>
       <c r="J8" s="3">
+        <v>3311600</v>
+      </c>
+      <c r="K8" s="3">
         <v>3519700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3118500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2775700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3083800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3019800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2617300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2433100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2880700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2664700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2070500</v>
+        <v>2075100</v>
       </c>
       <c r="E9" s="3">
-        <v>2247700</v>
+        <v>2104000</v>
       </c>
       <c r="F9" s="3">
-        <v>2360300</v>
+        <v>2284000</v>
       </c>
       <c r="G9" s="3">
-        <v>2237200</v>
+        <v>2398400</v>
       </c>
       <c r="H9" s="3">
-        <v>2129000</v>
+        <v>2273300</v>
       </c>
       <c r="I9" s="3">
-        <v>2267000</v>
+        <v>2163400</v>
       </c>
       <c r="J9" s="3">
+        <v>2303600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2451100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2256800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2084000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2201600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2193800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1923900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1831500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2033200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1915700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>719900</v>
+        <v>845500</v>
       </c>
       <c r="E10" s="3">
-        <v>1056200</v>
+        <v>731600</v>
       </c>
       <c r="F10" s="3">
-        <v>1079000</v>
+        <v>1073200</v>
       </c>
       <c r="G10" s="3">
-        <v>891800</v>
+        <v>1096400</v>
       </c>
       <c r="H10" s="3">
-        <v>742200</v>
+        <v>906200</v>
       </c>
       <c r="I10" s="3">
-        <v>991900</v>
+        <v>754100</v>
       </c>
       <c r="J10" s="3">
+        <v>1008000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1068600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>861700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>691800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>882100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>825900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>693400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>601500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>847600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>749000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,22 +1025,25 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>173200</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>2300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1037,8 +1057,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2896100</v>
+        <v>2746600</v>
       </c>
       <c r="E17" s="3">
-        <v>2928600</v>
+        <v>2942900</v>
       </c>
       <c r="F17" s="3">
-        <v>3031800</v>
+        <v>2975800</v>
       </c>
       <c r="G17" s="3">
-        <v>2896900</v>
+        <v>3080800</v>
       </c>
       <c r="H17" s="3">
-        <v>2751500</v>
+        <v>2943700</v>
       </c>
       <c r="I17" s="3">
-        <v>2954600</v>
+        <v>2795900</v>
       </c>
       <c r="J17" s="3">
+        <v>3002300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3178200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2887400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2677000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2790500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2770200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2467200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1263700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2592300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2418000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-105600</v>
+        <v>174100</v>
       </c>
       <c r="E18" s="3">
-        <v>375300</v>
+        <v>-107300</v>
       </c>
       <c r="F18" s="3">
-        <v>407500</v>
+        <v>381300</v>
       </c>
       <c r="G18" s="3">
-        <v>232100</v>
+        <v>414100</v>
       </c>
       <c r="H18" s="3">
-        <v>119700</v>
+        <v>235800</v>
       </c>
       <c r="I18" s="3">
-        <v>304300</v>
+        <v>121600</v>
       </c>
       <c r="J18" s="3">
+        <v>309200</v>
+      </c>
+      <c r="K18" s="3">
         <v>341500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>231100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>98700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>293300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>249600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>150100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1169400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>288400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>246700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-14700</v>
+        <v>29200</v>
       </c>
       <c r="E20" s="3">
-        <v>13600</v>
+        <v>-15000</v>
       </c>
       <c r="F20" s="3">
-        <v>8900</v>
+        <v>13800</v>
       </c>
       <c r="G20" s="3">
-        <v>7800</v>
+        <v>9100</v>
       </c>
       <c r="H20" s="3">
-        <v>137700</v>
+        <v>7900</v>
       </c>
       <c r="I20" s="3">
-        <v>-6900</v>
+        <v>140000</v>
       </c>
       <c r="J20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-15100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>38400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>191900</v>
+        <v>502900</v>
       </c>
       <c r="E21" s="3">
-        <v>683200</v>
+        <v>195000</v>
       </c>
       <c r="F21" s="3">
-        <v>696200</v>
+        <v>694200</v>
       </c>
       <c r="G21" s="3">
-        <v>514600</v>
+        <v>707400</v>
       </c>
       <c r="H21" s="3">
-        <v>507000</v>
+        <v>522900</v>
       </c>
       <c r="I21" s="3">
-        <v>551900</v>
+        <v>515200</v>
       </c>
       <c r="J21" s="3">
+        <v>560900</v>
+      </c>
+      <c r="K21" s="3">
         <v>576200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>457500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>345200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>529600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>463300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>347400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1411900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>498300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9200</v>
+        <v>7700</v>
       </c>
       <c r="E22" s="3">
-        <v>6300</v>
+        <v>9400</v>
       </c>
       <c r="F22" s="3">
-        <v>8200</v>
+        <v>6400</v>
       </c>
       <c r="G22" s="3">
-        <v>10400</v>
+        <v>8300</v>
       </c>
       <c r="H22" s="3">
-        <v>8800</v>
+        <v>10500</v>
       </c>
       <c r="I22" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="J22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K22" s="3">
         <v>9900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-129600</v>
+        <v>195500</v>
       </c>
       <c r="E23" s="3">
-        <v>382500</v>
+        <v>-131700</v>
       </c>
       <c r="F23" s="3">
-        <v>408200</v>
+        <v>388700</v>
       </c>
       <c r="G23" s="3">
-        <v>229500</v>
+        <v>414800</v>
       </c>
       <c r="H23" s="3">
-        <v>248600</v>
+        <v>233200</v>
       </c>
       <c r="I23" s="3">
-        <v>287900</v>
+        <v>252600</v>
       </c>
       <c r="J23" s="3">
+        <v>292600</v>
+      </c>
+      <c r="K23" s="3">
         <v>316500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>215800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>109200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>302600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>247000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>153100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1200000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>284800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>247900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>31700</v>
+        <v>70400</v>
       </c>
       <c r="E24" s="3">
-        <v>108700</v>
+        <v>32200</v>
       </c>
       <c r="F24" s="3">
-        <v>135300</v>
+        <v>110400</v>
       </c>
       <c r="G24" s="3">
-        <v>84100</v>
+        <v>137500</v>
       </c>
       <c r="H24" s="3">
-        <v>73200</v>
+        <v>85400</v>
       </c>
       <c r="I24" s="3">
-        <v>79700</v>
+        <v>74400</v>
       </c>
       <c r="J24" s="3">
+        <v>81000</v>
+      </c>
+      <c r="K24" s="3">
         <v>84500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>67600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>74000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>67300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>52100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>421800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>65000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-161200</v>
+        <v>125100</v>
       </c>
       <c r="E26" s="3">
-        <v>273800</v>
+        <v>-163900</v>
       </c>
       <c r="F26" s="3">
-        <v>273000</v>
+        <v>278300</v>
       </c>
       <c r="G26" s="3">
-        <v>145400</v>
+        <v>277400</v>
       </c>
       <c r="H26" s="3">
-        <v>175400</v>
+        <v>147800</v>
       </c>
       <c r="I26" s="3">
-        <v>208200</v>
+        <v>178200</v>
       </c>
       <c r="J26" s="3">
+        <v>211500</v>
+      </c>
+      <c r="K26" s="3">
         <v>231900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>148100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>228600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>179700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>101000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>778200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>219800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>181500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-154500</v>
+        <v>124500</v>
       </c>
       <c r="E27" s="3">
-        <v>273800</v>
+        <v>-157000</v>
       </c>
       <c r="F27" s="3">
-        <v>272700</v>
+        <v>278200</v>
       </c>
       <c r="G27" s="3">
-        <v>144800</v>
+        <v>277100</v>
       </c>
       <c r="H27" s="3">
-        <v>173900</v>
+        <v>147200</v>
       </c>
       <c r="I27" s="3">
-        <v>208200</v>
+        <v>176700</v>
       </c>
       <c r="J27" s="3">
+        <v>211500</v>
+      </c>
+      <c r="K27" s="3">
         <v>231100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>147200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>101200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>226800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>178400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>99000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>780600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>216600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1724,14 +1785,14 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-31800</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>14700</v>
+        <v>-29200</v>
       </c>
       <c r="E32" s="3">
-        <v>-13600</v>
+        <v>15000</v>
       </c>
       <c r="F32" s="3">
-        <v>-8900</v>
+        <v>-13800</v>
       </c>
       <c r="G32" s="3">
-        <v>-7800</v>
+        <v>-9100</v>
       </c>
       <c r="H32" s="3">
-        <v>-137700</v>
+        <v>-7900</v>
       </c>
       <c r="I32" s="3">
-        <v>6900</v>
+        <v>-140000</v>
       </c>
       <c r="J32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K32" s="3">
         <v>15100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-38400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-154500</v>
+        <v>124500</v>
       </c>
       <c r="E33" s="3">
-        <v>273800</v>
+        <v>-157000</v>
       </c>
       <c r="F33" s="3">
-        <v>272700</v>
+        <v>278200</v>
       </c>
       <c r="G33" s="3">
-        <v>144800</v>
+        <v>277100</v>
       </c>
       <c r="H33" s="3">
-        <v>173900</v>
+        <v>147200</v>
       </c>
       <c r="I33" s="3">
-        <v>208200</v>
+        <v>176700</v>
       </c>
       <c r="J33" s="3">
+        <v>211500</v>
+      </c>
+      <c r="K33" s="3">
         <v>231100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>147200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>101200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>195100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>178400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>99000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>780600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>216600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-154500</v>
+        <v>124500</v>
       </c>
       <c r="E35" s="3">
-        <v>273800</v>
+        <v>-157000</v>
       </c>
       <c r="F35" s="3">
-        <v>272700</v>
+        <v>278200</v>
       </c>
       <c r="G35" s="3">
-        <v>144800</v>
+        <v>277100</v>
       </c>
       <c r="H35" s="3">
-        <v>173900</v>
+        <v>147200</v>
       </c>
       <c r="I35" s="3">
-        <v>208200</v>
+        <v>176700</v>
       </c>
       <c r="J35" s="3">
+        <v>211500</v>
+      </c>
+      <c r="K35" s="3">
         <v>231100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>147200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>101200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>195100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>178400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>99000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>780600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>216600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3090900</v>
+        <v>3069400</v>
       </c>
       <c r="E41" s="3">
-        <v>3283600</v>
+        <v>3140800</v>
       </c>
       <c r="F41" s="3">
-        <v>2976300</v>
+        <v>3336600</v>
       </c>
       <c r="G41" s="3">
-        <v>2436700</v>
+        <v>3024300</v>
       </c>
       <c r="H41" s="3">
-        <v>2686400</v>
+        <v>2476000</v>
       </c>
       <c r="I41" s="3">
-        <v>2726700</v>
+        <v>2729800</v>
       </c>
       <c r="J41" s="3">
+        <v>2770800</v>
+      </c>
+      <c r="K41" s="3">
         <v>2332800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2285000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2527800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2525900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2446500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2758400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2930500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2607000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2525500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>302400</v>
+        <v>329800</v>
       </c>
       <c r="E42" s="3">
-        <v>221900</v>
+        <v>307300</v>
       </c>
       <c r="F42" s="3">
-        <v>91000</v>
+        <v>225500</v>
       </c>
       <c r="G42" s="3">
-        <v>321500</v>
+        <v>92400</v>
       </c>
       <c r="H42" s="3">
-        <v>376800</v>
+        <v>326700</v>
       </c>
       <c r="I42" s="3">
-        <v>288300</v>
+        <v>382900</v>
       </c>
       <c r="J42" s="3">
+        <v>292900</v>
+      </c>
+      <c r="K42" s="3">
         <v>275700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>279700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>394700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>342100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>714600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>731400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>497900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>157800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>175500</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2881200</v>
+        <v>3003000</v>
       </c>
       <c r="E43" s="3">
-        <v>3385400</v>
+        <v>2927700</v>
       </c>
       <c r="F43" s="3">
-        <v>3458700</v>
+        <v>3440100</v>
       </c>
       <c r="G43" s="3">
-        <v>3071500</v>
+        <v>3514600</v>
       </c>
       <c r="H43" s="3">
-        <v>2862800</v>
+        <v>3121100</v>
       </c>
       <c r="I43" s="3">
-        <v>3149200</v>
+        <v>2909000</v>
       </c>
       <c r="J43" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="K43" s="3">
         <v>3658300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3144100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2748300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3100600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3055200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2624700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2261000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2509700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2325300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2196600</v>
+        <v>2432500</v>
       </c>
       <c r="E44" s="3">
-        <v>2268200</v>
+        <v>2232100</v>
       </c>
       <c r="F44" s="3">
-        <v>2055700</v>
+        <v>2304900</v>
       </c>
       <c r="G44" s="3">
-        <v>2175900</v>
+        <v>2088900</v>
       </c>
       <c r="H44" s="3">
-        <v>2107800</v>
+        <v>2211000</v>
       </c>
       <c r="I44" s="3">
-        <v>2221500</v>
+        <v>2141900</v>
       </c>
       <c r="J44" s="3">
+        <v>2257400</v>
+      </c>
+      <c r="K44" s="3">
         <v>2141000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2071700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1876100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1910700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1803700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1689800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1370400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1319200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1353300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>507400</v>
+        <v>528500</v>
       </c>
       <c r="E45" s="3">
-        <v>620700</v>
+        <v>515600</v>
       </c>
       <c r="F45" s="3">
-        <v>543900</v>
+        <v>630700</v>
       </c>
       <c r="G45" s="3">
-        <v>569800</v>
+        <v>552600</v>
       </c>
       <c r="H45" s="3">
-        <v>536100</v>
+        <v>579000</v>
       </c>
       <c r="I45" s="3">
-        <v>627700</v>
+        <v>544700</v>
       </c>
       <c r="J45" s="3">
+        <v>637800</v>
+      </c>
+      <c r="K45" s="3">
         <v>592600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>661500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>588500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>731100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>673600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>810400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>622800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2047000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8978600</v>
+        <v>9363100</v>
       </c>
       <c r="E46" s="3">
-        <v>9779800</v>
+        <v>9123600</v>
       </c>
       <c r="F46" s="3">
-        <v>9125500</v>
+        <v>9937700</v>
       </c>
       <c r="G46" s="3">
-        <v>8575400</v>
+        <v>9272800</v>
       </c>
       <c r="H46" s="3">
-        <v>8569900</v>
+        <v>8713900</v>
       </c>
       <c r="I46" s="3">
-        <v>9013400</v>
+        <v>8708300</v>
       </c>
       <c r="J46" s="3">
+        <v>9158900</v>
+      </c>
+      <c r="K46" s="3">
         <v>9000400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8442000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8135400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8610400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8693700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8614700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7682600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8640700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6876600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>308700</v>
+        <v>310600</v>
       </c>
       <c r="E47" s="3">
-        <v>312400</v>
+        <v>313700</v>
       </c>
       <c r="F47" s="3">
-        <v>304000</v>
+        <v>317400</v>
       </c>
       <c r="G47" s="3">
-        <v>1405900</v>
+        <v>308900</v>
       </c>
       <c r="H47" s="3">
-        <v>1442800</v>
+        <v>1428600</v>
       </c>
       <c r="I47" s="3">
-        <v>1474900</v>
+        <v>1466100</v>
       </c>
       <c r="J47" s="3">
+        <v>1498700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1515200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1447400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1403400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1460000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1353700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1385500</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>317100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6041900</v>
+        <v>6315800</v>
       </c>
       <c r="E48" s="3">
-        <v>6219200</v>
+        <v>6139400</v>
       </c>
       <c r="F48" s="3">
-        <v>5993000</v>
+        <v>6319600</v>
       </c>
       <c r="G48" s="3">
-        <v>5986600</v>
+        <v>6089800</v>
       </c>
       <c r="H48" s="3">
-        <v>5602900</v>
+        <v>6083300</v>
       </c>
       <c r="I48" s="3">
-        <v>5408900</v>
+        <v>5693400</v>
       </c>
       <c r="J48" s="3">
+        <v>5496300</v>
+      </c>
+      <c r="K48" s="3">
         <v>5384500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5208000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4932600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4870000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4685800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4547500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4121600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4223600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4500600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1495200</v>
+        <v>2235500</v>
       </c>
       <c r="E49" s="3">
-        <v>2278100</v>
+        <v>2272100</v>
       </c>
       <c r="F49" s="3">
-        <v>2264200</v>
+        <v>2314900</v>
       </c>
       <c r="G49" s="3">
-        <v>2294500</v>
+        <v>2300800</v>
       </c>
       <c r="H49" s="3">
-        <v>2354900</v>
+        <v>2331500</v>
       </c>
       <c r="I49" s="3">
-        <v>2360000</v>
+        <v>2392900</v>
       </c>
       <c r="J49" s="3">
+        <v>2398100</v>
+      </c>
+      <c r="K49" s="3">
         <v>2378400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2277900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2200200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2272200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2276900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2205800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1001000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1092000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>933100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1229600</v>
+        <v>511200</v>
       </c>
       <c r="E52" s="3">
-        <v>467700</v>
+        <v>496600</v>
       </c>
       <c r="F52" s="3">
-        <v>453900</v>
+        <v>475300</v>
       </c>
       <c r="G52" s="3">
-        <v>479100</v>
+        <v>461200</v>
       </c>
       <c r="H52" s="3">
-        <v>539700</v>
+        <v>486800</v>
       </c>
       <c r="I52" s="3">
-        <v>529800</v>
+        <v>548400</v>
       </c>
       <c r="J52" s="3">
+        <v>538400</v>
+      </c>
+      <c r="K52" s="3">
         <v>564400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>528400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>551500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>539100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>565900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>539800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1957400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>599700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18054000</v>
+        <v>18736200</v>
       </c>
       <c r="E54" s="3">
-        <v>19057200</v>
+        <v>18345500</v>
       </c>
       <c r="F54" s="3">
-        <v>18140600</v>
+        <v>19364900</v>
       </c>
       <c r="G54" s="3">
-        <v>18741500</v>
+        <v>18433500</v>
       </c>
       <c r="H54" s="3">
-        <v>18510100</v>
+        <v>19044100</v>
       </c>
       <c r="I54" s="3">
-        <v>18787100</v>
+        <v>18809000</v>
       </c>
       <c r="J54" s="3">
+        <v>19090400</v>
+      </c>
+      <c r="K54" s="3">
         <v>18842900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17903800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17223100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17751700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17575900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17293200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14762600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14873100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13158900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1875000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2152800</v>
+        <v>1985800</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F57" s="3">
-        <v>1923200</v>
+        <v>2187600</v>
       </c>
       <c r="G57" s="3">
-        <v>1799300</v>
+        <v>1954200</v>
       </c>
       <c r="H57" s="3">
-        <v>1764100</v>
+        <v>1828400</v>
       </c>
       <c r="I57" s="3">
-        <v>1904300</v>
+        <v>1792600</v>
       </c>
       <c r="J57" s="3">
+        <v>1935100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2006800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2067400</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2138200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2066200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1807900</v>
       </c>
-      <c r="P57" s="3" t="s">
+      <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1648400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1383400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2644200</v>
+        <v>2557700</v>
       </c>
       <c r="E58" s="3">
-        <v>2945500</v>
+        <v>2692200</v>
       </c>
       <c r="F58" s="3">
-        <v>2544700</v>
+        <v>2993100</v>
       </c>
       <c r="G58" s="3">
-        <v>3397700</v>
+        <v>2585800</v>
       </c>
       <c r="H58" s="3">
-        <v>2903900</v>
+        <v>3452600</v>
       </c>
       <c r="I58" s="3">
-        <v>2930800</v>
+        <v>2950800</v>
       </c>
       <c r="J58" s="3">
+        <v>2978100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2652200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2038100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1709800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1551100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1679200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2316800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1066100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1614500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2222200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2159500</v>
+        <v>2175000</v>
       </c>
       <c r="E59" s="3">
-        <v>2144100</v>
+        <v>4094300</v>
       </c>
       <c r="F59" s="3">
-        <v>1982200</v>
+        <v>2178700</v>
       </c>
       <c r="G59" s="3">
-        <v>1932900</v>
+        <v>2014200</v>
       </c>
       <c r="H59" s="3">
-        <v>1968000</v>
+        <v>1964100</v>
       </c>
       <c r="I59" s="3">
-        <v>2218700</v>
+        <v>1999800</v>
       </c>
       <c r="J59" s="3">
+        <v>2254600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2165900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1835800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3741600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1669900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1728700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1794900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3170100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1663200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1357600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6678600</v>
+        <v>6718600</v>
       </c>
       <c r="E60" s="3">
-        <v>7242400</v>
+        <v>6786500</v>
       </c>
       <c r="F60" s="3">
-        <v>6450000</v>
+        <v>7359300</v>
       </c>
       <c r="G60" s="3">
-        <v>7130000</v>
+        <v>6554100</v>
       </c>
       <c r="H60" s="3">
-        <v>6636000</v>
+        <v>7245100</v>
       </c>
       <c r="I60" s="3">
-        <v>7053800</v>
+        <v>6743200</v>
       </c>
       <c r="J60" s="3">
+        <v>7167700</v>
+      </c>
+      <c r="K60" s="3">
         <v>6824900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5941300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5451500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5359300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5474200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5919500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4236300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4926200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4963300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1301200</v>
+        <v>1793800</v>
       </c>
       <c r="E61" s="3">
-        <v>1305100</v>
+        <v>1372400</v>
       </c>
       <c r="F61" s="3">
-        <v>1711800</v>
+        <v>1326200</v>
       </c>
       <c r="G61" s="3">
-        <v>1713700</v>
+        <v>1739500</v>
       </c>
       <c r="H61" s="3">
-        <v>1929400</v>
+        <v>1741400</v>
       </c>
       <c r="I61" s="3">
-        <v>2012200</v>
+        <v>1960500</v>
       </c>
       <c r="J61" s="3">
+        <v>2044700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2160800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2705700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2656700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2905000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2974300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2470000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1897600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2078800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1355200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2191000</v>
+        <v>2230600</v>
       </c>
       <c r="E62" s="3">
-        <v>2036200</v>
+        <v>2176200</v>
       </c>
       <c r="F62" s="3">
-        <v>1974800</v>
+        <v>2069100</v>
       </c>
       <c r="G62" s="3">
-        <v>1980300</v>
+        <v>2006700</v>
       </c>
       <c r="H62" s="3">
-        <v>1734600</v>
+        <v>2012300</v>
       </c>
       <c r="I62" s="3">
-        <v>1642800</v>
+        <v>1762700</v>
       </c>
       <c r="J62" s="3">
+        <v>1669300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1673200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1604900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1600600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1619600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1597900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1582700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1514000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1409500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1440600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10213600</v>
+        <v>10785700</v>
       </c>
       <c r="E66" s="3">
-        <v>10633800</v>
+        <v>10378500</v>
       </c>
       <c r="F66" s="3">
-        <v>10185800</v>
+        <v>10805500</v>
       </c>
       <c r="G66" s="3">
-        <v>10881200</v>
+        <v>10350300</v>
       </c>
       <c r="H66" s="3">
-        <v>10360100</v>
+        <v>11056900</v>
       </c>
       <c r="I66" s="3">
-        <v>10766600</v>
+        <v>10527400</v>
       </c>
       <c r="J66" s="3">
+        <v>10940400</v>
+      </c>
+      <c r="K66" s="3">
         <v>10717600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10314600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9768400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9946100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10106300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10050400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7723300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8487700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7822400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9442300</v>
+        <v>9612100</v>
       </c>
       <c r="E72" s="3">
-        <v>9596800</v>
+        <v>9594800</v>
       </c>
       <c r="F72" s="3">
-        <v>9428600</v>
+        <v>9751800</v>
       </c>
       <c r="G72" s="3">
-        <v>9155900</v>
+        <v>9580800</v>
       </c>
       <c r="H72" s="3">
-        <v>9105000</v>
+        <v>9303800</v>
       </c>
       <c r="I72" s="3">
-        <v>8931100</v>
+        <v>9252000</v>
       </c>
       <c r="J72" s="3">
+        <v>9075300</v>
+      </c>
+      <c r="K72" s="3">
         <v>8816700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8400800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8316200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8215000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8088300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7909900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7731200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6951300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6801800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7840400</v>
+        <v>7950500</v>
       </c>
       <c r="E76" s="3">
-        <v>8423400</v>
+        <v>7967000</v>
       </c>
       <c r="F76" s="3">
-        <v>7954800</v>
+        <v>8559400</v>
       </c>
       <c r="G76" s="3">
-        <v>7860300</v>
+        <v>8083200</v>
       </c>
       <c r="H76" s="3">
+        <v>7987200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>8281600</v>
+      </c>
+      <c r="J76" s="3">
         <v>8150000</v>
       </c>
-      <c r="I76" s="3">
-        <v>8020500</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8125300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7589200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7454700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7805600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7469600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7242800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7039400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6385400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5336600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-154500</v>
+        <v>124500</v>
       </c>
       <c r="E81" s="3">
-        <v>273800</v>
+        <v>-157000</v>
       </c>
       <c r="F81" s="3">
-        <v>272700</v>
+        <v>278200</v>
       </c>
       <c r="G81" s="3">
-        <v>144800</v>
+        <v>277100</v>
       </c>
       <c r="H81" s="3">
-        <v>173900</v>
+        <v>147200</v>
       </c>
       <c r="I81" s="3">
-        <v>208200</v>
+        <v>176700</v>
       </c>
       <c r="J81" s="3">
+        <v>211500</v>
+      </c>
+      <c r="K81" s="3">
         <v>231100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>147200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>101200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>195100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>178400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>99000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>780600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>216600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>312300</v>
+        <v>299600</v>
       </c>
       <c r="E83" s="3">
-        <v>294300</v>
+        <v>317300</v>
       </c>
       <c r="F83" s="3">
-        <v>279700</v>
+        <v>299100</v>
       </c>
       <c r="G83" s="3">
-        <v>274700</v>
+        <v>284300</v>
       </c>
       <c r="H83" s="3">
-        <v>249500</v>
+        <v>279200</v>
       </c>
       <c r="I83" s="3">
-        <v>254500</v>
+        <v>253600</v>
       </c>
       <c r="J83" s="3">
+        <v>258600</v>
+      </c>
+      <c r="K83" s="3">
         <v>249900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>231500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>225800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>216500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>205200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>185800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>204100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>205000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>677000</v>
+        <v>92500</v>
       </c>
       <c r="E89" s="3">
-        <v>832800</v>
+        <v>687900</v>
       </c>
       <c r="F89" s="3">
-        <v>483700</v>
+        <v>846300</v>
       </c>
       <c r="G89" s="3">
-        <v>72500</v>
+        <v>491500</v>
       </c>
       <c r="H89" s="3">
-        <v>463600</v>
+        <v>73700</v>
       </c>
       <c r="I89" s="3">
-        <v>768200</v>
+        <v>471100</v>
       </c>
       <c r="J89" s="3">
+        <v>780600</v>
+      </c>
+      <c r="K89" s="3">
         <v>408400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-329800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>545400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>378100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>79500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-177600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>545700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>390400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>406900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-404600</v>
+        <v>-437700</v>
       </c>
       <c r="E91" s="3">
-        <v>-362600</v>
+        <v>-411200</v>
       </c>
       <c r="F91" s="3">
-        <v>-371200</v>
+        <v>-368400</v>
       </c>
       <c r="G91" s="3">
-        <v>-472800</v>
+        <v>-377100</v>
       </c>
       <c r="H91" s="3">
-        <v>-523500</v>
+        <v>-480400</v>
       </c>
       <c r="I91" s="3">
-        <v>-373600</v>
+        <v>-532000</v>
       </c>
       <c r="J91" s="3">
+        <v>-379600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-322700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-384400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-412700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-436500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-377400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-388000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-293800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-413900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-304700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-496000</v>
+        <v>-397400</v>
       </c>
       <c r="E94" s="3">
-        <v>-493900</v>
+        <v>-504000</v>
       </c>
       <c r="F94" s="3">
-        <v>1021900</v>
+        <v>-501900</v>
       </c>
       <c r="G94" s="3">
-        <v>-421800</v>
+        <v>1038400</v>
       </c>
       <c r="H94" s="3">
-        <v>-412200</v>
+        <v>-428700</v>
       </c>
       <c r="I94" s="3">
-        <v>-378700</v>
+        <v>-418900</v>
       </c>
       <c r="J94" s="3">
+        <v>-384800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-293100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-213600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-383600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-44100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-203600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1593400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>591900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-446200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-348600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-105800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-200</v>
       </c>
-      <c r="E96" s="3">
-        <v>-98000</v>
-      </c>
       <c r="F96" s="3">
-        <v>-8700</v>
+        <v>-99600</v>
       </c>
       <c r="G96" s="3">
-        <v>-92500</v>
+        <v>-8900</v>
       </c>
       <c r="H96" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-200</v>
       </c>
-      <c r="I96" s="3">
-        <v>-93700</v>
-      </c>
       <c r="J96" s="3">
+        <v>-95200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-79200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-68300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-67100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-67000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-301000</v>
+        <v>246600</v>
       </c>
       <c r="E100" s="3">
-        <v>-114600</v>
+        <v>-305800</v>
       </c>
       <c r="F100" s="3">
-        <v>-925800</v>
+        <v>-116500</v>
       </c>
       <c r="G100" s="3">
-        <v>210200</v>
+        <v>-940800</v>
       </c>
       <c r="H100" s="3">
-        <v>-109300</v>
+        <v>213600</v>
       </c>
       <c r="I100" s="3">
-        <v>60100</v>
+        <v>-111000</v>
       </c>
       <c r="J100" s="3">
+        <v>61100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-104900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>236500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-26100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-274500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-226100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1521900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-716900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-170900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>221900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-72600</v>
+        <v>-13200</v>
       </c>
       <c r="E101" s="3">
-        <v>83000</v>
+        <v>-73700</v>
       </c>
       <c r="F101" s="3">
-        <v>-40200</v>
+        <v>84300</v>
       </c>
       <c r="G101" s="3">
-        <v>-110600</v>
+        <v>-40900</v>
       </c>
       <c r="H101" s="3">
-        <v>17600</v>
+        <v>-112400</v>
       </c>
       <c r="I101" s="3">
-        <v>-55600</v>
+        <v>17900</v>
       </c>
       <c r="J101" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-12900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>50100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-133700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>19900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>38300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>20800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-97200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>308200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-192600</v>
+        <v>-71400</v>
       </c>
       <c r="E102" s="3">
-        <v>307300</v>
+        <v>-195700</v>
       </c>
       <c r="F102" s="3">
-        <v>539600</v>
+        <v>312300</v>
       </c>
       <c r="G102" s="3">
-        <v>-249800</v>
+        <v>548300</v>
       </c>
       <c r="H102" s="3">
-        <v>-40300</v>
+        <v>-253800</v>
       </c>
       <c r="I102" s="3">
-        <v>394000</v>
+        <v>-41000</v>
       </c>
       <c r="J102" s="3">
+        <v>400300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-256800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>79400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-311900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-228300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>323600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>81500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>233900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2920700</v>
+        <v>3668300</v>
       </c>
       <c r="E8" s="3">
-        <v>2835500</v>
+        <v>2973300</v>
       </c>
       <c r="F8" s="3">
-        <v>3357200</v>
+        <v>2886600</v>
       </c>
       <c r="G8" s="3">
-        <v>3494800</v>
+        <v>3417600</v>
       </c>
       <c r="H8" s="3">
-        <v>3179500</v>
+        <v>3557800</v>
       </c>
       <c r="I8" s="3">
-        <v>2917600</v>
+        <v>3236800</v>
       </c>
       <c r="J8" s="3">
+        <v>2970100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3311600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3519700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3118500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2775700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3083800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3019800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2617300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2433100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2880700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2664700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2075100</v>
+        <v>2526500</v>
       </c>
       <c r="E9" s="3">
-        <v>2104000</v>
+        <v>2112500</v>
       </c>
       <c r="F9" s="3">
-        <v>2284000</v>
+        <v>2141900</v>
       </c>
       <c r="G9" s="3">
-        <v>2398400</v>
+        <v>2325100</v>
       </c>
       <c r="H9" s="3">
-        <v>2273300</v>
+        <v>2441600</v>
       </c>
       <c r="I9" s="3">
-        <v>2163400</v>
+        <v>2314300</v>
       </c>
       <c r="J9" s="3">
+        <v>2202400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2303600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2451100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2256800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2084000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2201600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2193800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1923900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1831500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2033200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1915700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>845500</v>
+        <v>1141800</v>
       </c>
       <c r="E10" s="3">
-        <v>731600</v>
+        <v>860800</v>
       </c>
       <c r="F10" s="3">
-        <v>1073200</v>
+        <v>744700</v>
       </c>
       <c r="G10" s="3">
-        <v>1096400</v>
+        <v>1092500</v>
       </c>
       <c r="H10" s="3">
-        <v>906200</v>
+        <v>1116200</v>
       </c>
       <c r="I10" s="3">
-        <v>754100</v>
+        <v>922500</v>
       </c>
       <c r="J10" s="3">
+        <v>767700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1008000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1068600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>861700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>691800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>882100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>825900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>693400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>601500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>847600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>749000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,25 +1045,28 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>173200</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>176300</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>2300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1060,8 +1080,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2746600</v>
+        <v>3245800</v>
       </c>
       <c r="E17" s="3">
-        <v>2942900</v>
+        <v>2796100</v>
       </c>
       <c r="F17" s="3">
-        <v>2975800</v>
+        <v>2995900</v>
       </c>
       <c r="G17" s="3">
-        <v>3080800</v>
+        <v>3029400</v>
       </c>
       <c r="H17" s="3">
-        <v>2943700</v>
+        <v>3136200</v>
       </c>
       <c r="I17" s="3">
-        <v>2795900</v>
+        <v>2996700</v>
       </c>
       <c r="J17" s="3">
+        <v>2846300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3002300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3178200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2887400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2677000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2790500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2770200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2467200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1263700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2592300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2418000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>174100</v>
+        <v>422500</v>
       </c>
       <c r="E18" s="3">
-        <v>-107300</v>
+        <v>177200</v>
       </c>
       <c r="F18" s="3">
-        <v>381300</v>
+        <v>-109300</v>
       </c>
       <c r="G18" s="3">
-        <v>414100</v>
+        <v>388200</v>
       </c>
       <c r="H18" s="3">
-        <v>235800</v>
+        <v>421500</v>
       </c>
       <c r="I18" s="3">
-        <v>121600</v>
+        <v>240100</v>
       </c>
       <c r="J18" s="3">
+        <v>123800</v>
+      </c>
+      <c r="K18" s="3">
         <v>309200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>341500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>231100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>98700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>293300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>249600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>150100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1169400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>288400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>246700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>29200</v>
+        <v>-6900</v>
       </c>
       <c r="E20" s="3">
-        <v>-15000</v>
+        <v>29700</v>
       </c>
       <c r="F20" s="3">
-        <v>13800</v>
+        <v>-15200</v>
       </c>
       <c r="G20" s="3">
-        <v>9100</v>
+        <v>14000</v>
       </c>
       <c r="H20" s="3">
-        <v>7900</v>
+        <v>9300</v>
       </c>
       <c r="I20" s="3">
-        <v>140000</v>
+        <v>8100</v>
       </c>
       <c r="J20" s="3">
+        <v>142500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>20700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>38400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>502900</v>
+        <v>732600</v>
       </c>
       <c r="E21" s="3">
-        <v>195000</v>
+        <v>511900</v>
       </c>
       <c r="F21" s="3">
-        <v>694200</v>
+        <v>198500</v>
       </c>
       <c r="G21" s="3">
-        <v>707400</v>
+        <v>706700</v>
       </c>
       <c r="H21" s="3">
-        <v>522900</v>
+        <v>720200</v>
       </c>
       <c r="I21" s="3">
-        <v>515200</v>
+        <v>532300</v>
       </c>
       <c r="J21" s="3">
+        <v>524500</v>
+      </c>
+      <c r="K21" s="3">
         <v>560900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>576200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>457500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>345200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>529600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>463300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>347400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1411900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>498300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,158 +1434,167 @@
         <v>7700</v>
       </c>
       <c r="E22" s="3">
-        <v>9400</v>
+        <v>7900</v>
       </c>
       <c r="F22" s="3">
-        <v>6400</v>
+        <v>9500</v>
       </c>
       <c r="G22" s="3">
-        <v>8300</v>
+        <v>6500</v>
       </c>
       <c r="H22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="L22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="M22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="N22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="O22" s="3">
         <v>10500</v>
       </c>
-      <c r="I22" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>9600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>9900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>10200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>10100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>10500</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>195500</v>
+        <v>408000</v>
       </c>
       <c r="E23" s="3">
-        <v>-131700</v>
+        <v>199000</v>
       </c>
       <c r="F23" s="3">
-        <v>388700</v>
+        <v>-134000</v>
       </c>
       <c r="G23" s="3">
-        <v>414800</v>
+        <v>395700</v>
       </c>
       <c r="H23" s="3">
-        <v>233200</v>
+        <v>422300</v>
       </c>
       <c r="I23" s="3">
-        <v>252600</v>
+        <v>237400</v>
       </c>
       <c r="J23" s="3">
+        <v>257200</v>
+      </c>
+      <c r="K23" s="3">
         <v>292600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>316500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>215800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>109200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>302600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>247000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>153100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1200000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>284800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>247900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>70400</v>
+        <v>128300</v>
       </c>
       <c r="E24" s="3">
-        <v>32200</v>
+        <v>71700</v>
       </c>
       <c r="F24" s="3">
-        <v>110400</v>
+        <v>32800</v>
       </c>
       <c r="G24" s="3">
-        <v>137500</v>
+        <v>112400</v>
       </c>
       <c r="H24" s="3">
-        <v>85400</v>
+        <v>139900</v>
       </c>
       <c r="I24" s="3">
-        <v>74400</v>
+        <v>87000</v>
       </c>
       <c r="J24" s="3">
+        <v>75700</v>
+      </c>
+      <c r="K24" s="3">
         <v>81000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>84500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>67600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>74000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>67300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>52100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>421800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>65000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>125100</v>
+        <v>279700</v>
       </c>
       <c r="E26" s="3">
-        <v>-163900</v>
+        <v>127400</v>
       </c>
       <c r="F26" s="3">
-        <v>278300</v>
+        <v>-166800</v>
       </c>
       <c r="G26" s="3">
-        <v>277400</v>
+        <v>283300</v>
       </c>
       <c r="H26" s="3">
-        <v>147800</v>
+        <v>282400</v>
       </c>
       <c r="I26" s="3">
-        <v>178200</v>
+        <v>150400</v>
       </c>
       <c r="J26" s="3">
+        <v>181400</v>
+      </c>
+      <c r="K26" s="3">
         <v>211500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>231900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>148100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>228600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>179700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>101000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>778200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>219800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>181500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>124500</v>
+        <v>279000</v>
       </c>
       <c r="E27" s="3">
-        <v>-157000</v>
+        <v>126800</v>
       </c>
       <c r="F27" s="3">
-        <v>278200</v>
+        <v>-159800</v>
       </c>
       <c r="G27" s="3">
-        <v>277100</v>
+        <v>283200</v>
       </c>
       <c r="H27" s="3">
+        <v>282100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>149800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>179900</v>
+      </c>
+      <c r="K27" s="3">
+        <v>211500</v>
+      </c>
+      <c r="L27" s="3">
+        <v>231100</v>
+      </c>
+      <c r="M27" s="3">
         <v>147200</v>
       </c>
-      <c r="I27" s="3">
-        <v>176700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>211500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>231100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>147200</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>101200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>226800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>178400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>99000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>780600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>216600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,14 +1849,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-31800</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-29200</v>
+        <v>6900</v>
       </c>
       <c r="E32" s="3">
-        <v>15000</v>
+        <v>-29700</v>
       </c>
       <c r="F32" s="3">
-        <v>-13800</v>
+        <v>15200</v>
       </c>
       <c r="G32" s="3">
-        <v>-9100</v>
+        <v>-14000</v>
       </c>
       <c r="H32" s="3">
-        <v>-7900</v>
+        <v>-9300</v>
       </c>
       <c r="I32" s="3">
-        <v>-140000</v>
+        <v>-8100</v>
       </c>
       <c r="J32" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="K32" s="3">
         <v>7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-20700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-38400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>124500</v>
+        <v>279000</v>
       </c>
       <c r="E33" s="3">
-        <v>-157000</v>
+        <v>126800</v>
       </c>
       <c r="F33" s="3">
-        <v>278200</v>
+        <v>-159800</v>
       </c>
       <c r="G33" s="3">
-        <v>277100</v>
+        <v>283200</v>
       </c>
       <c r="H33" s="3">
+        <v>282100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>149800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>179900</v>
+      </c>
+      <c r="K33" s="3">
+        <v>211500</v>
+      </c>
+      <c r="L33" s="3">
+        <v>231100</v>
+      </c>
+      <c r="M33" s="3">
         <v>147200</v>
       </c>
-      <c r="I33" s="3">
-        <v>176700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>211500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>231100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>147200</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>101200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>195100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>178400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>99000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>780600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>216600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>124500</v>
+        <v>279000</v>
       </c>
       <c r="E35" s="3">
-        <v>-157000</v>
+        <v>126800</v>
       </c>
       <c r="F35" s="3">
-        <v>278200</v>
+        <v>-159800</v>
       </c>
       <c r="G35" s="3">
-        <v>277100</v>
+        <v>283200</v>
       </c>
       <c r="H35" s="3">
+        <v>282100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>149800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>179900</v>
+      </c>
+      <c r="K35" s="3">
+        <v>211500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>231100</v>
+      </c>
+      <c r="M35" s="3">
         <v>147200</v>
       </c>
-      <c r="I35" s="3">
-        <v>176700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>211500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>231100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>147200</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>101200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>195100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>178400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>99000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>780600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>216600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3069400</v>
+        <v>3292100</v>
       </c>
       <c r="E41" s="3">
-        <v>3140800</v>
+        <v>3124700</v>
       </c>
       <c r="F41" s="3">
-        <v>3336600</v>
+        <v>3197400</v>
       </c>
       <c r="G41" s="3">
-        <v>3024300</v>
+        <v>3396700</v>
       </c>
       <c r="H41" s="3">
-        <v>2476000</v>
+        <v>3078800</v>
       </c>
       <c r="I41" s="3">
-        <v>2729800</v>
+        <v>2520600</v>
       </c>
       <c r="J41" s="3">
+        <v>2779000</v>
+      </c>
+      <c r="K41" s="3">
         <v>2770800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2332800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2285000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2527800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2525900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2446500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2758400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2930500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2607000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2525500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>329800</v>
+        <v>383000</v>
       </c>
       <c r="E42" s="3">
-        <v>307300</v>
+        <v>335700</v>
       </c>
       <c r="F42" s="3">
-        <v>225500</v>
+        <v>312800</v>
       </c>
       <c r="G42" s="3">
-        <v>92400</v>
+        <v>229600</v>
       </c>
       <c r="H42" s="3">
-        <v>326700</v>
+        <v>94100</v>
       </c>
       <c r="I42" s="3">
-        <v>382900</v>
+        <v>332600</v>
       </c>
       <c r="J42" s="3">
+        <v>389800</v>
+      </c>
+      <c r="K42" s="3">
         <v>292900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>275700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>279700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>394700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>342100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>714600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>731400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>497900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>157800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>175500</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3003000</v>
+        <v>3646400</v>
       </c>
       <c r="E43" s="3">
-        <v>2927700</v>
+        <v>3057100</v>
       </c>
       <c r="F43" s="3">
-        <v>3440100</v>
+        <v>2980500</v>
       </c>
       <c r="G43" s="3">
-        <v>3514600</v>
+        <v>3502000</v>
       </c>
       <c r="H43" s="3">
-        <v>3121100</v>
+        <v>3577900</v>
       </c>
       <c r="I43" s="3">
-        <v>2909000</v>
+        <v>3177300</v>
       </c>
       <c r="J43" s="3">
+        <v>2961400</v>
+      </c>
+      <c r="K43" s="3">
         <v>3200000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3658300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3144100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2748300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3100600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3055200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2624700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2261000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2509700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2325300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2432500</v>
+        <v>2366100</v>
       </c>
       <c r="E44" s="3">
-        <v>2232100</v>
+        <v>2476300</v>
       </c>
       <c r="F44" s="3">
-        <v>2304900</v>
+        <v>2272300</v>
       </c>
       <c r="G44" s="3">
-        <v>2088900</v>
+        <v>2346400</v>
       </c>
       <c r="H44" s="3">
-        <v>2211000</v>
+        <v>2126500</v>
       </c>
       <c r="I44" s="3">
-        <v>2141900</v>
+        <v>2250800</v>
       </c>
       <c r="J44" s="3">
+        <v>2180400</v>
+      </c>
+      <c r="K44" s="3">
         <v>2257400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2141000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2071700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1876100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1910700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1803700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1689800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1370400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1319200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1353300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>528500</v>
+        <v>484600</v>
       </c>
       <c r="E45" s="3">
-        <v>515600</v>
+        <v>538000</v>
       </c>
       <c r="F45" s="3">
-        <v>630700</v>
+        <v>524900</v>
       </c>
       <c r="G45" s="3">
-        <v>552600</v>
+        <v>642100</v>
       </c>
       <c r="H45" s="3">
-        <v>579000</v>
+        <v>562600</v>
       </c>
       <c r="I45" s="3">
-        <v>544700</v>
+        <v>589400</v>
       </c>
       <c r="J45" s="3">
+        <v>554500</v>
+      </c>
+      <c r="K45" s="3">
         <v>637800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>592600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>661500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>588500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>731100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>673600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>810400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>622800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2047000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9363100</v>
+        <v>10172200</v>
       </c>
       <c r="E46" s="3">
-        <v>9123600</v>
+        <v>9531800</v>
       </c>
       <c r="F46" s="3">
-        <v>9937700</v>
+        <v>9287900</v>
       </c>
       <c r="G46" s="3">
-        <v>9272800</v>
+        <v>10116700</v>
       </c>
       <c r="H46" s="3">
-        <v>8713900</v>
+        <v>9439800</v>
       </c>
       <c r="I46" s="3">
-        <v>8708300</v>
+        <v>8870800</v>
       </c>
       <c r="J46" s="3">
+        <v>8865100</v>
+      </c>
+      <c r="K46" s="3">
         <v>9158900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9000400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8442000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8135400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8610400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8693700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8614700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7682600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8640700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6876600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>310600</v>
+        <v>319400</v>
       </c>
       <c r="E47" s="3">
-        <v>313700</v>
+        <v>316200</v>
       </c>
       <c r="F47" s="3">
-        <v>317400</v>
+        <v>319300</v>
       </c>
       <c r="G47" s="3">
-        <v>308900</v>
+        <v>323100</v>
       </c>
       <c r="H47" s="3">
-        <v>1428600</v>
+        <v>314500</v>
       </c>
       <c r="I47" s="3">
-        <v>1466100</v>
+        <v>1454300</v>
       </c>
       <c r="J47" s="3">
+        <v>1492500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1498700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1515200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1447400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1403400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1460000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1353700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1385500</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>317100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6315800</v>
+        <v>6745600</v>
       </c>
       <c r="E48" s="3">
-        <v>6139400</v>
+        <v>6429500</v>
       </c>
       <c r="F48" s="3">
-        <v>6319600</v>
+        <v>6250000</v>
       </c>
       <c r="G48" s="3">
-        <v>6089800</v>
+        <v>6433400</v>
       </c>
       <c r="H48" s="3">
-        <v>6083300</v>
+        <v>6199400</v>
       </c>
       <c r="I48" s="3">
-        <v>5693400</v>
+        <v>6192800</v>
       </c>
       <c r="J48" s="3">
+        <v>5795900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5496300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5384500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5208000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4932600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4870000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4685800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4547500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4121600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4223600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4500600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2235500</v>
+        <v>2250400</v>
       </c>
       <c r="E49" s="3">
-        <v>2272100</v>
+        <v>2275800</v>
       </c>
       <c r="F49" s="3">
-        <v>2314900</v>
+        <v>2313100</v>
       </c>
       <c r="G49" s="3">
-        <v>2300800</v>
+        <v>2356600</v>
       </c>
       <c r="H49" s="3">
-        <v>2331500</v>
+        <v>2342200</v>
       </c>
       <c r="I49" s="3">
-        <v>2392900</v>
+        <v>2373500</v>
       </c>
       <c r="J49" s="3">
+        <v>2436000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2398100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2378400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2277900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2200200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2272200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2276900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2205800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1001000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1092000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>933100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>511200</v>
+        <v>516800</v>
       </c>
       <c r="E52" s="3">
-        <v>496600</v>
+        <v>520400</v>
       </c>
       <c r="F52" s="3">
-        <v>475300</v>
+        <v>505600</v>
       </c>
       <c r="G52" s="3">
-        <v>461200</v>
+        <v>483800</v>
       </c>
       <c r="H52" s="3">
-        <v>486800</v>
+        <v>469500</v>
       </c>
       <c r="I52" s="3">
-        <v>548400</v>
+        <v>495600</v>
       </c>
       <c r="J52" s="3">
+        <v>558300</v>
+      </c>
+      <c r="K52" s="3">
         <v>538400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>564400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>528400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>551500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>539100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>565900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>539800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1957400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>599700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18736200</v>
+        <v>20004300</v>
       </c>
       <c r="E54" s="3">
-        <v>18345500</v>
+        <v>19073700</v>
       </c>
       <c r="F54" s="3">
-        <v>19364900</v>
+        <v>18675900</v>
       </c>
       <c r="G54" s="3">
-        <v>18433500</v>
+        <v>19713600</v>
       </c>
       <c r="H54" s="3">
-        <v>19044100</v>
+        <v>18765400</v>
       </c>
       <c r="I54" s="3">
-        <v>18809000</v>
+        <v>19387100</v>
       </c>
       <c r="J54" s="3">
+        <v>19147700</v>
+      </c>
+      <c r="K54" s="3">
         <v>19090400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18842900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17903800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17223100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17751700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17575900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17293200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14762600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14873100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13158900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1985800</v>
-      </c>
-      <c r="E57" s="3" t="s">
+        <v>2287900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2021600</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="3">
-        <v>2187600</v>
-      </c>
       <c r="G57" s="3">
-        <v>1954200</v>
+        <v>2226900</v>
       </c>
       <c r="H57" s="3">
-        <v>1828400</v>
+        <v>1989400</v>
       </c>
       <c r="I57" s="3">
-        <v>1792600</v>
+        <v>1861300</v>
       </c>
       <c r="J57" s="3">
+        <v>1824900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1935100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2006800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2067400</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2138200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2066200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1807900</v>
       </c>
-      <c r="Q57" s="3" t="s">
+      <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1648400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1383400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2557700</v>
+        <v>2751900</v>
       </c>
       <c r="E58" s="3">
-        <v>2692200</v>
+        <v>2603800</v>
       </c>
       <c r="F58" s="3">
-        <v>2993100</v>
+        <v>2740600</v>
       </c>
       <c r="G58" s="3">
-        <v>2585800</v>
+        <v>3047000</v>
       </c>
       <c r="H58" s="3">
-        <v>3452600</v>
+        <v>2632300</v>
       </c>
       <c r="I58" s="3">
-        <v>2950800</v>
+        <v>3514700</v>
       </c>
       <c r="J58" s="3">
+        <v>3004000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2978100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2652200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2038100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1709800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1551100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1679200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2316800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1066100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1614500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2222200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2175000</v>
+        <v>2436800</v>
       </c>
       <c r="E59" s="3">
-        <v>4094300</v>
+        <v>2214200</v>
       </c>
       <c r="F59" s="3">
-        <v>2178700</v>
+        <v>4168000</v>
       </c>
       <c r="G59" s="3">
-        <v>2014200</v>
+        <v>2218000</v>
       </c>
       <c r="H59" s="3">
-        <v>1964100</v>
+        <v>2050400</v>
       </c>
       <c r="I59" s="3">
-        <v>1999800</v>
+        <v>1999500</v>
       </c>
       <c r="J59" s="3">
+        <v>2035800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2254600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2165900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1835800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3741600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1669900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1728700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1794900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3170100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1663200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1357600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6718600</v>
+        <v>7476500</v>
       </c>
       <c r="E60" s="3">
-        <v>6786500</v>
+        <v>6839500</v>
       </c>
       <c r="F60" s="3">
-        <v>7359300</v>
+        <v>6908700</v>
       </c>
       <c r="G60" s="3">
-        <v>6554100</v>
+        <v>7491900</v>
       </c>
       <c r="H60" s="3">
-        <v>7245100</v>
+        <v>6672200</v>
       </c>
       <c r="I60" s="3">
-        <v>6743200</v>
+        <v>7375600</v>
       </c>
       <c r="J60" s="3">
+        <v>6864600</v>
+      </c>
+      <c r="K60" s="3">
         <v>7167700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6824900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5941300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5451500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5359300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5474200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5919500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4236300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4926200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4963300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1793800</v>
+        <v>1820500</v>
       </c>
       <c r="E61" s="3">
-        <v>1372400</v>
+        <v>1826100</v>
       </c>
       <c r="F61" s="3">
-        <v>1326200</v>
+        <v>1397100</v>
       </c>
       <c r="G61" s="3">
-        <v>1739500</v>
+        <v>1350100</v>
       </c>
       <c r="H61" s="3">
-        <v>1741400</v>
+        <v>1770800</v>
       </c>
       <c r="I61" s="3">
-        <v>1960500</v>
+        <v>1772700</v>
       </c>
       <c r="J61" s="3">
+        <v>1995800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2044700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2160800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2705700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2656700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2905000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2974300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2470000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1897600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2078800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1355200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2230600</v>
+        <v>2287200</v>
       </c>
       <c r="E62" s="3">
-        <v>2176200</v>
+        <v>2270800</v>
       </c>
       <c r="F62" s="3">
-        <v>2069100</v>
+        <v>2215300</v>
       </c>
       <c r="G62" s="3">
-        <v>2006700</v>
+        <v>2106300</v>
       </c>
       <c r="H62" s="3">
-        <v>2012300</v>
+        <v>2042800</v>
       </c>
       <c r="I62" s="3">
-        <v>1762700</v>
+        <v>2048600</v>
       </c>
       <c r="J62" s="3">
+        <v>1794400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1669300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1673200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1604900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1600600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1619600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1597900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1582700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1514000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1409500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1440600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10785700</v>
+        <v>11618100</v>
       </c>
       <c r="E66" s="3">
-        <v>10378500</v>
+        <v>10980000</v>
       </c>
       <c r="F66" s="3">
-        <v>10805500</v>
+        <v>10565400</v>
       </c>
       <c r="G66" s="3">
-        <v>10350300</v>
+        <v>11000100</v>
       </c>
       <c r="H66" s="3">
-        <v>11056900</v>
+        <v>10536700</v>
       </c>
       <c r="I66" s="3">
-        <v>10527400</v>
+        <v>11256000</v>
       </c>
       <c r="J66" s="3">
+        <v>10717000</v>
+      </c>
+      <c r="K66" s="3">
         <v>10940400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10717600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10314600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9768400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9946100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10106300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10050400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7723300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8487700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7822400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9612100</v>
+        <v>10039200</v>
       </c>
       <c r="E72" s="3">
-        <v>9594800</v>
+        <v>9785200</v>
       </c>
       <c r="F72" s="3">
-        <v>9751800</v>
+        <v>9767500</v>
       </c>
       <c r="G72" s="3">
-        <v>9580800</v>
+        <v>9927400</v>
       </c>
       <c r="H72" s="3">
-        <v>9303800</v>
+        <v>9753400</v>
       </c>
       <c r="I72" s="3">
-        <v>9252000</v>
+        <v>9471300</v>
       </c>
       <c r="J72" s="3">
+        <v>9418600</v>
+      </c>
+      <c r="K72" s="3">
         <v>9075300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8816700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8400800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8316200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8215000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8088300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7909900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7731200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6951300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6801800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7950500</v>
+        <v>8386200</v>
       </c>
       <c r="E76" s="3">
-        <v>7967000</v>
+        <v>8093700</v>
       </c>
       <c r="F76" s="3">
-        <v>8559400</v>
+        <v>8110400</v>
       </c>
       <c r="G76" s="3">
-        <v>8083200</v>
+        <v>8713500</v>
       </c>
       <c r="H76" s="3">
-        <v>7987200</v>
+        <v>8228800</v>
       </c>
       <c r="I76" s="3">
-        <v>8281600</v>
+        <v>8131100</v>
       </c>
       <c r="J76" s="3">
+        <v>8430800</v>
+      </c>
+      <c r="K76" s="3">
         <v>8150000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8125300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7589200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7454700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7805600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7469600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7242800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7039400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6385400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5336600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>124500</v>
+        <v>279000</v>
       </c>
       <c r="E81" s="3">
-        <v>-157000</v>
+        <v>126800</v>
       </c>
       <c r="F81" s="3">
-        <v>278200</v>
+        <v>-159800</v>
       </c>
       <c r="G81" s="3">
-        <v>277100</v>
+        <v>283200</v>
       </c>
       <c r="H81" s="3">
+        <v>282100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>149800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>179900</v>
+      </c>
+      <c r="K81" s="3">
+        <v>211500</v>
+      </c>
+      <c r="L81" s="3">
+        <v>231100</v>
+      </c>
+      <c r="M81" s="3">
         <v>147200</v>
       </c>
-      <c r="I81" s="3">
-        <v>176700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>211500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>231100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>147200</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>101200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>195100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>178400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>99000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>780600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>216600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>299600</v>
+        <v>317000</v>
       </c>
       <c r="E83" s="3">
-        <v>317300</v>
+        <v>305000</v>
       </c>
       <c r="F83" s="3">
-        <v>299100</v>
+        <v>323000</v>
       </c>
       <c r="G83" s="3">
-        <v>284300</v>
+        <v>304500</v>
       </c>
       <c r="H83" s="3">
-        <v>279200</v>
+        <v>289400</v>
       </c>
       <c r="I83" s="3">
-        <v>253600</v>
+        <v>284200</v>
       </c>
       <c r="J83" s="3">
+        <v>258100</v>
+      </c>
+      <c r="K83" s="3">
         <v>258600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>249900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>231500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>225800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>216500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>205200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>185800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>204100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>205000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>92500</v>
+        <v>608600</v>
       </c>
       <c r="E89" s="3">
-        <v>687900</v>
+        <v>94200</v>
       </c>
       <c r="F89" s="3">
-        <v>846300</v>
+        <v>700300</v>
       </c>
       <c r="G89" s="3">
-        <v>491500</v>
+        <v>861500</v>
       </c>
       <c r="H89" s="3">
-        <v>73700</v>
+        <v>500400</v>
       </c>
       <c r="I89" s="3">
-        <v>471100</v>
+        <v>75000</v>
       </c>
       <c r="J89" s="3">
+        <v>479600</v>
+      </c>
+      <c r="K89" s="3">
         <v>780600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>408400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-329800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>545400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>378100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>79500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-177600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>545700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>390400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>406900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-437700</v>
+        <v>-487800</v>
       </c>
       <c r="E91" s="3">
-        <v>-411200</v>
+        <v>-445600</v>
       </c>
       <c r="F91" s="3">
-        <v>-368400</v>
+        <v>-418600</v>
       </c>
       <c r="G91" s="3">
-        <v>-377100</v>
+        <v>-375000</v>
       </c>
       <c r="H91" s="3">
-        <v>-480400</v>
+        <v>-383900</v>
       </c>
       <c r="I91" s="3">
-        <v>-532000</v>
+        <v>-489100</v>
       </c>
       <c r="J91" s="3">
+        <v>-541600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-379600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-322700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-384400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-412700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-436500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-377400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-388000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-293800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-413900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-304700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-397400</v>
+        <v>-541400</v>
       </c>
       <c r="E94" s="3">
-        <v>-504000</v>
+        <v>-404500</v>
       </c>
       <c r="F94" s="3">
-        <v>-501900</v>
+        <v>-513100</v>
       </c>
       <c r="G94" s="3">
-        <v>1038400</v>
+        <v>-510900</v>
       </c>
       <c r="H94" s="3">
-        <v>-428700</v>
+        <v>1057100</v>
       </c>
       <c r="I94" s="3">
-        <v>-418900</v>
+        <v>-436400</v>
       </c>
       <c r="J94" s="3">
+        <v>-426400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-384800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-293100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-213600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-383600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-44100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-203600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1593400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>591900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-446200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-348600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-105800</v>
+        <v>-1600</v>
       </c>
       <c r="E96" s="3">
+        <v>-107700</v>
+      </c>
+      <c r="F96" s="3">
         <v>-200</v>
       </c>
-      <c r="F96" s="3">
-        <v>-99600</v>
-      </c>
       <c r="G96" s="3">
-        <v>-8900</v>
+        <v>-101400</v>
       </c>
       <c r="H96" s="3">
-        <v>-94000</v>
+        <v>-9000</v>
       </c>
       <c r="I96" s="3">
+        <v>-95700</v>
+      </c>
+      <c r="J96" s="3">
         <v>-200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-95200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-79200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-68300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-67100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-67000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>246600</v>
+        <v>89100</v>
       </c>
       <c r="E100" s="3">
-        <v>-305800</v>
+        <v>251100</v>
       </c>
       <c r="F100" s="3">
-        <v>-116500</v>
+        <v>-311400</v>
       </c>
       <c r="G100" s="3">
-        <v>-940800</v>
+        <v>-118500</v>
       </c>
       <c r="H100" s="3">
-        <v>213600</v>
+        <v>-957700</v>
       </c>
       <c r="I100" s="3">
-        <v>-111000</v>
+        <v>217400</v>
       </c>
       <c r="J100" s="3">
+        <v>-113000</v>
+      </c>
+      <c r="K100" s="3">
         <v>61100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-104900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>236500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-26100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-274500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-226100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1521900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-716900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-170900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>221900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13200</v>
+        <v>11100</v>
       </c>
       <c r="E101" s="3">
-        <v>-73700</v>
+        <v>-13400</v>
       </c>
       <c r="F101" s="3">
-        <v>84300</v>
+        <v>-75100</v>
       </c>
       <c r="G101" s="3">
-        <v>-40900</v>
+        <v>85800</v>
       </c>
       <c r="H101" s="3">
-        <v>-112400</v>
+        <v>-41600</v>
       </c>
       <c r="I101" s="3">
-        <v>17900</v>
+        <v>-114400</v>
       </c>
       <c r="J101" s="3">
+        <v>18200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-56500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>50100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-133700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>19900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>38300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>20800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-97200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>308200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-71400</v>
+        <v>167400</v>
       </c>
       <c r="E102" s="3">
-        <v>-195700</v>
+        <v>-72700</v>
       </c>
       <c r="F102" s="3">
-        <v>312300</v>
+        <v>-199200</v>
       </c>
       <c r="G102" s="3">
-        <v>548300</v>
+        <v>317900</v>
       </c>
       <c r="H102" s="3">
-        <v>-253800</v>
+        <v>558200</v>
       </c>
       <c r="I102" s="3">
-        <v>-41000</v>
+        <v>-258400</v>
       </c>
       <c r="J102" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="K102" s="3">
         <v>400300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-256800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>79400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-311900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-228300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>323600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>81500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>233900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3668300</v>
+        <v>3624500</v>
       </c>
       <c r="E8" s="3">
-        <v>2973300</v>
+        <v>3496500</v>
       </c>
       <c r="F8" s="3">
-        <v>2886600</v>
+        <v>2834000</v>
       </c>
       <c r="G8" s="3">
-        <v>3417600</v>
+        <v>2751400</v>
       </c>
       <c r="H8" s="3">
-        <v>3557800</v>
+        <v>3257600</v>
       </c>
       <c r="I8" s="3">
-        <v>3236800</v>
+        <v>3391200</v>
       </c>
       <c r="J8" s="3">
+        <v>3085200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2970100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3311600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3519700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3118500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2775700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3083800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3019800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2617300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2433100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2880700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2664700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2526500</v>
+        <v>2485900</v>
       </c>
       <c r="E9" s="3">
-        <v>2112500</v>
+        <v>2408200</v>
       </c>
       <c r="F9" s="3">
-        <v>2141900</v>
+        <v>2013600</v>
       </c>
       <c r="G9" s="3">
-        <v>2325100</v>
+        <v>2041600</v>
       </c>
       <c r="H9" s="3">
-        <v>2441600</v>
+        <v>2216200</v>
       </c>
       <c r="I9" s="3">
-        <v>2314300</v>
+        <v>2327300</v>
       </c>
       <c r="J9" s="3">
+        <v>2205900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2202400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2303600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2451100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2256800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2084000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2201600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2193800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1923900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1831500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2033200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1915700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1141800</v>
+        <v>1138600</v>
       </c>
       <c r="E10" s="3">
-        <v>860800</v>
+        <v>1088300</v>
       </c>
       <c r="F10" s="3">
-        <v>744700</v>
+        <v>820500</v>
       </c>
       <c r="G10" s="3">
-        <v>1092500</v>
+        <v>709900</v>
       </c>
       <c r="H10" s="3">
-        <v>1116200</v>
+        <v>1041400</v>
       </c>
       <c r="I10" s="3">
-        <v>922500</v>
+        <v>1063900</v>
       </c>
       <c r="J10" s="3">
+        <v>879300</v>
+      </c>
+      <c r="K10" s="3">
         <v>767700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1008000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1068600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>861700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>691800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>882100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>825900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>693400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>601500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>847600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>749000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,28 +1064,31 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>176300</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>168100</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1083,8 +1102,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3245800</v>
+        <v>3211600</v>
       </c>
       <c r="E17" s="3">
-        <v>2796100</v>
+        <v>3093800</v>
       </c>
       <c r="F17" s="3">
-        <v>2995900</v>
+        <v>2665100</v>
       </c>
       <c r="G17" s="3">
-        <v>3029400</v>
+        <v>2855600</v>
       </c>
       <c r="H17" s="3">
-        <v>3136200</v>
+        <v>2887600</v>
       </c>
       <c r="I17" s="3">
-        <v>2996700</v>
+        <v>2989400</v>
       </c>
       <c r="J17" s="3">
+        <v>2856400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2846300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3002300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3178200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2887400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2677000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2790500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2770200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2467200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1263700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2592300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2418000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>422500</v>
+        <v>412900</v>
       </c>
       <c r="E18" s="3">
-        <v>177200</v>
+        <v>402700</v>
       </c>
       <c r="F18" s="3">
-        <v>-109300</v>
+        <v>168900</v>
       </c>
       <c r="G18" s="3">
-        <v>388200</v>
+        <v>-104100</v>
       </c>
       <c r="H18" s="3">
-        <v>421500</v>
+        <v>370000</v>
       </c>
       <c r="I18" s="3">
-        <v>240100</v>
+        <v>401800</v>
       </c>
       <c r="J18" s="3">
+        <v>228800</v>
+      </c>
+      <c r="K18" s="3">
         <v>123800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>309200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>341500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>231100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>98700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>293300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>249600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>150100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1169400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>288400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>246700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6900</v>
+        <v>18400</v>
       </c>
       <c r="E20" s="3">
-        <v>29700</v>
+        <v>-6600</v>
       </c>
       <c r="F20" s="3">
-        <v>-15200</v>
+        <v>28300</v>
       </c>
       <c r="G20" s="3">
-        <v>14000</v>
+        <v>-14500</v>
       </c>
       <c r="H20" s="3">
-        <v>9300</v>
+        <v>13400</v>
       </c>
       <c r="I20" s="3">
-        <v>8100</v>
+        <v>8800</v>
       </c>
       <c r="J20" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K20" s="3">
         <v>142500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>20700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>19800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>11600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>38400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>732600</v>
+        <v>763200</v>
       </c>
       <c r="E21" s="3">
-        <v>511900</v>
+        <v>698300</v>
       </c>
       <c r="F21" s="3">
-        <v>198500</v>
+        <v>488000</v>
       </c>
       <c r="G21" s="3">
-        <v>706700</v>
+        <v>189200</v>
       </c>
       <c r="H21" s="3">
-        <v>720200</v>
+        <v>673600</v>
       </c>
       <c r="I21" s="3">
-        <v>532300</v>
+        <v>686400</v>
       </c>
       <c r="J21" s="3">
+        <v>507400</v>
+      </c>
+      <c r="K21" s="3">
         <v>524500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>560900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>576200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>457500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>345200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>529600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>463300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>347400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1411900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>498300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7700</v>
+        <v>8200</v>
       </c>
       <c r="E22" s="3">
-        <v>7900</v>
+        <v>7300</v>
       </c>
       <c r="F22" s="3">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="G22" s="3">
-        <v>6500</v>
+        <v>9100</v>
       </c>
       <c r="H22" s="3">
-        <v>8500</v>
+        <v>6200</v>
       </c>
       <c r="I22" s="3">
-        <v>10700</v>
+        <v>8100</v>
       </c>
       <c r="J22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K22" s="3">
         <v>9100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>408000</v>
+        <v>423100</v>
       </c>
       <c r="E23" s="3">
-        <v>199000</v>
+        <v>388900</v>
       </c>
       <c r="F23" s="3">
-        <v>-134000</v>
+        <v>189700</v>
       </c>
       <c r="G23" s="3">
-        <v>395700</v>
+        <v>-127800</v>
       </c>
       <c r="H23" s="3">
-        <v>422300</v>
+        <v>377200</v>
       </c>
       <c r="I23" s="3">
-        <v>237400</v>
+        <v>402500</v>
       </c>
       <c r="J23" s="3">
+        <v>226300</v>
+      </c>
+      <c r="K23" s="3">
         <v>257200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>292600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>316500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>215800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>109200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>302600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>247000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>153100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1200000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>284800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>247900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>128300</v>
+        <v>140400</v>
       </c>
       <c r="E24" s="3">
-        <v>71700</v>
+        <v>122300</v>
       </c>
       <c r="F24" s="3">
-        <v>32800</v>
+        <v>68300</v>
       </c>
       <c r="G24" s="3">
-        <v>112400</v>
+        <v>31200</v>
       </c>
       <c r="H24" s="3">
-        <v>139900</v>
+        <v>107200</v>
       </c>
       <c r="I24" s="3">
-        <v>87000</v>
+        <v>133400</v>
       </c>
       <c r="J24" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K24" s="3">
         <v>75700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>81000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>84500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>67600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>74000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>67300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>52100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>421800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>65000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>279700</v>
+        <v>282700</v>
       </c>
       <c r="E26" s="3">
-        <v>127400</v>
+        <v>266600</v>
       </c>
       <c r="F26" s="3">
-        <v>-166800</v>
+        <v>121400</v>
       </c>
       <c r="G26" s="3">
-        <v>283300</v>
+        <v>-159000</v>
       </c>
       <c r="H26" s="3">
-        <v>282400</v>
+        <v>270000</v>
       </c>
       <c r="I26" s="3">
-        <v>150400</v>
+        <v>269100</v>
       </c>
       <c r="J26" s="3">
+        <v>143400</v>
+      </c>
+      <c r="K26" s="3">
         <v>181400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>211500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>231900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>148100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>228600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>179700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>101000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>778200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>219800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>181500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>279000</v>
+        <v>282600</v>
       </c>
       <c r="E27" s="3">
-        <v>126800</v>
+        <v>265900</v>
       </c>
       <c r="F27" s="3">
-        <v>-159800</v>
+        <v>120800</v>
       </c>
       <c r="G27" s="3">
-        <v>283200</v>
+        <v>-152300</v>
       </c>
       <c r="H27" s="3">
-        <v>282100</v>
+        <v>270000</v>
       </c>
       <c r="I27" s="3">
-        <v>149800</v>
+        <v>268800</v>
       </c>
       <c r="J27" s="3">
+        <v>142800</v>
+      </c>
+      <c r="K27" s="3">
         <v>179900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>211500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>231100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>147200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>101200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>226800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>178400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>99000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>780600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>216600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1852,14 +1912,14 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-31800</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6900</v>
+        <v>-18400</v>
       </c>
       <c r="E32" s="3">
-        <v>-29700</v>
+        <v>6600</v>
       </c>
       <c r="F32" s="3">
-        <v>15200</v>
+        <v>-28300</v>
       </c>
       <c r="G32" s="3">
-        <v>-14000</v>
+        <v>14500</v>
       </c>
       <c r="H32" s="3">
-        <v>-9300</v>
+        <v>-13400</v>
       </c>
       <c r="I32" s="3">
-        <v>-8100</v>
+        <v>-8800</v>
       </c>
       <c r="J32" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-142500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-20700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-19800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-11600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-38400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>279000</v>
+        <v>282600</v>
       </c>
       <c r="E33" s="3">
-        <v>126800</v>
+        <v>265900</v>
       </c>
       <c r="F33" s="3">
-        <v>-159800</v>
+        <v>120800</v>
       </c>
       <c r="G33" s="3">
-        <v>283200</v>
+        <v>-152300</v>
       </c>
       <c r="H33" s="3">
-        <v>282100</v>
+        <v>270000</v>
       </c>
       <c r="I33" s="3">
-        <v>149800</v>
+        <v>268800</v>
       </c>
       <c r="J33" s="3">
+        <v>142800</v>
+      </c>
+      <c r="K33" s="3">
         <v>179900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>211500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>231100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>147200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>101200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>195100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>178400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>99000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>780600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>216600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>279000</v>
+        <v>282600</v>
       </c>
       <c r="E35" s="3">
-        <v>126800</v>
+        <v>265900</v>
       </c>
       <c r="F35" s="3">
-        <v>-159800</v>
+        <v>120800</v>
       </c>
       <c r="G35" s="3">
-        <v>283200</v>
+        <v>-152300</v>
       </c>
       <c r="H35" s="3">
-        <v>282100</v>
+        <v>270000</v>
       </c>
       <c r="I35" s="3">
-        <v>149800</v>
+        <v>268800</v>
       </c>
       <c r="J35" s="3">
+        <v>142800</v>
+      </c>
+      <c r="K35" s="3">
         <v>179900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>211500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>231100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>147200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>101200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>195100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>178400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>99000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>780600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>216600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3292100</v>
+        <v>3510600</v>
       </c>
       <c r="E41" s="3">
-        <v>3124700</v>
+        <v>3138000</v>
       </c>
       <c r="F41" s="3">
-        <v>3197400</v>
+        <v>2978400</v>
       </c>
       <c r="G41" s="3">
-        <v>3396700</v>
+        <v>3047700</v>
       </c>
       <c r="H41" s="3">
-        <v>3078800</v>
+        <v>3237600</v>
       </c>
       <c r="I41" s="3">
-        <v>2520600</v>
+        <v>2934600</v>
       </c>
       <c r="J41" s="3">
+        <v>2402600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2779000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2770800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2332800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2285000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2527800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2525900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2446500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2758400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2930500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2607000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2525500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>383000</v>
+        <v>490300</v>
       </c>
       <c r="E42" s="3">
-        <v>335700</v>
+        <v>365100</v>
       </c>
       <c r="F42" s="3">
-        <v>312800</v>
+        <v>320000</v>
       </c>
       <c r="G42" s="3">
-        <v>229600</v>
+        <v>298200</v>
       </c>
       <c r="H42" s="3">
-        <v>94100</v>
+        <v>218800</v>
       </c>
       <c r="I42" s="3">
-        <v>332600</v>
+        <v>89700</v>
       </c>
       <c r="J42" s="3">
+        <v>317000</v>
+      </c>
+      <c r="K42" s="3">
         <v>389800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>292900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>275700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>279700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>394700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>342100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>714600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>731400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>497900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>157800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>175500</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3646400</v>
+        <v>3621000</v>
       </c>
       <c r="E43" s="3">
-        <v>3057100</v>
+        <v>3475700</v>
       </c>
       <c r="F43" s="3">
-        <v>2980500</v>
+        <v>2913900</v>
       </c>
       <c r="G43" s="3">
-        <v>3502000</v>
+        <v>2840900</v>
       </c>
       <c r="H43" s="3">
-        <v>3577900</v>
+        <v>3338000</v>
       </c>
       <c r="I43" s="3">
-        <v>3177300</v>
+        <v>3410300</v>
       </c>
       <c r="J43" s="3">
+        <v>3028500</v>
+      </c>
+      <c r="K43" s="3">
         <v>2961400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3200000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3658300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3144100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2748300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3100600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3055200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2624700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2261000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2509700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2325300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2366100</v>
+        <v>2346300</v>
       </c>
       <c r="E44" s="3">
-        <v>2476300</v>
+        <v>2255300</v>
       </c>
       <c r="F44" s="3">
-        <v>2272300</v>
+        <v>2360400</v>
       </c>
       <c r="G44" s="3">
-        <v>2346400</v>
+        <v>2165900</v>
       </c>
       <c r="H44" s="3">
-        <v>2126500</v>
+        <v>2236500</v>
       </c>
       <c r="I44" s="3">
-        <v>2250800</v>
+        <v>2026900</v>
       </c>
       <c r="J44" s="3">
+        <v>2145400</v>
+      </c>
+      <c r="K44" s="3">
         <v>2180400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2257400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2141000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2071700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1876100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1910700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1803700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1689800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1370400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1319200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1353300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>484600</v>
+        <v>483600</v>
       </c>
       <c r="E45" s="3">
-        <v>538000</v>
+        <v>461900</v>
       </c>
       <c r="F45" s="3">
-        <v>524900</v>
+        <v>512800</v>
       </c>
       <c r="G45" s="3">
-        <v>642100</v>
+        <v>500300</v>
       </c>
       <c r="H45" s="3">
-        <v>562600</v>
+        <v>612000</v>
       </c>
       <c r="I45" s="3">
-        <v>589400</v>
+        <v>536200</v>
       </c>
       <c r="J45" s="3">
+        <v>561800</v>
+      </c>
+      <c r="K45" s="3">
         <v>554500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>637800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>592600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>661500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>588500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>731100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>673600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>810400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>622800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2047000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10172200</v>
+        <v>10451800</v>
       </c>
       <c r="E46" s="3">
-        <v>9531800</v>
+        <v>9695900</v>
       </c>
       <c r="F46" s="3">
-        <v>9287900</v>
+        <v>9085400</v>
       </c>
       <c r="G46" s="3">
-        <v>10116700</v>
+        <v>8853000</v>
       </c>
       <c r="H46" s="3">
-        <v>9439800</v>
+        <v>9643000</v>
       </c>
       <c r="I46" s="3">
-        <v>8870800</v>
+        <v>8997800</v>
       </c>
       <c r="J46" s="3">
+        <v>8455400</v>
+      </c>
+      <c r="K46" s="3">
         <v>8865100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9158900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9000400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8442000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8135400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8610400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8693700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8614700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7682600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8640700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6876600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>319400</v>
+        <v>307500</v>
       </c>
       <c r="E47" s="3">
-        <v>316200</v>
+        <v>304400</v>
       </c>
       <c r="F47" s="3">
-        <v>319300</v>
+        <v>301400</v>
       </c>
       <c r="G47" s="3">
-        <v>323100</v>
+        <v>304400</v>
       </c>
       <c r="H47" s="3">
-        <v>314500</v>
+        <v>308000</v>
       </c>
       <c r="I47" s="3">
-        <v>1454300</v>
+        <v>299800</v>
       </c>
       <c r="J47" s="3">
+        <v>1386200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1492500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1498700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1515200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1447400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1403400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1460000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1353700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1385500</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>317100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6745600</v>
+        <v>6880600</v>
       </c>
       <c r="E48" s="3">
-        <v>6429500</v>
+        <v>6429700</v>
       </c>
       <c r="F48" s="3">
-        <v>6250000</v>
+        <v>6128400</v>
       </c>
       <c r="G48" s="3">
-        <v>6433400</v>
+        <v>5957300</v>
       </c>
       <c r="H48" s="3">
-        <v>6199400</v>
+        <v>6132100</v>
       </c>
       <c r="I48" s="3">
-        <v>6192800</v>
+        <v>5909100</v>
       </c>
       <c r="J48" s="3">
+        <v>5902900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5795900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5496300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5384500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5208000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4932600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4870000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4685800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4547500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4121600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4223600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4500600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2250400</v>
+        <v>2092600</v>
       </c>
       <c r="E49" s="3">
-        <v>2275800</v>
+        <v>2145000</v>
       </c>
       <c r="F49" s="3">
-        <v>2313100</v>
+        <v>2169200</v>
       </c>
       <c r="G49" s="3">
-        <v>2356600</v>
+        <v>2204700</v>
       </c>
       <c r="H49" s="3">
-        <v>2342200</v>
+        <v>2246200</v>
       </c>
       <c r="I49" s="3">
-        <v>2373500</v>
+        <v>2232500</v>
       </c>
       <c r="J49" s="3">
+        <v>2262400</v>
+      </c>
+      <c r="K49" s="3">
         <v>2436000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2398100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2378400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2277900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2200200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2272200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2276900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2205800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1001000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1092000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>933100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>516800</v>
+        <v>496100</v>
       </c>
       <c r="E52" s="3">
-        <v>520400</v>
+        <v>492600</v>
       </c>
       <c r="F52" s="3">
-        <v>505600</v>
+        <v>496000</v>
       </c>
       <c r="G52" s="3">
-        <v>483800</v>
+        <v>481900</v>
       </c>
       <c r="H52" s="3">
-        <v>469500</v>
+        <v>461200</v>
       </c>
       <c r="I52" s="3">
-        <v>495600</v>
+        <v>447500</v>
       </c>
       <c r="J52" s="3">
+        <v>472400</v>
+      </c>
+      <c r="K52" s="3">
         <v>558300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>538400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>564400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>528400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>551500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>539100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>565900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>539800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1957400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>599700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20004300</v>
+        <v>20228700</v>
       </c>
       <c r="E54" s="3">
-        <v>19073700</v>
+        <v>19067600</v>
       </c>
       <c r="F54" s="3">
-        <v>18675900</v>
+        <v>18180500</v>
       </c>
       <c r="G54" s="3">
-        <v>19713600</v>
+        <v>17801400</v>
       </c>
       <c r="H54" s="3">
-        <v>18765400</v>
+        <v>18790500</v>
       </c>
       <c r="I54" s="3">
-        <v>19387100</v>
+        <v>17886700</v>
       </c>
       <c r="J54" s="3">
+        <v>18479200</v>
+      </c>
+      <c r="K54" s="3">
         <v>19147700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19090400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18842900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17903800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17223100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17751700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17575900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17293200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14762600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14873100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13158900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2287900</v>
+        <v>2478900</v>
       </c>
       <c r="E57" s="3">
-        <v>2021600</v>
-      </c>
-      <c r="F57" s="3" t="s">
+        <v>2180700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1926900</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="3">
-        <v>2226900</v>
-      </c>
       <c r="H57" s="3">
-        <v>1989400</v>
+        <v>2122700</v>
       </c>
       <c r="I57" s="3">
-        <v>1861300</v>
+        <v>1896300</v>
       </c>
       <c r="J57" s="3">
+        <v>1774100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1824900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1935100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2006800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2067400</v>
       </c>
-      <c r="N57" s="3" t="s">
+      <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2138200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2066200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1807900</v>
       </c>
-      <c r="R57" s="3" t="s">
+      <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1648400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1383400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2751900</v>
+        <v>3177300</v>
       </c>
       <c r="E58" s="3">
-        <v>2603800</v>
+        <v>2623000</v>
       </c>
       <c r="F58" s="3">
-        <v>2740600</v>
+        <v>2481800</v>
       </c>
       <c r="G58" s="3">
-        <v>3047000</v>
+        <v>2607200</v>
       </c>
       <c r="H58" s="3">
-        <v>2632300</v>
+        <v>2904300</v>
       </c>
       <c r="I58" s="3">
-        <v>3514700</v>
+        <v>2509100</v>
       </c>
       <c r="J58" s="3">
+        <v>3350200</v>
+      </c>
+      <c r="K58" s="3">
         <v>3004000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2978100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2652200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2038100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1709800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1551100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1679200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2316800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1066100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1614500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2222200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2436800</v>
+        <v>2629100</v>
       </c>
       <c r="E59" s="3">
-        <v>2214200</v>
+        <v>2322600</v>
       </c>
       <c r="F59" s="3">
-        <v>4168000</v>
+        <v>2110500</v>
       </c>
       <c r="G59" s="3">
-        <v>2218000</v>
+        <v>3978000</v>
       </c>
       <c r="H59" s="3">
-        <v>2050400</v>
+        <v>2114100</v>
       </c>
       <c r="I59" s="3">
-        <v>1999500</v>
+        <v>1954400</v>
       </c>
       <c r="J59" s="3">
+        <v>1905900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2035800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2254600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2165900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1835800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3741600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1669900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1728700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1794900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3170100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1663200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1357600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7476500</v>
+        <v>8285400</v>
       </c>
       <c r="E60" s="3">
-        <v>6839500</v>
+        <v>7126400</v>
       </c>
       <c r="F60" s="3">
-        <v>6908700</v>
+        <v>6519300</v>
       </c>
       <c r="G60" s="3">
-        <v>7491900</v>
+        <v>6585200</v>
       </c>
       <c r="H60" s="3">
-        <v>6672200</v>
+        <v>7141000</v>
       </c>
       <c r="I60" s="3">
-        <v>7375600</v>
+        <v>6359700</v>
       </c>
       <c r="J60" s="3">
+        <v>7030200</v>
+      </c>
+      <c r="K60" s="3">
         <v>6864600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7167700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6824900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5941300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5451500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5359300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5474200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5919500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4236300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4926200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4963300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1820500</v>
+        <v>1422200</v>
       </c>
       <c r="E61" s="3">
-        <v>1826100</v>
+        <v>1735200</v>
       </c>
       <c r="F61" s="3">
-        <v>1397100</v>
+        <v>1740600</v>
       </c>
       <c r="G61" s="3">
-        <v>1350100</v>
+        <v>1283000</v>
       </c>
       <c r="H61" s="3">
-        <v>1770800</v>
+        <v>1286800</v>
       </c>
       <c r="I61" s="3">
-        <v>1772700</v>
+        <v>1687900</v>
       </c>
       <c r="J61" s="3">
+        <v>1689700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1995800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2044700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2160800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2705700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2656700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2905000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2974300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2470000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1897600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2078800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1355200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2287200</v>
+        <v>2246700</v>
       </c>
       <c r="E62" s="3">
-        <v>2270800</v>
+        <v>2180100</v>
       </c>
       <c r="F62" s="3">
-        <v>2215300</v>
+        <v>2164500</v>
       </c>
       <c r="G62" s="3">
-        <v>2106300</v>
+        <v>2160400</v>
       </c>
       <c r="H62" s="3">
-        <v>2042800</v>
+        <v>2007700</v>
       </c>
       <c r="I62" s="3">
-        <v>2048600</v>
+        <v>1947100</v>
       </c>
       <c r="J62" s="3">
+        <v>1952600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1794400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1669300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1673200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1604900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1600600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1619600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1597900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1582700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1514000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1409500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1440600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11618100</v>
+        <v>11981200</v>
       </c>
       <c r="E66" s="3">
-        <v>10980000</v>
+        <v>11074000</v>
       </c>
       <c r="F66" s="3">
-        <v>10565400</v>
+        <v>10465800</v>
       </c>
       <c r="G66" s="3">
-        <v>11000100</v>
+        <v>10070700</v>
       </c>
       <c r="H66" s="3">
-        <v>10536700</v>
+        <v>10485000</v>
       </c>
       <c r="I66" s="3">
-        <v>11256000</v>
+        <v>10043300</v>
       </c>
       <c r="J66" s="3">
+        <v>10728900</v>
+      </c>
+      <c r="K66" s="3">
         <v>10717000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10940400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10717600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10314600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9768400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9946100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10106300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10050400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7723300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8487700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7822400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10039200</v>
+        <v>9747400</v>
       </c>
       <c r="E72" s="3">
-        <v>9785200</v>
+        <v>9569100</v>
       </c>
       <c r="F72" s="3">
-        <v>9767500</v>
+        <v>9327000</v>
       </c>
       <c r="G72" s="3">
-        <v>9927400</v>
+        <v>9310200</v>
       </c>
       <c r="H72" s="3">
-        <v>9753400</v>
+        <v>9462500</v>
       </c>
       <c r="I72" s="3">
-        <v>9471300</v>
+        <v>9296700</v>
       </c>
       <c r="J72" s="3">
+        <v>9027800</v>
+      </c>
+      <c r="K72" s="3">
         <v>9418600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9075300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8816700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8400800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8316200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8215000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8088300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7909900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7731200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6951300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6801800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8386200</v>
+        <v>8247400</v>
       </c>
       <c r="E76" s="3">
-        <v>8093700</v>
+        <v>7993500</v>
       </c>
       <c r="F76" s="3">
-        <v>8110400</v>
+        <v>7714700</v>
       </c>
       <c r="G76" s="3">
-        <v>8713500</v>
+        <v>7730600</v>
       </c>
       <c r="H76" s="3">
-        <v>8228800</v>
+        <v>8305500</v>
       </c>
       <c r="I76" s="3">
-        <v>8131100</v>
+        <v>7843400</v>
       </c>
       <c r="J76" s="3">
+        <v>7750300</v>
+      </c>
+      <c r="K76" s="3">
         <v>8430800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8150000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8125300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7589200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7454700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7805600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7469600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7242800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7039400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6385400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5336600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>279000</v>
+        <v>282600</v>
       </c>
       <c r="E81" s="3">
-        <v>126800</v>
+        <v>265900</v>
       </c>
       <c r="F81" s="3">
-        <v>-159800</v>
+        <v>120800</v>
       </c>
       <c r="G81" s="3">
-        <v>283200</v>
+        <v>-152300</v>
       </c>
       <c r="H81" s="3">
-        <v>282100</v>
+        <v>270000</v>
       </c>
       <c r="I81" s="3">
-        <v>149800</v>
+        <v>268800</v>
       </c>
       <c r="J81" s="3">
+        <v>142800</v>
+      </c>
+      <c r="K81" s="3">
         <v>179900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>211500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>231100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>147200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>101200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>195100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>178400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>99000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>780600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>216600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>317000</v>
+        <v>331900</v>
       </c>
       <c r="E83" s="3">
-        <v>305000</v>
+        <v>302200</v>
       </c>
       <c r="F83" s="3">
-        <v>323000</v>
+        <v>290700</v>
       </c>
       <c r="G83" s="3">
-        <v>304500</v>
+        <v>307900</v>
       </c>
       <c r="H83" s="3">
-        <v>289400</v>
+        <v>290200</v>
       </c>
       <c r="I83" s="3">
-        <v>284200</v>
+        <v>275800</v>
       </c>
       <c r="J83" s="3">
+        <v>270900</v>
+      </c>
+      <c r="K83" s="3">
         <v>258100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>258600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>249900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>231500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>225800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>216500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>205200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>185800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>204100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>205000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>608600</v>
+        <v>822000</v>
       </c>
       <c r="E89" s="3">
-        <v>94200</v>
+        <v>580100</v>
       </c>
       <c r="F89" s="3">
-        <v>700300</v>
+        <v>89700</v>
       </c>
       <c r="G89" s="3">
-        <v>861500</v>
+        <v>667500</v>
       </c>
       <c r="H89" s="3">
-        <v>500400</v>
+        <v>821200</v>
       </c>
       <c r="I89" s="3">
-        <v>75000</v>
+        <v>477000</v>
       </c>
       <c r="J89" s="3">
+        <v>71500</v>
+      </c>
+      <c r="K89" s="3">
         <v>479600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>780600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>408400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-329800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>545400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>378100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>79500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-177600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>545700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>390400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>406900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-487800</v>
+        <v>-524900</v>
       </c>
       <c r="E91" s="3">
-        <v>-445600</v>
+        <v>-465000</v>
       </c>
       <c r="F91" s="3">
-        <v>-418600</v>
+        <v>-424700</v>
       </c>
       <c r="G91" s="3">
-        <v>-375000</v>
+        <v>-399000</v>
       </c>
       <c r="H91" s="3">
-        <v>-383900</v>
+        <v>-357500</v>
       </c>
       <c r="I91" s="3">
-        <v>-489100</v>
+        <v>-366000</v>
       </c>
       <c r="J91" s="3">
+        <v>-466200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-541600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-379600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-322700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-384400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-412700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-436500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-377400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-388000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-293800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-413900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-304700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-541400</v>
+        <v>-608700</v>
       </c>
       <c r="E94" s="3">
-        <v>-404500</v>
+        <v>-516100</v>
       </c>
       <c r="F94" s="3">
-        <v>-513100</v>
+        <v>-385600</v>
       </c>
       <c r="G94" s="3">
-        <v>-510900</v>
+        <v>-489100</v>
       </c>
       <c r="H94" s="3">
-        <v>1057100</v>
+        <v>-487000</v>
       </c>
       <c r="I94" s="3">
-        <v>-436400</v>
+        <v>1007600</v>
       </c>
       <c r="J94" s="3">
+        <v>-415900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-426400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-384800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-293100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-213600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-383600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-44100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-203600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1593400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>591900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-446200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-348600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1600</v>
+        <v>-103900</v>
       </c>
       <c r="E96" s="3">
-        <v>-107700</v>
+        <v>-1500</v>
       </c>
       <c r="F96" s="3">
+        <v>-102600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-200</v>
       </c>
-      <c r="G96" s="3">
-        <v>-101400</v>
-      </c>
       <c r="H96" s="3">
-        <v>-9000</v>
+        <v>-96600</v>
       </c>
       <c r="I96" s="3">
-        <v>-95700</v>
+        <v>-8600</v>
       </c>
       <c r="J96" s="3">
+        <v>-91300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-95200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-79200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-68300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-67100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-67000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>89100</v>
+        <v>135600</v>
       </c>
       <c r="E100" s="3">
-        <v>251100</v>
+        <v>84900</v>
       </c>
       <c r="F100" s="3">
-        <v>-311400</v>
+        <v>239300</v>
       </c>
       <c r="G100" s="3">
-        <v>-118500</v>
+        <v>-296800</v>
       </c>
       <c r="H100" s="3">
-        <v>-957700</v>
+        <v>-113000</v>
       </c>
       <c r="I100" s="3">
-        <v>217400</v>
+        <v>-912900</v>
       </c>
       <c r="J100" s="3">
+        <v>207300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-113000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>61100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-104900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>236500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-26100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-274500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-226100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1521900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-716900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-170900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>221900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11100</v>
+        <v>23700</v>
       </c>
       <c r="E101" s="3">
-        <v>-13400</v>
+        <v>10600</v>
       </c>
       <c r="F101" s="3">
-        <v>-75100</v>
+        <v>-12800</v>
       </c>
       <c r="G101" s="3">
-        <v>85800</v>
+        <v>-71500</v>
       </c>
       <c r="H101" s="3">
-        <v>-41600</v>
+        <v>81800</v>
       </c>
       <c r="I101" s="3">
-        <v>-114400</v>
+        <v>-39700</v>
       </c>
       <c r="J101" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="K101" s="3">
         <v>18200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-56500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>50100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-133700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>19900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>38300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>20800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-97200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>308200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>167400</v>
+        <v>372700</v>
       </c>
       <c r="E102" s="3">
-        <v>-72700</v>
+        <v>159600</v>
       </c>
       <c r="F102" s="3">
-        <v>-199200</v>
+        <v>-69300</v>
       </c>
       <c r="G102" s="3">
-        <v>317900</v>
+        <v>-189900</v>
       </c>
       <c r="H102" s="3">
-        <v>558200</v>
+        <v>303000</v>
       </c>
       <c r="I102" s="3">
-        <v>-258400</v>
+        <v>532000</v>
       </c>
       <c r="J102" s="3">
+        <v>-246300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-41700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-256800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>79400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-311900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-228300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>323600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>81500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>233900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3624500</v>
+        <v>3604400</v>
       </c>
       <c r="E8" s="3">
-        <v>3496500</v>
+        <v>3636400</v>
       </c>
       <c r="F8" s="3">
-        <v>2834000</v>
+        <v>3508000</v>
       </c>
       <c r="G8" s="3">
-        <v>2751400</v>
+        <v>2843300</v>
       </c>
       <c r="H8" s="3">
-        <v>3257600</v>
+        <v>2760400</v>
       </c>
       <c r="I8" s="3">
-        <v>3391200</v>
+        <v>3268300</v>
       </c>
       <c r="J8" s="3">
+        <v>3402300</v>
+      </c>
+      <c r="K8" s="3">
         <v>3085200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2970100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3311600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3519700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3118500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2775700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3083800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3019800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2617300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2433100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2880700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2664700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2485900</v>
+        <v>2670400</v>
       </c>
       <c r="E9" s="3">
-        <v>2408200</v>
+        <v>2494100</v>
       </c>
       <c r="F9" s="3">
-        <v>2013600</v>
+        <v>2416100</v>
       </c>
       <c r="G9" s="3">
-        <v>2041600</v>
+        <v>2020200</v>
       </c>
       <c r="H9" s="3">
-        <v>2216200</v>
+        <v>2048300</v>
       </c>
       <c r="I9" s="3">
-        <v>2327300</v>
+        <v>2223500</v>
       </c>
       <c r="J9" s="3">
+        <v>2334900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2205900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2202400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2303600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2451100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2256800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2084000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2201600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2193800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1923900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1831500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2033200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1915700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1138600</v>
+        <v>934000</v>
       </c>
       <c r="E10" s="3">
-        <v>1088300</v>
+        <v>1142300</v>
       </c>
       <c r="F10" s="3">
-        <v>820500</v>
+        <v>1091900</v>
       </c>
       <c r="G10" s="3">
-        <v>709900</v>
+        <v>823100</v>
       </c>
       <c r="H10" s="3">
-        <v>1041400</v>
+        <v>712200</v>
       </c>
       <c r="I10" s="3">
-        <v>1063900</v>
+        <v>1044800</v>
       </c>
       <c r="J10" s="3">
+        <v>1067400</v>
+      </c>
+      <c r="K10" s="3">
         <v>879300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>767700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1008000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1068600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>861700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>691800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>882100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>825900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>693400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>601500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>847600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>749000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,31 +1084,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>168100</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
+        <v>168600</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>2200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1105,8 +1125,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3211600</v>
+        <v>3567200</v>
       </c>
       <c r="E17" s="3">
-        <v>3093800</v>
+        <v>3222100</v>
       </c>
       <c r="F17" s="3">
-        <v>2665100</v>
+        <v>3103900</v>
       </c>
       <c r="G17" s="3">
-        <v>2855600</v>
+        <v>2673900</v>
       </c>
       <c r="H17" s="3">
-        <v>2887600</v>
+        <v>2864900</v>
       </c>
       <c r="I17" s="3">
-        <v>2989400</v>
+        <v>2897000</v>
       </c>
       <c r="J17" s="3">
+        <v>2999200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2856400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2846300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3002300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3178200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2887400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2677000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2790500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2770200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2467200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1263700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2592300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2418000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>412900</v>
+        <v>37200</v>
       </c>
       <c r="E18" s="3">
-        <v>402700</v>
+        <v>414300</v>
       </c>
       <c r="F18" s="3">
-        <v>168900</v>
+        <v>404000</v>
       </c>
       <c r="G18" s="3">
-        <v>-104100</v>
+        <v>169500</v>
       </c>
       <c r="H18" s="3">
-        <v>370000</v>
+        <v>-104500</v>
       </c>
       <c r="I18" s="3">
-        <v>401800</v>
+        <v>371200</v>
       </c>
       <c r="J18" s="3">
+        <v>403100</v>
+      </c>
+      <c r="K18" s="3">
         <v>228800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>123800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>309200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>341500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>231100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>98700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>293300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>249600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>150100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1169400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>288400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>246700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18400</v>
+        <v>87400</v>
       </c>
       <c r="E20" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-6600</v>
       </c>
-      <c r="F20" s="3">
-        <v>28300</v>
-      </c>
       <c r="G20" s="3">
-        <v>-14500</v>
+        <v>28400</v>
       </c>
       <c r="H20" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="I20" s="3">
         <v>13400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>142500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>20700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>19800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>11600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>38400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>763200</v>
+        <v>486000</v>
       </c>
       <c r="E21" s="3">
-        <v>698300</v>
+        <v>765700</v>
       </c>
       <c r="F21" s="3">
-        <v>488000</v>
+        <v>700600</v>
       </c>
       <c r="G21" s="3">
-        <v>189200</v>
+        <v>489600</v>
       </c>
       <c r="H21" s="3">
-        <v>673600</v>
+        <v>189900</v>
       </c>
       <c r="I21" s="3">
-        <v>686400</v>
+        <v>675800</v>
       </c>
       <c r="J21" s="3">
+        <v>688700</v>
+      </c>
+      <c r="K21" s="3">
         <v>507400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>524500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>560900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>576200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>457500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>345200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>529600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>463300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>347400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1411900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>498300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E22" s="3">
         <v>8200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9100</v>
       </c>
-      <c r="H22" s="3">
-        <v>6200</v>
-      </c>
       <c r="I22" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J22" s="3">
         <v>8100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>423100</v>
+        <v>115300</v>
       </c>
       <c r="E23" s="3">
-        <v>388900</v>
+        <v>424500</v>
       </c>
       <c r="F23" s="3">
-        <v>189700</v>
+        <v>390100</v>
       </c>
       <c r="G23" s="3">
-        <v>-127800</v>
+        <v>190300</v>
       </c>
       <c r="H23" s="3">
-        <v>377200</v>
+        <v>-128200</v>
       </c>
       <c r="I23" s="3">
-        <v>402500</v>
+        <v>378400</v>
       </c>
       <c r="J23" s="3">
+        <v>403900</v>
+      </c>
+      <c r="K23" s="3">
         <v>226300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>257200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>292600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>316500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>215800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>109200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>302600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>247000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>153100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1200000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>284800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>247900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>140400</v>
+        <v>60300</v>
       </c>
       <c r="E24" s="3">
-        <v>122300</v>
+        <v>140900</v>
       </c>
       <c r="F24" s="3">
-        <v>68300</v>
+        <v>122700</v>
       </c>
       <c r="G24" s="3">
-        <v>31200</v>
+        <v>68500</v>
       </c>
       <c r="H24" s="3">
-        <v>107200</v>
+        <v>31300</v>
       </c>
       <c r="I24" s="3">
-        <v>133400</v>
+        <v>107500</v>
       </c>
       <c r="J24" s="3">
+        <v>133800</v>
+      </c>
+      <c r="K24" s="3">
         <v>82900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>75700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>81000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>84500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>67600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>74000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>67300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>52100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>421800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>65000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>282700</v>
+        <v>55000</v>
       </c>
       <c r="E26" s="3">
-        <v>266600</v>
+        <v>283600</v>
       </c>
       <c r="F26" s="3">
-        <v>121400</v>
+        <v>267500</v>
       </c>
       <c r="G26" s="3">
-        <v>-159000</v>
+        <v>121800</v>
       </c>
       <c r="H26" s="3">
+        <v>-159500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>270900</v>
+      </c>
+      <c r="J26" s="3">
         <v>270000</v>
       </c>
-      <c r="I26" s="3">
-        <v>269100</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>143400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>181400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>211500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>231900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>148100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>228600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>179700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>101000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>778200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>219800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>181500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>282600</v>
+        <v>57600</v>
       </c>
       <c r="E27" s="3">
-        <v>265900</v>
+        <v>283500</v>
       </c>
       <c r="F27" s="3">
-        <v>120800</v>
+        <v>266800</v>
       </c>
       <c r="G27" s="3">
-        <v>-152300</v>
+        <v>121200</v>
       </c>
       <c r="H27" s="3">
-        <v>270000</v>
+        <v>-152800</v>
       </c>
       <c r="I27" s="3">
-        <v>268800</v>
+        <v>270900</v>
       </c>
       <c r="J27" s="3">
+        <v>269700</v>
+      </c>
+      <c r="K27" s="3">
         <v>142800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>179900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>211500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>231100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>147200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>101200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>226800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>178400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>99000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>780600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>216600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,31 +1935,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1915,14 +1976,14 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-31800</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18400</v>
+        <v>-87400</v>
       </c>
       <c r="E32" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="F32" s="3">
         <v>6600</v>
       </c>
-      <c r="F32" s="3">
-        <v>-28300</v>
-      </c>
       <c r="G32" s="3">
-        <v>14500</v>
+        <v>-28400</v>
       </c>
       <c r="H32" s="3">
+        <v>14600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-13400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-142500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-20700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-11600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-38400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>282600</v>
+        <v>57600</v>
       </c>
       <c r="E33" s="3">
-        <v>265900</v>
+        <v>283500</v>
       </c>
       <c r="F33" s="3">
-        <v>120800</v>
+        <v>266800</v>
       </c>
       <c r="G33" s="3">
-        <v>-152300</v>
+        <v>121200</v>
       </c>
       <c r="H33" s="3">
-        <v>270000</v>
+        <v>-152800</v>
       </c>
       <c r="I33" s="3">
-        <v>268800</v>
+        <v>270900</v>
       </c>
       <c r="J33" s="3">
+        <v>269700</v>
+      </c>
+      <c r="K33" s="3">
         <v>142800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>179900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>211500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>231100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>147200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>101200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>195100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>178400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>99000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>780600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>216600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>282600</v>
+        <v>57600</v>
       </c>
       <c r="E35" s="3">
-        <v>265900</v>
+        <v>283500</v>
       </c>
       <c r="F35" s="3">
-        <v>120800</v>
+        <v>266800</v>
       </c>
       <c r="G35" s="3">
-        <v>-152300</v>
+        <v>121200</v>
       </c>
       <c r="H35" s="3">
-        <v>270000</v>
+        <v>-152800</v>
       </c>
       <c r="I35" s="3">
-        <v>268800</v>
+        <v>270900</v>
       </c>
       <c r="J35" s="3">
+        <v>269700</v>
+      </c>
+      <c r="K35" s="3">
         <v>142800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>179900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>211500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>231100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>147200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>101200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>195100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>178400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>99000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>780600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>216600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,539 +2486,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3510600</v>
+        <v>3495800</v>
       </c>
       <c r="E41" s="3">
-        <v>3138000</v>
+        <v>3522100</v>
       </c>
       <c r="F41" s="3">
-        <v>2978400</v>
+        <v>3148200</v>
       </c>
       <c r="G41" s="3">
-        <v>3047700</v>
+        <v>2988100</v>
       </c>
       <c r="H41" s="3">
-        <v>3237600</v>
+        <v>3057700</v>
       </c>
       <c r="I41" s="3">
-        <v>2934600</v>
+        <v>3248200</v>
       </c>
       <c r="J41" s="3">
+        <v>2944200</v>
+      </c>
+      <c r="K41" s="3">
         <v>2402600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2779000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2770800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2332800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2285000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2527800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2525900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2446500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2758400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2930500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2607000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2525500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>490300</v>
+        <v>606000</v>
       </c>
       <c r="E42" s="3">
-        <v>365100</v>
+        <v>491900</v>
       </c>
       <c r="F42" s="3">
-        <v>320000</v>
+        <v>366300</v>
       </c>
       <c r="G42" s="3">
-        <v>298200</v>
+        <v>321000</v>
       </c>
       <c r="H42" s="3">
-        <v>218800</v>
+        <v>299100</v>
       </c>
       <c r="I42" s="3">
-        <v>89700</v>
+        <v>219500</v>
       </c>
       <c r="J42" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K42" s="3">
         <v>317000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>389800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>292900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>275700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>279700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>394700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>342100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>714600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>731400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>497900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>157800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>175500</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3621000</v>
+        <v>3946700</v>
       </c>
       <c r="E43" s="3">
-        <v>3475700</v>
+        <v>3632900</v>
       </c>
       <c r="F43" s="3">
-        <v>2913900</v>
+        <v>3487100</v>
       </c>
       <c r="G43" s="3">
-        <v>2840900</v>
+        <v>2923500</v>
       </c>
       <c r="H43" s="3">
-        <v>3338000</v>
+        <v>2850200</v>
       </c>
       <c r="I43" s="3">
-        <v>3410300</v>
+        <v>3349000</v>
       </c>
       <c r="J43" s="3">
+        <v>3421500</v>
+      </c>
+      <c r="K43" s="3">
         <v>3028500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2961400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3200000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3658300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3144100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2748300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3100600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3055200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2624700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2261000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2509700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2325300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2346300</v>
+        <v>2654600</v>
       </c>
       <c r="E44" s="3">
-        <v>2255300</v>
+        <v>2354000</v>
       </c>
       <c r="F44" s="3">
-        <v>2360400</v>
+        <v>2262700</v>
       </c>
       <c r="G44" s="3">
-        <v>2165900</v>
+        <v>2368100</v>
       </c>
       <c r="H44" s="3">
-        <v>2236500</v>
+        <v>2173000</v>
       </c>
       <c r="I44" s="3">
-        <v>2026900</v>
+        <v>2243800</v>
       </c>
       <c r="J44" s="3">
+        <v>2033500</v>
+      </c>
+      <c r="K44" s="3">
         <v>2145400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2180400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2257400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2141000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2071700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1876100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1910700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1803700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1689800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1370400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1319200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1353300</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>483600</v>
+        <v>631800</v>
       </c>
       <c r="E45" s="3">
-        <v>461900</v>
+        <v>485200</v>
       </c>
       <c r="F45" s="3">
-        <v>512800</v>
+        <v>463400</v>
       </c>
       <c r="G45" s="3">
-        <v>500300</v>
+        <v>514500</v>
       </c>
       <c r="H45" s="3">
-        <v>612000</v>
+        <v>502000</v>
       </c>
       <c r="I45" s="3">
-        <v>536200</v>
+        <v>614000</v>
       </c>
       <c r="J45" s="3">
+        <v>538000</v>
+      </c>
+      <c r="K45" s="3">
         <v>561800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>554500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>637800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>592600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>661500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>588500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>731100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>673600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>810400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>622800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2047000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10451800</v>
+        <v>11334800</v>
       </c>
       <c r="E46" s="3">
-        <v>9695900</v>
+        <v>10486100</v>
       </c>
       <c r="F46" s="3">
-        <v>9085400</v>
+        <v>9727600</v>
       </c>
       <c r="G46" s="3">
-        <v>8853000</v>
+        <v>9115200</v>
       </c>
       <c r="H46" s="3">
-        <v>9643000</v>
+        <v>8882000</v>
       </c>
       <c r="I46" s="3">
-        <v>8997800</v>
+        <v>9674500</v>
       </c>
       <c r="J46" s="3">
+        <v>9027200</v>
+      </c>
+      <c r="K46" s="3">
         <v>8455400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8865100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9158900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9000400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8442000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8135400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8610400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8693700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8614700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7682600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8640700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6876600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>307500</v>
+        <v>407000</v>
       </c>
       <c r="E47" s="3">
-        <v>304400</v>
+        <v>308500</v>
       </c>
       <c r="F47" s="3">
-        <v>301400</v>
+        <v>305400</v>
       </c>
       <c r="G47" s="3">
-        <v>304400</v>
+        <v>302400</v>
       </c>
       <c r="H47" s="3">
-        <v>308000</v>
+        <v>305400</v>
       </c>
       <c r="I47" s="3">
-        <v>299800</v>
+        <v>309000</v>
       </c>
       <c r="J47" s="3">
+        <v>300800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1386200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1492500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1498700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1515200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1447400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1403400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1460000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1353700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1385500</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>317100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6880600</v>
+        <v>7597300</v>
       </c>
       <c r="E48" s="3">
-        <v>6429700</v>
+        <v>6903100</v>
       </c>
       <c r="F48" s="3">
-        <v>6128400</v>
+        <v>6450800</v>
       </c>
       <c r="G48" s="3">
-        <v>5957300</v>
+        <v>6148500</v>
       </c>
       <c r="H48" s="3">
-        <v>6132100</v>
+        <v>5976900</v>
       </c>
       <c r="I48" s="3">
-        <v>5909100</v>
+        <v>6152200</v>
       </c>
       <c r="J48" s="3">
+        <v>5928500</v>
+      </c>
+      <c r="K48" s="3">
         <v>5902900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5795900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5496300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5384500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5208000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4932600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4870000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4685800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4547500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4121600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4223600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4500600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2092600</v>
+        <v>1517200</v>
       </c>
       <c r="E49" s="3">
-        <v>2145000</v>
+        <v>2099500</v>
       </c>
       <c r="F49" s="3">
-        <v>2169200</v>
+        <v>2152000</v>
       </c>
       <c r="G49" s="3">
-        <v>2204700</v>
+        <v>2176300</v>
       </c>
       <c r="H49" s="3">
-        <v>2246200</v>
+        <v>2212000</v>
       </c>
       <c r="I49" s="3">
-        <v>2232500</v>
+        <v>2253600</v>
       </c>
       <c r="J49" s="3">
+        <v>2239800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2262400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2436000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2398100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2378400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2277900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2200200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2272200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2276900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2205800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1001000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1092000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>933100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>496100</v>
+        <v>1212800</v>
       </c>
       <c r="E52" s="3">
-        <v>492600</v>
+        <v>497700</v>
       </c>
       <c r="F52" s="3">
-        <v>496000</v>
+        <v>494200</v>
       </c>
       <c r="G52" s="3">
-        <v>481900</v>
+        <v>497600</v>
       </c>
       <c r="H52" s="3">
-        <v>461200</v>
+        <v>483500</v>
       </c>
       <c r="I52" s="3">
-        <v>447500</v>
+        <v>462700</v>
       </c>
       <c r="J52" s="3">
+        <v>449000</v>
+      </c>
+      <c r="K52" s="3">
         <v>472400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>558300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>538400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>564400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>528400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>551500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>539100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>565900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>539800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1957400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>599700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20228700</v>
+        <v>22069200</v>
       </c>
       <c r="E54" s="3">
-        <v>19067600</v>
+        <v>20294900</v>
       </c>
       <c r="F54" s="3">
-        <v>18180500</v>
+        <v>19130000</v>
       </c>
       <c r="G54" s="3">
-        <v>17801400</v>
+        <v>18240100</v>
       </c>
       <c r="H54" s="3">
-        <v>18790500</v>
+        <v>17859700</v>
       </c>
       <c r="I54" s="3">
-        <v>17886700</v>
+        <v>18852000</v>
       </c>
       <c r="J54" s="3">
+        <v>17945300</v>
+      </c>
+      <c r="K54" s="3">
         <v>18479200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19147700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19090400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18842900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17903800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17223100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17751700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17575900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17293200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14762600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14873100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13158900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2478900</v>
+        <v>2981000</v>
       </c>
       <c r="E57" s="3">
-        <v>2180700</v>
+        <v>2487100</v>
       </c>
       <c r="F57" s="3">
-        <v>1926900</v>
-      </c>
-      <c r="G57" s="3" t="s">
+        <v>2187900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1933200</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="3">
-        <v>2122700</v>
-      </c>
       <c r="I57" s="3">
-        <v>1896300</v>
+        <v>2129600</v>
       </c>
       <c r="J57" s="3">
+        <v>1902500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1774100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1824900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1935100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2006800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2067400</v>
       </c>
-      <c r="O57" s="3" t="s">
+      <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2138200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2066200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1807900</v>
       </c>
-      <c r="S57" s="3" t="s">
+      <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1648400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1383400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3177300</v>
+        <v>3014900</v>
       </c>
       <c r="E58" s="3">
-        <v>2623000</v>
+        <v>3187800</v>
       </c>
       <c r="F58" s="3">
-        <v>2481800</v>
+        <v>2631600</v>
       </c>
       <c r="G58" s="3">
-        <v>2607200</v>
+        <v>2490000</v>
       </c>
       <c r="H58" s="3">
-        <v>2904300</v>
+        <v>2615700</v>
       </c>
       <c r="I58" s="3">
-        <v>2509100</v>
+        <v>2913800</v>
       </c>
       <c r="J58" s="3">
+        <v>2517300</v>
+      </c>
+      <c r="K58" s="3">
         <v>3350200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3004000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2978100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2652200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2038100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1709800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1551100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1679200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2316800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1066100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1614500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2222200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2629100</v>
+        <v>3299600</v>
       </c>
       <c r="E59" s="3">
-        <v>2322600</v>
+        <v>2637800</v>
       </c>
       <c r="F59" s="3">
-        <v>2110500</v>
+        <v>2330300</v>
       </c>
       <c r="G59" s="3">
-        <v>3978000</v>
+        <v>2117400</v>
       </c>
       <c r="H59" s="3">
-        <v>2114100</v>
+        <v>3991000</v>
       </c>
       <c r="I59" s="3">
-        <v>1954400</v>
+        <v>2121000</v>
       </c>
       <c r="J59" s="3">
+        <v>1960800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1905900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2035800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2254600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2165900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1835800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3741600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1669900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1728700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1794900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3170100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1663200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1357600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8285400</v>
+        <v>9295500</v>
       </c>
       <c r="E60" s="3">
-        <v>7126400</v>
+        <v>8312600</v>
       </c>
       <c r="F60" s="3">
-        <v>6519300</v>
+        <v>7149800</v>
       </c>
       <c r="G60" s="3">
-        <v>6585200</v>
+        <v>6540600</v>
       </c>
       <c r="H60" s="3">
-        <v>7141000</v>
+        <v>6606700</v>
       </c>
       <c r="I60" s="3">
-        <v>6359700</v>
+        <v>7164400</v>
       </c>
       <c r="J60" s="3">
+        <v>6380600</v>
+      </c>
+      <c r="K60" s="3">
         <v>7030200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6864600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7167700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6824900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5941300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5451500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5359300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5474200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5919500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4236300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4926200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4963300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1422200</v>
+        <v>1427000</v>
       </c>
       <c r="E61" s="3">
-        <v>1735200</v>
+        <v>1426900</v>
       </c>
       <c r="F61" s="3">
-        <v>1740600</v>
+        <v>1740900</v>
       </c>
       <c r="G61" s="3">
-        <v>1283000</v>
+        <v>1746300</v>
       </c>
       <c r="H61" s="3">
-        <v>1286800</v>
+        <v>1287200</v>
       </c>
       <c r="I61" s="3">
-        <v>1687900</v>
+        <v>1291100</v>
       </c>
       <c r="J61" s="3">
+        <v>1693400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1689700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1995800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2044700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2160800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2705700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2656700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2905000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2974300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2470000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1897600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2078800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1355200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2246700</v>
+        <v>2098900</v>
       </c>
       <c r="E62" s="3">
-        <v>2180100</v>
+        <v>2254100</v>
       </c>
       <c r="F62" s="3">
-        <v>2164500</v>
+        <v>2187200</v>
       </c>
       <c r="G62" s="3">
-        <v>2160400</v>
+        <v>2171600</v>
       </c>
       <c r="H62" s="3">
-        <v>2007700</v>
+        <v>2167500</v>
       </c>
       <c r="I62" s="3">
-        <v>1947100</v>
+        <v>2014300</v>
       </c>
       <c r="J62" s="3">
+        <v>1953500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1952600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1794400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1669300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1673200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1604900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1600600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1619600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1597900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1582700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1514000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1409500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1440600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11981200</v>
+        <v>12846700</v>
       </c>
       <c r="E66" s="3">
-        <v>11074000</v>
+        <v>12020500</v>
       </c>
       <c r="F66" s="3">
-        <v>10465800</v>
+        <v>11110300</v>
       </c>
       <c r="G66" s="3">
-        <v>10070700</v>
+        <v>10500100</v>
       </c>
       <c r="H66" s="3">
-        <v>10485000</v>
+        <v>10103700</v>
       </c>
       <c r="I66" s="3">
-        <v>10043300</v>
+        <v>10519300</v>
       </c>
       <c r="J66" s="3">
+        <v>10076200</v>
+      </c>
+      <c r="K66" s="3">
         <v>10728900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10717000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10940400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10717600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10314600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9768400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9946100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10106300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10050400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7723300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8487700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7822400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9747400</v>
+        <v>9837200</v>
       </c>
       <c r="E72" s="3">
-        <v>9569100</v>
+        <v>9779300</v>
       </c>
       <c r="F72" s="3">
-        <v>9327000</v>
+        <v>9600500</v>
       </c>
       <c r="G72" s="3">
-        <v>9310200</v>
+        <v>9357500</v>
       </c>
       <c r="H72" s="3">
-        <v>9462500</v>
+        <v>9340700</v>
       </c>
       <c r="I72" s="3">
-        <v>9296700</v>
+        <v>9493500</v>
       </c>
       <c r="J72" s="3">
+        <v>9327100</v>
+      </c>
+      <c r="K72" s="3">
         <v>9027800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9418600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9075300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8816700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8400800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8316200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8215000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8088300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7909900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7731200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6951300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6801800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8247400</v>
+        <v>9222500</v>
       </c>
       <c r="E76" s="3">
-        <v>7993500</v>
+        <v>8274400</v>
       </c>
       <c r="F76" s="3">
-        <v>7714700</v>
+        <v>8019700</v>
       </c>
       <c r="G76" s="3">
-        <v>7730600</v>
+        <v>7739900</v>
       </c>
       <c r="H76" s="3">
-        <v>8305500</v>
+        <v>7756000</v>
       </c>
       <c r="I76" s="3">
-        <v>7843400</v>
+        <v>8332700</v>
       </c>
       <c r="J76" s="3">
+        <v>7869100</v>
+      </c>
+      <c r="K76" s="3">
         <v>7750300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8430800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8150000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8125300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7589200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7454700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7805600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7469600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7242800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7039400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6385400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5336600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>282600</v>
+        <v>57600</v>
       </c>
       <c r="E81" s="3">
-        <v>265900</v>
+        <v>283500</v>
       </c>
       <c r="F81" s="3">
-        <v>120800</v>
+        <v>266800</v>
       </c>
       <c r="G81" s="3">
-        <v>-152300</v>
+        <v>121200</v>
       </c>
       <c r="H81" s="3">
-        <v>270000</v>
+        <v>-152800</v>
       </c>
       <c r="I81" s="3">
-        <v>268800</v>
+        <v>270900</v>
       </c>
       <c r="J81" s="3">
+        <v>269700</v>
+      </c>
+      <c r="K81" s="3">
         <v>142800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>179900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>211500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>231100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>147200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>101200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>195100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>178400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>99000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>780600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>216600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>331900</v>
+        <v>361400</v>
       </c>
       <c r="E83" s="3">
-        <v>302200</v>
+        <v>333000</v>
       </c>
       <c r="F83" s="3">
-        <v>290700</v>
+        <v>303200</v>
       </c>
       <c r="G83" s="3">
-        <v>307900</v>
+        <v>291700</v>
       </c>
       <c r="H83" s="3">
-        <v>290200</v>
+        <v>308900</v>
       </c>
       <c r="I83" s="3">
-        <v>275800</v>
+        <v>291200</v>
       </c>
       <c r="J83" s="3">
+        <v>276700</v>
+      </c>
+      <c r="K83" s="3">
         <v>270900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>258100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>258600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>249900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>231500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>225800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>216500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>205200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>185800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>204100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>205000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>822000</v>
+        <v>550900</v>
       </c>
       <c r="E89" s="3">
-        <v>580100</v>
+        <v>824700</v>
       </c>
       <c r="F89" s="3">
-        <v>89700</v>
+        <v>582000</v>
       </c>
       <c r="G89" s="3">
-        <v>667500</v>
+        <v>90000</v>
       </c>
       <c r="H89" s="3">
-        <v>821200</v>
+        <v>669700</v>
       </c>
       <c r="I89" s="3">
-        <v>477000</v>
+        <v>823900</v>
       </c>
       <c r="J89" s="3">
+        <v>478500</v>
+      </c>
+      <c r="K89" s="3">
         <v>71500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>479600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>780600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>408400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-329800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>545400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>378100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>79500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-177600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>545700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>390400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>406900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-524900</v>
+        <v>-532300</v>
       </c>
       <c r="E91" s="3">
-        <v>-465000</v>
+        <v>-526600</v>
       </c>
       <c r="F91" s="3">
-        <v>-424700</v>
+        <v>-466500</v>
       </c>
       <c r="G91" s="3">
-        <v>-399000</v>
+        <v>-426100</v>
       </c>
       <c r="H91" s="3">
-        <v>-357500</v>
+        <v>-400300</v>
       </c>
       <c r="I91" s="3">
-        <v>-366000</v>
+        <v>-358700</v>
       </c>
       <c r="J91" s="3">
+        <v>-367200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-466200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-541600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-379600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-322700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-384400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-412700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-436500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-377400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-388000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-293800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-413900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-304700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-608700</v>
+        <v>-612100</v>
       </c>
       <c r="E94" s="3">
-        <v>-516100</v>
+        <v>-610700</v>
       </c>
       <c r="F94" s="3">
-        <v>-385600</v>
+        <v>-517800</v>
       </c>
       <c r="G94" s="3">
-        <v>-489100</v>
+        <v>-386800</v>
       </c>
       <c r="H94" s="3">
-        <v>-487000</v>
+        <v>-490700</v>
       </c>
       <c r="I94" s="3">
-        <v>1007600</v>
+        <v>-488600</v>
       </c>
       <c r="J94" s="3">
+        <v>1010900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-415900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-426400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-384800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-293100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-213600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-383600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-44100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-203600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1593400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>591900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-446200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-348600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-103900</v>
+        <v>-200</v>
       </c>
       <c r="E96" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1500</v>
       </c>
-      <c r="F96" s="3">
-        <v>-102600</v>
-      </c>
       <c r="G96" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-200</v>
       </c>
-      <c r="H96" s="3">
-        <v>-96600</v>
-      </c>
       <c r="I96" s="3">
+        <v>-96900</v>
+      </c>
+      <c r="J96" s="3">
         <v>-8600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-91300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-95200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-79200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-68300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-67100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-67000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>135600</v>
+        <v>-193100</v>
       </c>
       <c r="E100" s="3">
-        <v>84900</v>
+        <v>136100</v>
       </c>
       <c r="F100" s="3">
-        <v>239300</v>
+        <v>85200</v>
       </c>
       <c r="G100" s="3">
-        <v>-296800</v>
+        <v>240100</v>
       </c>
       <c r="H100" s="3">
+        <v>-297700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-113400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-915900</v>
+      </c>
+      <c r="K100" s="3">
+        <v>207300</v>
+      </c>
+      <c r="L100" s="3">
         <v>-113000</v>
       </c>
-      <c r="I100" s="3">
-        <v>-912900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>207300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-113000</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>61100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-104900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>236500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-26100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-274500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-226100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1521900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-716900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-170900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>221900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E101" s="3">
         <v>23700</v>
       </c>
-      <c r="E101" s="3">
-        <v>10600</v>
-      </c>
       <c r="F101" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G101" s="3">
         <v>-12800</v>
       </c>
-      <c r="G101" s="3">
-        <v>-71500</v>
-      </c>
       <c r="H101" s="3">
-        <v>81800</v>
+        <v>-71800</v>
       </c>
       <c r="I101" s="3">
-        <v>-39700</v>
+        <v>82100</v>
       </c>
       <c r="J101" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-109000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>18200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-56500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>50100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-133700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>19900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>38300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>20800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-97200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>308200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>372700</v>
+        <v>-26400</v>
       </c>
       <c r="E102" s="3">
-        <v>159600</v>
+        <v>373900</v>
       </c>
       <c r="F102" s="3">
-        <v>-69300</v>
+        <v>160100</v>
       </c>
       <c r="G102" s="3">
-        <v>-189900</v>
+        <v>-69500</v>
       </c>
       <c r="H102" s="3">
-        <v>303000</v>
+        <v>-190500</v>
       </c>
       <c r="I102" s="3">
-        <v>532000</v>
+        <v>304000</v>
       </c>
       <c r="J102" s="3">
+        <v>533800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-246300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-41700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-256800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>79400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-311900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-228300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>323600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>81500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>233900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3604400</v>
+        <v>3826700</v>
       </c>
       <c r="E8" s="3">
-        <v>3636400</v>
+        <v>3573000</v>
       </c>
       <c r="F8" s="3">
-        <v>3508000</v>
+        <v>3604700</v>
       </c>
       <c r="G8" s="3">
-        <v>2843300</v>
+        <v>3477500</v>
       </c>
       <c r="H8" s="3">
-        <v>2760400</v>
+        <v>2818600</v>
       </c>
       <c r="I8" s="3">
-        <v>3268300</v>
+        <v>2736400</v>
       </c>
       <c r="J8" s="3">
+        <v>3239800</v>
+      </c>
+      <c r="K8" s="3">
         <v>3402300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3085200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2970100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3311600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3519700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3118500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2775700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3083800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3019800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2617300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2433100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2880700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2664700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2670400</v>
+        <v>2747700</v>
       </c>
       <c r="E9" s="3">
-        <v>2494100</v>
+        <v>2647100</v>
       </c>
       <c r="F9" s="3">
-        <v>2416100</v>
+        <v>2472300</v>
       </c>
       <c r="G9" s="3">
-        <v>2020200</v>
+        <v>2395100</v>
       </c>
       <c r="H9" s="3">
-        <v>2048300</v>
+        <v>2002600</v>
       </c>
       <c r="I9" s="3">
-        <v>2223500</v>
+        <v>2030400</v>
       </c>
       <c r="J9" s="3">
+        <v>2204100</v>
+      </c>
+      <c r="K9" s="3">
         <v>2334900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2205900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2202400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2303600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2451100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2256800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2084000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2201600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2193800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1923900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1831500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2033200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1915700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>934000</v>
+        <v>1079000</v>
       </c>
       <c r="E10" s="3">
-        <v>1142300</v>
+        <v>925900</v>
       </c>
       <c r="F10" s="3">
-        <v>1091900</v>
+        <v>1132400</v>
       </c>
       <c r="G10" s="3">
-        <v>823100</v>
+        <v>1082400</v>
       </c>
       <c r="H10" s="3">
-        <v>712200</v>
+        <v>816000</v>
       </c>
       <c r="I10" s="3">
-        <v>1044800</v>
+        <v>706000</v>
       </c>
       <c r="J10" s="3">
+        <v>1035700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1067400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>879300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>767700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1008000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1068600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>861700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>691800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>882100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>825900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>693400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>601500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>847600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>749000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,25 +1116,25 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>70600</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>168600</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>167200</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>2200</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1128,8 +1148,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3567200</v>
+        <v>3545800</v>
       </c>
       <c r="E17" s="3">
-        <v>3222100</v>
+        <v>3536100</v>
       </c>
       <c r="F17" s="3">
-        <v>3103900</v>
+        <v>3194000</v>
       </c>
       <c r="G17" s="3">
-        <v>2673900</v>
+        <v>3076900</v>
       </c>
       <c r="H17" s="3">
-        <v>2864900</v>
+        <v>2650600</v>
       </c>
       <c r="I17" s="3">
-        <v>2897000</v>
+        <v>2840000</v>
       </c>
       <c r="J17" s="3">
+        <v>2871800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2999200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2856400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2846300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3002300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3178200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2887400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2677000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2790500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2770200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2467200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1263700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2592300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2418000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>37200</v>
+        <v>280900</v>
       </c>
       <c r="E18" s="3">
-        <v>414300</v>
+        <v>36900</v>
       </c>
       <c r="F18" s="3">
-        <v>404000</v>
+        <v>410700</v>
       </c>
       <c r="G18" s="3">
-        <v>169500</v>
+        <v>400500</v>
       </c>
       <c r="H18" s="3">
-        <v>-104500</v>
+        <v>168000</v>
       </c>
       <c r="I18" s="3">
-        <v>371200</v>
+        <v>-103600</v>
       </c>
       <c r="J18" s="3">
+        <v>368000</v>
+      </c>
+      <c r="K18" s="3">
         <v>403100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>228800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>123800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>309200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>341500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>231100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>98700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>293300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>249600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>150100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1169400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>288400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>246700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>87400</v>
+        <v>24100</v>
       </c>
       <c r="E20" s="3">
-        <v>18500</v>
+        <v>86600</v>
       </c>
       <c r="F20" s="3">
-        <v>-6600</v>
+        <v>18300</v>
       </c>
       <c r="G20" s="3">
-        <v>28400</v>
+        <v>-6500</v>
       </c>
       <c r="H20" s="3">
-        <v>-14600</v>
+        <v>28100</v>
       </c>
       <c r="I20" s="3">
-        <v>13400</v>
+        <v>-14400</v>
       </c>
       <c r="J20" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K20" s="3">
         <v>8800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>142500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>20700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>19800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>11600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>38400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>486000</v>
+        <v>674700</v>
       </c>
       <c r="E21" s="3">
-        <v>765700</v>
+        <v>481800</v>
       </c>
       <c r="F21" s="3">
-        <v>700600</v>
+        <v>759100</v>
       </c>
       <c r="G21" s="3">
-        <v>489600</v>
+        <v>694500</v>
       </c>
       <c r="H21" s="3">
-        <v>189900</v>
+        <v>485300</v>
       </c>
       <c r="I21" s="3">
-        <v>675800</v>
+        <v>188200</v>
       </c>
       <c r="J21" s="3">
+        <v>670000</v>
+      </c>
+      <c r="K21" s="3">
         <v>688700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>507400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>524500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>560900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>576200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>457500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>345200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>529600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>463300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>347400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1411900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>498300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9300</v>
+        <v>11300</v>
       </c>
       <c r="E22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F22" s="3">
         <v>8200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="M22" s="3">
         <v>9100</v>
       </c>
-      <c r="I22" s="3">
-        <v>6300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>8100</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="O22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="P22" s="3">
         <v>10200</v>
       </c>
-      <c r="L22" s="3">
-        <v>9100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>9600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>9900</v>
-      </c>
-      <c r="O22" s="3">
-        <v>10200</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>115300</v>
+        <v>293700</v>
       </c>
       <c r="E23" s="3">
-        <v>424500</v>
+        <v>114300</v>
       </c>
       <c r="F23" s="3">
-        <v>390100</v>
+        <v>420800</v>
       </c>
       <c r="G23" s="3">
-        <v>190300</v>
+        <v>386700</v>
       </c>
       <c r="H23" s="3">
-        <v>-128200</v>
+        <v>188700</v>
       </c>
       <c r="I23" s="3">
-        <v>378400</v>
+        <v>-127100</v>
       </c>
       <c r="J23" s="3">
+        <v>375100</v>
+      </c>
+      <c r="K23" s="3">
         <v>403900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>226300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>257200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>292600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>316500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>215800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>109200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>302600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>247000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>153100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1200000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>284800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>247900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>60300</v>
+        <v>50700</v>
       </c>
       <c r="E24" s="3">
-        <v>140900</v>
+        <v>59800</v>
       </c>
       <c r="F24" s="3">
-        <v>122700</v>
+        <v>139700</v>
       </c>
       <c r="G24" s="3">
-        <v>68500</v>
+        <v>121600</v>
       </c>
       <c r="H24" s="3">
-        <v>31300</v>
+        <v>67900</v>
       </c>
       <c r="I24" s="3">
-        <v>107500</v>
+        <v>31100</v>
       </c>
       <c r="J24" s="3">
+        <v>106600</v>
+      </c>
+      <c r="K24" s="3">
         <v>133800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>82900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>75700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>81000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>84500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>67600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>74000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>67300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>52100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>421800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>65000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>55000</v>
+        <v>243000</v>
       </c>
       <c r="E26" s="3">
-        <v>283600</v>
+        <v>54500</v>
       </c>
       <c r="F26" s="3">
-        <v>267500</v>
+        <v>281200</v>
       </c>
       <c r="G26" s="3">
-        <v>121800</v>
+        <v>265100</v>
       </c>
       <c r="H26" s="3">
-        <v>-159500</v>
+        <v>120800</v>
       </c>
       <c r="I26" s="3">
-        <v>270900</v>
+        <v>-158100</v>
       </c>
       <c r="J26" s="3">
+        <v>268500</v>
+      </c>
+      <c r="K26" s="3">
         <v>270000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>143400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>181400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>211500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>231900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>148100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>228600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>179700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>101000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>778200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>219800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>181500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>57600</v>
+        <v>242900</v>
       </c>
       <c r="E27" s="3">
-        <v>283500</v>
+        <v>57100</v>
       </c>
       <c r="F27" s="3">
-        <v>266800</v>
+        <v>281100</v>
       </c>
       <c r="G27" s="3">
-        <v>121200</v>
+        <v>264500</v>
       </c>
       <c r="H27" s="3">
-        <v>-152800</v>
+        <v>120200</v>
       </c>
       <c r="I27" s="3">
-        <v>270900</v>
+        <v>-151500</v>
       </c>
       <c r="J27" s="3">
+        <v>268500</v>
+      </c>
+      <c r="K27" s="3">
         <v>269700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>142800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>179900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>211500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>231100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>147200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>101200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>226800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>178400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>99000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>780600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>216600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +2025,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1979,14 +2040,14 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-31800</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-87400</v>
+        <v>-24100</v>
       </c>
       <c r="E32" s="3">
-        <v>-18500</v>
+        <v>-86600</v>
       </c>
       <c r="F32" s="3">
-        <v>6600</v>
+        <v>-18300</v>
       </c>
       <c r="G32" s="3">
-        <v>-28400</v>
+        <v>6500</v>
       </c>
       <c r="H32" s="3">
-        <v>14600</v>
+        <v>-28100</v>
       </c>
       <c r="I32" s="3">
-        <v>-13400</v>
+        <v>14400</v>
       </c>
       <c r="J32" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-142500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-19800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-11600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-38400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>57600</v>
+        <v>242900</v>
       </c>
       <c r="E33" s="3">
-        <v>283500</v>
+        <v>57100</v>
       </c>
       <c r="F33" s="3">
-        <v>266800</v>
+        <v>281100</v>
       </c>
       <c r="G33" s="3">
-        <v>121200</v>
+        <v>264500</v>
       </c>
       <c r="H33" s="3">
-        <v>-152800</v>
+        <v>120200</v>
       </c>
       <c r="I33" s="3">
-        <v>270900</v>
+        <v>-151500</v>
       </c>
       <c r="J33" s="3">
+        <v>268500</v>
+      </c>
+      <c r="K33" s="3">
         <v>269700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>142800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>179900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>211500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>231100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>147200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>101200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>195100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>178400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>99000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>780600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>216600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>57600</v>
+        <v>242900</v>
       </c>
       <c r="E35" s="3">
-        <v>283500</v>
+        <v>57100</v>
       </c>
       <c r="F35" s="3">
-        <v>266800</v>
+        <v>281100</v>
       </c>
       <c r="G35" s="3">
-        <v>121200</v>
+        <v>264500</v>
       </c>
       <c r="H35" s="3">
-        <v>-152800</v>
+        <v>120200</v>
       </c>
       <c r="I35" s="3">
-        <v>270900</v>
+        <v>-151500</v>
       </c>
       <c r="J35" s="3">
+        <v>268500</v>
+      </c>
+      <c r="K35" s="3">
         <v>269700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>142800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>179900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>211500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>231100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>147200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>101200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>195100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>178400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>99000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>780600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>216600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,380 +2573,399 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3495800</v>
+        <v>3358900</v>
       </c>
       <c r="E41" s="3">
-        <v>3522100</v>
+        <v>3465300</v>
       </c>
       <c r="F41" s="3">
-        <v>3148200</v>
+        <v>3491500</v>
       </c>
       <c r="G41" s="3">
-        <v>2988100</v>
+        <v>3120800</v>
       </c>
       <c r="H41" s="3">
-        <v>3057700</v>
+        <v>2962100</v>
       </c>
       <c r="I41" s="3">
-        <v>3248200</v>
+        <v>3031100</v>
       </c>
       <c r="J41" s="3">
+        <v>3219900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2944200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2402600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2779000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2770800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2332800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2285000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2527800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2525900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2446500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2758400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2930500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2607000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2525500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>606000</v>
+        <v>308100</v>
       </c>
       <c r="E42" s="3">
-        <v>491900</v>
+        <v>600700</v>
       </c>
       <c r="F42" s="3">
-        <v>366300</v>
+        <v>487600</v>
       </c>
       <c r="G42" s="3">
-        <v>321000</v>
+        <v>363100</v>
       </c>
       <c r="H42" s="3">
-        <v>299100</v>
+        <v>318200</v>
       </c>
       <c r="I42" s="3">
-        <v>219500</v>
+        <v>296500</v>
       </c>
       <c r="J42" s="3">
+        <v>217600</v>
+      </c>
+      <c r="K42" s="3">
         <v>90000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>317000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>389800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>292900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>275700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>279700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>394700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>342100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>714600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>731400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>497900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>157800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>175500</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3946700</v>
+        <v>4141300</v>
       </c>
       <c r="E43" s="3">
-        <v>3632900</v>
+        <v>3957700</v>
       </c>
       <c r="F43" s="3">
-        <v>3487100</v>
+        <v>3601200</v>
       </c>
       <c r="G43" s="3">
-        <v>2923500</v>
+        <v>3456700</v>
       </c>
       <c r="H43" s="3">
-        <v>2850200</v>
+        <v>2898000</v>
       </c>
       <c r="I43" s="3">
-        <v>3349000</v>
+        <v>2825400</v>
       </c>
       <c r="J43" s="3">
+        <v>3319800</v>
+      </c>
+      <c r="K43" s="3">
         <v>3421500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3028500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2961400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3200000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3658300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3144100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2748300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3100600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3055200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2624700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2261000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2509700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2325300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2654600</v>
+        <v>3045100</v>
       </c>
       <c r="E44" s="3">
-        <v>2354000</v>
+        <v>2631500</v>
       </c>
       <c r="F44" s="3">
-        <v>2262700</v>
+        <v>2333500</v>
       </c>
       <c r="G44" s="3">
-        <v>2368100</v>
+        <v>2243000</v>
       </c>
       <c r="H44" s="3">
-        <v>2173000</v>
+        <v>2347500</v>
       </c>
       <c r="I44" s="3">
-        <v>2243800</v>
+        <v>2154100</v>
       </c>
       <c r="J44" s="3">
+        <v>2224300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2033500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2145400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2180400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2257400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2141000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2071700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1876100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1910700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1803700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1689800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1370400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1319200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1353300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>631800</v>
+        <v>960500</v>
       </c>
       <c r="E45" s="3">
-        <v>485200</v>
+        <v>580900</v>
       </c>
       <c r="F45" s="3">
-        <v>463400</v>
+        <v>481000</v>
       </c>
       <c r="G45" s="3">
-        <v>514500</v>
+        <v>459400</v>
       </c>
       <c r="H45" s="3">
-        <v>502000</v>
+        <v>510000</v>
       </c>
       <c r="I45" s="3">
-        <v>614000</v>
+        <v>497600</v>
       </c>
       <c r="J45" s="3">
+        <v>608600</v>
+      </c>
+      <c r="K45" s="3">
         <v>538000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>561800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>554500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>637800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>592600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>661500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>588500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>731100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>673600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>810400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>622800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2047000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11334800</v>
+        <v>11813900</v>
       </c>
       <c r="E46" s="3">
-        <v>10486100</v>
+        <v>11236100</v>
       </c>
       <c r="F46" s="3">
-        <v>9727600</v>
+        <v>10394800</v>
       </c>
       <c r="G46" s="3">
-        <v>9115200</v>
+        <v>9643000</v>
       </c>
       <c r="H46" s="3">
-        <v>8882000</v>
+        <v>9035800</v>
       </c>
       <c r="I46" s="3">
-        <v>9674500</v>
+        <v>8804700</v>
       </c>
       <c r="J46" s="3">
+        <v>9590300</v>
+      </c>
+      <c r="K46" s="3">
         <v>9027200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8455400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8865100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9158900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9000400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8442000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8135400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8610400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8693700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8614700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7682600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8640700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6876600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2868,185 +2973,194 @@
         <v>407000</v>
       </c>
       <c r="E47" s="3">
-        <v>308500</v>
+        <v>403500</v>
       </c>
       <c r="F47" s="3">
-        <v>305400</v>
+        <v>305800</v>
       </c>
       <c r="G47" s="3">
-        <v>302400</v>
+        <v>302800</v>
       </c>
       <c r="H47" s="3">
-        <v>305400</v>
+        <v>299800</v>
       </c>
       <c r="I47" s="3">
-        <v>309000</v>
+        <v>302700</v>
       </c>
       <c r="J47" s="3">
+        <v>306300</v>
+      </c>
+      <c r="K47" s="3">
         <v>300800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1386200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1492500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1498700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1515200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1447400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1403400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1460000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1353700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1385500</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>317100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7597300</v>
+        <v>7930100</v>
       </c>
       <c r="E48" s="3">
-        <v>6903100</v>
+        <v>7531200</v>
       </c>
       <c r="F48" s="3">
-        <v>6450800</v>
+        <v>6843000</v>
       </c>
       <c r="G48" s="3">
-        <v>6148500</v>
+        <v>6394600</v>
       </c>
       <c r="H48" s="3">
-        <v>5976900</v>
+        <v>6095000</v>
       </c>
       <c r="I48" s="3">
-        <v>6152200</v>
+        <v>5924800</v>
       </c>
       <c r="J48" s="3">
+        <v>6098700</v>
+      </c>
+      <c r="K48" s="3">
         <v>5928500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5902900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5795900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5496300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5384500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5208000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4932600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4870000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4685800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4547500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4121600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4223600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4500600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1517200</v>
+        <v>2153800</v>
       </c>
       <c r="E49" s="3">
-        <v>2099500</v>
+        <v>2171600</v>
       </c>
       <c r="F49" s="3">
-        <v>2152000</v>
+        <v>2081200</v>
       </c>
       <c r="G49" s="3">
-        <v>2176300</v>
+        <v>2133300</v>
       </c>
       <c r="H49" s="3">
-        <v>2212000</v>
+        <v>2157400</v>
       </c>
       <c r="I49" s="3">
-        <v>2253600</v>
+        <v>2192700</v>
       </c>
       <c r="J49" s="3">
+        <v>2234000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2239800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2262400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2436000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2398100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2378400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2277900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2200200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2272200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2276900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2205800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1001000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1092000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>933100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1212800</v>
+        <v>544700</v>
       </c>
       <c r="E52" s="3">
-        <v>497700</v>
+        <v>534700</v>
       </c>
       <c r="F52" s="3">
-        <v>494200</v>
+        <v>493400</v>
       </c>
       <c r="G52" s="3">
-        <v>497600</v>
+        <v>489900</v>
       </c>
       <c r="H52" s="3">
-        <v>483500</v>
+        <v>493300</v>
       </c>
       <c r="I52" s="3">
-        <v>462700</v>
+        <v>479300</v>
       </c>
       <c r="J52" s="3">
+        <v>458700</v>
+      </c>
+      <c r="K52" s="3">
         <v>449000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>472400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>558300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>538400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>564400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>528400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>551500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>539100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>565900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>539800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1957400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>599700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22069200</v>
+        <v>22849500</v>
       </c>
       <c r="E54" s="3">
-        <v>20294900</v>
+        <v>21877100</v>
       </c>
       <c r="F54" s="3">
-        <v>19130000</v>
+        <v>20118200</v>
       </c>
       <c r="G54" s="3">
-        <v>18240100</v>
+        <v>18963500</v>
       </c>
       <c r="H54" s="3">
-        <v>17859700</v>
+        <v>18081300</v>
       </c>
       <c r="I54" s="3">
-        <v>18852000</v>
+        <v>17704200</v>
       </c>
       <c r="J54" s="3">
+        <v>18687900</v>
+      </c>
+      <c r="K54" s="3">
         <v>17945300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18479200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19147700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19090400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18842900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17903800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17223100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17751700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17575900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17293200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14762600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14873100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13158900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2981000</v>
+        <v>3427700</v>
       </c>
       <c r="E57" s="3">
-        <v>2487100</v>
+        <v>2955000</v>
       </c>
       <c r="F57" s="3">
-        <v>2187900</v>
+        <v>2465400</v>
       </c>
       <c r="G57" s="3">
-        <v>1933200</v>
-      </c>
-      <c r="H57" s="3" t="s">
+        <v>2168800</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1916400</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I57" s="3">
-        <v>2129600</v>
-      </c>
       <c r="J57" s="3">
+        <v>2111100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1902500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1774100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1824900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1935100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2006800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2067400</v>
       </c>
-      <c r="P57" s="3" t="s">
+      <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2138200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2066200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1807900</v>
       </c>
-      <c r="T57" s="3" t="s">
+      <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1648400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1383400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3014900</v>
+        <v>3182000</v>
       </c>
       <c r="E58" s="3">
-        <v>3187800</v>
+        <v>2988700</v>
       </c>
       <c r="F58" s="3">
-        <v>2631600</v>
+        <v>3160000</v>
       </c>
       <c r="G58" s="3">
-        <v>2490000</v>
+        <v>2608700</v>
       </c>
       <c r="H58" s="3">
-        <v>2615700</v>
+        <v>2468300</v>
       </c>
       <c r="I58" s="3">
-        <v>2913800</v>
+        <v>2593000</v>
       </c>
       <c r="J58" s="3">
+        <v>2888400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2517300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3350200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3004000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2978100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2652200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2038100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1709800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1551100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1679200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2316800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1066100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1614500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2222200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3299600</v>
+        <v>3316500</v>
       </c>
       <c r="E59" s="3">
-        <v>2637800</v>
+        <v>3270900</v>
       </c>
       <c r="F59" s="3">
-        <v>2330300</v>
+        <v>2614800</v>
       </c>
       <c r="G59" s="3">
-        <v>2117400</v>
+        <v>2310000</v>
       </c>
       <c r="H59" s="3">
-        <v>3991000</v>
+        <v>2099000</v>
       </c>
       <c r="I59" s="3">
-        <v>2121000</v>
+        <v>3956300</v>
       </c>
       <c r="J59" s="3">
+        <v>2102600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1960800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1905900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2035800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2254600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2165900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1835800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3741600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1669900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1728700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1794900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3170100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1663200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1357600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9295500</v>
+        <v>9926200</v>
       </c>
       <c r="E60" s="3">
-        <v>8312600</v>
+        <v>9214500</v>
       </c>
       <c r="F60" s="3">
-        <v>7149800</v>
+        <v>8240200</v>
       </c>
       <c r="G60" s="3">
-        <v>6540600</v>
+        <v>7087500</v>
       </c>
       <c r="H60" s="3">
-        <v>6606700</v>
+        <v>6483700</v>
       </c>
       <c r="I60" s="3">
-        <v>7164400</v>
+        <v>6549200</v>
       </c>
       <c r="J60" s="3">
+        <v>7102100</v>
+      </c>
+      <c r="K60" s="3">
         <v>6380600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7030200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6864600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7167700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6824900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5941300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5451500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5359300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5474200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5919500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4236300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4926200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4963300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1427000</v>
+        <v>1415400</v>
       </c>
       <c r="E61" s="3">
-        <v>1426900</v>
+        <v>1414500</v>
       </c>
       <c r="F61" s="3">
-        <v>1740900</v>
+        <v>1414500</v>
       </c>
       <c r="G61" s="3">
-        <v>1746300</v>
+        <v>1725700</v>
       </c>
       <c r="H61" s="3">
-        <v>1287200</v>
+        <v>1731100</v>
       </c>
       <c r="I61" s="3">
-        <v>1291100</v>
+        <v>1276000</v>
       </c>
       <c r="J61" s="3">
+        <v>1279800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1693400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1689700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1995800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2044700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2160800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2705700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2656700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2905000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2974300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2470000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1897600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2078800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1355200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2098900</v>
+        <v>2065900</v>
       </c>
       <c r="E62" s="3">
-        <v>2254100</v>
+        <v>2080600</v>
       </c>
       <c r="F62" s="3">
-        <v>2187200</v>
+        <v>2234500</v>
       </c>
       <c r="G62" s="3">
-        <v>2171600</v>
+        <v>2168200</v>
       </c>
       <c r="H62" s="3">
-        <v>2167500</v>
+        <v>2152700</v>
       </c>
       <c r="I62" s="3">
-        <v>2014300</v>
+        <v>2148600</v>
       </c>
       <c r="J62" s="3">
+        <v>1996700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1953500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1952600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1794400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1669300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1673200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1604900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1600600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1619600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1597900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1582700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1514000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1409500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1440600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12846700</v>
+        <v>13432000</v>
       </c>
       <c r="E66" s="3">
-        <v>12020500</v>
+        <v>12734800</v>
       </c>
       <c r="F66" s="3">
-        <v>11110300</v>
+        <v>11915800</v>
       </c>
       <c r="G66" s="3">
-        <v>10500100</v>
+        <v>11013600</v>
       </c>
       <c r="H66" s="3">
-        <v>10103700</v>
+        <v>10408700</v>
       </c>
       <c r="I66" s="3">
-        <v>10519300</v>
+        <v>10015700</v>
       </c>
       <c r="J66" s="3">
+        <v>10427800</v>
+      </c>
+      <c r="K66" s="3">
         <v>10076200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10728900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10717000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10940400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10717600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10314600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9768400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9946100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10106300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10050400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7723300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8487700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7822400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9837200</v>
+        <v>9890900</v>
       </c>
       <c r="E72" s="3">
-        <v>9779300</v>
+        <v>9751500</v>
       </c>
       <c r="F72" s="3">
-        <v>9600500</v>
+        <v>9694200</v>
       </c>
       <c r="G72" s="3">
-        <v>9357500</v>
+        <v>9516900</v>
       </c>
       <c r="H72" s="3">
-        <v>9340700</v>
+        <v>9276100</v>
       </c>
       <c r="I72" s="3">
-        <v>9493500</v>
+        <v>9259300</v>
       </c>
       <c r="J72" s="3">
+        <v>9410900</v>
+      </c>
+      <c r="K72" s="3">
         <v>9327100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9027800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9418600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9075300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8816700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8400800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8316200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8215000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8088300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7909900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7731200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6951300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6801800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9222500</v>
+        <v>9417500</v>
       </c>
       <c r="E76" s="3">
-        <v>8274400</v>
+        <v>9142200</v>
       </c>
       <c r="F76" s="3">
-        <v>8019700</v>
+        <v>8202400</v>
       </c>
       <c r="G76" s="3">
-        <v>7739900</v>
+        <v>7949900</v>
       </c>
       <c r="H76" s="3">
-        <v>7756000</v>
+        <v>7672600</v>
       </c>
       <c r="I76" s="3">
-        <v>8332700</v>
+        <v>7688400</v>
       </c>
       <c r="J76" s="3">
+        <v>8260200</v>
+      </c>
+      <c r="K76" s="3">
         <v>7869100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7750300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8430800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8150000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8125300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7589200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7454700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7805600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7469600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7242800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7039400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6385400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5336600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>57600</v>
+        <v>242900</v>
       </c>
       <c r="E81" s="3">
-        <v>283500</v>
+        <v>57100</v>
       </c>
       <c r="F81" s="3">
-        <v>266800</v>
+        <v>281100</v>
       </c>
       <c r="G81" s="3">
-        <v>121200</v>
+        <v>264500</v>
       </c>
       <c r="H81" s="3">
-        <v>-152800</v>
+        <v>120200</v>
       </c>
       <c r="I81" s="3">
-        <v>270900</v>
+        <v>-151500</v>
       </c>
       <c r="J81" s="3">
+        <v>268500</v>
+      </c>
+      <c r="K81" s="3">
         <v>269700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>142800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>179900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>211500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>231100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>147200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>101200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>195100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>178400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>99000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>780600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>216600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>361400</v>
+        <v>369700</v>
       </c>
       <c r="E83" s="3">
-        <v>333000</v>
+        <v>358300</v>
       </c>
       <c r="F83" s="3">
-        <v>303200</v>
+        <v>330100</v>
       </c>
       <c r="G83" s="3">
-        <v>291700</v>
+        <v>300500</v>
       </c>
       <c r="H83" s="3">
-        <v>308900</v>
+        <v>289200</v>
       </c>
       <c r="I83" s="3">
-        <v>291200</v>
+        <v>306200</v>
       </c>
       <c r="J83" s="3">
+        <v>288600</v>
+      </c>
+      <c r="K83" s="3">
         <v>276700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>270900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>258100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>258600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>249900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>231500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>225800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>216500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>205200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>185800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>204100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>205000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>550900</v>
+        <v>10700</v>
       </c>
       <c r="E89" s="3">
-        <v>824700</v>
+        <v>546100</v>
       </c>
       <c r="F89" s="3">
-        <v>582000</v>
+        <v>817600</v>
       </c>
       <c r="G89" s="3">
-        <v>90000</v>
+        <v>577000</v>
       </c>
       <c r="H89" s="3">
-        <v>669700</v>
+        <v>89300</v>
       </c>
       <c r="I89" s="3">
-        <v>823900</v>
+        <v>663800</v>
       </c>
       <c r="J89" s="3">
+        <v>816700</v>
+      </c>
+      <c r="K89" s="3">
         <v>478500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>71500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>479600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>780600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>408400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-329800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>545400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>378100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>79500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-177600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>545700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>390400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>406900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-532300</v>
+        <v>-557600</v>
       </c>
       <c r="E91" s="3">
-        <v>-526600</v>
+        <v>-527700</v>
       </c>
       <c r="F91" s="3">
-        <v>-466500</v>
+        <v>-522000</v>
       </c>
       <c r="G91" s="3">
-        <v>-426100</v>
+        <v>-462400</v>
       </c>
       <c r="H91" s="3">
-        <v>-400300</v>
+        <v>-422400</v>
       </c>
       <c r="I91" s="3">
-        <v>-358700</v>
+        <v>-396800</v>
       </c>
       <c r="J91" s="3">
+        <v>-355500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-367200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-466200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-541600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-379600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-322700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-384400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-412700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-436500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-377400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-388000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-293800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-413900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-304700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-612100</v>
+        <v>-259400</v>
       </c>
       <c r="E94" s="3">
-        <v>-610700</v>
+        <v>-606700</v>
       </c>
       <c r="F94" s="3">
-        <v>-517800</v>
+        <v>-605400</v>
       </c>
       <c r="G94" s="3">
-        <v>-386800</v>
+        <v>-513300</v>
       </c>
       <c r="H94" s="3">
-        <v>-490700</v>
+        <v>-383500</v>
       </c>
       <c r="I94" s="3">
-        <v>-488600</v>
+        <v>-486400</v>
       </c>
       <c r="J94" s="3">
+        <v>-484300</v>
+      </c>
+      <c r="K94" s="3">
         <v>1010900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-415900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-426400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-384800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-293100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-213600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-383600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-44100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-203600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1593400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>591900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-446200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-348600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-102500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-200</v>
       </c>
-      <c r="E96" s="3">
-        <v>-104300</v>
-      </c>
       <c r="F96" s="3">
+        <v>-103400</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1500</v>
       </c>
-      <c r="G96" s="3">
-        <v>-103000</v>
-      </c>
       <c r="H96" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-200</v>
       </c>
-      <c r="I96" s="3">
-        <v>-96900</v>
-      </c>
       <c r="J96" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-91300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-95200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-79200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-68300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-67100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-67000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-193100</v>
+        <v>89500</v>
       </c>
       <c r="E100" s="3">
-        <v>136100</v>
+        <v>-191400</v>
       </c>
       <c r="F100" s="3">
-        <v>85200</v>
+        <v>134900</v>
       </c>
       <c r="G100" s="3">
-        <v>240100</v>
+        <v>84500</v>
       </c>
       <c r="H100" s="3">
-        <v>-297700</v>
+        <v>238000</v>
       </c>
       <c r="I100" s="3">
-        <v>-113400</v>
+        <v>-295200</v>
       </c>
       <c r="J100" s="3">
+        <v>-112400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-915900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>207300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-113000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>61100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-104900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>236500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-274500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-226100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1521900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-716900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-170900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>221900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>227900</v>
+        <v>52700</v>
       </c>
       <c r="E101" s="3">
-        <v>23700</v>
+        <v>226000</v>
       </c>
       <c r="F101" s="3">
-        <v>10700</v>
+        <v>23500</v>
       </c>
       <c r="G101" s="3">
-        <v>-12800</v>
+        <v>10600</v>
       </c>
       <c r="H101" s="3">
-        <v>-71800</v>
+        <v>-12700</v>
       </c>
       <c r="I101" s="3">
-        <v>82100</v>
+        <v>-71100</v>
       </c>
       <c r="J101" s="3">
+        <v>81400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-39800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-109000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>18200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-56500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-12900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>50100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-133700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>19900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>38300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>20800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-97200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>308200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-26400</v>
+        <v>-106500</v>
       </c>
       <c r="E102" s="3">
-        <v>373900</v>
+        <v>-26100</v>
       </c>
       <c r="F102" s="3">
-        <v>160100</v>
+        <v>370600</v>
       </c>
       <c r="G102" s="3">
-        <v>-69500</v>
+        <v>158700</v>
       </c>
       <c r="H102" s="3">
-        <v>-190500</v>
+        <v>-68900</v>
       </c>
       <c r="I102" s="3">
-        <v>304000</v>
+        <v>-188900</v>
       </c>
       <c r="J102" s="3">
+        <v>301300</v>
+      </c>
+      <c r="K102" s="3">
         <v>533800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-246300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-41700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-256800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>79400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-311900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-228300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>323600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>81500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>233900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3826700</v>
+        <v>4177100</v>
       </c>
       <c r="E8" s="3">
-        <v>3573000</v>
+        <v>3700700</v>
       </c>
       <c r="F8" s="3">
-        <v>3604700</v>
+        <v>3455400</v>
       </c>
       <c r="G8" s="3">
-        <v>3477500</v>
+        <v>3486000</v>
       </c>
       <c r="H8" s="3">
-        <v>2818600</v>
+        <v>3362900</v>
       </c>
       <c r="I8" s="3">
-        <v>2736400</v>
+        <v>2725800</v>
       </c>
       <c r="J8" s="3">
+        <v>2646300</v>
+      </c>
+      <c r="K8" s="3">
         <v>3239800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3402300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3085200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2970100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3311600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3519700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3118500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2775700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3083800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3019800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2617300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2433100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2880700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2664700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2747700</v>
+        <v>2870700</v>
       </c>
       <c r="E9" s="3">
-        <v>2647100</v>
+        <v>2657200</v>
       </c>
       <c r="F9" s="3">
-        <v>2472300</v>
+        <v>2560000</v>
       </c>
       <c r="G9" s="3">
-        <v>2395100</v>
+        <v>2390900</v>
       </c>
       <c r="H9" s="3">
-        <v>2002600</v>
+        <v>2316200</v>
       </c>
       <c r="I9" s="3">
-        <v>2030400</v>
+        <v>1936600</v>
       </c>
       <c r="J9" s="3">
+        <v>1963600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2204100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2334900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2205900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2202400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2303600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2451100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2256800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2084000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2201600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2193800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1923900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1831500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2033200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1915700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1079000</v>
+        <v>1306400</v>
       </c>
       <c r="E10" s="3">
-        <v>925900</v>
+        <v>1043500</v>
       </c>
       <c r="F10" s="3">
-        <v>1132400</v>
+        <v>895400</v>
       </c>
       <c r="G10" s="3">
-        <v>1082400</v>
+        <v>1095100</v>
       </c>
       <c r="H10" s="3">
-        <v>816000</v>
+        <v>1046800</v>
       </c>
       <c r="I10" s="3">
-        <v>706000</v>
+        <v>789100</v>
       </c>
       <c r="J10" s="3">
+        <v>682700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1035700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1067400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>879300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>767700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1008000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1068600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>861700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>691800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>882100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>825900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>693400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>601500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>847600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>749000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,37 +1124,40 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>70600</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
+        <v>68300</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>167200</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>161700</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>2200</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1151,8 +1171,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3545800</v>
+        <v>3743600</v>
       </c>
       <c r="E17" s="3">
-        <v>3536100</v>
+        <v>3429100</v>
       </c>
       <c r="F17" s="3">
-        <v>3194000</v>
+        <v>3419700</v>
       </c>
       <c r="G17" s="3">
-        <v>3076900</v>
+        <v>3088900</v>
       </c>
       <c r="H17" s="3">
-        <v>2650600</v>
+        <v>2975600</v>
       </c>
       <c r="I17" s="3">
-        <v>2840000</v>
+        <v>2563300</v>
       </c>
       <c r="J17" s="3">
+        <v>2746500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2871800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2999200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2856400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2846300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3002300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3178200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2887400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2677000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2790500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2770200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2467200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1263700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2592300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2418000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>280900</v>
+        <v>433500</v>
       </c>
       <c r="E18" s="3">
-        <v>36900</v>
+        <v>271600</v>
       </c>
       <c r="F18" s="3">
-        <v>410700</v>
+        <v>35700</v>
       </c>
       <c r="G18" s="3">
-        <v>400500</v>
+        <v>397100</v>
       </c>
       <c r="H18" s="3">
-        <v>168000</v>
+        <v>387300</v>
       </c>
       <c r="I18" s="3">
-        <v>-103600</v>
+        <v>162500</v>
       </c>
       <c r="J18" s="3">
+        <v>-100200</v>
+      </c>
+      <c r="K18" s="3">
         <v>368000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>403100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>228800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>123800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>309200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>341500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>231100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>98700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>293300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>249600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>150100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1169400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>288400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>246700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24100</v>
+        <v>36100</v>
       </c>
       <c r="E20" s="3">
-        <v>86600</v>
+        <v>23300</v>
       </c>
       <c r="F20" s="3">
-        <v>18300</v>
+        <v>83800</v>
       </c>
       <c r="G20" s="3">
-        <v>-6500</v>
+        <v>17700</v>
       </c>
       <c r="H20" s="3">
-        <v>28100</v>
+        <v>-6300</v>
       </c>
       <c r="I20" s="3">
-        <v>-14400</v>
+        <v>27200</v>
       </c>
       <c r="J20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K20" s="3">
         <v>13300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>142500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-15100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>20700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>19800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>11600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>38400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>674700</v>
+        <v>830600</v>
       </c>
       <c r="E21" s="3">
-        <v>481800</v>
+        <v>652500</v>
       </c>
       <c r="F21" s="3">
-        <v>759100</v>
+        <v>465900</v>
       </c>
       <c r="G21" s="3">
-        <v>694500</v>
+        <v>734100</v>
       </c>
       <c r="H21" s="3">
-        <v>485300</v>
+        <v>671600</v>
       </c>
       <c r="I21" s="3">
-        <v>188200</v>
+        <v>469300</v>
       </c>
       <c r="J21" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K21" s="3">
         <v>670000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>688700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>507400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>524500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>560900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>576200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>457500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>345200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>529600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>463300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>347400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1411900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>498300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11300</v>
+        <v>9600</v>
       </c>
       <c r="E22" s="3">
-        <v>9200</v>
+        <v>10900</v>
       </c>
       <c r="F22" s="3">
-        <v>8200</v>
+        <v>8900</v>
       </c>
       <c r="G22" s="3">
-        <v>7300</v>
+        <v>7900</v>
       </c>
       <c r="H22" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="I22" s="3">
-        <v>9000</v>
+        <v>7200</v>
       </c>
       <c r="J22" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K22" s="3">
         <v>6200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>293700</v>
+        <v>460000</v>
       </c>
       <c r="E23" s="3">
-        <v>114300</v>
+        <v>284000</v>
       </c>
       <c r="F23" s="3">
-        <v>420800</v>
+        <v>110500</v>
       </c>
       <c r="G23" s="3">
-        <v>386700</v>
+        <v>407000</v>
       </c>
       <c r="H23" s="3">
-        <v>188700</v>
+        <v>374000</v>
       </c>
       <c r="I23" s="3">
-        <v>-127100</v>
+        <v>182500</v>
       </c>
       <c r="J23" s="3">
+        <v>-122900</v>
+      </c>
+      <c r="K23" s="3">
         <v>375100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>403900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>226300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>257200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>292600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>316500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>215800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>109200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>302600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>247000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>153100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1200000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>284800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>247900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>50700</v>
+        <v>93200</v>
       </c>
       <c r="E24" s="3">
-        <v>59800</v>
+        <v>49000</v>
       </c>
       <c r="F24" s="3">
-        <v>139700</v>
+        <v>57800</v>
       </c>
       <c r="G24" s="3">
-        <v>121600</v>
+        <v>135100</v>
       </c>
       <c r="H24" s="3">
-        <v>67900</v>
+        <v>117600</v>
       </c>
       <c r="I24" s="3">
-        <v>31100</v>
+        <v>65700</v>
       </c>
       <c r="J24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K24" s="3">
         <v>106600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>133800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>82900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>75700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>81000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>84500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>67600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>74000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>67300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>52100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>421800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>65000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>243000</v>
+        <v>366800</v>
       </c>
       <c r="E26" s="3">
-        <v>54500</v>
+        <v>235000</v>
       </c>
       <c r="F26" s="3">
-        <v>281200</v>
+        <v>52700</v>
       </c>
       <c r="G26" s="3">
-        <v>265100</v>
+        <v>271900</v>
       </c>
       <c r="H26" s="3">
-        <v>120800</v>
+        <v>256400</v>
       </c>
       <c r="I26" s="3">
-        <v>-158100</v>
+        <v>116800</v>
       </c>
       <c r="J26" s="3">
+        <v>-152900</v>
+      </c>
+      <c r="K26" s="3">
         <v>268500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>270000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>143400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>181400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>211500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>231900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>148100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>228600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>179700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>101000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>778200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>219800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>181500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>242900</v>
+        <v>366200</v>
       </c>
       <c r="E27" s="3">
-        <v>57100</v>
+        <v>234900</v>
       </c>
       <c r="F27" s="3">
-        <v>281100</v>
+        <v>55200</v>
       </c>
       <c r="G27" s="3">
-        <v>264500</v>
+        <v>271800</v>
       </c>
       <c r="H27" s="3">
-        <v>120200</v>
+        <v>255800</v>
       </c>
       <c r="I27" s="3">
-        <v>-151500</v>
+        <v>116200</v>
       </c>
       <c r="J27" s="3">
+        <v>-146500</v>
+      </c>
+      <c r="K27" s="3">
         <v>268500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>269700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>142800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>179900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>211500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>231100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>147200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>101200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>226800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>178400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>99000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>780600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>216600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,8 +2089,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2043,14 +2104,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-31800</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24100</v>
+        <v>-36100</v>
       </c>
       <c r="E32" s="3">
-        <v>-86600</v>
+        <v>-23300</v>
       </c>
       <c r="F32" s="3">
-        <v>-18300</v>
+        <v>-83800</v>
       </c>
       <c r="G32" s="3">
-        <v>6500</v>
+        <v>-17700</v>
       </c>
       <c r="H32" s="3">
-        <v>-28100</v>
+        <v>6300</v>
       </c>
       <c r="I32" s="3">
-        <v>14400</v>
+        <v>-27200</v>
       </c>
       <c r="J32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-13300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-142500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>15100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-20700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-19800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-11600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-38400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>242900</v>
+        <v>366200</v>
       </c>
       <c r="E33" s="3">
-        <v>57100</v>
+        <v>234900</v>
       </c>
       <c r="F33" s="3">
-        <v>281100</v>
+        <v>55200</v>
       </c>
       <c r="G33" s="3">
-        <v>264500</v>
+        <v>271800</v>
       </c>
       <c r="H33" s="3">
-        <v>120200</v>
+        <v>255800</v>
       </c>
       <c r="I33" s="3">
-        <v>-151500</v>
+        <v>116200</v>
       </c>
       <c r="J33" s="3">
+        <v>-146500</v>
+      </c>
+      <c r="K33" s="3">
         <v>268500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>269700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>142800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>179900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>211500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>231100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>147200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>101200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>195100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>178400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>99000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>780600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>216600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>242900</v>
+        <v>366200</v>
       </c>
       <c r="E35" s="3">
-        <v>57100</v>
+        <v>234900</v>
       </c>
       <c r="F35" s="3">
-        <v>281100</v>
+        <v>55200</v>
       </c>
       <c r="G35" s="3">
-        <v>264500</v>
+        <v>271800</v>
       </c>
       <c r="H35" s="3">
-        <v>120200</v>
+        <v>255800</v>
       </c>
       <c r="I35" s="3">
-        <v>-151500</v>
+        <v>116200</v>
       </c>
       <c r="J35" s="3">
+        <v>-146500</v>
+      </c>
+      <c r="K35" s="3">
         <v>268500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>269700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>142800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>179900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>211500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>231100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>147200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>101200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>195100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>178400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>99000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>780600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>216600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3358900</v>
+        <v>3157000</v>
       </c>
       <c r="E41" s="3">
-        <v>3465300</v>
+        <v>3248200</v>
       </c>
       <c r="F41" s="3">
-        <v>3491500</v>
+        <v>3351200</v>
       </c>
       <c r="G41" s="3">
-        <v>3120800</v>
+        <v>3376500</v>
       </c>
       <c r="H41" s="3">
-        <v>2962100</v>
+        <v>3018100</v>
       </c>
       <c r="I41" s="3">
-        <v>3031100</v>
+        <v>2864600</v>
       </c>
       <c r="J41" s="3">
+        <v>2931200</v>
+      </c>
+      <c r="K41" s="3">
         <v>3219900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2944200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2402600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2779000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2770800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2332800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2285000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2527800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2525900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2446500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2758400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2930500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2607000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2525500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>308100</v>
+        <v>147300</v>
       </c>
       <c r="E42" s="3">
-        <v>600700</v>
+        <v>298000</v>
       </c>
       <c r="F42" s="3">
-        <v>487600</v>
+        <v>580900</v>
       </c>
       <c r="G42" s="3">
-        <v>363100</v>
+        <v>471600</v>
       </c>
       <c r="H42" s="3">
-        <v>318200</v>
+        <v>351100</v>
       </c>
       <c r="I42" s="3">
-        <v>296500</v>
+        <v>307800</v>
       </c>
       <c r="J42" s="3">
+        <v>286800</v>
+      </c>
+      <c r="K42" s="3">
         <v>217600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>90000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>317000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>389800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>292900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>275700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>279700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>394700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>342100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>714600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>731400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>497900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>157800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>175500</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4141300</v>
+        <v>4398000</v>
       </c>
       <c r="E43" s="3">
-        <v>3957700</v>
+        <v>4005000</v>
       </c>
       <c r="F43" s="3">
-        <v>3601200</v>
+        <v>3827400</v>
       </c>
       <c r="G43" s="3">
-        <v>3456700</v>
+        <v>3482600</v>
       </c>
       <c r="H43" s="3">
-        <v>2898000</v>
+        <v>3342900</v>
       </c>
       <c r="I43" s="3">
-        <v>2825400</v>
+        <v>2802600</v>
       </c>
       <c r="J43" s="3">
+        <v>2732400</v>
+      </c>
+      <c r="K43" s="3">
         <v>3319800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3421500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3028500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2961400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3200000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3658300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3144100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2748300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3100600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3055200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2624700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2261000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2509700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2325300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3045100</v>
+        <v>3100700</v>
       </c>
       <c r="E44" s="3">
-        <v>2631500</v>
+        <v>2944800</v>
       </c>
       <c r="F44" s="3">
-        <v>2333500</v>
+        <v>2544800</v>
       </c>
       <c r="G44" s="3">
-        <v>2243000</v>
+        <v>2256600</v>
       </c>
       <c r="H44" s="3">
-        <v>2347500</v>
+        <v>2169100</v>
       </c>
       <c r="I44" s="3">
-        <v>2154100</v>
+        <v>2270200</v>
       </c>
       <c r="J44" s="3">
+        <v>2083200</v>
+      </c>
+      <c r="K44" s="3">
         <v>2224300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2033500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2145400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2180400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2257400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2141000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2071700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1876100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1910700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1803700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1689800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1370400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1319200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1353300</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>960500</v>
+        <v>821800</v>
       </c>
       <c r="E45" s="3">
-        <v>580900</v>
+        <v>928800</v>
       </c>
       <c r="F45" s="3">
-        <v>481000</v>
+        <v>561800</v>
       </c>
       <c r="G45" s="3">
-        <v>459400</v>
+        <v>465200</v>
       </c>
       <c r="H45" s="3">
-        <v>510000</v>
+        <v>444200</v>
       </c>
       <c r="I45" s="3">
-        <v>497600</v>
+        <v>493200</v>
       </c>
       <c r="J45" s="3">
+        <v>481200</v>
+      </c>
+      <c r="K45" s="3">
         <v>608600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>538000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>561800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>554500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>637800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>592600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>661500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>588500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>731100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>673600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>810400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>622800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2047000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11813900</v>
+        <v>11624900</v>
       </c>
       <c r="E46" s="3">
-        <v>11236100</v>
+        <v>11424800</v>
       </c>
       <c r="F46" s="3">
-        <v>10394800</v>
+        <v>10866100</v>
       </c>
       <c r="G46" s="3">
-        <v>9643000</v>
+        <v>10052500</v>
       </c>
       <c r="H46" s="3">
-        <v>9035800</v>
+        <v>9325400</v>
       </c>
       <c r="I46" s="3">
-        <v>8804700</v>
+        <v>8738300</v>
       </c>
       <c r="J46" s="3">
+        <v>8514700</v>
+      </c>
+      <c r="K46" s="3">
         <v>9590300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9027200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8455400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8865100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9158900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9000400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8442000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8135400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8610400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8693700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8614700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7682600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8640700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6876600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>407000</v>
+        <v>446600</v>
       </c>
       <c r="E47" s="3">
-        <v>403500</v>
+        <v>393600</v>
       </c>
       <c r="F47" s="3">
-        <v>305800</v>
+        <v>390200</v>
       </c>
       <c r="G47" s="3">
-        <v>302800</v>
+        <v>295800</v>
       </c>
       <c r="H47" s="3">
-        <v>299800</v>
+        <v>292800</v>
       </c>
       <c r="I47" s="3">
-        <v>302700</v>
+        <v>289900</v>
       </c>
       <c r="J47" s="3">
+        <v>292700</v>
+      </c>
+      <c r="K47" s="3">
         <v>306300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>300800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1386200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1492500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1498700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1515200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1447400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1403400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1460000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1353700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1385500</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>317100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7930100</v>
+        <v>7900300</v>
       </c>
       <c r="E48" s="3">
-        <v>7531200</v>
+        <v>7669000</v>
       </c>
       <c r="F48" s="3">
-        <v>6843000</v>
+        <v>7283200</v>
       </c>
       <c r="G48" s="3">
-        <v>6394600</v>
+        <v>6617700</v>
       </c>
       <c r="H48" s="3">
-        <v>6095000</v>
+        <v>6184100</v>
       </c>
       <c r="I48" s="3">
-        <v>5924800</v>
+        <v>5894300</v>
       </c>
       <c r="J48" s="3">
+        <v>5729700</v>
+      </c>
+      <c r="K48" s="3">
         <v>6098700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5928500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5902900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5795900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5496300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5384500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5208000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4932600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4870000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4685800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4547500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4121600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4223600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4500600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2153800</v>
+        <v>2081400</v>
       </c>
       <c r="E49" s="3">
-        <v>2171600</v>
+        <v>2082800</v>
       </c>
       <c r="F49" s="3">
-        <v>2081200</v>
+        <v>2100100</v>
       </c>
       <c r="G49" s="3">
-        <v>2133300</v>
+        <v>2012700</v>
       </c>
       <c r="H49" s="3">
-        <v>2157400</v>
+        <v>2063000</v>
       </c>
       <c r="I49" s="3">
-        <v>2192700</v>
+        <v>2086300</v>
       </c>
       <c r="J49" s="3">
+        <v>2120500</v>
+      </c>
+      <c r="K49" s="3">
         <v>2234000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2239800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2262400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2436000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2398100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2378400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2277900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2200200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2272200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2276900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2205800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1001000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1092000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>933100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>544700</v>
+        <v>833600</v>
       </c>
       <c r="E52" s="3">
-        <v>534700</v>
+        <v>526800</v>
       </c>
       <c r="F52" s="3">
-        <v>493400</v>
+        <v>517100</v>
       </c>
       <c r="G52" s="3">
-        <v>489900</v>
+        <v>477200</v>
       </c>
       <c r="H52" s="3">
-        <v>493300</v>
+        <v>473700</v>
       </c>
       <c r="I52" s="3">
-        <v>479300</v>
+        <v>477000</v>
       </c>
       <c r="J52" s="3">
+        <v>463500</v>
+      </c>
+      <c r="K52" s="3">
         <v>458700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>449000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>472400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>558300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>538400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>564400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>528400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>551500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>539100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>565900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>539800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1957400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>599700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22849500</v>
+        <v>22886700</v>
       </c>
       <c r="E54" s="3">
-        <v>21877100</v>
+        <v>22097100</v>
       </c>
       <c r="F54" s="3">
-        <v>20118200</v>
+        <v>21156600</v>
       </c>
       <c r="G54" s="3">
-        <v>18963500</v>
+        <v>19455700</v>
       </c>
       <c r="H54" s="3">
-        <v>18081300</v>
+        <v>18339000</v>
       </c>
       <c r="I54" s="3">
-        <v>17704200</v>
+        <v>17485800</v>
       </c>
       <c r="J54" s="3">
+        <v>17121200</v>
+      </c>
+      <c r="K54" s="3">
         <v>18687900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17945300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18479200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19147700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19090400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18842900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17903800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17223100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17751700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17575900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17293200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14762600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>14873100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13158900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3427700</v>
+        <v>3317300</v>
       </c>
       <c r="E57" s="3">
-        <v>2955000</v>
+        <v>3314800</v>
       </c>
       <c r="F57" s="3">
-        <v>2465400</v>
+        <v>2857700</v>
       </c>
       <c r="G57" s="3">
-        <v>2168800</v>
+        <v>2384200</v>
       </c>
       <c r="H57" s="3">
-        <v>1916400</v>
-      </c>
-      <c r="I57" s="3" t="s">
+        <v>2097400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1853300</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2111100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1902500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1774100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1824900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1935100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2006800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2067400</v>
       </c>
-      <c r="Q57" s="3" t="s">
+      <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2138200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2066200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1807900</v>
       </c>
-      <c r="U57" s="3" t="s">
+      <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1648400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1383400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3182000</v>
+        <v>2535900</v>
       </c>
       <c r="E58" s="3">
-        <v>2988700</v>
+        <v>3077200</v>
       </c>
       <c r="F58" s="3">
-        <v>3160000</v>
+        <v>2890200</v>
       </c>
       <c r="G58" s="3">
-        <v>2608700</v>
+        <v>3055900</v>
       </c>
       <c r="H58" s="3">
-        <v>2468300</v>
+        <v>2522800</v>
       </c>
       <c r="I58" s="3">
-        <v>2593000</v>
+        <v>2387000</v>
       </c>
       <c r="J58" s="3">
+        <v>2507600</v>
+      </c>
+      <c r="K58" s="3">
         <v>2888400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2517300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3350200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3004000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2978100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2652200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2038100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1709800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1551100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1679200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2316800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1066100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1614500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2222200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3316500</v>
+        <v>3144300</v>
       </c>
       <c r="E59" s="3">
-        <v>3270900</v>
+        <v>3207300</v>
       </c>
       <c r="F59" s="3">
-        <v>2614800</v>
+        <v>3163100</v>
       </c>
       <c r="G59" s="3">
-        <v>2310000</v>
+        <v>2528700</v>
       </c>
       <c r="H59" s="3">
-        <v>2099000</v>
+        <v>2233900</v>
       </c>
       <c r="I59" s="3">
-        <v>3956300</v>
+        <v>2029900</v>
       </c>
       <c r="J59" s="3">
+        <v>3826000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2102600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1960800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1905900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2035800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2254600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2165900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1835800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3741600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1669900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1728700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1794900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3170100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1663200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1357600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9926200</v>
+        <v>8997400</v>
       </c>
       <c r="E60" s="3">
-        <v>9214500</v>
+        <v>9599300</v>
       </c>
       <c r="F60" s="3">
-        <v>8240200</v>
+        <v>8911100</v>
       </c>
       <c r="G60" s="3">
-        <v>7087500</v>
+        <v>7968800</v>
       </c>
       <c r="H60" s="3">
-        <v>6483700</v>
+        <v>6854100</v>
       </c>
       <c r="I60" s="3">
-        <v>6549200</v>
+        <v>6270200</v>
       </c>
       <c r="J60" s="3">
+        <v>6333600</v>
+      </c>
+      <c r="K60" s="3">
         <v>7102100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6380600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7030200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6864600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7167700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6824900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5941300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5451500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5359300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5474200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5919500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4236300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4926200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4963300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1415400</v>
+        <v>2254700</v>
       </c>
       <c r="E61" s="3">
-        <v>1414500</v>
+        <v>1368800</v>
       </c>
       <c r="F61" s="3">
-        <v>1414500</v>
+        <v>1368000</v>
       </c>
       <c r="G61" s="3">
-        <v>1725700</v>
+        <v>1367900</v>
       </c>
       <c r="H61" s="3">
-        <v>1731100</v>
+        <v>1668900</v>
       </c>
       <c r="I61" s="3">
-        <v>1276000</v>
+        <v>1674100</v>
       </c>
       <c r="J61" s="3">
+        <v>1233900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1279800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1693400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1689700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1995800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2044700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2160800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2705700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2656700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2905000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2974300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2470000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1897600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2078800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1355200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2065900</v>
+        <v>2037900</v>
       </c>
       <c r="E62" s="3">
-        <v>2080600</v>
+        <v>1997900</v>
       </c>
       <c r="F62" s="3">
-        <v>2234500</v>
+        <v>2012100</v>
       </c>
       <c r="G62" s="3">
-        <v>2168200</v>
+        <v>2160900</v>
       </c>
       <c r="H62" s="3">
-        <v>2152700</v>
+        <v>2096800</v>
       </c>
       <c r="I62" s="3">
-        <v>2148600</v>
+        <v>2081800</v>
       </c>
       <c r="J62" s="3">
+        <v>2077800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1996700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1953500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1952600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1794400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1669300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1673200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1604900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1600600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1619600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1597900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1582700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1514000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1409500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1440600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13432000</v>
+        <v>13313900</v>
       </c>
       <c r="E66" s="3">
-        <v>12734800</v>
+        <v>12989700</v>
       </c>
       <c r="F66" s="3">
-        <v>11915800</v>
+        <v>12315500</v>
       </c>
       <c r="G66" s="3">
-        <v>11013600</v>
+        <v>11523400</v>
       </c>
       <c r="H66" s="3">
-        <v>10408700</v>
+        <v>10650900</v>
       </c>
       <c r="I66" s="3">
-        <v>10015700</v>
+        <v>10065900</v>
       </c>
       <c r="J66" s="3">
+        <v>9685900</v>
+      </c>
+      <c r="K66" s="3">
         <v>10427800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10076200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10728900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10717000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10940400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10717600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10314600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9768400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9946100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10106300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10050400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7723300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8487700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7822400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9890900</v>
+        <v>9931300</v>
       </c>
       <c r="E72" s="3">
-        <v>9751500</v>
+        <v>9565200</v>
       </c>
       <c r="F72" s="3">
-        <v>9694200</v>
+        <v>9430400</v>
       </c>
       <c r="G72" s="3">
-        <v>9516900</v>
+        <v>9374900</v>
       </c>
       <c r="H72" s="3">
-        <v>9276100</v>
+        <v>9203500</v>
       </c>
       <c r="I72" s="3">
-        <v>9259300</v>
+        <v>8970600</v>
       </c>
       <c r="J72" s="3">
+        <v>8954400</v>
+      </c>
+      <c r="K72" s="3">
         <v>9410900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9327100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9027800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9418600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9075300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8816700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8400800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8316200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8215000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8088300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7909900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7731200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6951300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6801800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9417500</v>
+        <v>9572900</v>
       </c>
       <c r="E76" s="3">
-        <v>9142200</v>
+        <v>9107400</v>
       </c>
       <c r="F76" s="3">
-        <v>8202400</v>
+        <v>8841200</v>
       </c>
       <c r="G76" s="3">
-        <v>7949900</v>
+        <v>7932300</v>
       </c>
       <c r="H76" s="3">
-        <v>7672600</v>
+        <v>7688100</v>
       </c>
       <c r="I76" s="3">
-        <v>7688400</v>
+        <v>7419900</v>
       </c>
       <c r="J76" s="3">
+        <v>7435300</v>
+      </c>
+      <c r="K76" s="3">
         <v>8260200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7869100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7750300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8430800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8150000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8125300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7589200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7454700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7805600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7469600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7242800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7039400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6385400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5336600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>242900</v>
+        <v>366200</v>
       </c>
       <c r="E81" s="3">
-        <v>57100</v>
+        <v>234900</v>
       </c>
       <c r="F81" s="3">
-        <v>281100</v>
+        <v>55200</v>
       </c>
       <c r="G81" s="3">
-        <v>264500</v>
+        <v>271800</v>
       </c>
       <c r="H81" s="3">
-        <v>120200</v>
+        <v>255800</v>
       </c>
       <c r="I81" s="3">
-        <v>-151500</v>
+        <v>116200</v>
       </c>
       <c r="J81" s="3">
+        <v>-146500</v>
+      </c>
+      <c r="K81" s="3">
         <v>268500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>269700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>142800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>179900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>211500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>231100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>147200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>101200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>195100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>178400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>99000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>780600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>216600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>369700</v>
+        <v>361000</v>
       </c>
       <c r="E83" s="3">
-        <v>358300</v>
+        <v>357500</v>
       </c>
       <c r="F83" s="3">
-        <v>330100</v>
+        <v>346500</v>
       </c>
       <c r="G83" s="3">
-        <v>300500</v>
+        <v>319200</v>
       </c>
       <c r="H83" s="3">
-        <v>289200</v>
+        <v>290600</v>
       </c>
       <c r="I83" s="3">
-        <v>306200</v>
+        <v>279600</v>
       </c>
       <c r="J83" s="3">
+        <v>296200</v>
+      </c>
+      <c r="K83" s="3">
         <v>288600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>276700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>270900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>258100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>258600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>249900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>231500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>225800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>216500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>205200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>185800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>204100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>205000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10700</v>
+        <v>62200</v>
       </c>
       <c r="E89" s="3">
-        <v>546100</v>
+        <v>10300</v>
       </c>
       <c r="F89" s="3">
-        <v>817600</v>
+        <v>528100</v>
       </c>
       <c r="G89" s="3">
-        <v>577000</v>
+        <v>790600</v>
       </c>
       <c r="H89" s="3">
-        <v>89300</v>
+        <v>558000</v>
       </c>
       <c r="I89" s="3">
-        <v>663800</v>
+        <v>86300</v>
       </c>
       <c r="J89" s="3">
+        <v>642000</v>
+      </c>
+      <c r="K89" s="3">
         <v>816700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>478500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>71500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>479600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>780600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>408400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-329800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>545400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>378100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>79500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-177600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>545700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>390400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>406900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-557600</v>
+        <v>-641200</v>
       </c>
       <c r="E91" s="3">
-        <v>-527700</v>
+        <v>-539200</v>
       </c>
       <c r="F91" s="3">
-        <v>-522000</v>
+        <v>-510300</v>
       </c>
       <c r="G91" s="3">
-        <v>-462400</v>
+        <v>-504800</v>
       </c>
       <c r="H91" s="3">
-        <v>-422400</v>
+        <v>-447200</v>
       </c>
       <c r="I91" s="3">
-        <v>-396800</v>
+        <v>-408500</v>
       </c>
       <c r="J91" s="3">
+        <v>-383700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-355500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-367200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-466200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-541600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-379600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-322700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-384400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-412700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-436500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-377400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-388000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-293800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-413900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-304700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-259400</v>
+        <v>-507000</v>
       </c>
       <c r="E94" s="3">
-        <v>-606700</v>
+        <v>-250800</v>
       </c>
       <c r="F94" s="3">
-        <v>-605400</v>
+        <v>-586800</v>
       </c>
       <c r="G94" s="3">
-        <v>-513300</v>
+        <v>-585400</v>
       </c>
       <c r="H94" s="3">
-        <v>-383500</v>
+        <v>-496400</v>
       </c>
       <c r="I94" s="3">
-        <v>-486400</v>
+        <v>-370800</v>
       </c>
       <c r="J94" s="3">
+        <v>-470400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-484300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1010900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-415900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-426400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-384800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-293100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-213600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-383600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-44100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-203600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1593400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>591900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-446200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-348600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-102500</v>
+        <v>-1000</v>
       </c>
       <c r="E96" s="3">
+        <v>-99100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-200</v>
       </c>
-      <c r="F96" s="3">
-        <v>-103400</v>
-      </c>
       <c r="G96" s="3">
-        <v>-1500</v>
+        <v>-100000</v>
       </c>
       <c r="H96" s="3">
-        <v>-102100</v>
+        <v>-1400</v>
       </c>
       <c r="I96" s="3">
+        <v>-98700</v>
+      </c>
+      <c r="J96" s="3">
         <v>-200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-96100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-91300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-95200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-79200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-68300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-67100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-67000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>89500</v>
+        <v>333500</v>
       </c>
       <c r="E100" s="3">
-        <v>-191400</v>
+        <v>86600</v>
       </c>
       <c r="F100" s="3">
-        <v>134900</v>
+        <v>-185100</v>
       </c>
       <c r="G100" s="3">
-        <v>84500</v>
+        <v>130500</v>
       </c>
       <c r="H100" s="3">
-        <v>238000</v>
+        <v>81700</v>
       </c>
       <c r="I100" s="3">
-        <v>-295200</v>
+        <v>230200</v>
       </c>
       <c r="J100" s="3">
+        <v>-285400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-112400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-915900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>207300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-113000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>61100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-104900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>236500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-26100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-274500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-226100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1521900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-716900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-170900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>221900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>52700</v>
+        <v>20100</v>
       </c>
       <c r="E101" s="3">
-        <v>226000</v>
+        <v>51000</v>
       </c>
       <c r="F101" s="3">
-        <v>23500</v>
+        <v>218500</v>
       </c>
       <c r="G101" s="3">
-        <v>10600</v>
+        <v>22800</v>
       </c>
       <c r="H101" s="3">
-        <v>-12700</v>
+        <v>10200</v>
       </c>
       <c r="I101" s="3">
-        <v>-71100</v>
+        <v>-12300</v>
       </c>
       <c r="J101" s="3">
+        <v>-68800</v>
+      </c>
+      <c r="K101" s="3">
         <v>81400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-39800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-109000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>18200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-56500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-12900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>50100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-133700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>19900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>38300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>20800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-97200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>308200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-106500</v>
+        <v>-91200</v>
       </c>
       <c r="E102" s="3">
-        <v>-26100</v>
+        <v>-103000</v>
       </c>
       <c r="F102" s="3">
-        <v>370600</v>
+        <v>-25300</v>
       </c>
       <c r="G102" s="3">
-        <v>158700</v>
+        <v>358400</v>
       </c>
       <c r="H102" s="3">
-        <v>-68900</v>
+        <v>153500</v>
       </c>
       <c r="I102" s="3">
-        <v>-188900</v>
+        <v>-66700</v>
       </c>
       <c r="J102" s="3">
+        <v>-182700</v>
+      </c>
+      <c r="K102" s="3">
         <v>301300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>533800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-246300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-41700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-256800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>79400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-311900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-228300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>323600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>81500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>233900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4177100</v>
+        <v>4262200</v>
       </c>
       <c r="E8" s="3">
-        <v>3700700</v>
+        <v>4044300</v>
       </c>
       <c r="F8" s="3">
-        <v>3455400</v>
+        <v>3583100</v>
       </c>
       <c r="G8" s="3">
-        <v>3486000</v>
+        <v>3345600</v>
       </c>
       <c r="H8" s="3">
-        <v>3362900</v>
+        <v>3375200</v>
       </c>
       <c r="I8" s="3">
-        <v>2725800</v>
+        <v>3256100</v>
       </c>
       <c r="J8" s="3">
+        <v>2639100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2646300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3239800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3402300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3085200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2970100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3311600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3519700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3118500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2775700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3083800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3019800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2617300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2433100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2880700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2664700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2870700</v>
+        <v>2923100</v>
       </c>
       <c r="E9" s="3">
-        <v>2657200</v>
+        <v>2779400</v>
       </c>
       <c r="F9" s="3">
-        <v>2560000</v>
+        <v>2572800</v>
       </c>
       <c r="G9" s="3">
-        <v>2390900</v>
+        <v>2478600</v>
       </c>
       <c r="H9" s="3">
-        <v>2316200</v>
+        <v>2314900</v>
       </c>
       <c r="I9" s="3">
-        <v>1936600</v>
+        <v>2242600</v>
       </c>
       <c r="J9" s="3">
+        <v>1875100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1963600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2204100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2334900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2205900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2202400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2303600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2451100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2256800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2084000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2201600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2193800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1923900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1831500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2033200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1915700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1306400</v>
+        <v>1339100</v>
       </c>
       <c r="E10" s="3">
-        <v>1043500</v>
+        <v>1264900</v>
       </c>
       <c r="F10" s="3">
-        <v>895400</v>
+        <v>1010300</v>
       </c>
       <c r="G10" s="3">
-        <v>1095100</v>
+        <v>867000</v>
       </c>
       <c r="H10" s="3">
-        <v>1046800</v>
+        <v>1060300</v>
       </c>
       <c r="I10" s="3">
-        <v>789100</v>
+        <v>1013500</v>
       </c>
       <c r="J10" s="3">
+        <v>764000</v>
+      </c>
+      <c r="K10" s="3">
         <v>682700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1035700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1067400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>879300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>767700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1008000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1068600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>861700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>691800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>882100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>825900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>693400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>601500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>847600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>749000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,29 +1157,29 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>68300</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
+        <v>66100</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>161700</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2200</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1174,8 +1193,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3743600</v>
+        <v>3757200</v>
       </c>
       <c r="E17" s="3">
-        <v>3429100</v>
+        <v>3624600</v>
       </c>
       <c r="F17" s="3">
-        <v>3419700</v>
+        <v>3320100</v>
       </c>
       <c r="G17" s="3">
-        <v>3088900</v>
+        <v>3311000</v>
       </c>
       <c r="H17" s="3">
-        <v>2975600</v>
+        <v>2990700</v>
       </c>
       <c r="I17" s="3">
-        <v>2563300</v>
+        <v>2881000</v>
       </c>
       <c r="J17" s="3">
+        <v>2481800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2746500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2871800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2999200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2856400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2846300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3002300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3178200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2887400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2677000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2790500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2770200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2467200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1263700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2592300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2418000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>433500</v>
+        <v>505000</v>
       </c>
       <c r="E18" s="3">
-        <v>271600</v>
+        <v>419700</v>
       </c>
       <c r="F18" s="3">
-        <v>35700</v>
+        <v>263000</v>
       </c>
       <c r="G18" s="3">
-        <v>397100</v>
+        <v>34600</v>
       </c>
       <c r="H18" s="3">
-        <v>387300</v>
+        <v>384500</v>
       </c>
       <c r="I18" s="3">
-        <v>162500</v>
+        <v>375000</v>
       </c>
       <c r="J18" s="3">
+        <v>157300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>368000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>403100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>228800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>123800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>309200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>341500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>231100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>98700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>293300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>249600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>150100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1169400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>288400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>246700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>36100</v>
+        <v>29000</v>
       </c>
       <c r="E20" s="3">
-        <v>23300</v>
+        <v>35000</v>
       </c>
       <c r="F20" s="3">
-        <v>83800</v>
+        <v>22500</v>
       </c>
       <c r="G20" s="3">
-        <v>17700</v>
+        <v>81100</v>
       </c>
       <c r="H20" s="3">
-        <v>-6300</v>
+        <v>17200</v>
       </c>
       <c r="I20" s="3">
-        <v>27200</v>
+        <v>-6100</v>
       </c>
       <c r="J20" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>13300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>142500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>20700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>19800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>11600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>38400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>830600</v>
+        <v>890200</v>
       </c>
       <c r="E21" s="3">
-        <v>652500</v>
+        <v>804200</v>
       </c>
       <c r="F21" s="3">
-        <v>465900</v>
+        <v>631700</v>
       </c>
       <c r="G21" s="3">
-        <v>734100</v>
+        <v>451100</v>
       </c>
       <c r="H21" s="3">
-        <v>671600</v>
+        <v>710800</v>
       </c>
       <c r="I21" s="3">
-        <v>469300</v>
+        <v>650300</v>
       </c>
       <c r="J21" s="3">
+        <v>454400</v>
+      </c>
+      <c r="K21" s="3">
         <v>182000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>670000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>688700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>507400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>524500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>560900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>576200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>457500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>345200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>529600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>463300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>347400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1411900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>498300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G22" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>8700</v>
+      </c>
+      <c r="L22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="O22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="P22" s="3">
         <v>9600</v>
       </c>
-      <c r="E22" s="3">
-        <v>10900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>8900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>7900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>7200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>8700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>6200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>8100</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="Q22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="R22" s="3">
         <v>10200</v>
       </c>
-      <c r="N22" s="3">
-        <v>9100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>9600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>9900</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>10200</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>460000</v>
+        <v>530300</v>
       </c>
       <c r="E23" s="3">
-        <v>284000</v>
+        <v>445400</v>
       </c>
       <c r="F23" s="3">
-        <v>110500</v>
+        <v>275000</v>
       </c>
       <c r="G23" s="3">
-        <v>407000</v>
+        <v>107000</v>
       </c>
       <c r="H23" s="3">
-        <v>374000</v>
+        <v>394000</v>
       </c>
       <c r="I23" s="3">
-        <v>182500</v>
+        <v>362100</v>
       </c>
       <c r="J23" s="3">
+        <v>176700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-122900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>375100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>403900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>226300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>257200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>292600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>316500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>215800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>109200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>302600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>247000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>153100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1200000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>284800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>247900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>93200</v>
+        <v>108900</v>
       </c>
       <c r="E24" s="3">
-        <v>49000</v>
+        <v>90300</v>
       </c>
       <c r="F24" s="3">
-        <v>57800</v>
+        <v>47400</v>
       </c>
       <c r="G24" s="3">
-        <v>135100</v>
+        <v>56000</v>
       </c>
       <c r="H24" s="3">
-        <v>117600</v>
+        <v>130800</v>
       </c>
       <c r="I24" s="3">
-        <v>65700</v>
+        <v>113900</v>
       </c>
       <c r="J24" s="3">
+        <v>63600</v>
+      </c>
+      <c r="K24" s="3">
         <v>30000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>106600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>133800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>82900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>75700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>81000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>84500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>67600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>74000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>67300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>52100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>421800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>65000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>366800</v>
+        <v>421400</v>
       </c>
       <c r="E26" s="3">
-        <v>235000</v>
+        <v>355100</v>
       </c>
       <c r="F26" s="3">
-        <v>52700</v>
+        <v>227500</v>
       </c>
       <c r="G26" s="3">
-        <v>271900</v>
+        <v>51000</v>
       </c>
       <c r="H26" s="3">
-        <v>256400</v>
+        <v>263300</v>
       </c>
       <c r="I26" s="3">
-        <v>116800</v>
+        <v>248200</v>
       </c>
       <c r="J26" s="3">
+        <v>113100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-152900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>268500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>270000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>143400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>181400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>211500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>231900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>148100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>228600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>179700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>101000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>778200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>219800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>181500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>366200</v>
+        <v>418600</v>
       </c>
       <c r="E27" s="3">
-        <v>234900</v>
+        <v>354500</v>
       </c>
       <c r="F27" s="3">
-        <v>55200</v>
+        <v>227500</v>
       </c>
       <c r="G27" s="3">
-        <v>271800</v>
+        <v>53400</v>
       </c>
       <c r="H27" s="3">
-        <v>255800</v>
+        <v>263200</v>
       </c>
       <c r="I27" s="3">
-        <v>116200</v>
+        <v>247700</v>
       </c>
       <c r="J27" s="3">
+        <v>112500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-146500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>268500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>269700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>142800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>179900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>211500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>231100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>147200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>101200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>226800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>178400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>99000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>780600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>216600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,8 +2152,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2107,14 +2167,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-31800</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-36100</v>
+        <v>-29000</v>
       </c>
       <c r="E32" s="3">
-        <v>-23300</v>
+        <v>-35000</v>
       </c>
       <c r="F32" s="3">
-        <v>-83800</v>
+        <v>-22500</v>
       </c>
       <c r="G32" s="3">
-        <v>-17700</v>
+        <v>-81100</v>
       </c>
       <c r="H32" s="3">
-        <v>6300</v>
+        <v>-17200</v>
       </c>
       <c r="I32" s="3">
-        <v>-27200</v>
+        <v>6100</v>
       </c>
       <c r="J32" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="K32" s="3">
         <v>14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-13300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-142500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>15100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-20700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-19800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-11600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-38400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>366200</v>
+        <v>418600</v>
       </c>
       <c r="E33" s="3">
-        <v>234900</v>
+        <v>354500</v>
       </c>
       <c r="F33" s="3">
-        <v>55200</v>
+        <v>227500</v>
       </c>
       <c r="G33" s="3">
-        <v>271800</v>
+        <v>53400</v>
       </c>
       <c r="H33" s="3">
-        <v>255800</v>
+        <v>263200</v>
       </c>
       <c r="I33" s="3">
-        <v>116200</v>
+        <v>247700</v>
       </c>
       <c r="J33" s="3">
+        <v>112500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-146500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>268500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>269700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>142800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>179900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>211500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>231100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>147200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>101200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>195100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>178400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>99000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>780600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>216600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>366200</v>
+        <v>418600</v>
       </c>
       <c r="E35" s="3">
-        <v>234900</v>
+        <v>354500</v>
       </c>
       <c r="F35" s="3">
-        <v>55200</v>
+        <v>227500</v>
       </c>
       <c r="G35" s="3">
-        <v>271800</v>
+        <v>53400</v>
       </c>
       <c r="H35" s="3">
-        <v>255800</v>
+        <v>263200</v>
       </c>
       <c r="I35" s="3">
-        <v>116200</v>
+        <v>247700</v>
       </c>
       <c r="J35" s="3">
+        <v>112500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-146500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>268500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>269700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>142800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>179900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>211500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>231100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>147200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>101200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>195100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>178400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>99000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>780600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>216600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3157000</v>
+        <v>3478700</v>
       </c>
       <c r="E41" s="3">
-        <v>3248200</v>
+        <v>3056700</v>
       </c>
       <c r="F41" s="3">
-        <v>3351200</v>
+        <v>3145000</v>
       </c>
       <c r="G41" s="3">
-        <v>3376500</v>
+        <v>3244700</v>
       </c>
       <c r="H41" s="3">
-        <v>3018100</v>
+        <v>3269200</v>
       </c>
       <c r="I41" s="3">
-        <v>2864600</v>
+        <v>2922100</v>
       </c>
       <c r="J41" s="3">
+        <v>2773500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2931200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3219900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2944200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2402600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2779000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2770800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2332800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2285000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2527800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2525900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2446500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2758400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2930500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2607000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2525500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>147300</v>
+        <v>417100</v>
       </c>
       <c r="E42" s="3">
+        <v>142600</v>
+      </c>
+      <c r="F42" s="3">
+        <v>288500</v>
+      </c>
+      <c r="G42" s="3">
+        <v>562500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>456600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>340000</v>
+      </c>
+      <c r="J42" s="3">
         <v>298000</v>
       </c>
-      <c r="F42" s="3">
-        <v>580900</v>
-      </c>
-      <c r="G42" s="3">
-        <v>471600</v>
-      </c>
-      <c r="H42" s="3">
-        <v>351100</v>
-      </c>
-      <c r="I42" s="3">
-        <v>307800</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>286800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>217600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>90000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>317000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>389800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>292900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>275700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>279700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>394700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>342100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>714600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>731400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>497900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>157800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>175500</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4398000</v>
+        <v>4315500</v>
       </c>
       <c r="E43" s="3">
-        <v>4005000</v>
+        <v>4258300</v>
       </c>
       <c r="F43" s="3">
-        <v>3827400</v>
+        <v>3877700</v>
       </c>
       <c r="G43" s="3">
-        <v>3482600</v>
+        <v>3705700</v>
       </c>
       <c r="H43" s="3">
-        <v>3342900</v>
+        <v>3372000</v>
       </c>
       <c r="I43" s="3">
-        <v>2802600</v>
+        <v>3236600</v>
       </c>
       <c r="J43" s="3">
+        <v>2713500</v>
+      </c>
+      <c r="K43" s="3">
         <v>2732400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3319800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3421500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3028500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2961400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3200000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3658300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3144100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2748300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3100600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3055200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2624700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2261000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2509700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2325300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3100700</v>
+        <v>3515400</v>
       </c>
       <c r="E44" s="3">
-        <v>2944800</v>
+        <v>3002100</v>
       </c>
       <c r="F44" s="3">
-        <v>2544800</v>
+        <v>2851200</v>
       </c>
       <c r="G44" s="3">
-        <v>2256600</v>
+        <v>2463900</v>
       </c>
       <c r="H44" s="3">
-        <v>2169100</v>
+        <v>2184900</v>
       </c>
       <c r="I44" s="3">
-        <v>2270200</v>
+        <v>2100200</v>
       </c>
       <c r="J44" s="3">
+        <v>2198000</v>
+      </c>
+      <c r="K44" s="3">
         <v>2083200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2224300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2033500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2145400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2180400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2257400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2141000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2071700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1876100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1910700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1803700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1689800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1370400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1319200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1353300</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>821800</v>
+        <v>670300</v>
       </c>
       <c r="E45" s="3">
-        <v>928800</v>
+        <v>795700</v>
       </c>
       <c r="F45" s="3">
+        <v>899300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>543900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>450400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>430100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>477500</v>
+      </c>
+      <c r="K45" s="3">
+        <v>481200</v>
+      </c>
+      <c r="L45" s="3">
+        <v>608600</v>
+      </c>
+      <c r="M45" s="3">
+        <v>538000</v>
+      </c>
+      <c r="N45" s="3">
         <v>561800</v>
       </c>
-      <c r="G45" s="3">
-        <v>465200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>444200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>493200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>481200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>608600</v>
-      </c>
-      <c r="L45" s="3">
-        <v>538000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>561800</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>554500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>637800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>592600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>661500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>588500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>731100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>673600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>810400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>622800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2047000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11624900</v>
+        <v>12396900</v>
       </c>
       <c r="E46" s="3">
-        <v>11424800</v>
+        <v>11255400</v>
       </c>
       <c r="F46" s="3">
-        <v>10866100</v>
+        <v>11061700</v>
       </c>
       <c r="G46" s="3">
-        <v>10052500</v>
+        <v>10520800</v>
       </c>
       <c r="H46" s="3">
-        <v>9325400</v>
+        <v>9733000</v>
       </c>
       <c r="I46" s="3">
-        <v>8738300</v>
+        <v>9029000</v>
       </c>
       <c r="J46" s="3">
+        <v>8460600</v>
+      </c>
+      <c r="K46" s="3">
         <v>8514700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9590300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9027200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8455400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8865100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9158900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9000400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8442000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8135400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8610400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8693700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8614700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7682600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8640700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6876600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>446600</v>
+        <v>481300</v>
       </c>
       <c r="E47" s="3">
-        <v>393600</v>
+        <v>432400</v>
       </c>
       <c r="F47" s="3">
-        <v>390200</v>
+        <v>381100</v>
       </c>
       <c r="G47" s="3">
-        <v>295800</v>
+        <v>377800</v>
       </c>
       <c r="H47" s="3">
-        <v>292800</v>
+        <v>286400</v>
       </c>
       <c r="I47" s="3">
-        <v>289900</v>
+        <v>283500</v>
       </c>
       <c r="J47" s="3">
+        <v>280700</v>
+      </c>
+      <c r="K47" s="3">
         <v>292700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>306300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>300800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1386200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1492500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1498700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1515200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1447400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1403400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1460000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1353700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1385500</v>
       </c>
-      <c r="V47" s="3" t="s">
+      <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>317100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7900300</v>
+        <v>8058000</v>
       </c>
       <c r="E48" s="3">
-        <v>7669000</v>
+        <v>7649200</v>
       </c>
       <c r="F48" s="3">
-        <v>7283200</v>
+        <v>7425200</v>
       </c>
       <c r="G48" s="3">
-        <v>6617700</v>
+        <v>7051700</v>
       </c>
       <c r="H48" s="3">
-        <v>6184100</v>
+        <v>6407400</v>
       </c>
       <c r="I48" s="3">
-        <v>5894300</v>
+        <v>5987500</v>
       </c>
       <c r="J48" s="3">
+        <v>5706900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5729700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6098700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5928500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5902900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5795900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5496300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5384500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5208000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4932600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4870000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4685800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4547500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4121600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4223600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4500600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2081400</v>
+        <v>2041900</v>
       </c>
       <c r="E49" s="3">
-        <v>2082800</v>
+        <v>2015200</v>
       </c>
       <c r="F49" s="3">
-        <v>2100100</v>
+        <v>2016600</v>
       </c>
       <c r="G49" s="3">
-        <v>2012700</v>
+        <v>2033300</v>
       </c>
       <c r="H49" s="3">
-        <v>2063000</v>
+        <v>1948700</v>
       </c>
       <c r="I49" s="3">
-        <v>2086300</v>
+        <v>1997500</v>
       </c>
       <c r="J49" s="3">
+        <v>2020000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2120500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2234000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2239800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2262400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2436000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2398100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2378400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2277900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2200200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2272200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2276900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2205800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1001000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1092000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>933100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>833600</v>
+        <v>1012300</v>
       </c>
       <c r="E52" s="3">
-        <v>526800</v>
+        <v>807100</v>
       </c>
       <c r="F52" s="3">
-        <v>517100</v>
+        <v>510000</v>
       </c>
       <c r="G52" s="3">
-        <v>477200</v>
+        <v>500600</v>
       </c>
       <c r="H52" s="3">
-        <v>473700</v>
+        <v>462000</v>
       </c>
       <c r="I52" s="3">
-        <v>477000</v>
+        <v>458700</v>
       </c>
       <c r="J52" s="3">
+        <v>461900</v>
+      </c>
+      <c r="K52" s="3">
         <v>463500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>458700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>449000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>472400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>558300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>538400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>564400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>528400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>551500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>539100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>565900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>539800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1957400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>599700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22886700</v>
+        <v>23990400</v>
       </c>
       <c r="E54" s="3">
-        <v>22097100</v>
+        <v>22159400</v>
       </c>
       <c r="F54" s="3">
-        <v>21156600</v>
+        <v>21394800</v>
       </c>
       <c r="G54" s="3">
-        <v>19455700</v>
+        <v>20484200</v>
       </c>
       <c r="H54" s="3">
-        <v>18339000</v>
+        <v>18837400</v>
       </c>
       <c r="I54" s="3">
-        <v>17485800</v>
+        <v>17756200</v>
       </c>
       <c r="J54" s="3">
+        <v>16930100</v>
+      </c>
+      <c r="K54" s="3">
         <v>17121200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18687900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17945300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18479200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19147700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19090400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18842900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17903800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17223100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17751700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17575900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17293200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>14762600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>14873100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>13158900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3317300</v>
+        <v>3389400</v>
       </c>
       <c r="E57" s="3">
-        <v>3314800</v>
+        <v>3211800</v>
       </c>
       <c r="F57" s="3">
-        <v>2857700</v>
+        <v>3209400</v>
       </c>
       <c r="G57" s="3">
-        <v>2384200</v>
+        <v>2766900</v>
       </c>
       <c r="H57" s="3">
-        <v>2097400</v>
+        <v>2308400</v>
       </c>
       <c r="I57" s="3">
-        <v>1853300</v>
-      </c>
-      <c r="J57" s="3" t="s">
+        <v>2030800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1794400</v>
+      </c>
+      <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2111100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1902500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1774100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1824900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1935100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2006800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2067400</v>
       </c>
-      <c r="R57" s="3" t="s">
+      <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2138200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2066200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1807900</v>
       </c>
-      <c r="V57" s="3" t="s">
+      <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1648400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1383400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2535900</v>
+        <v>1750800</v>
       </c>
       <c r="E58" s="3">
-        <v>3077200</v>
+        <v>2455300</v>
       </c>
       <c r="F58" s="3">
-        <v>2890200</v>
+        <v>2979400</v>
       </c>
       <c r="G58" s="3">
-        <v>3055900</v>
+        <v>2798400</v>
       </c>
       <c r="H58" s="3">
-        <v>2522800</v>
+        <v>2958800</v>
       </c>
       <c r="I58" s="3">
-        <v>2387000</v>
+        <v>2442600</v>
       </c>
       <c r="J58" s="3">
+        <v>2311200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2507600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2888400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2517300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3350200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3004000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2978100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2652200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2038100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1709800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1551100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1679200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2316800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1066100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1614500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2222200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3144300</v>
+        <v>3154700</v>
       </c>
       <c r="E59" s="3">
-        <v>3207300</v>
+        <v>3044300</v>
       </c>
       <c r="F59" s="3">
-        <v>3163100</v>
+        <v>3105400</v>
       </c>
       <c r="G59" s="3">
-        <v>2528700</v>
+        <v>3062600</v>
       </c>
       <c r="H59" s="3">
-        <v>2233900</v>
+        <v>2448300</v>
       </c>
       <c r="I59" s="3">
-        <v>2029900</v>
+        <v>2162900</v>
       </c>
       <c r="J59" s="3">
+        <v>1965400</v>
+      </c>
+      <c r="K59" s="3">
         <v>3826000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2102600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1960800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1905900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2035800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2254600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2165900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1835800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3741600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1669900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1728700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1794900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3170100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1663200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1357600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8997400</v>
+        <v>8294900</v>
       </c>
       <c r="E60" s="3">
-        <v>9599300</v>
+        <v>8711500</v>
       </c>
       <c r="F60" s="3">
-        <v>8911100</v>
+        <v>9294300</v>
       </c>
       <c r="G60" s="3">
-        <v>7968800</v>
+        <v>8627900</v>
       </c>
       <c r="H60" s="3">
-        <v>6854100</v>
+        <v>7715600</v>
       </c>
       <c r="I60" s="3">
-        <v>6270200</v>
+        <v>6636300</v>
       </c>
       <c r="J60" s="3">
+        <v>6070900</v>
+      </c>
+      <c r="K60" s="3">
         <v>6333600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7102100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6380600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7030200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6864600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7167700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6824900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5941300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5451500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5359300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5474200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5919500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4236300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4926200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4963300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2254700</v>
+        <v>3672600</v>
       </c>
       <c r="E61" s="3">
-        <v>1368800</v>
+        <v>2183100</v>
       </c>
       <c r="F61" s="3">
-        <v>1368000</v>
+        <v>1325300</v>
       </c>
       <c r="G61" s="3">
-        <v>1367900</v>
+        <v>1324500</v>
       </c>
       <c r="H61" s="3">
-        <v>1668900</v>
+        <v>1324400</v>
       </c>
       <c r="I61" s="3">
-        <v>1674100</v>
+        <v>1615900</v>
       </c>
       <c r="J61" s="3">
+        <v>1620900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1233900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1279800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1693400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1689700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1995800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2044700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2160800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2705700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2656700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2905000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2974300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2470000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1897600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2078800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1355200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2037900</v>
+        <v>1997300</v>
       </c>
       <c r="E62" s="3">
-        <v>1997900</v>
+        <v>1973100</v>
       </c>
       <c r="F62" s="3">
-        <v>2012100</v>
+        <v>1934400</v>
       </c>
       <c r="G62" s="3">
-        <v>2160900</v>
+        <v>1948100</v>
       </c>
       <c r="H62" s="3">
-        <v>2096800</v>
+        <v>2092200</v>
       </c>
       <c r="I62" s="3">
-        <v>2081800</v>
+        <v>2030100</v>
       </c>
       <c r="J62" s="3">
+        <v>2015600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2077800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1996700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1953500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1952600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1794400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1669300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1673200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1604900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1600600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1619600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1597900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1582700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1514000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1409500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1440600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13313900</v>
+        <v>13992500</v>
       </c>
       <c r="E66" s="3">
-        <v>12989700</v>
+        <v>12890700</v>
       </c>
       <c r="F66" s="3">
-        <v>12315500</v>
+        <v>12576800</v>
       </c>
       <c r="G66" s="3">
-        <v>11523400</v>
+        <v>11924000</v>
       </c>
       <c r="H66" s="3">
-        <v>10650900</v>
+        <v>11157200</v>
       </c>
       <c r="I66" s="3">
-        <v>10065900</v>
+        <v>10312400</v>
       </c>
       <c r="J66" s="3">
+        <v>9746000</v>
+      </c>
+      <c r="K66" s="3">
         <v>9685900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10427800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10076200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10728900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10717000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10940400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10717600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10314600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9768400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9946100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10106300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10050400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7723300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8487700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7822400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9931300</v>
+        <v>9925500</v>
       </c>
       <c r="E72" s="3">
-        <v>9565200</v>
+        <v>9615700</v>
       </c>
       <c r="F72" s="3">
-        <v>9430400</v>
+        <v>9261200</v>
       </c>
       <c r="G72" s="3">
-        <v>9374900</v>
+        <v>9130700</v>
       </c>
       <c r="H72" s="3">
-        <v>9203500</v>
+        <v>9077000</v>
       </c>
       <c r="I72" s="3">
-        <v>8970600</v>
+        <v>8911000</v>
       </c>
       <c r="J72" s="3">
+        <v>8685500</v>
+      </c>
+      <c r="K72" s="3">
         <v>8954400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9410900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9327100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9027800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9418600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9075300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8816700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8400800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8316200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8215000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8088300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7909900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7731200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6951300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6801800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9572900</v>
+        <v>9997900</v>
       </c>
       <c r="E76" s="3">
-        <v>9107400</v>
+        <v>9268600</v>
       </c>
       <c r="F76" s="3">
-        <v>8841200</v>
+        <v>8818000</v>
       </c>
       <c r="G76" s="3">
-        <v>7932300</v>
+        <v>8560200</v>
       </c>
       <c r="H76" s="3">
-        <v>7688100</v>
+        <v>7680200</v>
       </c>
       <c r="I76" s="3">
-        <v>7419900</v>
+        <v>7443800</v>
       </c>
       <c r="J76" s="3">
+        <v>7184100</v>
+      </c>
+      <c r="K76" s="3">
         <v>7435300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8260200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7869100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7750300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8430800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8150000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8125300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7589200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7454700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7805600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7469600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7242800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7039400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6385400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5336600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>366200</v>
+        <v>418600</v>
       </c>
       <c r="E81" s="3">
-        <v>234900</v>
+        <v>354500</v>
       </c>
       <c r="F81" s="3">
-        <v>55200</v>
+        <v>227500</v>
       </c>
       <c r="G81" s="3">
-        <v>271800</v>
+        <v>53400</v>
       </c>
       <c r="H81" s="3">
-        <v>255800</v>
+        <v>263200</v>
       </c>
       <c r="I81" s="3">
-        <v>116200</v>
+        <v>247700</v>
       </c>
       <c r="J81" s="3">
+        <v>112500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-146500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>268500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>269700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>142800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>179900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>211500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>231100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>147200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>101200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>195100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>178400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>99000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>780600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>216600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>361000</v>
+        <v>356100</v>
       </c>
       <c r="E83" s="3">
-        <v>357500</v>
+        <v>349500</v>
       </c>
       <c r="F83" s="3">
-        <v>346500</v>
+        <v>346200</v>
       </c>
       <c r="G83" s="3">
-        <v>319200</v>
+        <v>335400</v>
       </c>
       <c r="H83" s="3">
-        <v>290600</v>
+        <v>309100</v>
       </c>
       <c r="I83" s="3">
-        <v>279600</v>
+        <v>281400</v>
       </c>
       <c r="J83" s="3">
+        <v>270700</v>
+      </c>
+      <c r="K83" s="3">
         <v>296200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>288600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>276700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>270900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>258100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>258600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>249900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>231500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>225800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>216500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>205200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>185800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>204100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>205000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>62200</v>
+        <v>591300</v>
       </c>
       <c r="E89" s="3">
-        <v>10300</v>
+        <v>60200</v>
       </c>
       <c r="F89" s="3">
-        <v>528100</v>
+        <v>10000</v>
       </c>
       <c r="G89" s="3">
-        <v>790600</v>
+        <v>511300</v>
       </c>
       <c r="H89" s="3">
-        <v>558000</v>
+        <v>765500</v>
       </c>
       <c r="I89" s="3">
-        <v>86300</v>
+        <v>540200</v>
       </c>
       <c r="J89" s="3">
+        <v>83600</v>
+      </c>
+      <c r="K89" s="3">
         <v>642000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>816700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>478500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>71500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>479600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>780600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>408400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-329800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>545400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>378100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>79500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-177600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>545700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>390400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>406900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-641200</v>
+        <v>-655200</v>
       </c>
       <c r="E91" s="3">
-        <v>-539200</v>
+        <v>-620800</v>
       </c>
       <c r="F91" s="3">
-        <v>-510300</v>
+        <v>-522100</v>
       </c>
       <c r="G91" s="3">
-        <v>-504800</v>
+        <v>-494100</v>
       </c>
       <c r="H91" s="3">
-        <v>-447200</v>
+        <v>-488800</v>
       </c>
       <c r="I91" s="3">
-        <v>-408500</v>
+        <v>-433000</v>
       </c>
       <c r="J91" s="3">
+        <v>-395500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-383700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-355500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-367200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-466200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-541600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-379600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-322700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-384400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-412700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-436500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-377400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-388000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-293800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-413900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-304700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-507000</v>
+        <v>-957900</v>
       </c>
       <c r="E94" s="3">
-        <v>-250800</v>
+        <v>-490900</v>
       </c>
       <c r="F94" s="3">
-        <v>-586800</v>
+        <v>-242900</v>
       </c>
       <c r="G94" s="3">
-        <v>-585400</v>
+        <v>-568100</v>
       </c>
       <c r="H94" s="3">
-        <v>-496400</v>
+        <v>-566800</v>
       </c>
       <c r="I94" s="3">
-        <v>-370800</v>
+        <v>-480600</v>
       </c>
       <c r="J94" s="3">
+        <v>-359100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-470400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-484300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1010900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-415900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-426400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-384800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-293100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-213600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-383600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-44100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-203600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1593400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>591900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-446200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-348600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6250,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-107500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1000</v>
       </c>
-      <c r="E96" s="3">
-        <v>-99100</v>
-      </c>
       <c r="F96" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-200</v>
       </c>
-      <c r="G96" s="3">
-        <v>-100000</v>
-      </c>
       <c r="H96" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1400</v>
       </c>
-      <c r="I96" s="3">
-        <v>-98700</v>
-      </c>
       <c r="J96" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-96100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-91300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-95200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-79200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-68300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-67100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-67000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>333500</v>
+        <v>674700</v>
       </c>
       <c r="E100" s="3">
-        <v>86600</v>
+        <v>322900</v>
       </c>
       <c r="F100" s="3">
-        <v>-185100</v>
+        <v>83800</v>
       </c>
       <c r="G100" s="3">
-        <v>130500</v>
+        <v>-179200</v>
       </c>
       <c r="H100" s="3">
-        <v>81700</v>
+        <v>126300</v>
       </c>
       <c r="I100" s="3">
-        <v>230200</v>
+        <v>79100</v>
       </c>
       <c r="J100" s="3">
+        <v>222800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-285400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-112400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-915900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>207300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-113000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>61100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-104900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>236500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-26100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-274500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-226100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1521900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-716900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-170900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>221900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>20100</v>
+        <v>113900</v>
       </c>
       <c r="E101" s="3">
-        <v>51000</v>
+        <v>19400</v>
       </c>
       <c r="F101" s="3">
-        <v>218500</v>
+        <v>49400</v>
       </c>
       <c r="G101" s="3">
-        <v>22800</v>
+        <v>211600</v>
       </c>
       <c r="H101" s="3">
-        <v>10200</v>
+        <v>22000</v>
       </c>
       <c r="I101" s="3">
-        <v>-12300</v>
+        <v>9900</v>
       </c>
       <c r="J101" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-68800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>81400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-39800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-109000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>18200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-56500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>50100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-133700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>19900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>38300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>20800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-97200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>308200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-91200</v>
+        <v>422000</v>
       </c>
       <c r="E102" s="3">
-        <v>-103000</v>
+        <v>-88300</v>
       </c>
       <c r="F102" s="3">
-        <v>-25300</v>
+        <v>-99700</v>
       </c>
       <c r="G102" s="3">
-        <v>358400</v>
+        <v>-24500</v>
       </c>
       <c r="H102" s="3">
-        <v>153500</v>
+        <v>347000</v>
       </c>
       <c r="I102" s="3">
-        <v>-66700</v>
+        <v>148600</v>
       </c>
       <c r="J102" s="3">
+        <v>-64500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-182700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>301300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>533800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-246300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-41700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-256800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>79400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-311900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-228300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>323600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>81500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>233900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4262200</v>
+        <v>3959400</v>
       </c>
       <c r="E8" s="3">
-        <v>4044300</v>
+        <v>3892400</v>
       </c>
       <c r="F8" s="3">
-        <v>3583100</v>
+        <v>3693400</v>
       </c>
       <c r="G8" s="3">
-        <v>3345600</v>
+        <v>3272300</v>
       </c>
       <c r="H8" s="3">
-        <v>3375200</v>
+        <v>3055300</v>
       </c>
       <c r="I8" s="3">
-        <v>3256100</v>
+        <v>3082400</v>
       </c>
       <c r="J8" s="3">
+        <v>2973600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2639100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2646300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3239800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3402300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3085200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2970100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3311600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3519700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3118500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2775700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3083800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3019800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2617300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2433100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2880700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2664700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2923100</v>
+        <v>2849400</v>
       </c>
       <c r="E9" s="3">
-        <v>2779400</v>
+        <v>2669500</v>
       </c>
       <c r="F9" s="3">
-        <v>2572800</v>
+        <v>2538300</v>
       </c>
       <c r="G9" s="3">
-        <v>2478600</v>
+        <v>2349600</v>
       </c>
       <c r="H9" s="3">
-        <v>2314900</v>
+        <v>2263600</v>
       </c>
       <c r="I9" s="3">
-        <v>2242600</v>
+        <v>2114100</v>
       </c>
       <c r="J9" s="3">
+        <v>2048000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1875100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1963600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2204100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2334900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2205900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2202400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2303600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2451100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2256800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2084000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2201600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2193800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1923900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1831500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2033200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1915700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1339100</v>
+        <v>1110000</v>
       </c>
       <c r="E10" s="3">
-        <v>1264900</v>
+        <v>1222900</v>
       </c>
       <c r="F10" s="3">
-        <v>1010300</v>
+        <v>1155100</v>
       </c>
       <c r="G10" s="3">
-        <v>867000</v>
+        <v>922700</v>
       </c>
       <c r="H10" s="3">
-        <v>1060300</v>
+        <v>791700</v>
       </c>
       <c r="I10" s="3">
-        <v>1013500</v>
+        <v>968300</v>
       </c>
       <c r="J10" s="3">
+        <v>925600</v>
+      </c>
+      <c r="K10" s="3">
         <v>764000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>682700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1035700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1067400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>879300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>767700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1008000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1068600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>861700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>691800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>882100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>825900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>693400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>601500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>847600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>749000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,29 +1180,29 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>66100</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>200</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>60400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>161700</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2200</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1196,8 +1216,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3757200</v>
+        <v>3745700</v>
       </c>
       <c r="E17" s="3">
-        <v>3624600</v>
+        <v>3431200</v>
       </c>
       <c r="F17" s="3">
-        <v>3320100</v>
+        <v>3310200</v>
       </c>
       <c r="G17" s="3">
-        <v>3311000</v>
+        <v>3032100</v>
       </c>
       <c r="H17" s="3">
-        <v>2990700</v>
+        <v>3023800</v>
       </c>
       <c r="I17" s="3">
-        <v>2881000</v>
+        <v>2731200</v>
       </c>
       <c r="J17" s="3">
+        <v>2631100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2481800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2746500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2871800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2999200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2856400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2846300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3002300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3178200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2887400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2677000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2790500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2770200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2467200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1263700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2592300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2418000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>505000</v>
+        <v>213700</v>
       </c>
       <c r="E18" s="3">
-        <v>419700</v>
+        <v>461200</v>
       </c>
       <c r="F18" s="3">
-        <v>263000</v>
+        <v>383300</v>
       </c>
       <c r="G18" s="3">
-        <v>34600</v>
+        <v>240200</v>
       </c>
       <c r="H18" s="3">
-        <v>384500</v>
+        <v>31600</v>
       </c>
       <c r="I18" s="3">
-        <v>375000</v>
+        <v>351200</v>
       </c>
       <c r="J18" s="3">
+        <v>342500</v>
+      </c>
+      <c r="K18" s="3">
         <v>157300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>368000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>403100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>228800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>123800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>309200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>341500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>231100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>98700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>293300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>249600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>150100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1169400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>288400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>246700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>29000</v>
+        <v>484100</v>
       </c>
       <c r="E20" s="3">
-        <v>35000</v>
+        <v>26500</v>
       </c>
       <c r="F20" s="3">
-        <v>22500</v>
+        <v>32000</v>
       </c>
       <c r="G20" s="3">
-        <v>81100</v>
+        <v>20600</v>
       </c>
       <c r="H20" s="3">
-        <v>17200</v>
+        <v>74100</v>
       </c>
       <c r="I20" s="3">
-        <v>-6100</v>
+        <v>15700</v>
       </c>
       <c r="J20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K20" s="3">
         <v>26400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>13300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>142500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-15100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>20700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>19800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>8500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>11600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>38400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>890200</v>
+        <v>1051700</v>
       </c>
       <c r="E21" s="3">
-        <v>804200</v>
+        <v>813000</v>
       </c>
       <c r="F21" s="3">
-        <v>631700</v>
+        <v>734400</v>
       </c>
       <c r="G21" s="3">
-        <v>451100</v>
+        <v>576900</v>
       </c>
       <c r="H21" s="3">
-        <v>710800</v>
+        <v>412000</v>
       </c>
       <c r="I21" s="3">
-        <v>650300</v>
+        <v>649100</v>
       </c>
       <c r="J21" s="3">
+        <v>593900</v>
+      </c>
+      <c r="K21" s="3">
         <v>454400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>182000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>670000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>688700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>507400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>524500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>560900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>576200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>457500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>345200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>529600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>463300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>347400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1411900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>498300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3800</v>
+        <v>15700</v>
       </c>
       <c r="E22" s="3">
-        <v>9300</v>
+        <v>3400</v>
       </c>
       <c r="F22" s="3">
-        <v>10600</v>
+        <v>8500</v>
       </c>
       <c r="G22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>8700</v>
+      </c>
+      <c r="M22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="N22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="P22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="R22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="S22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="T22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="U22" s="3">
+        <v>10500</v>
+      </c>
+      <c r="V22" s="3">
+        <v>11100</v>
+      </c>
+      <c r="W22" s="3">
         <v>8600</v>
       </c>
-      <c r="H22" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="X22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>8600</v>
+      </c>
+      <c r="Z22" s="3">
         <v>6800</v>
       </c>
-      <c r="J22" s="3">
-        <v>7000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>8700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>6200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>8100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>10200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>9100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>9600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>9900</v>
-      </c>
-      <c r="R22" s="3">
-        <v>10200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>10100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>10500</v>
-      </c>
-      <c r="U22" s="3">
-        <v>11100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>8600</v>
-      </c>
-      <c r="W22" s="3">
-        <v>7800</v>
-      </c>
-      <c r="X22" s="3">
-        <v>8600</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>6800</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>530300</v>
+        <v>682100</v>
       </c>
       <c r="E23" s="3">
-        <v>445400</v>
+        <v>484300</v>
       </c>
       <c r="F23" s="3">
-        <v>275000</v>
+        <v>406800</v>
       </c>
       <c r="G23" s="3">
-        <v>107000</v>
+        <v>251100</v>
       </c>
       <c r="H23" s="3">
-        <v>394000</v>
+        <v>97700</v>
       </c>
       <c r="I23" s="3">
-        <v>362100</v>
+        <v>359900</v>
       </c>
       <c r="J23" s="3">
+        <v>330700</v>
+      </c>
+      <c r="K23" s="3">
         <v>176700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-122900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>375100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>403900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>226300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>257200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>292600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>316500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>215800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>109200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>302600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>247000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>153100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1200000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>284800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>247900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>108900</v>
+        <v>212400</v>
       </c>
       <c r="E24" s="3">
-        <v>90300</v>
+        <v>99400</v>
       </c>
       <c r="F24" s="3">
-        <v>47400</v>
+        <v>82400</v>
       </c>
       <c r="G24" s="3">
-        <v>56000</v>
+        <v>43300</v>
       </c>
       <c r="H24" s="3">
-        <v>130800</v>
+        <v>51100</v>
       </c>
       <c r="I24" s="3">
-        <v>113900</v>
+        <v>119400</v>
       </c>
       <c r="J24" s="3">
+        <v>104000</v>
+      </c>
+      <c r="K24" s="3">
         <v>63600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>106600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>133800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>82900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>75700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>81000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>84500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>67600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>74000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>67300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>52100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>421800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>65000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>421400</v>
+        <v>469700</v>
       </c>
       <c r="E26" s="3">
-        <v>355100</v>
+        <v>384800</v>
       </c>
       <c r="F26" s="3">
-        <v>227500</v>
+        <v>324300</v>
       </c>
       <c r="G26" s="3">
-        <v>51000</v>
+        <v>207800</v>
       </c>
       <c r="H26" s="3">
-        <v>263300</v>
+        <v>46600</v>
       </c>
       <c r="I26" s="3">
-        <v>248200</v>
+        <v>240400</v>
       </c>
       <c r="J26" s="3">
+        <v>226700</v>
+      </c>
+      <c r="K26" s="3">
         <v>113100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-152900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>268500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>270000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>143400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>181400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>211500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>231900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>148100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>228600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>179700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>101000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>778200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>219800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>181500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>418600</v>
+        <v>469000</v>
       </c>
       <c r="E27" s="3">
-        <v>354500</v>
+        <v>382300</v>
       </c>
       <c r="F27" s="3">
-        <v>227500</v>
+        <v>323800</v>
       </c>
       <c r="G27" s="3">
-        <v>53400</v>
+        <v>207700</v>
       </c>
       <c r="H27" s="3">
-        <v>263200</v>
+        <v>48800</v>
       </c>
       <c r="I27" s="3">
-        <v>247700</v>
+        <v>240300</v>
       </c>
       <c r="J27" s="3">
+        <v>226200</v>
+      </c>
+      <c r="K27" s="3">
         <v>112500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-146500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>268500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>269700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>142800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>179900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>211500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>231100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>147200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>101200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>226800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>178400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>99000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>780600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>216600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2155,8 +2216,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2170,14 +2231,14 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-31800</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-29000</v>
+        <v>-484100</v>
       </c>
       <c r="E32" s="3">
-        <v>-35000</v>
+        <v>-26500</v>
       </c>
       <c r="F32" s="3">
-        <v>-22500</v>
+        <v>-32000</v>
       </c>
       <c r="G32" s="3">
-        <v>-81100</v>
+        <v>-20600</v>
       </c>
       <c r="H32" s="3">
-        <v>-17200</v>
+        <v>-74100</v>
       </c>
       <c r="I32" s="3">
-        <v>6100</v>
+        <v>-15700</v>
       </c>
       <c r="J32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-26400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-13300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-142500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>15100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-20700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-19800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-8500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-11600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-38400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>418600</v>
+        <v>469000</v>
       </c>
       <c r="E33" s="3">
-        <v>354500</v>
+        <v>382300</v>
       </c>
       <c r="F33" s="3">
-        <v>227500</v>
+        <v>323800</v>
       </c>
       <c r="G33" s="3">
-        <v>53400</v>
+        <v>207700</v>
       </c>
       <c r="H33" s="3">
-        <v>263200</v>
+        <v>48800</v>
       </c>
       <c r="I33" s="3">
-        <v>247700</v>
+        <v>240300</v>
       </c>
       <c r="J33" s="3">
+        <v>226200</v>
+      </c>
+      <c r="K33" s="3">
         <v>112500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-146500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>268500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>269700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>142800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>179900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>211500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>231100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>147200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>101200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>195100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>178400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>99000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>780600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>216600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>418600</v>
+        <v>469000</v>
       </c>
       <c r="E35" s="3">
-        <v>354500</v>
+        <v>382300</v>
       </c>
       <c r="F35" s="3">
-        <v>227500</v>
+        <v>323800</v>
       </c>
       <c r="G35" s="3">
-        <v>53400</v>
+        <v>207700</v>
       </c>
       <c r="H35" s="3">
-        <v>263200</v>
+        <v>48800</v>
       </c>
       <c r="I35" s="3">
-        <v>247700</v>
+        <v>240300</v>
       </c>
       <c r="J35" s="3">
+        <v>226200</v>
+      </c>
+      <c r="K35" s="3">
         <v>112500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-146500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>268500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>269700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>142800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>179900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>211500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>231100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>147200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>101200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>195100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>178400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>99000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>780600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>216600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,647 +2833,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3478700</v>
+        <v>3422500</v>
       </c>
       <c r="E41" s="3">
-        <v>3056700</v>
+        <v>3176900</v>
       </c>
       <c r="F41" s="3">
-        <v>3145000</v>
+        <v>2791500</v>
       </c>
       <c r="G41" s="3">
-        <v>3244700</v>
+        <v>2872200</v>
       </c>
       <c r="H41" s="3">
-        <v>3269200</v>
+        <v>2963200</v>
       </c>
       <c r="I41" s="3">
-        <v>2922100</v>
+        <v>2985600</v>
       </c>
       <c r="J41" s="3">
+        <v>2668600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2773500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2931200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3219900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2944200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2402600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2779000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2770800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2332800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2285000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2527800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2525900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2446500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2758400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2930500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2607000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2525500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>417100</v>
+        <v>418400</v>
       </c>
       <c r="E42" s="3">
-        <v>142600</v>
+        <v>380900</v>
       </c>
       <c r="F42" s="3">
-        <v>288500</v>
+        <v>130300</v>
       </c>
       <c r="G42" s="3">
-        <v>562500</v>
+        <v>263500</v>
       </c>
       <c r="H42" s="3">
-        <v>456600</v>
+        <v>513700</v>
       </c>
       <c r="I42" s="3">
-        <v>340000</v>
+        <v>417000</v>
       </c>
       <c r="J42" s="3">
+        <v>310500</v>
+      </c>
+      <c r="K42" s="3">
         <v>298000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>286800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>217600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>90000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>317000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>389800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>292900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>275700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>279700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>394700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>342100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>714600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>731400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>497900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>157800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>175500</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4315500</v>
+        <v>4086500</v>
       </c>
       <c r="E43" s="3">
-        <v>4258300</v>
+        <v>3941100</v>
       </c>
       <c r="F43" s="3">
-        <v>3877700</v>
+        <v>3888900</v>
       </c>
       <c r="G43" s="3">
-        <v>3705700</v>
+        <v>3541300</v>
       </c>
       <c r="H43" s="3">
-        <v>3372000</v>
+        <v>3384300</v>
       </c>
       <c r="I43" s="3">
-        <v>3236600</v>
+        <v>3079400</v>
       </c>
       <c r="J43" s="3">
+        <v>2955900</v>
+      </c>
+      <c r="K43" s="3">
         <v>2713500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2732400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3319800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3421500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3028500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2961400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3200000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3658300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3144100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2748300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3100600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3055200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2624700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2261000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2509700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2325300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3515400</v>
+        <v>3407300</v>
       </c>
       <c r="E44" s="3">
-        <v>3002100</v>
+        <v>3210500</v>
       </c>
       <c r="F44" s="3">
-        <v>2851200</v>
+        <v>2741700</v>
       </c>
       <c r="G44" s="3">
-        <v>2463900</v>
+        <v>2603900</v>
       </c>
       <c r="H44" s="3">
-        <v>2184900</v>
+        <v>2250200</v>
       </c>
       <c r="I44" s="3">
-        <v>2100200</v>
+        <v>1995400</v>
       </c>
       <c r="J44" s="3">
+        <v>1918000</v>
+      </c>
+      <c r="K44" s="3">
         <v>2198000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2083200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2224300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2033500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2145400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2180400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2257400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2141000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2071700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1876100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1910700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1803700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1689800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1370400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1319200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1353300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>670300</v>
+        <v>634100</v>
       </c>
       <c r="E45" s="3">
-        <v>795700</v>
+        <v>612100</v>
       </c>
       <c r="F45" s="3">
-        <v>899300</v>
+        <v>726700</v>
       </c>
       <c r="G45" s="3">
-        <v>543900</v>
+        <v>821300</v>
       </c>
       <c r="H45" s="3">
-        <v>450400</v>
+        <v>496700</v>
       </c>
       <c r="I45" s="3">
-        <v>430100</v>
+        <v>411300</v>
       </c>
       <c r="J45" s="3">
+        <v>392800</v>
+      </c>
+      <c r="K45" s="3">
         <v>477500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>481200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>608600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>538000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>561800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>554500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>637800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>592600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>661500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>588500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>731100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>673600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>810400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>622800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2047000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12396900</v>
+        <v>11968800</v>
       </c>
       <c r="E46" s="3">
-        <v>11255400</v>
+        <v>11321500</v>
       </c>
       <c r="F46" s="3">
-        <v>11061700</v>
+        <v>10279000</v>
       </c>
       <c r="G46" s="3">
-        <v>10520800</v>
+        <v>10102100</v>
       </c>
       <c r="H46" s="3">
-        <v>9733000</v>
+        <v>9608100</v>
       </c>
       <c r="I46" s="3">
-        <v>9029000</v>
+        <v>8888600</v>
       </c>
       <c r="J46" s="3">
+        <v>8245700</v>
+      </c>
+      <c r="K46" s="3">
         <v>8460600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8514700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9590300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9027200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8455400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8865100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9158900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9000400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8442000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8135400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8610400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8693700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8614700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7682600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8640700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6876600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>481300</v>
+        <v>973500</v>
       </c>
       <c r="E47" s="3">
-        <v>432400</v>
+        <v>439600</v>
       </c>
       <c r="F47" s="3">
-        <v>381100</v>
+        <v>394900</v>
       </c>
       <c r="G47" s="3">
-        <v>377800</v>
+        <v>348100</v>
       </c>
       <c r="H47" s="3">
-        <v>286400</v>
+        <v>345000</v>
       </c>
       <c r="I47" s="3">
-        <v>283500</v>
+        <v>261500</v>
       </c>
       <c r="J47" s="3">
+        <v>258900</v>
+      </c>
+      <c r="K47" s="3">
         <v>280700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>292700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>306300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>300800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1386200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1492500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1498700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1515200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1447400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1403400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1460000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1353700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1385500</v>
       </c>
-      <c r="W47" s="3" t="s">
+      <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>317100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8058000</v>
+        <v>7783300</v>
       </c>
       <c r="E48" s="3">
-        <v>7649200</v>
+        <v>7358900</v>
       </c>
       <c r="F48" s="3">
-        <v>7425200</v>
+        <v>6985600</v>
       </c>
       <c r="G48" s="3">
-        <v>7051700</v>
+        <v>6781100</v>
       </c>
       <c r="H48" s="3">
-        <v>6407400</v>
+        <v>6440000</v>
       </c>
       <c r="I48" s="3">
-        <v>5987500</v>
+        <v>5851500</v>
       </c>
       <c r="J48" s="3">
+        <v>5468100</v>
+      </c>
+      <c r="K48" s="3">
         <v>5706900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5729700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6098700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5928500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5902900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5795900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5496300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5384500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5208000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4932600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4870000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4685800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4547500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4121600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4223600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4500600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2041900</v>
+        <v>1409500</v>
       </c>
       <c r="E49" s="3">
-        <v>2015200</v>
+        <v>1864800</v>
       </c>
       <c r="F49" s="3">
-        <v>2016600</v>
+        <v>1840400</v>
       </c>
       <c r="G49" s="3">
-        <v>2033300</v>
+        <v>1841700</v>
       </c>
       <c r="H49" s="3">
-        <v>1948700</v>
+        <v>1856900</v>
       </c>
       <c r="I49" s="3">
-        <v>1997500</v>
+        <v>1779600</v>
       </c>
       <c r="J49" s="3">
+        <v>1824200</v>
+      </c>
+      <c r="K49" s="3">
         <v>2020000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2120500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2234000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2239800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2262400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2436000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2398100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2378400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2277900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2200200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2272200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2276900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2205800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1001000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1092000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>933100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1012300</v>
+        <v>1912000</v>
       </c>
       <c r="E52" s="3">
-        <v>807100</v>
+        <v>924400</v>
       </c>
       <c r="F52" s="3">
-        <v>510000</v>
+        <v>737100</v>
       </c>
       <c r="G52" s="3">
-        <v>500600</v>
+        <v>465800</v>
       </c>
       <c r="H52" s="3">
-        <v>462000</v>
+        <v>457200</v>
       </c>
       <c r="I52" s="3">
+        <v>421900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>418900</v>
+      </c>
+      <c r="K52" s="3">
+        <v>461900</v>
+      </c>
+      <c r="L52" s="3">
+        <v>463500</v>
+      </c>
+      <c r="M52" s="3">
         <v>458700</v>
       </c>
-      <c r="J52" s="3">
-        <v>461900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>463500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>458700</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>449000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>472400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>558300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>538400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>564400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>528400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>551500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>539100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>565900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>539800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1957400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>599700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23990400</v>
+        <v>24047100</v>
       </c>
       <c r="E54" s="3">
-        <v>22159400</v>
+        <v>21909200</v>
       </c>
       <c r="F54" s="3">
-        <v>21394800</v>
+        <v>20237000</v>
       </c>
       <c r="G54" s="3">
-        <v>20484200</v>
+        <v>19538700</v>
       </c>
       <c r="H54" s="3">
-        <v>18837400</v>
+        <v>18707200</v>
       </c>
       <c r="I54" s="3">
-        <v>17756200</v>
+        <v>17203200</v>
       </c>
       <c r="J54" s="3">
+        <v>16215800</v>
+      </c>
+      <c r="K54" s="3">
         <v>16930100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17121200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18687900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17945300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18479200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19147700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19090400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18842900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17903800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17223100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17751700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17575900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17293200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>14762600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>14873100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>13158900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3389400</v>
+        <v>3584400</v>
       </c>
       <c r="E57" s="3">
-        <v>3211800</v>
+        <v>3095400</v>
       </c>
       <c r="F57" s="3">
-        <v>3209400</v>
+        <v>2933200</v>
       </c>
       <c r="G57" s="3">
-        <v>2766900</v>
+        <v>2931000</v>
       </c>
       <c r="H57" s="3">
-        <v>2308400</v>
+        <v>2526900</v>
       </c>
       <c r="I57" s="3">
-        <v>2030800</v>
+        <v>2108200</v>
       </c>
       <c r="J57" s="3">
+        <v>1854600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1794400</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2111100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1902500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1774100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1824900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1935100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2006800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2067400</v>
       </c>
-      <c r="S57" s="3" t="s">
+      <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2138200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2066200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1807900</v>
       </c>
-      <c r="W57" s="3" t="s">
+      <c r="X57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1648400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1383400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1750800</v>
+        <v>1375400</v>
       </c>
       <c r="E58" s="3">
-        <v>2455300</v>
+        <v>1598900</v>
       </c>
       <c r="F58" s="3">
-        <v>2979400</v>
+        <v>2242300</v>
       </c>
       <c r="G58" s="3">
-        <v>2798400</v>
+        <v>2721000</v>
       </c>
       <c r="H58" s="3">
-        <v>2958800</v>
+        <v>2555600</v>
       </c>
       <c r="I58" s="3">
-        <v>2442600</v>
+        <v>2702100</v>
       </c>
       <c r="J58" s="3">
+        <v>2230700</v>
+      </c>
+      <c r="K58" s="3">
         <v>2311200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2507600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2888400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2517300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3350200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3004000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2978100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2652200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2038100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1709800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1551100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1679200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2316800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1066100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1614500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2222200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3154700</v>
+        <v>3114400</v>
       </c>
       <c r="E59" s="3">
-        <v>3044300</v>
+        <v>2881000</v>
       </c>
       <c r="F59" s="3">
-        <v>3105400</v>
+        <v>2780200</v>
       </c>
       <c r="G59" s="3">
-        <v>3062600</v>
+        <v>2836000</v>
       </c>
       <c r="H59" s="3">
-        <v>2448300</v>
+        <v>2796900</v>
       </c>
       <c r="I59" s="3">
-        <v>2162900</v>
+        <v>2235900</v>
       </c>
       <c r="J59" s="3">
+        <v>1975300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1965400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3826000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2102600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1960800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1905900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2035800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2254600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2165900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1835800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3741600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1669900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1728700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1794900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3170100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1663200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1357600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8294900</v>
+        <v>8074200</v>
       </c>
       <c r="E60" s="3">
-        <v>8711500</v>
+        <v>7575300</v>
       </c>
       <c r="F60" s="3">
-        <v>9294300</v>
+        <v>7955700</v>
       </c>
       <c r="G60" s="3">
-        <v>8627900</v>
+        <v>8488000</v>
       </c>
       <c r="H60" s="3">
-        <v>7715600</v>
+        <v>7879400</v>
       </c>
       <c r="I60" s="3">
-        <v>6636300</v>
+        <v>7046200</v>
       </c>
       <c r="J60" s="3">
+        <v>6060600</v>
+      </c>
+      <c r="K60" s="3">
         <v>6070900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6333600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7102100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6380600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7030200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6864600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7167700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6824900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5941300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5451500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5359300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5474200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5919500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4236300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4926200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4963300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3672600</v>
+        <v>3597000</v>
       </c>
       <c r="E61" s="3">
-        <v>2183100</v>
+        <v>3354000</v>
       </c>
       <c r="F61" s="3">
-        <v>1325300</v>
+        <v>1993700</v>
       </c>
       <c r="G61" s="3">
-        <v>1324500</v>
+        <v>1210300</v>
       </c>
       <c r="H61" s="3">
-        <v>1324400</v>
+        <v>1209600</v>
       </c>
       <c r="I61" s="3">
-        <v>1615900</v>
+        <v>1209500</v>
       </c>
       <c r="J61" s="3">
+        <v>1475700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1620900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1233900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1279800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1693400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1689700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1995800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2044700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2160800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2705700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2656700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2905000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2974300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2470000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1897600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2078800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1355200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1997300</v>
+        <v>1906200</v>
       </c>
       <c r="E62" s="3">
-        <v>1973100</v>
+        <v>1824000</v>
       </c>
       <c r="F62" s="3">
-        <v>1934400</v>
+        <v>1801900</v>
       </c>
       <c r="G62" s="3">
-        <v>1948100</v>
+        <v>1766600</v>
       </c>
       <c r="H62" s="3">
-        <v>2092200</v>
+        <v>1779100</v>
       </c>
       <c r="I62" s="3">
-        <v>2030100</v>
+        <v>1910700</v>
       </c>
       <c r="J62" s="3">
+        <v>1854000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2015600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2077800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1996700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1953500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1952600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1794400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1669300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1673200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1604900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1600600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1619600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1597900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1582700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1514000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1409500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1440600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13992500</v>
+        <v>13604200</v>
       </c>
       <c r="E66" s="3">
-        <v>12890700</v>
+        <v>12778600</v>
       </c>
       <c r="F66" s="3">
-        <v>12576800</v>
+        <v>11772400</v>
       </c>
       <c r="G66" s="3">
-        <v>11924000</v>
+        <v>11485800</v>
       </c>
       <c r="H66" s="3">
-        <v>11157200</v>
+        <v>10889600</v>
       </c>
       <c r="I66" s="3">
-        <v>10312400</v>
+        <v>10189300</v>
       </c>
       <c r="J66" s="3">
+        <v>9417800</v>
+      </c>
+      <c r="K66" s="3">
         <v>9746000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9685900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10427800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10076200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10728900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10717000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10940400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10717600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10314600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9768400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9946100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10106300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10050400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7723300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8487700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7822400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9925500</v>
+        <v>9533400</v>
       </c>
       <c r="E72" s="3">
-        <v>9615700</v>
+        <v>9064400</v>
       </c>
       <c r="F72" s="3">
-        <v>9261200</v>
+        <v>8781500</v>
       </c>
       <c r="G72" s="3">
-        <v>9130700</v>
+        <v>8457800</v>
       </c>
       <c r="H72" s="3">
-        <v>9077000</v>
+        <v>8338600</v>
       </c>
       <c r="I72" s="3">
-        <v>8911000</v>
+        <v>8289500</v>
       </c>
       <c r="J72" s="3">
+        <v>8137900</v>
+      </c>
+      <c r="K72" s="3">
         <v>8685500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8954400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9410900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9327100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9027800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9418600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9075300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8816700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8400800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8316200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8215000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8088300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7909900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7731200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6951300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6801800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9997900</v>
+        <v>10442900</v>
       </c>
       <c r="E76" s="3">
-        <v>9268600</v>
+        <v>9130600</v>
       </c>
       <c r="F76" s="3">
-        <v>8818000</v>
+        <v>8464600</v>
       </c>
       <c r="G76" s="3">
-        <v>8560200</v>
+        <v>8053000</v>
       </c>
       <c r="H76" s="3">
-        <v>7680200</v>
+        <v>7817600</v>
       </c>
       <c r="I76" s="3">
-        <v>7443800</v>
+        <v>7013900</v>
       </c>
       <c r="J76" s="3">
+        <v>6798000</v>
+      </c>
+      <c r="K76" s="3">
         <v>7184100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7435300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8260200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7869100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7750300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8430800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8150000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8125300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7589200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7454700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7805600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7469600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7242800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7039400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6385400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5336600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>418600</v>
+        <v>469000</v>
       </c>
       <c r="E81" s="3">
-        <v>354500</v>
+        <v>382300</v>
       </c>
       <c r="F81" s="3">
-        <v>227500</v>
+        <v>323800</v>
       </c>
       <c r="G81" s="3">
-        <v>53400</v>
+        <v>207700</v>
       </c>
       <c r="H81" s="3">
-        <v>263200</v>
+        <v>48800</v>
       </c>
       <c r="I81" s="3">
-        <v>247700</v>
+        <v>240300</v>
       </c>
       <c r="J81" s="3">
+        <v>226200</v>
+      </c>
+      <c r="K81" s="3">
         <v>112500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-146500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>268500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>269700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>142800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>179900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>211500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>231100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>147200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>101200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>195100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>178400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>99000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>780600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>216600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>356100</v>
+        <v>353900</v>
       </c>
       <c r="E83" s="3">
-        <v>349500</v>
+        <v>325200</v>
       </c>
       <c r="F83" s="3">
-        <v>346200</v>
+        <v>319200</v>
       </c>
       <c r="G83" s="3">
-        <v>335400</v>
+        <v>316100</v>
       </c>
       <c r="H83" s="3">
-        <v>309100</v>
+        <v>306300</v>
       </c>
       <c r="I83" s="3">
-        <v>281400</v>
+        <v>282300</v>
       </c>
       <c r="J83" s="3">
+        <v>257000</v>
+      </c>
+      <c r="K83" s="3">
         <v>270700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>296200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>288600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>276700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>270900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>258100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>258600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>249900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>231500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>225800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>216500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>205200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>185800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>204100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>205000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>591300</v>
+        <v>717200</v>
       </c>
       <c r="E89" s="3">
-        <v>60200</v>
+        <v>540000</v>
       </c>
       <c r="F89" s="3">
-        <v>10000</v>
+        <v>55000</v>
       </c>
       <c r="G89" s="3">
-        <v>511300</v>
+        <v>9100</v>
       </c>
       <c r="H89" s="3">
-        <v>765500</v>
+        <v>466900</v>
       </c>
       <c r="I89" s="3">
-        <v>540200</v>
+        <v>699100</v>
       </c>
       <c r="J89" s="3">
+        <v>493400</v>
+      </c>
+      <c r="K89" s="3">
         <v>83600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>642000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>816700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>478500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>71500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>479600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>780600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>408400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-329800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>545400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>378100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>79500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-177600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>545700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>390400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>406900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-655200</v>
+        <v>-627600</v>
       </c>
       <c r="E91" s="3">
-        <v>-620800</v>
+        <v>-598400</v>
       </c>
       <c r="F91" s="3">
-        <v>-522100</v>
+        <v>-567000</v>
       </c>
       <c r="G91" s="3">
-        <v>-494100</v>
+        <v>-476800</v>
       </c>
       <c r="H91" s="3">
-        <v>-488800</v>
+        <v>-451200</v>
       </c>
       <c r="I91" s="3">
-        <v>-433000</v>
+        <v>-446400</v>
       </c>
       <c r="J91" s="3">
+        <v>-395400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-395500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-383700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-355500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-367200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-466200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-541600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-379600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-322700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-384400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-412700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-436500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-377400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-388000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-293800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-413900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-304700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-957900</v>
+        <v>-645600</v>
       </c>
       <c r="E94" s="3">
-        <v>-490900</v>
+        <v>-874800</v>
       </c>
       <c r="F94" s="3">
-        <v>-242900</v>
+        <v>-448300</v>
       </c>
       <c r="G94" s="3">
-        <v>-568100</v>
+        <v>-221800</v>
       </c>
       <c r="H94" s="3">
-        <v>-566800</v>
+        <v>-518800</v>
       </c>
       <c r="I94" s="3">
-        <v>-480600</v>
+        <v>-517700</v>
       </c>
       <c r="J94" s="3">
+        <v>-438900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-359100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-470400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-484300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1010900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-415900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-426400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-384800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-293100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-213600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-383600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-44100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-203600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1593400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>591900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-446200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-348600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6484,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-107500</v>
+        <v>-200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1000</v>
+        <v>-98200</v>
       </c>
       <c r="F96" s="3">
-        <v>-96000</v>
+        <v>-900</v>
       </c>
       <c r="G96" s="3">
+        <v>-87600</v>
+      </c>
+      <c r="H96" s="3">
         <v>-200</v>
       </c>
-      <c r="H96" s="3">
-        <v>-96800</v>
-      </c>
       <c r="I96" s="3">
+        <v>-88400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-91300</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-95200</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="T96" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-68300</v>
+      </c>
+      <c r="V96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="W96" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="X96" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1400</v>
       </c>
-      <c r="J96" s="3">
-        <v>-95600</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-96100</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-91300</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-95200</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-79200</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-68300</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-67100</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-67000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-1400</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>674700</v>
+        <v>-31400</v>
       </c>
       <c r="E100" s="3">
-        <v>322900</v>
+        <v>616200</v>
       </c>
       <c r="F100" s="3">
-        <v>83800</v>
+        <v>294900</v>
       </c>
       <c r="G100" s="3">
-        <v>-179200</v>
+        <v>76600</v>
       </c>
       <c r="H100" s="3">
-        <v>126300</v>
+        <v>-163700</v>
       </c>
       <c r="I100" s="3">
-        <v>79100</v>
+        <v>115400</v>
       </c>
       <c r="J100" s="3">
+        <v>72200</v>
+      </c>
+      <c r="K100" s="3">
         <v>222800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-285400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-112400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-915900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>207300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-113000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>61100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-104900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>236500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-26100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-274500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-226100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1521900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-716900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-170900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>221900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>113900</v>
+        <v>205300</v>
       </c>
       <c r="E101" s="3">
-        <v>19400</v>
+        <v>104000</v>
       </c>
       <c r="F101" s="3">
-        <v>49400</v>
+        <v>17700</v>
       </c>
       <c r="G101" s="3">
-        <v>211600</v>
+        <v>45100</v>
       </c>
       <c r="H101" s="3">
-        <v>22000</v>
+        <v>193200</v>
       </c>
       <c r="I101" s="3">
-        <v>9900</v>
+        <v>20100</v>
       </c>
       <c r="J101" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-11900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-68800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>81400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-39800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-109000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>18200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-56500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>50100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-133700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>19900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>38300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>20800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-97200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>308200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>422000</v>
+        <v>245500</v>
       </c>
       <c r="E102" s="3">
-        <v>-88300</v>
+        <v>385400</v>
       </c>
       <c r="F102" s="3">
-        <v>-99700</v>
+        <v>-80600</v>
       </c>
       <c r="G102" s="3">
-        <v>-24500</v>
+        <v>-91000</v>
       </c>
       <c r="H102" s="3">
-        <v>347000</v>
+        <v>-22300</v>
       </c>
       <c r="I102" s="3">
-        <v>148600</v>
+        <v>316900</v>
       </c>
       <c r="J102" s="3">
+        <v>135700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-64500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-182700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>301300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>533800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-246300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-41700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-256800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>79400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-311900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-228300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>323600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>81500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>233900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3959400</v>
+        <v>3742000</v>
       </c>
       <c r="E8" s="3">
-        <v>3892400</v>
+        <v>13942600</v>
       </c>
       <c r="F8" s="3">
-        <v>3693400</v>
+        <v>3662600</v>
       </c>
       <c r="G8" s="3">
-        <v>3272300</v>
+        <v>3475400</v>
       </c>
       <c r="H8" s="3">
-        <v>3055300</v>
+        <v>3079000</v>
       </c>
       <c r="I8" s="3">
-        <v>3082400</v>
+        <v>10841100</v>
       </c>
       <c r="J8" s="3">
+        <v>2900400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2973600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2639100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2646300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3239800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3402300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3085200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2970100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3311600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3519700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3118500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2775700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3083800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3019800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2617300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2433100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2880700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2664700</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2849400</v>
+        <v>2627400</v>
       </c>
       <c r="E9" s="3">
-        <v>2669500</v>
+        <v>9809600</v>
       </c>
       <c r="F9" s="3">
-        <v>2538300</v>
+        <v>2511900</v>
       </c>
       <c r="G9" s="3">
-        <v>2349600</v>
+        <v>2388400</v>
       </c>
       <c r="H9" s="3">
-        <v>2263600</v>
+        <v>2210800</v>
       </c>
       <c r="I9" s="3">
-        <v>2114100</v>
+        <v>7714200</v>
       </c>
       <c r="J9" s="3">
+        <v>1989300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2048000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1875100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1963600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2204100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2334900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2205900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2202400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2303600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2451100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2256800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2084000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2201600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2193800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1923900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1831500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2033200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1915700</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1110000</v>
+        <v>1114600</v>
       </c>
       <c r="E10" s="3">
-        <v>1222900</v>
+        <v>4133000</v>
       </c>
       <c r="F10" s="3">
-        <v>1155100</v>
+        <v>1150700</v>
       </c>
       <c r="G10" s="3">
-        <v>922700</v>
+        <v>1086900</v>
       </c>
       <c r="H10" s="3">
-        <v>791700</v>
+        <v>868200</v>
       </c>
       <c r="I10" s="3">
-        <v>968300</v>
+        <v>3127000</v>
       </c>
       <c r="J10" s="3">
+        <v>911100</v>
+      </c>
+      <c r="K10" s="3">
         <v>925600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>764000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>682700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1035700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1067400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>879300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>767700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1008000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1068600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>861700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>691800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>882100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>825900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>693400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>601500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>847600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>749000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,16 +1183,19 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>-54900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1183,29 +1203,29 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>60400</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>161700</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2200</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1219,8 +1239,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3745700</v>
+        <v>3415100</v>
       </c>
       <c r="E17" s="3">
-        <v>3431200</v>
+        <v>12720100</v>
       </c>
       <c r="F17" s="3">
-        <v>3310200</v>
+        <v>3228600</v>
       </c>
       <c r="G17" s="3">
-        <v>3032100</v>
+        <v>3114700</v>
       </c>
       <c r="H17" s="3">
-        <v>3023800</v>
+        <v>2853000</v>
       </c>
       <c r="I17" s="3">
-        <v>2731200</v>
+        <v>10021500</v>
       </c>
       <c r="J17" s="3">
+        <v>2570000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2631100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2481800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2746500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2871800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2999200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2856400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2846300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3002300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3178200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2887400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2677000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2790500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2770200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2467200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1263700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2592300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2418000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>213700</v>
+        <v>326900</v>
       </c>
       <c r="E18" s="3">
-        <v>461200</v>
+        <v>1222500</v>
       </c>
       <c r="F18" s="3">
-        <v>383300</v>
+        <v>434000</v>
       </c>
       <c r="G18" s="3">
-        <v>240200</v>
+        <v>360600</v>
       </c>
       <c r="H18" s="3">
-        <v>31600</v>
+        <v>226000</v>
       </c>
       <c r="I18" s="3">
-        <v>351200</v>
+        <v>819600</v>
       </c>
       <c r="J18" s="3">
+        <v>330400</v>
+      </c>
+      <c r="K18" s="3">
         <v>342500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>157300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>368000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>403100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>228800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>123800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>309200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>341500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>231100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>98700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>293300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>249600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>150100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1169400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>288400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>246700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>484100</v>
+        <v>-5400</v>
       </c>
       <c r="E20" s="3">
-        <v>26500</v>
+        <v>94000</v>
       </c>
       <c r="F20" s="3">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="G20" s="3">
-        <v>20600</v>
+        <v>30100</v>
       </c>
       <c r="H20" s="3">
-        <v>74100</v>
+        <v>19400</v>
       </c>
       <c r="I20" s="3">
-        <v>15700</v>
+        <v>89400</v>
       </c>
       <c r="J20" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>26400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>13300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>142500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-15100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>20700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>19800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>8500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>11600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>38400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>4900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1051700</v>
+        <v>695900</v>
       </c>
       <c r="E21" s="3">
-        <v>813000</v>
+        <v>2614100</v>
       </c>
       <c r="F21" s="3">
-        <v>734400</v>
+        <v>765000</v>
       </c>
       <c r="G21" s="3">
-        <v>576900</v>
+        <v>691000</v>
       </c>
       <c r="H21" s="3">
-        <v>412000</v>
+        <v>542900</v>
       </c>
       <c r="I21" s="3">
-        <v>649100</v>
+        <v>1996400</v>
       </c>
       <c r="J21" s="3">
+        <v>610800</v>
+      </c>
+      <c r="K21" s="3">
         <v>593900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>454400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>182000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>670000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>688700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>507400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>524500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>560900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>576200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>457500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>345200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>529600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>463300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>347400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1411900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>498300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>15700</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>3400</v>
+        <v>52100</v>
       </c>
       <c r="F22" s="3">
-        <v>8500</v>
+        <v>3200</v>
       </c>
       <c r="G22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>49400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="L22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>8700</v>
+      </c>
+      <c r="N22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="O22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="R22" s="3">
         <v>9600</v>
       </c>
-      <c r="H22" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>7000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>6200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>7000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>8700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>6200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>8100</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="S22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="T22" s="3">
         <v>10200</v>
       </c>
-      <c r="P22" s="3">
-        <v>9100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>9600</v>
-      </c>
-      <c r="R22" s="3">
-        <v>9900</v>
-      </c>
-      <c r="S22" s="3">
-        <v>10200</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>11100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>7800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>682100</v>
+        <v>321600</v>
       </c>
       <c r="E23" s="3">
-        <v>484300</v>
+        <v>1264400</v>
       </c>
       <c r="F23" s="3">
-        <v>406800</v>
+        <v>455700</v>
       </c>
       <c r="G23" s="3">
-        <v>251100</v>
+        <v>382800</v>
       </c>
       <c r="H23" s="3">
-        <v>97700</v>
+        <v>236300</v>
       </c>
       <c r="I23" s="3">
-        <v>359900</v>
+        <v>859500</v>
       </c>
       <c r="J23" s="3">
+        <v>338600</v>
+      </c>
+      <c r="K23" s="3">
         <v>330700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>176700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-122900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>375100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>403900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>226300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>257200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>292600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>316500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>215800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>109200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>302600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>247000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>153100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1200000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>284800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>247900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>212400</v>
+        <v>88800</v>
       </c>
       <c r="E24" s="3">
-        <v>99400</v>
+        <v>298100</v>
       </c>
       <c r="F24" s="3">
-        <v>82400</v>
+        <v>93500</v>
       </c>
       <c r="G24" s="3">
-        <v>43300</v>
+        <v>77600</v>
       </c>
       <c r="H24" s="3">
-        <v>51100</v>
+        <v>40800</v>
       </c>
       <c r="I24" s="3">
-        <v>119400</v>
+        <v>313000</v>
       </c>
       <c r="J24" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K24" s="3">
         <v>104000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>63600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>106600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>133800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>82900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>75700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>81000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>84500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>67600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>74000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>67300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>52100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>421800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>65000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>469700</v>
+        <v>232800</v>
       </c>
       <c r="E26" s="3">
-        <v>384800</v>
+        <v>966200</v>
       </c>
       <c r="F26" s="3">
-        <v>324300</v>
+        <v>362100</v>
       </c>
       <c r="G26" s="3">
-        <v>207800</v>
+        <v>305200</v>
       </c>
       <c r="H26" s="3">
-        <v>46600</v>
+        <v>195500</v>
       </c>
       <c r="I26" s="3">
-        <v>240400</v>
+        <v>546500</v>
       </c>
       <c r="J26" s="3">
+        <v>226200</v>
+      </c>
+      <c r="K26" s="3">
         <v>226700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>113100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-152900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>268500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>270000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>143400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>181400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>211500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>231900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>148100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>100900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>228600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>179700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>101000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>778200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>219800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>181500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>469000</v>
+        <v>230300</v>
       </c>
       <c r="E27" s="3">
-        <v>382300</v>
+        <v>962400</v>
       </c>
       <c r="F27" s="3">
-        <v>323800</v>
+        <v>359700</v>
       </c>
       <c r="G27" s="3">
-        <v>207700</v>
+        <v>304600</v>
       </c>
       <c r="H27" s="3">
-        <v>48800</v>
+        <v>195500</v>
       </c>
       <c r="I27" s="3">
-        <v>240300</v>
+        <v>549500</v>
       </c>
       <c r="J27" s="3">
+        <v>226100</v>
+      </c>
+      <c r="K27" s="3">
         <v>226200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>112500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-146500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>268500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>269700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>142800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>179900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>211500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>231100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>147200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>101200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>226800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>178400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>99000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>780600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>216600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2219,8 +2280,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2234,14 +2295,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-31800</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-484100</v>
+        <v>5400</v>
       </c>
       <c r="E32" s="3">
-        <v>-26500</v>
+        <v>-94000</v>
       </c>
       <c r="F32" s="3">
-        <v>-32000</v>
+        <v>-25000</v>
       </c>
       <c r="G32" s="3">
-        <v>-20600</v>
+        <v>-30100</v>
       </c>
       <c r="H32" s="3">
-        <v>-74100</v>
+        <v>-19400</v>
       </c>
       <c r="I32" s="3">
-        <v>-15700</v>
+        <v>-89400</v>
       </c>
       <c r="J32" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K32" s="3">
         <v>5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-26400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-13300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-142500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>15100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-20700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-19800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-8500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-11600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-38400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>469000</v>
+        <v>230300</v>
       </c>
       <c r="E33" s="3">
-        <v>382300</v>
+        <v>962400</v>
       </c>
       <c r="F33" s="3">
-        <v>323800</v>
+        <v>359700</v>
       </c>
       <c r="G33" s="3">
-        <v>207700</v>
+        <v>304600</v>
       </c>
       <c r="H33" s="3">
-        <v>48800</v>
+        <v>195500</v>
       </c>
       <c r="I33" s="3">
-        <v>240300</v>
+        <v>549500</v>
       </c>
       <c r="J33" s="3">
+        <v>226100</v>
+      </c>
+      <c r="K33" s="3">
         <v>226200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>112500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-146500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>268500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>269700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>142800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>179900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>211500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>231100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>147200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>101200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>195100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>178400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>99000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>780600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>216600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>469000</v>
+        <v>230300</v>
       </c>
       <c r="E35" s="3">
-        <v>382300</v>
+        <v>962400</v>
       </c>
       <c r="F35" s="3">
-        <v>323800</v>
+        <v>359700</v>
       </c>
       <c r="G35" s="3">
-        <v>207700</v>
+        <v>304600</v>
       </c>
       <c r="H35" s="3">
-        <v>48800</v>
+        <v>195500</v>
       </c>
       <c r="I35" s="3">
-        <v>240300</v>
+        <v>549500</v>
       </c>
       <c r="J35" s="3">
+        <v>226100</v>
+      </c>
+      <c r="K35" s="3">
         <v>226200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>112500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-146500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>268500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>269700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>142800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>179900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>211500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>231100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>147200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>101200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>195100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>178400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>99000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>780600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>216600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3422500</v>
+        <v>3134600</v>
       </c>
       <c r="E41" s="3">
-        <v>3176900</v>
+        <v>3220400</v>
       </c>
       <c r="F41" s="3">
-        <v>2791500</v>
+        <v>2989300</v>
       </c>
       <c r="G41" s="3">
-        <v>2872200</v>
+        <v>2626700</v>
       </c>
       <c r="H41" s="3">
-        <v>2963200</v>
+        <v>2702600</v>
       </c>
       <c r="I41" s="3">
-        <v>2985600</v>
+        <v>2788200</v>
       </c>
       <c r="J41" s="3">
+        <v>2809300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2668600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2773500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2931200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3219900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2944200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2402600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2779000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2770800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2332800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2285000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2527800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2525900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2446500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2758400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2930500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2607000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2525500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>418400</v>
+        <v>156500</v>
       </c>
       <c r="E42" s="3">
-        <v>380900</v>
+        <v>490700</v>
       </c>
       <c r="F42" s="3">
-        <v>130300</v>
+        <v>358400</v>
       </c>
       <c r="G42" s="3">
-        <v>263500</v>
+        <v>122600</v>
       </c>
       <c r="H42" s="3">
-        <v>513700</v>
+        <v>247900</v>
       </c>
       <c r="I42" s="3">
-        <v>417000</v>
+        <v>1036700</v>
       </c>
       <c r="J42" s="3">
+        <v>392300</v>
+      </c>
+      <c r="K42" s="3">
         <v>310500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>298000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>286800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>217600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>90000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>317000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>389800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>292900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>275700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>279700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>394700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>342100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>714600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>731400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>497900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>157800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>175500</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4086500</v>
+        <v>4378800</v>
       </c>
       <c r="E43" s="3">
-        <v>3941100</v>
+        <v>4070800</v>
       </c>
       <c r="F43" s="3">
-        <v>3888900</v>
+        <v>3708400</v>
       </c>
       <c r="G43" s="3">
-        <v>3541300</v>
+        <v>3659200</v>
       </c>
       <c r="H43" s="3">
-        <v>3384300</v>
+        <v>3332200</v>
       </c>
       <c r="I43" s="3">
-        <v>3079400</v>
+        <v>6579800</v>
       </c>
       <c r="J43" s="3">
+        <v>2897600</v>
+      </c>
+      <c r="K43" s="3">
         <v>2955900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2713500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2732400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3319800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3421500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3028500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2961400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3200000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3658300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3144100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2748300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3100600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3055200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2624700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2261000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2509700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2325300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3407300</v>
+        <v>3912600</v>
       </c>
       <c r="E44" s="3">
-        <v>3210500</v>
+        <v>3203200</v>
       </c>
       <c r="F44" s="3">
-        <v>2741700</v>
+        <v>3020900</v>
       </c>
       <c r="G44" s="3">
-        <v>2603900</v>
+        <v>2579800</v>
       </c>
       <c r="H44" s="3">
-        <v>2250200</v>
+        <v>2450100</v>
       </c>
       <c r="I44" s="3">
-        <v>1995400</v>
+        <v>4230900</v>
       </c>
       <c r="J44" s="3">
+        <v>1877500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1918000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2198000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2083200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2224300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2033500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2145400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2180400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2257400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2141000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2071700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1876100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1910700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1803700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1689800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1370400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1319200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1353300</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>634100</v>
+        <v>719300</v>
       </c>
       <c r="E45" s="3">
-        <v>612100</v>
+        <v>253000</v>
       </c>
       <c r="F45" s="3">
-        <v>726700</v>
+        <v>576000</v>
       </c>
       <c r="G45" s="3">
-        <v>821300</v>
+        <v>683800</v>
       </c>
       <c r="H45" s="3">
-        <v>496700</v>
+        <v>772800</v>
       </c>
       <c r="I45" s="3">
-        <v>411300</v>
+        <v>639100</v>
       </c>
       <c r="J45" s="3">
+        <v>387000</v>
+      </c>
+      <c r="K45" s="3">
         <v>392800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>477500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>481200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>608600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>538000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>561800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>554500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>637800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>592600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>661500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>588500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>731100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>673600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>810400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>622800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2047000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11968800</v>
+        <v>12301900</v>
       </c>
       <c r="E46" s="3">
-        <v>11321500</v>
+        <v>11238200</v>
       </c>
       <c r="F46" s="3">
-        <v>10279000</v>
+        <v>10652900</v>
       </c>
       <c r="G46" s="3">
-        <v>10102100</v>
+        <v>9672000</v>
       </c>
       <c r="H46" s="3">
-        <v>9608100</v>
+        <v>9505600</v>
       </c>
       <c r="I46" s="3">
-        <v>8888600</v>
+        <v>9022300</v>
       </c>
       <c r="J46" s="3">
+        <v>8363700</v>
+      </c>
+      <c r="K46" s="3">
         <v>8245700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8460600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8514700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9590300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9027200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8455400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8865100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9158900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9000400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8442000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8135400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8610400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8693700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8614700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7682600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8640700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6876600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>973500</v>
+        <v>1157300</v>
       </c>
       <c r="E47" s="3">
-        <v>439600</v>
+        <v>1027800</v>
       </c>
       <c r="F47" s="3">
-        <v>394900</v>
+        <v>413600</v>
       </c>
       <c r="G47" s="3">
-        <v>348100</v>
+        <v>371600</v>
       </c>
       <c r="H47" s="3">
-        <v>345000</v>
+        <v>327500</v>
       </c>
       <c r="I47" s="3">
-        <v>261500</v>
+        <v>750000</v>
       </c>
       <c r="J47" s="3">
+        <v>246100</v>
+      </c>
+      <c r="K47" s="3">
         <v>258900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>280700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>292700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>306300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>300800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1386200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1492500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1498700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1515200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1447400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1403400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1460000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1353700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1385500</v>
       </c>
-      <c r="X47" s="3" t="s">
+      <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>317100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7783300</v>
+        <v>7736900</v>
       </c>
       <c r="E48" s="3">
-        <v>7358900</v>
+        <v>7294900</v>
       </c>
       <c r="F48" s="3">
-        <v>6985600</v>
+        <v>6924400</v>
       </c>
       <c r="G48" s="3">
-        <v>6781100</v>
+        <v>6573100</v>
       </c>
       <c r="H48" s="3">
-        <v>6440000</v>
+        <v>6380600</v>
       </c>
       <c r="I48" s="3">
-        <v>5851500</v>
+        <v>12086300</v>
       </c>
       <c r="J48" s="3">
+        <v>5506000</v>
+      </c>
+      <c r="K48" s="3">
         <v>5468100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5706900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5729700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6098700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5928500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5902900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5795900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5496300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5384500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5208000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4932600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4870000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4685800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4547500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4121600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4223600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4500600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1409500</v>
+        <v>1626200</v>
       </c>
       <c r="E49" s="3">
-        <v>1864800</v>
+        <v>1512800</v>
       </c>
       <c r="F49" s="3">
-        <v>1840400</v>
+        <v>1754700</v>
       </c>
       <c r="G49" s="3">
-        <v>1841700</v>
+        <v>1731700</v>
       </c>
       <c r="H49" s="3">
-        <v>1856900</v>
+        <v>1732900</v>
       </c>
       <c r="I49" s="3">
-        <v>1779600</v>
+        <v>3206100</v>
       </c>
       <c r="J49" s="3">
+        <v>1674600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1824200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2020000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2120500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2234000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2239800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2262400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2436000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2398100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2378400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2277900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2200200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2272200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2276900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2205800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1001000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1092000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>933100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1912000</v>
+        <v>1276500</v>
       </c>
       <c r="E52" s="3">
-        <v>924400</v>
+        <v>1221700</v>
       </c>
       <c r="F52" s="3">
-        <v>737100</v>
+        <v>869900</v>
       </c>
       <c r="G52" s="3">
-        <v>465800</v>
+        <v>693600</v>
       </c>
       <c r="H52" s="3">
-        <v>457200</v>
+        <v>438300</v>
       </c>
       <c r="I52" s="3">
-        <v>421900</v>
+        <v>492800</v>
       </c>
       <c r="J52" s="3">
+        <v>397000</v>
+      </c>
+      <c r="K52" s="3">
         <v>418900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>461900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>463500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>458700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>449000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>472400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>558300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>538400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>564400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>528400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>551500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>539100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>565900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>539800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1957400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>599700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24047100</v>
+        <v>24098800</v>
       </c>
       <c r="E54" s="3">
-        <v>21909200</v>
+        <v>22295300</v>
       </c>
       <c r="F54" s="3">
-        <v>20237000</v>
+        <v>20615500</v>
       </c>
       <c r="G54" s="3">
-        <v>19538700</v>
+        <v>19042000</v>
       </c>
       <c r="H54" s="3">
-        <v>18707200</v>
+        <v>18385000</v>
       </c>
       <c r="I54" s="3">
-        <v>17203200</v>
+        <v>17296300</v>
       </c>
       <c r="J54" s="3">
+        <v>16187300</v>
+      </c>
+      <c r="K54" s="3">
         <v>16215800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16930100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17121200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18687900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17945300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18479200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19147700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19090400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18842900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17903800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17223100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17751700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17575900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17293200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>14762600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>14873100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>13158900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3584400</v>
+        <v>3888200</v>
       </c>
       <c r="E57" s="3">
-        <v>3095400</v>
+        <v>3372800</v>
       </c>
       <c r="F57" s="3">
-        <v>2933200</v>
+        <v>2912600</v>
       </c>
       <c r="G57" s="3">
-        <v>2931000</v>
+        <v>2760000</v>
       </c>
       <c r="H57" s="3">
-        <v>2526900</v>
+        <v>2757900</v>
       </c>
       <c r="I57" s="3">
-        <v>2108200</v>
+        <v>4755300</v>
       </c>
       <c r="J57" s="3">
+        <v>1983700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1854600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1794400</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2111100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1902500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1774100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1824900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1935100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2006800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2067400</v>
       </c>
-      <c r="T57" s="3" t="s">
+      <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2138200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2066200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1807900</v>
       </c>
-      <c r="X57" s="3" t="s">
+      <c r="Y57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1648400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1383400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1375400</v>
+        <v>1463100</v>
       </c>
       <c r="E58" s="3">
-        <v>1598900</v>
+        <v>1358700</v>
       </c>
       <c r="F58" s="3">
-        <v>2242300</v>
+        <v>1504500</v>
       </c>
       <c r="G58" s="3">
-        <v>2721000</v>
+        <v>2109900</v>
       </c>
       <c r="H58" s="3">
-        <v>2555600</v>
+        <v>2560300</v>
       </c>
       <c r="I58" s="3">
-        <v>2702100</v>
+        <v>4872300</v>
       </c>
       <c r="J58" s="3">
+        <v>2542600</v>
+      </c>
+      <c r="K58" s="3">
         <v>2230700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2311200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2507600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2888400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2517300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3350200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3004000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2978100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2652200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2038100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1709800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1551100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1679200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2316800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1066100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1614500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2222200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3114400</v>
+        <v>3072500</v>
       </c>
       <c r="E59" s="3">
-        <v>2881000</v>
+        <v>3055700</v>
       </c>
       <c r="F59" s="3">
-        <v>2780200</v>
+        <v>2710900</v>
       </c>
       <c r="G59" s="3">
-        <v>2836000</v>
+        <v>2616100</v>
       </c>
       <c r="H59" s="3">
-        <v>2796900</v>
+        <v>2668500</v>
       </c>
       <c r="I59" s="3">
-        <v>2235900</v>
+        <v>5324200</v>
       </c>
       <c r="J59" s="3">
+        <v>2103900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1975300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1965400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3826000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2102600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1960800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1905900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2035800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2254600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2165900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1835800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3741600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1669900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1728700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1794900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3170100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1663200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1357600</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8074200</v>
+        <v>8423800</v>
       </c>
       <c r="E60" s="3">
-        <v>7575300</v>
+        <v>7787100</v>
       </c>
       <c r="F60" s="3">
-        <v>7955700</v>
+        <v>7128000</v>
       </c>
       <c r="G60" s="3">
-        <v>8488000</v>
+        <v>7485900</v>
       </c>
       <c r="H60" s="3">
-        <v>7879400</v>
+        <v>7986700</v>
       </c>
       <c r="I60" s="3">
-        <v>7046200</v>
+        <v>7537600</v>
       </c>
       <c r="J60" s="3">
+        <v>6630200</v>
+      </c>
+      <c r="K60" s="3">
         <v>6060600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6070900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6333600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7102100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6380600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7030200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6864600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7167700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6824900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5941300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5451500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5359300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5474200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5919500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4236300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4926200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4963300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3597000</v>
+        <v>3645600</v>
       </c>
       <c r="E61" s="3">
-        <v>3354000</v>
+        <v>3624400</v>
       </c>
       <c r="F61" s="3">
-        <v>1993700</v>
+        <v>3155900</v>
       </c>
       <c r="G61" s="3">
-        <v>1210300</v>
+        <v>1876000</v>
       </c>
       <c r="H61" s="3">
-        <v>1209600</v>
+        <v>1138900</v>
       </c>
       <c r="I61" s="3">
-        <v>1209500</v>
+        <v>1357400</v>
       </c>
       <c r="J61" s="3">
+        <v>1138100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1475700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1620900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1233900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1279800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1693400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1689700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1995800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2044700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2160800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2705700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2656700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2905000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2974300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2470000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1897600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2078800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1355200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1906200</v>
+        <v>1382900</v>
       </c>
       <c r="E62" s="3">
-        <v>1824000</v>
+        <v>1327300</v>
       </c>
       <c r="F62" s="3">
-        <v>1801900</v>
+        <v>1716300</v>
       </c>
       <c r="G62" s="3">
-        <v>1766600</v>
+        <v>1695500</v>
       </c>
       <c r="H62" s="3">
-        <v>1779100</v>
+        <v>1662300</v>
       </c>
       <c r="I62" s="3">
-        <v>1910700</v>
+        <v>2426600</v>
       </c>
       <c r="J62" s="3">
+        <v>1797900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1854000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2015600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2077800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1996700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1953500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1952600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1794400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1669300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1673200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1604900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1600600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1619600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1597900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1582700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1514000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1409500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1440600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13604200</v>
+        <v>13480800</v>
       </c>
       <c r="E66" s="3">
-        <v>12778600</v>
+        <v>12764000</v>
       </c>
       <c r="F66" s="3">
-        <v>11772400</v>
+        <v>12024000</v>
       </c>
       <c r="G66" s="3">
-        <v>11485800</v>
+        <v>11077200</v>
       </c>
       <c r="H66" s="3">
-        <v>10889600</v>
+        <v>10807500</v>
       </c>
       <c r="I66" s="3">
-        <v>10189300</v>
+        <v>10267400</v>
       </c>
       <c r="J66" s="3">
+        <v>9587600</v>
+      </c>
+      <c r="K66" s="3">
         <v>9417800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9746000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9685900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10427800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10076200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10728900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10717000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10940400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10717600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10314600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9768400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9946100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10106300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10050400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7723300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8487700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7822400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9533400</v>
+        <v>7282900</v>
       </c>
       <c r="E72" s="3">
-        <v>9064400</v>
+        <v>7145000</v>
       </c>
       <c r="F72" s="3">
-        <v>8781500</v>
+        <v>8529200</v>
       </c>
       <c r="G72" s="3">
-        <v>8457800</v>
+        <v>8263000</v>
       </c>
       <c r="H72" s="3">
-        <v>8338600</v>
+        <v>7958300</v>
       </c>
       <c r="I72" s="3">
-        <v>8289500</v>
+        <v>13763100</v>
       </c>
       <c r="J72" s="3">
+        <v>7800000</v>
+      </c>
+      <c r="K72" s="3">
         <v>8137900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8685500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8954400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9410900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9327100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9027800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9418600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9075300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8816700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8400800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8316200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8215000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8088300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7909900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7731200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6951300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6801800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10442900</v>
+        <v>10618000</v>
       </c>
       <c r="E76" s="3">
-        <v>9130600</v>
+        <v>9531300</v>
       </c>
       <c r="F76" s="3">
-        <v>8464600</v>
+        <v>8591400</v>
       </c>
       <c r="G76" s="3">
-        <v>8053000</v>
+        <v>7964700</v>
       </c>
       <c r="H76" s="3">
-        <v>7817600</v>
+        <v>7577400</v>
       </c>
       <c r="I76" s="3">
-        <v>7013900</v>
+        <v>7028900</v>
       </c>
       <c r="J76" s="3">
+        <v>6599700</v>
+      </c>
+      <c r="K76" s="3">
         <v>6798000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7184100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7435300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8260200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7869100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7750300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8430800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8150000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8125300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7589200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7454700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7805600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7469600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7242800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7039400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6385400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>5336600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>469000</v>
+        <v>230300</v>
       </c>
       <c r="E81" s="3">
-        <v>382300</v>
+        <v>962400</v>
       </c>
       <c r="F81" s="3">
-        <v>323800</v>
+        <v>359700</v>
       </c>
       <c r="G81" s="3">
-        <v>207700</v>
+        <v>304600</v>
       </c>
       <c r="H81" s="3">
-        <v>48800</v>
+        <v>195500</v>
       </c>
       <c r="I81" s="3">
-        <v>240300</v>
+        <v>549500</v>
       </c>
       <c r="J81" s="3">
+        <v>226100</v>
+      </c>
+      <c r="K81" s="3">
         <v>226200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>112500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-146500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>268500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>269700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>142800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>179900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>211500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>231100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>147200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>101200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>195100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>178400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>99000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>780600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>216600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>353900</v>
+        <v>374300</v>
       </c>
       <c r="E83" s="3">
-        <v>325200</v>
+        <v>1297600</v>
       </c>
       <c r="F83" s="3">
-        <v>319200</v>
+        <v>306000</v>
       </c>
       <c r="G83" s="3">
-        <v>316100</v>
+        <v>300300</v>
       </c>
       <c r="H83" s="3">
-        <v>306300</v>
+        <v>297500</v>
       </c>
       <c r="I83" s="3">
-        <v>282300</v>
+        <v>1087400</v>
       </c>
       <c r="J83" s="3">
+        <v>265600</v>
+      </c>
+      <c r="K83" s="3">
         <v>257000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>270700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>296200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>288600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>276700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>270900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>258100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>258600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>249900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>231500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>225800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>216500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>205200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>185800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>204100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>205000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>717200</v>
+        <v>-59300</v>
       </c>
       <c r="E89" s="3">
-        <v>540000</v>
+        <v>1312000</v>
       </c>
       <c r="F89" s="3">
-        <v>55000</v>
+        <v>508100</v>
       </c>
       <c r="G89" s="3">
-        <v>9100</v>
+        <v>51800</v>
       </c>
       <c r="H89" s="3">
-        <v>466900</v>
+        <v>8600</v>
       </c>
       <c r="I89" s="3">
-        <v>699100</v>
+        <v>1692200</v>
       </c>
       <c r="J89" s="3">
+        <v>657800</v>
+      </c>
+      <c r="K89" s="3">
         <v>493400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>83600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>642000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>816700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>478500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>71500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>479600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>780600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>408400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-329800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>545400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>378100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>79500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-177600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>545700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>390400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>406900</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-627600</v>
+        <v>-510500</v>
       </c>
       <c r="E91" s="3">
-        <v>-598400</v>
+        <v>-2135500</v>
       </c>
       <c r="F91" s="3">
-        <v>-567000</v>
+        <v>-563100</v>
       </c>
       <c r="G91" s="3">
-        <v>-476800</v>
+        <v>-533500</v>
       </c>
       <c r="H91" s="3">
-        <v>-451200</v>
+        <v>-448600</v>
       </c>
       <c r="I91" s="3">
-        <v>-446400</v>
+        <v>-1555400</v>
       </c>
       <c r="J91" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-395400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-395500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-383700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-355500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-367200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-466200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-541600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-379600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-322700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-384400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-412700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-436500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-377400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-388000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-293800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-413900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-304700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-645600</v>
+        <v>-214300</v>
       </c>
       <c r="E94" s="3">
-        <v>-874800</v>
+        <v>-2063700</v>
       </c>
       <c r="F94" s="3">
-        <v>-448300</v>
+        <v>-823100</v>
       </c>
       <c r="G94" s="3">
-        <v>-221800</v>
+        <v>-421900</v>
       </c>
       <c r="H94" s="3">
-        <v>-518800</v>
+        <v>-208700</v>
       </c>
       <c r="I94" s="3">
-        <v>-517700</v>
+        <v>-1696300</v>
       </c>
       <c r="J94" s="3">
+        <v>-487100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-438900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-359100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-470400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-484300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1010900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-415900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-426400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-384800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-293100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-213600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-383600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-44100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-203600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1593400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>591900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-446200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-348600</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-123400</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-175800</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-92400</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-82500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-166700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-83200</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="M96" s="3">
         <v>-200</v>
       </c>
-      <c r="E96" s="3">
-        <v>-98200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-87600</v>
-      </c>
-      <c r="H96" s="3">
+      <c r="N96" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-91300</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-200</v>
       </c>
-      <c r="I96" s="3">
-        <v>-88400</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="R96" s="3">
+        <v>-95200</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T96" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V96" s="3">
+        <v>-68300</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1300</v>
       </c>
-      <c r="K96" s="3">
-        <v>-95600</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="X96" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-200</v>
       </c>
-      <c r="M96" s="3">
-        <v>-96100</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-91300</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-95200</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-79200</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-68300</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-67100</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-67000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-31400</v>
+        <v>-76000</v>
       </c>
       <c r="E100" s="3">
-        <v>616200</v>
+        <v>833700</v>
       </c>
       <c r="F100" s="3">
-        <v>294900</v>
+        <v>579800</v>
       </c>
       <c r="G100" s="3">
-        <v>76600</v>
+        <v>277500</v>
       </c>
       <c r="H100" s="3">
-        <v>-163700</v>
+        <v>72000</v>
       </c>
       <c r="I100" s="3">
-        <v>115400</v>
+        <v>214000</v>
       </c>
       <c r="J100" s="3">
+        <v>108500</v>
+      </c>
+      <c r="K100" s="3">
         <v>72200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>222800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-285400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-112400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-915900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>207300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-113000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>61100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-104900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>236500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-26100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-274500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-226100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1521900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-716900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-170900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>221900</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>205300</v>
+        <v>263800</v>
       </c>
       <c r="E101" s="3">
-        <v>104000</v>
+        <v>350100</v>
       </c>
       <c r="F101" s="3">
-        <v>17700</v>
+        <v>97900</v>
       </c>
       <c r="G101" s="3">
-        <v>45100</v>
+        <v>16700</v>
       </c>
       <c r="H101" s="3">
-        <v>193200</v>
+        <v>42400</v>
       </c>
       <c r="I101" s="3">
-        <v>20100</v>
+        <v>199000</v>
       </c>
       <c r="J101" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K101" s="3">
         <v>9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-68800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>81400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-39800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-109000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>18200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-56500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-12900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>50100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-133700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>19900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>38300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>20800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-97200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>308200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>245500</v>
+        <v>-85700</v>
       </c>
       <c r="E102" s="3">
-        <v>385400</v>
+        <v>432100</v>
       </c>
       <c r="F102" s="3">
-        <v>-80600</v>
+        <v>362600</v>
       </c>
       <c r="G102" s="3">
-        <v>-91000</v>
+        <v>-75900</v>
       </c>
       <c r="H102" s="3">
-        <v>-22300</v>
+        <v>-85700</v>
       </c>
       <c r="I102" s="3">
-        <v>316900</v>
+        <v>349400</v>
       </c>
       <c r="J102" s="3">
+        <v>298200</v>
+      </c>
+      <c r="K102" s="3">
         <v>135700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-64500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-182700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>301300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>533800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-246300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-41700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-256800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>79400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-311900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-228300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>323600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>81500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>233900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3742000</v>
+        <v>4335500</v>
       </c>
       <c r="E8" s="3">
-        <v>13942600</v>
+        <v>3619500</v>
       </c>
       <c r="F8" s="3">
-        <v>3662600</v>
+        <v>13486100</v>
       </c>
       <c r="G8" s="3">
-        <v>3475400</v>
+        <v>3542700</v>
       </c>
       <c r="H8" s="3">
-        <v>3079000</v>
+        <v>3361600</v>
       </c>
       <c r="I8" s="3">
-        <v>10841100</v>
+        <v>2978200</v>
       </c>
       <c r="J8" s="3">
+        <v>10486200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2900400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2973600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2639100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2646300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3239800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3402300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3085200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2970100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3311600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3519700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3118500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2775700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3083800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3019800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2617300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2433100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2880700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2664700</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2627400</v>
+        <v>3001300</v>
       </c>
       <c r="E9" s="3">
-        <v>9809600</v>
+        <v>2541400</v>
       </c>
       <c r="F9" s="3">
-        <v>2511900</v>
+        <v>9488400</v>
       </c>
       <c r="G9" s="3">
-        <v>2388400</v>
+        <v>2429600</v>
       </c>
       <c r="H9" s="3">
-        <v>2210800</v>
+        <v>2303100</v>
       </c>
       <c r="I9" s="3">
-        <v>7714200</v>
+        <v>2135800</v>
       </c>
       <c r="J9" s="3">
+        <v>7461600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1989300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2048000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1875100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1963600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2204100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2334900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2205900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2202400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2303600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2451100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2256800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2084000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2201600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2193800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1923900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1831500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2033200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1915700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1114600</v>
+        <v>1334200</v>
       </c>
       <c r="E10" s="3">
-        <v>4133000</v>
+        <v>1078100</v>
       </c>
       <c r="F10" s="3">
-        <v>1150700</v>
+        <v>3997700</v>
       </c>
       <c r="G10" s="3">
-        <v>1086900</v>
+        <v>1113100</v>
       </c>
       <c r="H10" s="3">
-        <v>868200</v>
+        <v>1058500</v>
       </c>
       <c r="I10" s="3">
-        <v>3127000</v>
+        <v>842400</v>
       </c>
       <c r="J10" s="3">
+        <v>3024600</v>
+      </c>
+      <c r="K10" s="3">
         <v>911100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>925600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>764000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>682700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1035700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1067400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>879300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>767700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1008000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1068600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>861700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>691800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>882100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>825900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>693400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>601500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>847600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>749000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,49 +1203,52 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-15500</v>
       </c>
       <c r="E14" s="3">
-        <v>-54900</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>-6400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-53100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>-14100</v>
       </c>
       <c r="I14" s="3">
-        <v>9700</v>
+        <v>-21200</v>
       </c>
       <c r="J14" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>161700</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2200</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1242,8 +1262,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3415100</v>
+        <v>3798700</v>
       </c>
       <c r="E17" s="3">
-        <v>12720100</v>
+        <v>3303200</v>
       </c>
       <c r="F17" s="3">
-        <v>3228600</v>
+        <v>12303600</v>
       </c>
       <c r="G17" s="3">
-        <v>3114700</v>
+        <v>3122900</v>
       </c>
       <c r="H17" s="3">
-        <v>2853000</v>
+        <v>3005000</v>
       </c>
       <c r="I17" s="3">
-        <v>10021500</v>
+        <v>2756200</v>
       </c>
       <c r="J17" s="3">
+        <v>9693400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2570000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2631100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2481800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2746500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2871800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2999200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2856400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2846300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3002300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3178200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2887400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2677000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2790500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2770200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2467200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1263700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2592300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2418000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>326900</v>
+        <v>536800</v>
       </c>
       <c r="E18" s="3">
-        <v>1222500</v>
+        <v>316200</v>
       </c>
       <c r="F18" s="3">
-        <v>434000</v>
+        <v>1182400</v>
       </c>
       <c r="G18" s="3">
-        <v>360600</v>
+        <v>419700</v>
       </c>
       <c r="H18" s="3">
-        <v>226000</v>
+        <v>356600</v>
       </c>
       <c r="I18" s="3">
-        <v>819600</v>
+        <v>222000</v>
       </c>
       <c r="J18" s="3">
+        <v>792800</v>
+      </c>
+      <c r="K18" s="3">
         <v>330400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>342500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>157300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>368000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>403100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>228800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>123800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>309200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>341500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>231100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>98700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>293300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>249600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>150100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1169400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>288400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>246700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5400</v>
+        <v>2100</v>
       </c>
       <c r="E20" s="3">
-        <v>94000</v>
+        <v>-5200</v>
       </c>
       <c r="F20" s="3">
-        <v>25000</v>
+        <v>91000</v>
       </c>
       <c r="G20" s="3">
-        <v>30100</v>
+        <v>24100</v>
       </c>
       <c r="H20" s="3">
-        <v>19400</v>
+        <v>22700</v>
       </c>
       <c r="I20" s="3">
-        <v>89400</v>
+        <v>16700</v>
       </c>
       <c r="J20" s="3">
+        <v>86400</v>
+      </c>
+      <c r="K20" s="3">
         <v>14800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>26400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>13300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>142500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-15100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>20700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>19800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>8500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>11600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>38400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>4900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>695900</v>
+        <v>908200</v>
       </c>
       <c r="E21" s="3">
-        <v>2614100</v>
+        <v>673100</v>
       </c>
       <c r="F21" s="3">
-        <v>765000</v>
+        <v>2528500</v>
       </c>
       <c r="G21" s="3">
-        <v>691000</v>
+        <v>711400</v>
       </c>
       <c r="H21" s="3">
-        <v>542900</v>
+        <v>683900</v>
       </c>
       <c r="I21" s="3">
-        <v>1996400</v>
+        <v>540900</v>
       </c>
       <c r="J21" s="3">
+        <v>1931000</v>
+      </c>
+      <c r="K21" s="3">
         <v>610800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>593900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>454400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>182000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>670000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>688700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>507400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>524500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>560900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>576200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>457500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>345200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>529600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>463300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>347400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1411900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>498300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>52100</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>3200</v>
+        <v>50400</v>
       </c>
       <c r="G22" s="3">
-        <v>8000</v>
+        <v>3100</v>
       </c>
       <c r="H22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>47800</v>
+      </c>
+      <c r="K22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N22" s="3">
+        <v>8700</v>
+      </c>
+      <c r="O22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="P22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="R22" s="3">
         <v>9100</v>
       </c>
-      <c r="I22" s="3">
-        <v>49400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>6600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>6200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>7000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>8700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>6200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>8100</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="S22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="T22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="U22" s="3">
         <v>10200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>9100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>9600</v>
-      </c>
-      <c r="S22" s="3">
-        <v>9900</v>
-      </c>
-      <c r="T22" s="3">
-        <v>10200</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>11100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>7800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>321600</v>
+        <v>538900</v>
       </c>
       <c r="E23" s="3">
-        <v>1264400</v>
+        <v>311100</v>
       </c>
       <c r="F23" s="3">
-        <v>455700</v>
+        <v>1223000</v>
       </c>
       <c r="G23" s="3">
-        <v>382800</v>
+        <v>440700</v>
       </c>
       <c r="H23" s="3">
-        <v>236300</v>
+        <v>371600</v>
       </c>
       <c r="I23" s="3">
-        <v>859500</v>
+        <v>230000</v>
       </c>
       <c r="J23" s="3">
+        <v>831400</v>
+      </c>
+      <c r="K23" s="3">
         <v>338600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>330700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>176700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-122900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>375100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>403900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>226300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>257200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>292600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>316500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>215800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>109200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>302600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>247000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>153100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1200000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>284800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>247900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>88800</v>
+        <v>143300</v>
       </c>
       <c r="E24" s="3">
-        <v>298100</v>
+        <v>85900</v>
       </c>
       <c r="F24" s="3">
-        <v>93500</v>
+        <v>288400</v>
       </c>
       <c r="G24" s="3">
-        <v>77600</v>
+        <v>90500</v>
       </c>
       <c r="H24" s="3">
-        <v>40800</v>
+        <v>73900</v>
       </c>
       <c r="I24" s="3">
-        <v>313000</v>
+        <v>38800</v>
       </c>
       <c r="J24" s="3">
+        <v>302800</v>
+      </c>
+      <c r="K24" s="3">
         <v>112400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>104000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>63600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>106600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>133800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>82900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>75700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>81000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>84500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>67600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>74000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>67300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>52100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>421800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>65000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>232800</v>
+        <v>395600</v>
       </c>
       <c r="E26" s="3">
-        <v>966200</v>
+        <v>225200</v>
       </c>
       <c r="F26" s="3">
-        <v>362100</v>
+        <v>934600</v>
       </c>
       <c r="G26" s="3">
-        <v>305200</v>
+        <v>350300</v>
       </c>
       <c r="H26" s="3">
-        <v>195500</v>
+        <v>297700</v>
       </c>
       <c r="I26" s="3">
-        <v>546500</v>
+        <v>191200</v>
       </c>
       <c r="J26" s="3">
+        <v>528600</v>
+      </c>
+      <c r="K26" s="3">
         <v>226200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>226700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>113100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-152900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>268500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>270000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>143400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>181400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>211500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>231900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>148100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>100900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>228600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>179700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>101000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>778200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>219800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>181500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>230300</v>
+        <v>393800</v>
       </c>
       <c r="E27" s="3">
-        <v>962400</v>
+        <v>222700</v>
       </c>
       <c r="F27" s="3">
-        <v>359700</v>
+        <v>930900</v>
       </c>
       <c r="G27" s="3">
-        <v>304600</v>
+        <v>348000</v>
       </c>
       <c r="H27" s="3">
-        <v>195500</v>
+        <v>296700</v>
       </c>
       <c r="I27" s="3">
-        <v>549500</v>
+        <v>191000</v>
       </c>
       <c r="J27" s="3">
+        <v>531500</v>
+      </c>
+      <c r="K27" s="3">
         <v>226100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>226200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>112500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-146500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>268500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>269700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>142800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>179900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>211500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>231100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>147200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>101200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>226800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>178400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>99000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>780600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>216600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,8 +2344,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2298,14 +2359,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-31800</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5400</v>
+        <v>-2100</v>
       </c>
       <c r="E32" s="3">
-        <v>-94000</v>
+        <v>5200</v>
       </c>
       <c r="F32" s="3">
-        <v>-25000</v>
+        <v>-91000</v>
       </c>
       <c r="G32" s="3">
-        <v>-30100</v>
+        <v>-24100</v>
       </c>
       <c r="H32" s="3">
-        <v>-19400</v>
+        <v>-22700</v>
       </c>
       <c r="I32" s="3">
-        <v>-89400</v>
+        <v>-16700</v>
       </c>
       <c r="J32" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-14800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-26400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-13300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-142500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>15100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-20700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-19800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-8500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-38400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>230300</v>
+        <v>393800</v>
       </c>
       <c r="E33" s="3">
-        <v>962400</v>
+        <v>222700</v>
       </c>
       <c r="F33" s="3">
-        <v>359700</v>
+        <v>930900</v>
       </c>
       <c r="G33" s="3">
-        <v>304600</v>
+        <v>348000</v>
       </c>
       <c r="H33" s="3">
-        <v>195500</v>
+        <v>296700</v>
       </c>
       <c r="I33" s="3">
-        <v>549500</v>
+        <v>191000</v>
       </c>
       <c r="J33" s="3">
+        <v>531500</v>
+      </c>
+      <c r="K33" s="3">
         <v>226100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>226200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>112500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-146500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>268500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>269700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>142800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>179900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>211500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>231100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>147200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>101200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>195100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>178400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>99000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>780600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>216600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>230300</v>
+        <v>393800</v>
       </c>
       <c r="E35" s="3">
-        <v>962400</v>
+        <v>222700</v>
       </c>
       <c r="F35" s="3">
-        <v>359700</v>
+        <v>930900</v>
       </c>
       <c r="G35" s="3">
-        <v>304600</v>
+        <v>348000</v>
       </c>
       <c r="H35" s="3">
-        <v>195500</v>
+        <v>296700</v>
       </c>
       <c r="I35" s="3">
-        <v>549500</v>
+        <v>191000</v>
       </c>
       <c r="J35" s="3">
+        <v>531500</v>
+      </c>
+      <c r="K35" s="3">
         <v>226100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>226200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>112500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-146500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>268500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>269700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>142800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>179900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>211500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>231100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>147200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>101200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>195100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>178400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>99000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>780600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>216600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3007,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3134600</v>
+        <v>3245500</v>
       </c>
       <c r="E41" s="3">
-        <v>3220400</v>
+        <v>3032000</v>
       </c>
       <c r="F41" s="3">
-        <v>2989300</v>
+        <v>3114900</v>
       </c>
       <c r="G41" s="3">
-        <v>2626700</v>
+        <v>2891500</v>
       </c>
       <c r="H41" s="3">
-        <v>2702600</v>
+        <v>2540700</v>
       </c>
       <c r="I41" s="3">
-        <v>2788200</v>
+        <v>2614100</v>
       </c>
       <c r="J41" s="3">
+        <v>2696900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2809300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2668600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2773500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2931200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3219900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2944200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2402600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2779000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2770800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2332800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2285000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2527800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2525900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2446500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2758400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2930500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2607000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2525500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>156500</v>
+        <v>251300</v>
       </c>
       <c r="E42" s="3">
-        <v>490700</v>
+        <v>151400</v>
       </c>
       <c r="F42" s="3">
-        <v>358400</v>
+        <v>474600</v>
       </c>
       <c r="G42" s="3">
-        <v>122600</v>
+        <v>346700</v>
       </c>
       <c r="H42" s="3">
-        <v>247900</v>
+        <v>118600</v>
       </c>
       <c r="I42" s="3">
-        <v>1036700</v>
+        <v>239800</v>
       </c>
       <c r="J42" s="3">
+        <v>1002800</v>
+      </c>
+      <c r="K42" s="3">
         <v>392300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>310500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>298000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>286800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>217600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>90000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>317000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>389800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>292900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>275700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>279700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>394700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>342100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>714600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>731400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>497900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>157800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>175500</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4378800</v>
+        <v>4465400</v>
       </c>
       <c r="E43" s="3">
-        <v>4070800</v>
+        <v>4235400</v>
       </c>
       <c r="F43" s="3">
-        <v>3708400</v>
+        <v>3937500</v>
       </c>
       <c r="G43" s="3">
-        <v>3659200</v>
+        <v>3586900</v>
       </c>
       <c r="H43" s="3">
-        <v>3332200</v>
+        <v>3539400</v>
       </c>
       <c r="I43" s="3">
-        <v>6579800</v>
+        <v>3223100</v>
       </c>
       <c r="J43" s="3">
+        <v>6364400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2897600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2955900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2713500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2732400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3319800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3421500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3028500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2961400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3200000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3658300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3144100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2748300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3100600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3055200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2624700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2261000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2509700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2325300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3912600</v>
+        <v>3687200</v>
       </c>
       <c r="E44" s="3">
-        <v>3203200</v>
+        <v>3784500</v>
       </c>
       <c r="F44" s="3">
-        <v>3020900</v>
+        <v>3098400</v>
       </c>
       <c r="G44" s="3">
-        <v>2579800</v>
+        <v>2922000</v>
       </c>
       <c r="H44" s="3">
-        <v>2450100</v>
+        <v>2495300</v>
       </c>
       <c r="I44" s="3">
-        <v>4230900</v>
+        <v>2369900</v>
       </c>
       <c r="J44" s="3">
+        <v>4092300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1877500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1918000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2198000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2083200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2224300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2033500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2145400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2180400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2257400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2141000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2071700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1876100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1910700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1803700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1689800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1370400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1319200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1353300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>719300</v>
+        <v>642200</v>
       </c>
       <c r="E45" s="3">
-        <v>253000</v>
+        <v>695800</v>
       </c>
       <c r="F45" s="3">
-        <v>576000</v>
+        <v>244700</v>
       </c>
       <c r="G45" s="3">
-        <v>683800</v>
+        <v>557100</v>
       </c>
       <c r="H45" s="3">
-        <v>772800</v>
+        <v>661400</v>
       </c>
       <c r="I45" s="3">
-        <v>639100</v>
+        <v>747500</v>
       </c>
       <c r="J45" s="3">
+        <v>618200</v>
+      </c>
+      <c r="K45" s="3">
         <v>387000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>392800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>477500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>481200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>608600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>538000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>561800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>554500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>637800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>592600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>661500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>588500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>731100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>673600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>810400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>622800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2047000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12301900</v>
+        <v>12291600</v>
       </c>
       <c r="E46" s="3">
-        <v>11238200</v>
+        <v>11899100</v>
       </c>
       <c r="F46" s="3">
-        <v>10652900</v>
+        <v>10870200</v>
       </c>
       <c r="G46" s="3">
-        <v>9672000</v>
+        <v>10304100</v>
       </c>
       <c r="H46" s="3">
-        <v>9505600</v>
+        <v>9355300</v>
       </c>
       <c r="I46" s="3">
-        <v>9022300</v>
+        <v>9194300</v>
       </c>
       <c r="J46" s="3">
+        <v>8726900</v>
+      </c>
+      <c r="K46" s="3">
         <v>8363700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8245700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8460600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8514700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9590300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9027200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8455400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8865100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9158900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9000400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8442000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8135400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8610400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8693700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8614700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7682600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8640700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6876600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1157300</v>
+        <v>1229100</v>
       </c>
       <c r="E47" s="3">
-        <v>1027800</v>
+        <v>1119500</v>
       </c>
       <c r="F47" s="3">
-        <v>413600</v>
+        <v>994100</v>
       </c>
       <c r="G47" s="3">
-        <v>371600</v>
+        <v>400100</v>
       </c>
       <c r="H47" s="3">
-        <v>327500</v>
+        <v>359400</v>
       </c>
       <c r="I47" s="3">
-        <v>750000</v>
+        <v>316800</v>
       </c>
       <c r="J47" s="3">
+        <v>725400</v>
+      </c>
+      <c r="K47" s="3">
         <v>246100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>258900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>280700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>292700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>306300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>300800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1386200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1492500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1498700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1515200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1447400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1403400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1460000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1353700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1385500</v>
       </c>
-      <c r="Y47" s="3" t="s">
+      <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>317100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7736900</v>
+        <v>7684600</v>
       </c>
       <c r="E48" s="3">
-        <v>7294900</v>
+        <v>7483500</v>
       </c>
       <c r="F48" s="3">
-        <v>6924400</v>
+        <v>7056000</v>
       </c>
       <c r="G48" s="3">
-        <v>6573100</v>
+        <v>6697700</v>
       </c>
       <c r="H48" s="3">
-        <v>6380600</v>
+        <v>6357900</v>
       </c>
       <c r="I48" s="3">
-        <v>12086300</v>
+        <v>6171700</v>
       </c>
       <c r="J48" s="3">
+        <v>11690500</v>
+      </c>
+      <c r="K48" s="3">
         <v>5506000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5468100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5706900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5729700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6098700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5928500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5902900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5795900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5496300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5384500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5208000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4932600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4870000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4685800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4547500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4121600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4223600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4500600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1626200</v>
+        <v>1615800</v>
       </c>
       <c r="E49" s="3">
-        <v>1512800</v>
+        <v>1572900</v>
       </c>
       <c r="F49" s="3">
-        <v>1754700</v>
+        <v>1463200</v>
       </c>
       <c r="G49" s="3">
-        <v>1731700</v>
+        <v>1697200</v>
       </c>
       <c r="H49" s="3">
-        <v>1732900</v>
+        <v>1675000</v>
       </c>
       <c r="I49" s="3">
-        <v>3206100</v>
+        <v>1676200</v>
       </c>
       <c r="J49" s="3">
+        <v>3101200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1674600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1824200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2020000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2120500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2234000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2239800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2262400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2436000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2398100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2378400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2277900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2200200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2272200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2276900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2205800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1001000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1092000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>933100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1276500</v>
+        <v>1209100</v>
       </c>
       <c r="E52" s="3">
-        <v>1221700</v>
+        <v>1234700</v>
       </c>
       <c r="F52" s="3">
-        <v>869900</v>
+        <v>1181700</v>
       </c>
       <c r="G52" s="3">
-        <v>693600</v>
+        <v>841400</v>
       </c>
       <c r="H52" s="3">
-        <v>438300</v>
+        <v>670900</v>
       </c>
       <c r="I52" s="3">
-        <v>492800</v>
+        <v>423900</v>
       </c>
       <c r="J52" s="3">
+        <v>476600</v>
+      </c>
+      <c r="K52" s="3">
         <v>397000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>418900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>461900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>463500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>458700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>449000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>472400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>558300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>538400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>564400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>528400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>551500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>539100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>565900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>539800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1957400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>599700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24098800</v>
+        <v>24030200</v>
       </c>
       <c r="E54" s="3">
-        <v>22295300</v>
+        <v>23309700</v>
       </c>
       <c r="F54" s="3">
-        <v>20615500</v>
+        <v>21565300</v>
       </c>
       <c r="G54" s="3">
-        <v>19042000</v>
+        <v>19940500</v>
       </c>
       <c r="H54" s="3">
-        <v>18385000</v>
+        <v>18418500</v>
       </c>
       <c r="I54" s="3">
-        <v>17296300</v>
+        <v>17783000</v>
       </c>
       <c r="J54" s="3">
+        <v>16730000</v>
+      </c>
+      <c r="K54" s="3">
         <v>16187300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16215800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16930100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17121200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18687900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17945300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18479200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19147700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19090400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18842900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17903800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17223100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17751700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17575900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>17293200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>14762600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>14873100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>13158900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3888200</v>
+        <v>3239700</v>
       </c>
       <c r="E57" s="3">
-        <v>3372800</v>
+        <v>3760900</v>
       </c>
       <c r="F57" s="3">
-        <v>2912600</v>
+        <v>3262300</v>
       </c>
       <c r="G57" s="3">
-        <v>2760000</v>
+        <v>2817300</v>
       </c>
       <c r="H57" s="3">
-        <v>2757900</v>
+        <v>2669600</v>
       </c>
       <c r="I57" s="3">
-        <v>4755300</v>
+        <v>2667600</v>
       </c>
       <c r="J57" s="3">
+        <v>4599600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1983700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1854600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1794400</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2111100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1902500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1774100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1824900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1935100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2006800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2067400</v>
       </c>
-      <c r="U57" s="3" t="s">
+      <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2138200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2066200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1807900</v>
       </c>
-      <c r="Y57" s="3" t="s">
+      <c r="Z57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1648400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1383400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1463100</v>
+        <v>1749500</v>
       </c>
       <c r="E58" s="3">
-        <v>1358700</v>
+        <v>1415200</v>
       </c>
       <c r="F58" s="3">
-        <v>1504500</v>
+        <v>1314200</v>
       </c>
       <c r="G58" s="3">
-        <v>2109900</v>
+        <v>1455200</v>
       </c>
       <c r="H58" s="3">
-        <v>2560300</v>
+        <v>2040800</v>
       </c>
       <c r="I58" s="3">
-        <v>4872300</v>
+        <v>2476500</v>
       </c>
       <c r="J58" s="3">
+        <v>4712700</v>
+      </c>
+      <c r="K58" s="3">
         <v>2542600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2230700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2311200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2507600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2888400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2517300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3350200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3004000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2978100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2652200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2038100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1709800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1551100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1679200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2316800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1066100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1614500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2222200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3072500</v>
+        <v>3164800</v>
       </c>
       <c r="E59" s="3">
-        <v>3055700</v>
+        <v>2971900</v>
       </c>
       <c r="F59" s="3">
-        <v>2710900</v>
+        <v>2955600</v>
       </c>
       <c r="G59" s="3">
-        <v>2616100</v>
+        <v>2622100</v>
       </c>
       <c r="H59" s="3">
-        <v>2668500</v>
+        <v>2530400</v>
       </c>
       <c r="I59" s="3">
-        <v>5324200</v>
+        <v>2581100</v>
       </c>
       <c r="J59" s="3">
+        <v>5149800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2103900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1975300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1965400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3826000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2102600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1960800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1905900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2035800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2254600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2165900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1835800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3741600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1669900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1728700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1794900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3170100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1663200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1357600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8423800</v>
+        <v>8154000</v>
       </c>
       <c r="E60" s="3">
-        <v>7787100</v>
+        <v>8148000</v>
       </c>
       <c r="F60" s="3">
-        <v>7128000</v>
+        <v>7532100</v>
       </c>
       <c r="G60" s="3">
-        <v>7485900</v>
+        <v>6894600</v>
       </c>
       <c r="H60" s="3">
-        <v>7986700</v>
+        <v>7240800</v>
       </c>
       <c r="I60" s="3">
-        <v>7537600</v>
+        <v>7725200</v>
       </c>
       <c r="J60" s="3">
+        <v>7290800</v>
+      </c>
+      <c r="K60" s="3">
         <v>6630200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6060600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6070900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6333600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7102100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6380600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7030200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6864600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7167700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6824900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5941300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5451500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5359300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5474200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5919500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4236300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4926200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4963300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3645600</v>
+        <v>3506400</v>
       </c>
       <c r="E61" s="3">
-        <v>3624400</v>
+        <v>3526200</v>
       </c>
       <c r="F61" s="3">
-        <v>3155900</v>
+        <v>3505700</v>
       </c>
       <c r="G61" s="3">
-        <v>1876000</v>
+        <v>3052600</v>
       </c>
       <c r="H61" s="3">
-        <v>1138900</v>
+        <v>1814500</v>
       </c>
       <c r="I61" s="3">
-        <v>1357400</v>
+        <v>1101600</v>
       </c>
       <c r="J61" s="3">
+        <v>1313000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1138100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1475700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1620900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1233900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1279800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1693400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1689700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1995800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2044700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2160800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2705700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2656700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2905000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2974300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2470000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1897600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2078800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1355200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1382900</v>
+        <v>1368900</v>
       </c>
       <c r="E62" s="3">
-        <v>1327300</v>
+        <v>1337600</v>
       </c>
       <c r="F62" s="3">
-        <v>1716300</v>
+        <v>1283900</v>
       </c>
       <c r="G62" s="3">
-        <v>1695500</v>
+        <v>1660100</v>
       </c>
       <c r="H62" s="3">
-        <v>1662300</v>
+        <v>1640000</v>
       </c>
       <c r="I62" s="3">
-        <v>2426600</v>
+        <v>1607900</v>
       </c>
       <c r="J62" s="3">
+        <v>2347100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1797900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1854000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2015600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2077800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1996700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1953500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1952600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1794400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1669300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1673200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1604900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1600600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1619600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1597900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1582700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1514000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1409500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1440600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13480800</v>
+        <v>13057500</v>
       </c>
       <c r="E66" s="3">
-        <v>12764000</v>
+        <v>13039400</v>
       </c>
       <c r="F66" s="3">
-        <v>12024000</v>
+        <v>12346100</v>
       </c>
       <c r="G66" s="3">
-        <v>11077200</v>
+        <v>11630400</v>
       </c>
       <c r="H66" s="3">
-        <v>10807500</v>
+        <v>10714600</v>
       </c>
       <c r="I66" s="3">
-        <v>10267400</v>
+        <v>10453700</v>
       </c>
       <c r="J66" s="3">
+        <v>9931200</v>
+      </c>
+      <c r="K66" s="3">
         <v>9587600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9417800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9746000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9685900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10427800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10076200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10728900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10717000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10940400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10717600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10314600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9768400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9946100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10106300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10050400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7723300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8487700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7822400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7282900</v>
+        <v>7463600</v>
       </c>
       <c r="E72" s="3">
-        <v>7145000</v>
+        <v>7044400</v>
       </c>
       <c r="F72" s="3">
-        <v>8529200</v>
+        <v>6911100</v>
       </c>
       <c r="G72" s="3">
-        <v>8263000</v>
+        <v>8249900</v>
       </c>
       <c r="H72" s="3">
-        <v>7958300</v>
+        <v>7992400</v>
       </c>
       <c r="I72" s="3">
-        <v>13763100</v>
+        <v>7697700</v>
       </c>
       <c r="J72" s="3">
+        <v>13312500</v>
+      </c>
+      <c r="K72" s="3">
         <v>7800000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8137900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8685500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8954400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9410900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9327100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9027800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9418600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9075300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8816700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8400800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8316200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8215000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8088300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7909900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7731200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6951300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6801800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10618000</v>
+        <v>10972700</v>
       </c>
       <c r="E76" s="3">
-        <v>9531300</v>
+        <v>10270300</v>
       </c>
       <c r="F76" s="3">
-        <v>8591400</v>
+        <v>9219200</v>
       </c>
       <c r="G76" s="3">
-        <v>7964700</v>
+        <v>8310100</v>
       </c>
       <c r="H76" s="3">
-        <v>7577400</v>
+        <v>7703900</v>
       </c>
       <c r="I76" s="3">
-        <v>7028900</v>
+        <v>7329300</v>
       </c>
       <c r="J76" s="3">
+        <v>6798800</v>
+      </c>
+      <c r="K76" s="3">
         <v>6599700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6798000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7184100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7435300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8260200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7869100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7750300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8430800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8150000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8125300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7589200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7454700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7805600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7469600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7242800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7039400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6385400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>5336600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>230300</v>
+        <v>393800</v>
       </c>
       <c r="E81" s="3">
-        <v>962400</v>
+        <v>222700</v>
       </c>
       <c r="F81" s="3">
-        <v>359700</v>
+        <v>930900</v>
       </c>
       <c r="G81" s="3">
-        <v>304600</v>
+        <v>348000</v>
       </c>
       <c r="H81" s="3">
-        <v>195500</v>
+        <v>296700</v>
       </c>
       <c r="I81" s="3">
-        <v>549500</v>
+        <v>191000</v>
       </c>
       <c r="J81" s="3">
+        <v>531500</v>
+      </c>
+      <c r="K81" s="3">
         <v>226100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>226200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>112500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-146500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>268500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>269700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>142800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>179900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>211500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>231100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>147200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>101200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>195100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>178400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>99000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>780600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>216600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>374300</v>
+        <v>369400</v>
       </c>
       <c r="E83" s="3">
-        <v>1297600</v>
+        <v>362100</v>
       </c>
       <c r="F83" s="3">
-        <v>306000</v>
+        <v>1255100</v>
       </c>
       <c r="G83" s="3">
-        <v>300300</v>
+        <v>267500</v>
       </c>
       <c r="H83" s="3">
-        <v>297500</v>
+        <v>304600</v>
       </c>
       <c r="I83" s="3">
-        <v>1087400</v>
+        <v>302100</v>
       </c>
       <c r="J83" s="3">
+        <v>1051800</v>
+      </c>
+      <c r="K83" s="3">
         <v>265600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>257000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>270700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>296200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>288600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>276700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>270900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>258100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>258600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>249900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>231500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>225800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>216500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>205200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>185800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>204100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>205000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-59300</v>
+        <v>449200</v>
       </c>
       <c r="E89" s="3">
-        <v>1312000</v>
+        <v>-57400</v>
       </c>
       <c r="F89" s="3">
-        <v>508100</v>
+        <v>1269000</v>
       </c>
       <c r="G89" s="3">
-        <v>51800</v>
+        <v>456900</v>
       </c>
       <c r="H89" s="3">
-        <v>8600</v>
+        <v>65300</v>
       </c>
       <c r="I89" s="3">
-        <v>1692200</v>
+        <v>27700</v>
       </c>
       <c r="J89" s="3">
+        <v>1636800</v>
+      </c>
+      <c r="K89" s="3">
         <v>657800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>493400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>83600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>642000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>816700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>478500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>71500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>479600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>780600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>408400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-329800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>545400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>378100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>79500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-177600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>545700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>390400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>406900</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-510500</v>
+        <v>-599100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2135500</v>
+        <v>-493800</v>
       </c>
       <c r="F91" s="3">
-        <v>-563100</v>
+        <v>-2065600</v>
       </c>
       <c r="G91" s="3">
-        <v>-533500</v>
+        <v>-544600</v>
       </c>
       <c r="H91" s="3">
-        <v>-448600</v>
+        <v>-516000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1555400</v>
+        <v>-433900</v>
       </c>
       <c r="J91" s="3">
+        <v>-1504500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-420000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-395400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-395500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-383700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-355500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-367200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-466200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-541600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-379600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-322700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-384400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-412700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-436500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-377400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-388000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-293800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-413900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-304700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-214300</v>
+        <v>-587700</v>
       </c>
       <c r="E94" s="3">
-        <v>-2063700</v>
+        <v>-207300</v>
       </c>
       <c r="F94" s="3">
-        <v>-823100</v>
+        <v>-1996200</v>
       </c>
       <c r="G94" s="3">
-        <v>-421900</v>
+        <v>-796200</v>
       </c>
       <c r="H94" s="3">
-        <v>-208700</v>
+        <v>-408000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1696300</v>
+        <v>-201900</v>
       </c>
       <c r="J94" s="3">
+        <v>-1640800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-487100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-438900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-359100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-470400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-484300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1010900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-415900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-426400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-384800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-293100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-213600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-383600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-44100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-203600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1593400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>591900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-446200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-348600</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-123400</v>
+        <v>-1500</v>
       </c>
       <c r="E96" s="3">
-        <v>-175800</v>
+        <v>-119400</v>
       </c>
       <c r="F96" s="3">
-        <v>-92400</v>
+        <v>-170100</v>
       </c>
       <c r="G96" s="3">
+        <v>-89300</v>
+      </c>
+      <c r="H96" s="3">
         <v>-800</v>
       </c>
-      <c r="H96" s="3">
-        <v>-82500</v>
-      </c>
       <c r="I96" s="3">
-        <v>-166700</v>
+        <v>-79800</v>
       </c>
       <c r="J96" s="3">
+        <v>-161200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-83200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-95600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-96100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-91300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-95200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-79200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-68300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-67100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-67000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-76000</v>
+        <v>273400</v>
       </c>
       <c r="E100" s="3">
-        <v>833700</v>
+        <v>-73500</v>
       </c>
       <c r="F100" s="3">
-        <v>579800</v>
+        <v>806400</v>
       </c>
       <c r="G100" s="3">
-        <v>277500</v>
+        <v>560800</v>
       </c>
       <c r="H100" s="3">
-        <v>72000</v>
+        <v>268400</v>
       </c>
       <c r="I100" s="3">
-        <v>214000</v>
+        <v>69700</v>
       </c>
       <c r="J100" s="3">
+        <v>207000</v>
+      </c>
+      <c r="K100" s="3">
         <v>108500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>72200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>222800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-285400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-112400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-915900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>207300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-113000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>61100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-104900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>236500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-26100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-274500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-226100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1521900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-716900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-170900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>221900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>263800</v>
+        <v>78500</v>
       </c>
       <c r="E101" s="3">
-        <v>350100</v>
+        <v>255200</v>
       </c>
       <c r="F101" s="3">
-        <v>97900</v>
+        <v>338700</v>
       </c>
       <c r="G101" s="3">
-        <v>16700</v>
+        <v>94700</v>
       </c>
       <c r="H101" s="3">
-        <v>42400</v>
+        <v>16100</v>
       </c>
       <c r="I101" s="3">
-        <v>199000</v>
+        <v>41000</v>
       </c>
       <c r="J101" s="3">
+        <v>192500</v>
+      </c>
+      <c r="K101" s="3">
         <v>18900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>9000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-11900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-68800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>81400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-39800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-109000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>18200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-56500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-12900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>50100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-133700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>19900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>38300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>20800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-97200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>308200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-85700</v>
+        <v>213500</v>
       </c>
       <c r="E102" s="3">
-        <v>432100</v>
+        <v>-82900</v>
       </c>
       <c r="F102" s="3">
-        <v>362600</v>
+        <v>418000</v>
       </c>
       <c r="G102" s="3">
-        <v>-75900</v>
+        <v>350800</v>
       </c>
       <c r="H102" s="3">
-        <v>-85700</v>
+        <v>-73400</v>
       </c>
       <c r="I102" s="3">
-        <v>349400</v>
+        <v>-82900</v>
       </c>
       <c r="J102" s="3">
+        <v>338000</v>
+      </c>
+      <c r="K102" s="3">
         <v>298200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>135700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-64500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-182700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>301300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>533800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-246300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-41700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-256800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>79400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-311900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-228300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>323600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>81500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>233900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4335500</v>
+        <v>4314200</v>
       </c>
       <c r="E8" s="3">
-        <v>3619500</v>
+        <v>4494400</v>
       </c>
       <c r="F8" s="3">
-        <v>13486100</v>
+        <v>3752200</v>
       </c>
       <c r="G8" s="3">
-        <v>3542700</v>
+        <v>3735800</v>
       </c>
       <c r="H8" s="3">
-        <v>3361600</v>
+        <v>3672600</v>
       </c>
       <c r="I8" s="3">
-        <v>2978200</v>
+        <v>3484800</v>
       </c>
       <c r="J8" s="3">
+        <v>3087400</v>
+      </c>
+      <c r="K8" s="3">
         <v>10486200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2900400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2973600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2639100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2646300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3239800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3402300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3085200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2970100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3311600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3519700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3118500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2775700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3083800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3019800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2617300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2433100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2880700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2664700</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3001300</v>
+        <v>3047500</v>
       </c>
       <c r="E9" s="3">
-        <v>2541400</v>
+        <v>3111300</v>
       </c>
       <c r="F9" s="3">
-        <v>9488400</v>
+        <v>2634500</v>
       </c>
       <c r="G9" s="3">
-        <v>2429600</v>
+        <v>2718900</v>
       </c>
       <c r="H9" s="3">
-        <v>2303100</v>
+        <v>2515700</v>
       </c>
       <c r="I9" s="3">
-        <v>2135800</v>
+        <v>2387500</v>
       </c>
       <c r="J9" s="3">
+        <v>2214100</v>
+      </c>
+      <c r="K9" s="3">
         <v>7461600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1989300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2048000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1875100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1963600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2204100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2334900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2205900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2202400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2303600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2451100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2256800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2084000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2201600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2193800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1923900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1831500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2033200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1915700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1334200</v>
+        <v>1266800</v>
       </c>
       <c r="E10" s="3">
-        <v>1078100</v>
+        <v>1383100</v>
       </c>
       <c r="F10" s="3">
-        <v>3997700</v>
+        <v>1117700</v>
       </c>
       <c r="G10" s="3">
-        <v>1113100</v>
+        <v>1016800</v>
       </c>
       <c r="H10" s="3">
-        <v>1058500</v>
+        <v>1156900</v>
       </c>
       <c r="I10" s="3">
-        <v>842400</v>
+        <v>1097300</v>
       </c>
       <c r="J10" s="3">
+        <v>873300</v>
+      </c>
+      <c r="K10" s="3">
         <v>3024600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>911100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>925600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>764000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>682700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1035700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1067400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>879300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>767700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1008000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1068600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>861700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>691800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>882100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>825900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>693400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>601500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>847600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>749000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,52 +1222,55 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-15500</v>
+        <v>-19600</v>
       </c>
       <c r="E14" s="3">
-        <v>-6400</v>
+        <v>-16000</v>
       </c>
       <c r="F14" s="3">
-        <v>-53100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>-6600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-8500</v>
       </c>
       <c r="H14" s="3">
-        <v>-14100</v>
+        <v>-9900</v>
       </c>
       <c r="I14" s="3">
-        <v>-21200</v>
+        <v>-14600</v>
       </c>
       <c r="J14" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="K14" s="3">
         <v>9400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>161700</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1265,8 +1284,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3798700</v>
+        <v>3811700</v>
       </c>
       <c r="E17" s="3">
-        <v>3303200</v>
+        <v>3938000</v>
       </c>
       <c r="F17" s="3">
-        <v>12303600</v>
+        <v>3424400</v>
       </c>
       <c r="G17" s="3">
-        <v>3122900</v>
+        <v>3548600</v>
       </c>
       <c r="H17" s="3">
-        <v>3005000</v>
+        <v>3233800</v>
       </c>
       <c r="I17" s="3">
-        <v>2756200</v>
+        <v>3115200</v>
       </c>
       <c r="J17" s="3">
+        <v>2857200</v>
+      </c>
+      <c r="K17" s="3">
         <v>9693400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2570000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2631100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2481800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2746500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2871800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2999200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2856400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2846300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3002300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3178200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2887400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2677000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2790500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2770200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2467200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1263700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2592300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2418000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>536800</v>
+        <v>502500</v>
       </c>
       <c r="E18" s="3">
-        <v>316200</v>
+        <v>556400</v>
       </c>
       <c r="F18" s="3">
-        <v>1182400</v>
+        <v>327800</v>
       </c>
       <c r="G18" s="3">
-        <v>419700</v>
+        <v>187200</v>
       </c>
       <c r="H18" s="3">
-        <v>356600</v>
+        <v>438800</v>
       </c>
       <c r="I18" s="3">
-        <v>222000</v>
+        <v>369600</v>
       </c>
       <c r="J18" s="3">
+        <v>230200</v>
+      </c>
+      <c r="K18" s="3">
         <v>792800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>330400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>342500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>157300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>368000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>403100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>228800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>123800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>309200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>341500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>231100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>98700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>293300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>249600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>150100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1169400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>288400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>246700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1615,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2100</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>58900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>14800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>23600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>86400</v>
+      </c>
+      <c r="L20" s="3">
+        <v>14800</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="N20" s="3">
+        <v>26400</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="P20" s="3">
+        <v>13300</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>8800</v>
+      </c>
+      <c r="R20" s="3">
+        <v>7700</v>
+      </c>
+      <c r="S20" s="3">
+        <v>142500</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-5200</v>
       </c>
-      <c r="F20" s="3">
-        <v>91000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>24100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>22700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>16700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>86400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>14800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>26400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>13300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>8800</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>7700</v>
-      </c>
-      <c r="R20" s="3">
-        <v>142500</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>20700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>19800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>8500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>11600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>38400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>4900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>908200</v>
+        <v>887300</v>
       </c>
       <c r="E21" s="3">
-        <v>673100</v>
+        <v>941500</v>
       </c>
       <c r="F21" s="3">
-        <v>2528500</v>
+        <v>697800</v>
       </c>
       <c r="G21" s="3">
-        <v>711400</v>
+        <v>594800</v>
       </c>
       <c r="H21" s="3">
-        <v>683900</v>
+        <v>777100</v>
       </c>
       <c r="I21" s="3">
-        <v>540900</v>
+        <v>709000</v>
       </c>
       <c r="J21" s="3">
+        <v>560700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1931000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>610800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>593900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>454400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>182000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>670000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>688700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>507400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>524500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>560900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>576200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>457500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>345200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>529600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>463300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>347400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1411900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>498300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1754,237 +1793,246 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>50400</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>3100</v>
+        <v>52300</v>
       </c>
       <c r="H22" s="3">
-        <v>7700</v>
+        <v>3200</v>
       </c>
       <c r="I22" s="3">
-        <v>8800</v>
+        <v>8000</v>
       </c>
       <c r="J22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K22" s="3">
         <v>47800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>11100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>7800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>8600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>538900</v>
+        <v>501500</v>
       </c>
       <c r="E23" s="3">
-        <v>311100</v>
+        <v>558600</v>
       </c>
       <c r="F23" s="3">
-        <v>1223000</v>
+        <v>322500</v>
       </c>
       <c r="G23" s="3">
-        <v>440700</v>
+        <v>193800</v>
       </c>
       <c r="H23" s="3">
-        <v>371600</v>
+        <v>450400</v>
       </c>
       <c r="I23" s="3">
-        <v>230000</v>
+        <v>385200</v>
       </c>
       <c r="J23" s="3">
+        <v>238400</v>
+      </c>
+      <c r="K23" s="3">
         <v>831400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>338600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>330700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>176700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-122900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>375100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>403900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>226300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>257200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>292600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>316500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>215800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>109200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>302600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>247000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>153100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1200000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>284800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>247900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>143300</v>
+        <v>134300</v>
       </c>
       <c r="E24" s="3">
-        <v>85900</v>
+        <v>148500</v>
       </c>
       <c r="F24" s="3">
-        <v>288400</v>
+        <v>89000</v>
       </c>
       <c r="G24" s="3">
-        <v>90500</v>
+        <v>89800</v>
       </c>
       <c r="H24" s="3">
-        <v>73900</v>
+        <v>92300</v>
       </c>
       <c r="I24" s="3">
-        <v>38800</v>
+        <v>76700</v>
       </c>
       <c r="J24" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K24" s="3">
         <v>302800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>112400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>104000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>63600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>106600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>133800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>82900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>75700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>81000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>84500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>67600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>74000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>67300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>52100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>421800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>65000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>395600</v>
+        <v>367200</v>
       </c>
       <c r="E26" s="3">
-        <v>225200</v>
+        <v>410100</v>
       </c>
       <c r="F26" s="3">
-        <v>934600</v>
+        <v>233400</v>
       </c>
       <c r="G26" s="3">
-        <v>350300</v>
+        <v>104000</v>
       </c>
       <c r="H26" s="3">
-        <v>297700</v>
+        <v>358100</v>
       </c>
       <c r="I26" s="3">
-        <v>191200</v>
+        <v>308600</v>
       </c>
       <c r="J26" s="3">
+        <v>198200</v>
+      </c>
+      <c r="K26" s="3">
         <v>528600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>226200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>226700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>113100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-152900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>268500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>270000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>143400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>181400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>211500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>231900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>148100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>100900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>228600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>179700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>101000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>778200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>219800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>181500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>393800</v>
+        <v>366900</v>
       </c>
       <c r="E27" s="3">
-        <v>222700</v>
+        <v>408200</v>
       </c>
       <c r="F27" s="3">
-        <v>930900</v>
+        <v>230900</v>
       </c>
       <c r="G27" s="3">
-        <v>348000</v>
+        <v>103200</v>
       </c>
       <c r="H27" s="3">
-        <v>296700</v>
+        <v>353300</v>
       </c>
       <c r="I27" s="3">
-        <v>191000</v>
+        <v>307500</v>
       </c>
       <c r="J27" s="3">
+        <v>198000</v>
+      </c>
+      <c r="K27" s="3">
         <v>531500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>226100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>226200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>112500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-146500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>268500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>269700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>142800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>179900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>211500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>231100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>147200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>101200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>226800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>178400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>99000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>780600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>216600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2347,8 +2407,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2362,14 +2422,14 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-31800</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2100</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="M32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="O32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="T32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="U32" s="3">
+        <v>15100</v>
+      </c>
+      <c r="V32" s="3">
         <v>5200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-91000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-24100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-22700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-86400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>5600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-26400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>14000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-142500</v>
-      </c>
-      <c r="S32" s="3">
-        <v>7000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>15100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>5200</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-20700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-19800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-11600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-38400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>393800</v>
+        <v>366900</v>
       </c>
       <c r="E33" s="3">
-        <v>222700</v>
+        <v>408200</v>
       </c>
       <c r="F33" s="3">
-        <v>930900</v>
+        <v>230900</v>
       </c>
       <c r="G33" s="3">
-        <v>348000</v>
+        <v>103200</v>
       </c>
       <c r="H33" s="3">
-        <v>296700</v>
+        <v>353300</v>
       </c>
       <c r="I33" s="3">
-        <v>191000</v>
+        <v>307500</v>
       </c>
       <c r="J33" s="3">
+        <v>198000</v>
+      </c>
+      <c r="K33" s="3">
         <v>531500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>226100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>226200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>112500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-146500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>268500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>269700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>142800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>179900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>211500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>231100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>147200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>101200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>195100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>178400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>99000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>780600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>216600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>393800</v>
+        <v>366900</v>
       </c>
       <c r="E35" s="3">
-        <v>222700</v>
+        <v>408200</v>
       </c>
       <c r="F35" s="3">
-        <v>930900</v>
+        <v>230900</v>
       </c>
       <c r="G35" s="3">
-        <v>348000</v>
+        <v>103200</v>
       </c>
       <c r="H35" s="3">
-        <v>296700</v>
+        <v>353300</v>
       </c>
       <c r="I35" s="3">
-        <v>191000</v>
+        <v>307500</v>
       </c>
       <c r="J35" s="3">
+        <v>198000</v>
+      </c>
+      <c r="K35" s="3">
         <v>531500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>226100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>226200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>112500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-146500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>268500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>269700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>142800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>179900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>211500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>231100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>147200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>101200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>195100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>178400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>99000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>780600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>216600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,728 +3093,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3245500</v>
+        <v>3493000</v>
       </c>
       <c r="E41" s="3">
-        <v>3032000</v>
+        <v>3364500</v>
       </c>
       <c r="F41" s="3">
-        <v>3114900</v>
+        <v>3143200</v>
       </c>
       <c r="G41" s="3">
-        <v>2891500</v>
+        <v>3229100</v>
       </c>
       <c r="H41" s="3">
-        <v>2540700</v>
+        <v>2997500</v>
       </c>
       <c r="I41" s="3">
-        <v>2614100</v>
+        <v>2633900</v>
       </c>
       <c r="J41" s="3">
+        <v>2709900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2696900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2809300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2668600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2773500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2931200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3219900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2944200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2402600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2779000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2770800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2332800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2285000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2527800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2525900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2446500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2758400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2930500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2607000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2525500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>251300</v>
+        <v>327800</v>
       </c>
       <c r="E42" s="3">
-        <v>151400</v>
+        <v>260600</v>
       </c>
       <c r="F42" s="3">
-        <v>474600</v>
+        <v>157000</v>
       </c>
       <c r="G42" s="3">
-        <v>346700</v>
+        <v>492000</v>
       </c>
       <c r="H42" s="3">
-        <v>118600</v>
+        <v>359400</v>
       </c>
       <c r="I42" s="3">
-        <v>239800</v>
+        <v>122900</v>
       </c>
       <c r="J42" s="3">
+        <v>248600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1002800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>392300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>310500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>298000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>286800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>217600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>90000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>317000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>389800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>292900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>275700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>279700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>394700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>342100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>714600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>731400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>497900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>157800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>175500</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4465400</v>
+        <v>4170200</v>
       </c>
       <c r="E43" s="3">
-        <v>4235400</v>
+        <v>4629100</v>
       </c>
       <c r="F43" s="3">
-        <v>3937500</v>
+        <v>4390700</v>
       </c>
       <c r="G43" s="3">
-        <v>3586900</v>
+        <v>4081900</v>
       </c>
       <c r="H43" s="3">
-        <v>3539400</v>
+        <v>3718500</v>
       </c>
       <c r="I43" s="3">
-        <v>3223100</v>
+        <v>3669200</v>
       </c>
       <c r="J43" s="3">
+        <v>3341300</v>
+      </c>
+      <c r="K43" s="3">
         <v>6364400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2897600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2955900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2713500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2732400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3319800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3421500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3028500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2961400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3200000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3658300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3144100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2748300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3100600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3055200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2624700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2261000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2509700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2325300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3687200</v>
+        <v>3518400</v>
       </c>
       <c r="E44" s="3">
-        <v>3784500</v>
+        <v>3822400</v>
       </c>
       <c r="F44" s="3">
-        <v>3098400</v>
+        <v>3923300</v>
       </c>
       <c r="G44" s="3">
-        <v>2922000</v>
+        <v>3212000</v>
       </c>
       <c r="H44" s="3">
-        <v>2495300</v>
+        <v>3029100</v>
       </c>
       <c r="I44" s="3">
-        <v>2369900</v>
+        <v>2586800</v>
       </c>
       <c r="J44" s="3">
+        <v>2456800</v>
+      </c>
+      <c r="K44" s="3">
         <v>4092300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1877500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1918000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2198000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2083200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2224300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2033500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2145400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2180400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2257400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2141000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2071700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1876100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1910700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1803700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1689800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1370400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1319200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1353300</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>642200</v>
+        <v>420900</v>
       </c>
       <c r="E45" s="3">
-        <v>695800</v>
+        <v>665700</v>
       </c>
       <c r="F45" s="3">
-        <v>244700</v>
+        <v>721300</v>
       </c>
       <c r="G45" s="3">
-        <v>557100</v>
+        <v>253700</v>
       </c>
       <c r="H45" s="3">
-        <v>661400</v>
+        <v>577500</v>
       </c>
       <c r="I45" s="3">
-        <v>747500</v>
+        <v>685600</v>
       </c>
       <c r="J45" s="3">
+        <v>774900</v>
+      </c>
+      <c r="K45" s="3">
         <v>618200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>387000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>392800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>477500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>481200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>608600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>538000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>561800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>554500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>637800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>592600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>661500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>588500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>731100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>673600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>810400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>622800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2047000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12291600</v>
+        <v>11930300</v>
       </c>
       <c r="E46" s="3">
-        <v>11899100</v>
+        <v>12742300</v>
       </c>
       <c r="F46" s="3">
-        <v>10870200</v>
+        <v>12335500</v>
       </c>
       <c r="G46" s="3">
-        <v>10304100</v>
+        <v>11268800</v>
       </c>
       <c r="H46" s="3">
-        <v>9355300</v>
+        <v>10682000</v>
       </c>
       <c r="I46" s="3">
-        <v>9194300</v>
+        <v>9698400</v>
       </c>
       <c r="J46" s="3">
+        <v>9531500</v>
+      </c>
+      <c r="K46" s="3">
         <v>8726900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8363700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8245700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8460600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8514700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9590300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9027200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8455400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8865100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9158900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9000400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8442000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8135400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8610400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8693700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8614700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7682600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8640700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>6876600</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1229100</v>
+        <v>1231500</v>
       </c>
       <c r="E47" s="3">
-        <v>1119500</v>
+        <v>1274200</v>
       </c>
       <c r="F47" s="3">
-        <v>994100</v>
+        <v>1160500</v>
       </c>
       <c r="G47" s="3">
-        <v>400100</v>
+        <v>1030600</v>
       </c>
       <c r="H47" s="3">
-        <v>359400</v>
+        <v>414800</v>
       </c>
       <c r="I47" s="3">
-        <v>316800</v>
+        <v>372600</v>
       </c>
       <c r="J47" s="3">
+        <v>328400</v>
+      </c>
+      <c r="K47" s="3">
         <v>725400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>246100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>258900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>280700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>292700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>306300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>300800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1386200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1492500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1498700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1515200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1447400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1403400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1460000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1353700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1385500</v>
       </c>
-      <c r="Z47" s="3" t="s">
+      <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>317100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7684600</v>
+        <v>7456800</v>
       </c>
       <c r="E48" s="3">
-        <v>7483500</v>
+        <v>7966400</v>
       </c>
       <c r="F48" s="3">
-        <v>7056000</v>
+        <v>7758000</v>
       </c>
       <c r="G48" s="3">
-        <v>6697700</v>
+        <v>7314800</v>
       </c>
       <c r="H48" s="3">
-        <v>6357900</v>
+        <v>6943300</v>
       </c>
       <c r="I48" s="3">
-        <v>6171700</v>
+        <v>6591000</v>
       </c>
       <c r="J48" s="3">
+        <v>6398100</v>
+      </c>
+      <c r="K48" s="3">
         <v>11690500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5506000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5468100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5706900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5729700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6098700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5928500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5902900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5795900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5496300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5384500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5208000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4932600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4870000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4685800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4547500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4121600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4223600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4500600</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1615800</v>
+        <v>1551800</v>
       </c>
       <c r="E49" s="3">
-        <v>1572900</v>
+        <v>1675000</v>
       </c>
       <c r="F49" s="3">
-        <v>1463200</v>
+        <v>1630600</v>
       </c>
       <c r="G49" s="3">
-        <v>1697200</v>
+        <v>1516900</v>
       </c>
       <c r="H49" s="3">
-        <v>1675000</v>
+        <v>1759400</v>
       </c>
       <c r="I49" s="3">
-        <v>1676200</v>
+        <v>1736500</v>
       </c>
       <c r="J49" s="3">
+        <v>1737700</v>
+      </c>
+      <c r="K49" s="3">
         <v>3101200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1674600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1824200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2020000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2120500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2234000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2239800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2262400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2436000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2398100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2378400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2277900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2200200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2272200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2276900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2205800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1001000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1092000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>933100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1209100</v>
+        <v>1156000</v>
       </c>
       <c r="E52" s="3">
-        <v>1234700</v>
+        <v>1253400</v>
       </c>
       <c r="F52" s="3">
-        <v>1181700</v>
+        <v>1280000</v>
       </c>
       <c r="G52" s="3">
-        <v>841400</v>
+        <v>1225000</v>
       </c>
       <c r="H52" s="3">
-        <v>670900</v>
+        <v>872200</v>
       </c>
       <c r="I52" s="3">
-        <v>423900</v>
+        <v>695500</v>
       </c>
       <c r="J52" s="3">
+        <v>439500</v>
+      </c>
+      <c r="K52" s="3">
         <v>476600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>397000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>418900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>461900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>463500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>458700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>449000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>472400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>558300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>538400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>564400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>528400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>551500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>539100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>565900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>539800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1957400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>599700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24030200</v>
+        <v>23326400</v>
       </c>
       <c r="E54" s="3">
-        <v>23309700</v>
+        <v>24911400</v>
       </c>
       <c r="F54" s="3">
-        <v>21565300</v>
+        <v>24164500</v>
       </c>
       <c r="G54" s="3">
-        <v>19940500</v>
+        <v>22356100</v>
       </c>
       <c r="H54" s="3">
-        <v>18418500</v>
+        <v>20671700</v>
       </c>
       <c r="I54" s="3">
-        <v>17783000</v>
+        <v>19093900</v>
       </c>
       <c r="J54" s="3">
+        <v>18435100</v>
+      </c>
+      <c r="K54" s="3">
         <v>16730000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16187300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16215800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16930100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17121200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18687900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17945300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18479200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19147700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>19090400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18842900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17903800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17223100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17751700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>17575900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>17293200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>14762600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>14873100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>13158900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3239700</v>
+        <v>2842700</v>
       </c>
       <c r="E57" s="3">
-        <v>3760900</v>
+        <v>3358500</v>
       </c>
       <c r="F57" s="3">
-        <v>3262300</v>
+        <v>3898800</v>
       </c>
       <c r="G57" s="3">
-        <v>2817300</v>
+        <v>3382000</v>
       </c>
       <c r="H57" s="3">
-        <v>2669600</v>
+        <v>2920600</v>
       </c>
       <c r="I57" s="3">
-        <v>2667600</v>
+        <v>2767500</v>
       </c>
       <c r="J57" s="3">
+        <v>2765500</v>
+      </c>
+      <c r="K57" s="3">
         <v>4599600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1983700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1854600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1794400</v>
       </c>
-      <c r="N57" s="3" t="s">
+      <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2111100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1902500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1774100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1824900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1935100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2006800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2067400</v>
       </c>
-      <c r="V57" s="3" t="s">
+      <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2138200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2066200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1807900</v>
       </c>
-      <c r="Z57" s="3" t="s">
+      <c r="AA57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1648400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1383400</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1749500</v>
+        <v>1900600</v>
       </c>
       <c r="E58" s="3">
-        <v>1415200</v>
+        <v>1813700</v>
       </c>
       <c r="F58" s="3">
-        <v>1314200</v>
+        <v>1467100</v>
       </c>
       <c r="G58" s="3">
-        <v>1455200</v>
+        <v>1362400</v>
       </c>
       <c r="H58" s="3">
-        <v>2040800</v>
+        <v>1508600</v>
       </c>
       <c r="I58" s="3">
-        <v>2476500</v>
+        <v>2115600</v>
       </c>
       <c r="J58" s="3">
+        <v>2567300</v>
+      </c>
+      <c r="K58" s="3">
         <v>4712700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2542600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2230700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2311200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2507600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2888400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2517300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3350200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3004000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2978100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2652200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2038100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1709800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1551100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1679200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2316800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1066100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1614500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2222200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3164800</v>
+        <v>2913800</v>
       </c>
       <c r="E59" s="3">
-        <v>2971900</v>
+        <v>3280900</v>
       </c>
       <c r="F59" s="3">
-        <v>2955600</v>
+        <v>3080900</v>
       </c>
       <c r="G59" s="3">
-        <v>2622100</v>
+        <v>3064000</v>
       </c>
       <c r="H59" s="3">
-        <v>2530400</v>
+        <v>2718300</v>
       </c>
       <c r="I59" s="3">
-        <v>2581100</v>
+        <v>2623200</v>
       </c>
       <c r="J59" s="3">
+        <v>2675800</v>
+      </c>
+      <c r="K59" s="3">
         <v>5149800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2103900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1975300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1965400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3826000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2102600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1960800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1905900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2035800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2254600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2165900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1835800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3741600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1669900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1728700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1794900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3170100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1663200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1357600</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8154000</v>
+        <v>7657100</v>
       </c>
       <c r="E60" s="3">
-        <v>8148000</v>
+        <v>8453000</v>
       </c>
       <c r="F60" s="3">
-        <v>7532100</v>
+        <v>8446800</v>
       </c>
       <c r="G60" s="3">
-        <v>6894600</v>
+        <v>7808300</v>
       </c>
       <c r="H60" s="3">
-        <v>7240800</v>
+        <v>7147400</v>
       </c>
       <c r="I60" s="3">
-        <v>7725200</v>
+        <v>7506400</v>
       </c>
       <c r="J60" s="3">
+        <v>8008500</v>
+      </c>
+      <c r="K60" s="3">
         <v>7290800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6630200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6060600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6070900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6333600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7102100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6380600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7030200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6864600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7167700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6824900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5941300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5451500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5359300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5474200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5919500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4236300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4926200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4963300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3506400</v>
+        <v>3582800</v>
       </c>
       <c r="E61" s="3">
-        <v>3526200</v>
+        <v>3635000</v>
       </c>
       <c r="F61" s="3">
-        <v>3505700</v>
+        <v>3655500</v>
       </c>
       <c r="G61" s="3">
-        <v>3052600</v>
+        <v>3634300</v>
       </c>
       <c r="H61" s="3">
-        <v>1814500</v>
+        <v>3164600</v>
       </c>
       <c r="I61" s="3">
-        <v>1101600</v>
+        <v>1881100</v>
       </c>
       <c r="J61" s="3">
+        <v>1142000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1313000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1138100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1475700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1620900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1233900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1279800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1693400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1689700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1995800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2044700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2160800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2705700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2656700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2905000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2974300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2470000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1897600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2078800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1355200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1368900</v>
+        <v>1335800</v>
       </c>
       <c r="E62" s="3">
-        <v>1337600</v>
+        <v>1419100</v>
       </c>
       <c r="F62" s="3">
-        <v>1283900</v>
+        <v>1386700</v>
       </c>
       <c r="G62" s="3">
-        <v>1660100</v>
+        <v>1331000</v>
       </c>
       <c r="H62" s="3">
-        <v>1640000</v>
+        <v>1721000</v>
       </c>
       <c r="I62" s="3">
-        <v>1607900</v>
+        <v>1700100</v>
       </c>
       <c r="J62" s="3">
+        <v>1666800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2347100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1797900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1854000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2015600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2077800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1996700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1953500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1952600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1794400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1669300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1673200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1604900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1600600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1619600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1597900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1582700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1514000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1409500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1440600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13057500</v>
+        <v>12611900</v>
       </c>
       <c r="E66" s="3">
-        <v>13039400</v>
+        <v>13536300</v>
       </c>
       <c r="F66" s="3">
-        <v>12346100</v>
+        <v>13517600</v>
       </c>
       <c r="G66" s="3">
-        <v>11630400</v>
+        <v>12798800</v>
       </c>
       <c r="H66" s="3">
-        <v>10714600</v>
+        <v>12056900</v>
       </c>
       <c r="I66" s="3">
-        <v>10453700</v>
+        <v>11107500</v>
       </c>
       <c r="J66" s="3">
+        <v>10837000</v>
+      </c>
+      <c r="K66" s="3">
         <v>9931200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9587600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9417800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9746000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9685900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10427800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10076200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10728900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10717000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10940400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10717600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10314600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9768400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9946100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10106300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10050400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7723300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>8487700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7822400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7463600</v>
+        <v>7957900</v>
       </c>
       <c r="E72" s="3">
-        <v>7044400</v>
+        <v>7737300</v>
       </c>
       <c r="F72" s="3">
-        <v>6911100</v>
+        <v>7302800</v>
       </c>
       <c r="G72" s="3">
-        <v>8249900</v>
+        <v>7164500</v>
       </c>
       <c r="H72" s="3">
-        <v>7992400</v>
+        <v>8552500</v>
       </c>
       <c r="I72" s="3">
-        <v>7697700</v>
+        <v>8285500</v>
       </c>
       <c r="J72" s="3">
+        <v>7980000</v>
+      </c>
+      <c r="K72" s="3">
         <v>13312500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7800000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8137900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8685500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8954400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9410900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9327100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9027800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9418600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9075300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8816700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8400800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8316200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8215000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8088300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7909900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7731200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6951300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>6801800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10972700</v>
+        <v>10714500</v>
       </c>
       <c r="E76" s="3">
-        <v>10270300</v>
+        <v>11375100</v>
       </c>
       <c r="F76" s="3">
-        <v>9219200</v>
+        <v>10646900</v>
       </c>
       <c r="G76" s="3">
-        <v>8310100</v>
+        <v>9557300</v>
       </c>
       <c r="H76" s="3">
-        <v>7703900</v>
+        <v>8614900</v>
       </c>
       <c r="I76" s="3">
-        <v>7329300</v>
+        <v>7986500</v>
       </c>
       <c r="J76" s="3">
+        <v>7598100</v>
+      </c>
+      <c r="K76" s="3">
         <v>6798800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6599700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6798000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7184100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7435300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8260200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7869100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7750300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8430800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8150000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8125300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7589200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7454700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7805600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7469600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7242800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7039400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6385400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>5336600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>393800</v>
+        <v>366900</v>
       </c>
       <c r="E81" s="3">
-        <v>222700</v>
+        <v>408200</v>
       </c>
       <c r="F81" s="3">
-        <v>930900</v>
+        <v>230900</v>
       </c>
       <c r="G81" s="3">
-        <v>348000</v>
+        <v>103200</v>
       </c>
       <c r="H81" s="3">
-        <v>296700</v>
+        <v>353300</v>
       </c>
       <c r="I81" s="3">
-        <v>191000</v>
+        <v>307500</v>
       </c>
       <c r="J81" s="3">
+        <v>198000</v>
+      </c>
+      <c r="K81" s="3">
         <v>531500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>226100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>226200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>112500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-146500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>268500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>269700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>142800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>179900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>211500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>231100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>147200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>101200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>195100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>178400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>99000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>780600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>216600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>369400</v>
+        <v>385900</v>
       </c>
       <c r="E83" s="3">
-        <v>362100</v>
+        <v>382900</v>
       </c>
       <c r="F83" s="3">
-        <v>1255100</v>
+        <v>375300</v>
       </c>
       <c r="G83" s="3">
-        <v>267500</v>
+        <v>348700</v>
       </c>
       <c r="H83" s="3">
-        <v>304600</v>
+        <v>323500</v>
       </c>
       <c r="I83" s="3">
-        <v>302100</v>
+        <v>315800</v>
       </c>
       <c r="J83" s="3">
+        <v>313200</v>
+      </c>
+      <c r="K83" s="3">
         <v>1051800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>265600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>257000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>270700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>296200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>288600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>276700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>270900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>258100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>258600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>249900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>231500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>225800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>216500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>205200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>185800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>204100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>205000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>449200</v>
+        <v>947900</v>
       </c>
       <c r="E89" s="3">
-        <v>-57400</v>
+        <v>465700</v>
       </c>
       <c r="F89" s="3">
-        <v>1269000</v>
+        <v>-59500</v>
       </c>
       <c r="G89" s="3">
-        <v>456900</v>
+        <v>694300</v>
       </c>
       <c r="H89" s="3">
-        <v>65300</v>
+        <v>524900</v>
       </c>
       <c r="I89" s="3">
-        <v>27700</v>
+        <v>67600</v>
       </c>
       <c r="J89" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1636800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>657800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>493400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>83600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>642000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>816700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>478500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>71500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>479600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>780600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>408400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-329800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>545400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>378100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>79500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-177600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>545700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>390400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>406900</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-599100</v>
+        <v>-486400</v>
       </c>
       <c r="E91" s="3">
-        <v>-493800</v>
+        <v>-621100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2065600</v>
+        <v>-511900</v>
       </c>
       <c r="G91" s="3">
-        <v>-544600</v>
+        <v>-591900</v>
       </c>
       <c r="H91" s="3">
-        <v>-516000</v>
+        <v>-564600</v>
       </c>
       <c r="I91" s="3">
-        <v>-433900</v>
+        <v>-534900</v>
       </c>
       <c r="J91" s="3">
+        <v>-449900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1504500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-420000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-395400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-395500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-383700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-355500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-367200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-466200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-541600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-379600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-322700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-384400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-412700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-436500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-377400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-388000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-293800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-413900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-304700</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-587700</v>
+        <v>-480400</v>
       </c>
       <c r="E94" s="3">
-        <v>-207300</v>
+        <v>-609200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1996200</v>
+        <v>-214900</v>
       </c>
       <c r="G94" s="3">
-        <v>-796200</v>
+        <v>-611700</v>
       </c>
       <c r="H94" s="3">
-        <v>-408000</v>
+        <v>-825400</v>
       </c>
       <c r="I94" s="3">
-        <v>-201900</v>
+        <v>-423000</v>
       </c>
       <c r="J94" s="3">
+        <v>-209300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1640800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-487100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-438900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-359100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-470400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-484300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1010900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-415900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-426400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-384800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-293100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-213600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-383600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-44100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-203600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1593400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>591900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-446200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-348600</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7185,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-147900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1500</v>
       </c>
-      <c r="E96" s="3">
-        <v>-119400</v>
-      </c>
       <c r="F96" s="3">
-        <v>-170100</v>
+        <v>-123700</v>
       </c>
       <c r="G96" s="3">
-        <v>-89300</v>
+        <v>-200</v>
       </c>
       <c r="H96" s="3">
+        <v>-92600</v>
+      </c>
+      <c r="I96" s="3">
         <v>-800</v>
       </c>
-      <c r="I96" s="3">
-        <v>-79800</v>
-      </c>
       <c r="J96" s="3">
+        <v>-82700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-161200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-83200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-95600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-96100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-91300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-95200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-79200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-68300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-67100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-67000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>273400</v>
+        <v>-54500</v>
       </c>
       <c r="E100" s="3">
-        <v>-73500</v>
+        <v>283500</v>
       </c>
       <c r="F100" s="3">
-        <v>806400</v>
+        <v>-76200</v>
       </c>
       <c r="G100" s="3">
-        <v>560800</v>
+        <v>-95900</v>
       </c>
       <c r="H100" s="3">
-        <v>268400</v>
+        <v>581400</v>
       </c>
       <c r="I100" s="3">
-        <v>69700</v>
+        <v>278300</v>
       </c>
       <c r="J100" s="3">
+        <v>72200</v>
+      </c>
+      <c r="K100" s="3">
         <v>207000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>108500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>72200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>222800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-285400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-112400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-915900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>207300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-113000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>61100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-104900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>236500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-26100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-274500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-226100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1521900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-716900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-170900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>221900</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>78500</v>
+        <v>-284600</v>
       </c>
       <c r="E101" s="3">
-        <v>255200</v>
+        <v>81400</v>
       </c>
       <c r="F101" s="3">
-        <v>338700</v>
+        <v>264600</v>
       </c>
       <c r="G101" s="3">
-        <v>94700</v>
+        <v>193700</v>
       </c>
       <c r="H101" s="3">
-        <v>16100</v>
+        <v>98100</v>
       </c>
       <c r="I101" s="3">
-        <v>41000</v>
+        <v>16700</v>
       </c>
       <c r="J101" s="3">
+        <v>42500</v>
+      </c>
+      <c r="K101" s="3">
         <v>192500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>18900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>9000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-11900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-68800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>81400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-39800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-109000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>18200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-56500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-12900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>50100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-133700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>19900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>38300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>20800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-97200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>308200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>213500</v>
+        <v>128500</v>
       </c>
       <c r="E102" s="3">
-        <v>-82900</v>
+        <v>221300</v>
       </c>
       <c r="F102" s="3">
-        <v>418000</v>
+        <v>-86000</v>
       </c>
       <c r="G102" s="3">
-        <v>350800</v>
+        <v>231700</v>
       </c>
       <c r="H102" s="3">
-        <v>-73400</v>
+        <v>363600</v>
       </c>
       <c r="I102" s="3">
-        <v>-82900</v>
+        <v>-76100</v>
       </c>
       <c r="J102" s="3">
+        <v>-85900</v>
+      </c>
+      <c r="K102" s="3">
         <v>338000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>298200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>135700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-64500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-182700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>301300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>533800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-246300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-41700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-256800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>79400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-311900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-228300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>323600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>81500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>233900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,380 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4314200</v>
+        <v>3402100</v>
       </c>
       <c r="E8" s="3">
-        <v>4494400</v>
+        <v>4232100</v>
       </c>
       <c r="F8" s="3">
-        <v>3752200</v>
+        <v>4408800</v>
       </c>
       <c r="G8" s="3">
-        <v>3735800</v>
+        <v>3680700</v>
       </c>
       <c r="H8" s="3">
-        <v>3672600</v>
+        <v>3664600</v>
       </c>
       <c r="I8" s="3">
-        <v>3484800</v>
+        <v>3602600</v>
       </c>
       <c r="J8" s="3">
+        <v>3418500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3087400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10486200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2900400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2973600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2639100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2646300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3239800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3402300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3085200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2970100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3311600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3519700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3118500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2775700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3083800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3019800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2617300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2433100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2880700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2664700</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3047500</v>
+        <v>2883400</v>
       </c>
       <c r="E9" s="3">
-        <v>3111300</v>
+        <v>2989400</v>
       </c>
       <c r="F9" s="3">
-        <v>2634500</v>
+        <v>3052100</v>
       </c>
       <c r="G9" s="3">
-        <v>2718900</v>
+        <v>2584400</v>
       </c>
       <c r="H9" s="3">
-        <v>2515700</v>
+        <v>2667200</v>
       </c>
       <c r="I9" s="3">
-        <v>2387500</v>
+        <v>2467800</v>
       </c>
       <c r="J9" s="3">
+        <v>2342100</v>
+      </c>
+      <c r="K9" s="3">
         <v>2214100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7461600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1989300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2048000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1875100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1963600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2204100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2334900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2205900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2202400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2303600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2451100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2256800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2084000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2201600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2193800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1923900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1831500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2033200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1915700</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1266800</v>
+        <v>518600</v>
       </c>
       <c r="E10" s="3">
-        <v>1383100</v>
+        <v>1242600</v>
       </c>
       <c r="F10" s="3">
-        <v>1117700</v>
+        <v>1356800</v>
       </c>
       <c r="G10" s="3">
-        <v>1016800</v>
+        <v>1096400</v>
       </c>
       <c r="H10" s="3">
-        <v>1156900</v>
+        <v>997500</v>
       </c>
       <c r="I10" s="3">
-        <v>1097300</v>
+        <v>1134800</v>
       </c>
       <c r="J10" s="3">
+        <v>1076400</v>
+      </c>
+      <c r="K10" s="3">
         <v>873300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3024600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>911100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>925600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>764000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>682700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1035700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1067400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>879300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>767700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1008000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1068600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>861700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>691800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>882100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>825900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>693400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>601500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>847600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>749000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1068,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1152,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,55 +1238,58 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-19600</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-16000</v>
+        <v>-19200</v>
       </c>
       <c r="F14" s="3">
-        <v>-6600</v>
+        <v>-15700</v>
       </c>
       <c r="G14" s="3">
-        <v>-8500</v>
+        <v>-6500</v>
       </c>
       <c r="H14" s="3">
-        <v>-9900</v>
+        <v>-8400</v>
       </c>
       <c r="I14" s="3">
-        <v>-14600</v>
+        <v>-9700</v>
       </c>
       <c r="J14" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K14" s="3">
         <v>-22000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>161700</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2200</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1287,8 +1303,8 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1308,8 +1324,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1410,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1441,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3811700</v>
+        <v>3545200</v>
       </c>
       <c r="E17" s="3">
-        <v>3938000</v>
+        <v>3739100</v>
       </c>
       <c r="F17" s="3">
-        <v>3424400</v>
+        <v>3863000</v>
       </c>
       <c r="G17" s="3">
-        <v>3548600</v>
+        <v>3359100</v>
       </c>
       <c r="H17" s="3">
-        <v>3233800</v>
+        <v>3481000</v>
       </c>
       <c r="I17" s="3">
-        <v>3115200</v>
+        <v>3172200</v>
       </c>
       <c r="J17" s="3">
+        <v>3055900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2857200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9693400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2570000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2631100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2481800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2746500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2871800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2999200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2856400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2846300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3002300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3178200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2887400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2677000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2790500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2770200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2467200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1263700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2592300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2418000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>502500</v>
+        <v>-143100</v>
       </c>
       <c r="E18" s="3">
-        <v>556400</v>
+        <v>492900</v>
       </c>
       <c r="F18" s="3">
-        <v>327800</v>
+        <v>545800</v>
       </c>
       <c r="G18" s="3">
-        <v>187200</v>
+        <v>321600</v>
       </c>
       <c r="H18" s="3">
-        <v>438800</v>
+        <v>183600</v>
       </c>
       <c r="I18" s="3">
-        <v>369600</v>
+        <v>430500</v>
       </c>
       <c r="J18" s="3">
+        <v>362600</v>
+      </c>
+      <c r="K18" s="3">
         <v>230200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>792800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>330400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>342500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>157300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>368000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>403100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>228800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>123800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>309200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>341500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>231100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>98700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>293300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>249600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>150100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1169400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>288400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>246700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1645,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
-        <v>2200</v>
-      </c>
       <c r="F20" s="3">
-        <v>-5400</v>
+        <v>2100</v>
       </c>
       <c r="G20" s="3">
-        <v>58900</v>
+        <v>-5300</v>
       </c>
       <c r="H20" s="3">
+        <v>57800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>17300</v>
+      </c>
+      <c r="L20" s="3">
+        <v>86400</v>
+      </c>
+      <c r="M20" s="3">
         <v>14800</v>
       </c>
-      <c r="I20" s="3">
-        <v>23600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>17300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>86400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>14800</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>26400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>13300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>142500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-15100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>20700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>19800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>8500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>11600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>38400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>4900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>887300</v>
+        <v>214400</v>
       </c>
       <c r="E21" s="3">
-        <v>941500</v>
+        <v>870400</v>
       </c>
       <c r="F21" s="3">
-        <v>697800</v>
+        <v>923600</v>
       </c>
       <c r="G21" s="3">
-        <v>594800</v>
+        <v>684500</v>
       </c>
       <c r="H21" s="3">
-        <v>777100</v>
+        <v>583500</v>
       </c>
       <c r="I21" s="3">
-        <v>709000</v>
+        <v>762300</v>
       </c>
       <c r="J21" s="3">
+        <v>695500</v>
+      </c>
+      <c r="K21" s="3">
         <v>560700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1931000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>610800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>593900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>454400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>182000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>670000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>688700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>507400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>524500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>560900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>576200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>457500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>345200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>529600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>463300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>347400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1411900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>498300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1796,243 +1832,252 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>52300</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
+        <v>51300</v>
+      </c>
+      <c r="I22" s="3">
         <v>3200</v>
       </c>
-      <c r="I22" s="3">
-        <v>8000</v>
-      </c>
       <c r="J22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K22" s="3">
         <v>9100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>47800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>11100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>7800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>8600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>501500</v>
+        <v>-150600</v>
       </c>
       <c r="E23" s="3">
-        <v>558600</v>
+        <v>491900</v>
       </c>
       <c r="F23" s="3">
-        <v>322500</v>
+        <v>548000</v>
       </c>
       <c r="G23" s="3">
-        <v>193800</v>
+        <v>316300</v>
       </c>
       <c r="H23" s="3">
-        <v>450400</v>
+        <v>190100</v>
       </c>
       <c r="I23" s="3">
-        <v>385200</v>
+        <v>441800</v>
       </c>
       <c r="J23" s="3">
+        <v>377900</v>
+      </c>
+      <c r="K23" s="3">
         <v>238400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>831400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>338600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>330700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>176700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-122900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>375100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>403900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>226300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>257200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>292600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>316500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>215800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>109200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>302600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>247000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>153100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1200000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>284800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>247900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>134300</v>
+        <v>16800</v>
       </c>
       <c r="E24" s="3">
-        <v>148500</v>
+        <v>131800</v>
       </c>
       <c r="F24" s="3">
-        <v>89000</v>
+        <v>145700</v>
       </c>
       <c r="G24" s="3">
-        <v>89800</v>
+        <v>87300</v>
       </c>
       <c r="H24" s="3">
-        <v>92300</v>
+        <v>88100</v>
       </c>
       <c r="I24" s="3">
-        <v>76700</v>
+        <v>90500</v>
       </c>
       <c r="J24" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K24" s="3">
         <v>40200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>302800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>112400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>104000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>63600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>106600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>133800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>82900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>75700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>81000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>84500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>67600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>74000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>67300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>52100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>421800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>65000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2159,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>367200</v>
+        <v>-167300</v>
       </c>
       <c r="E26" s="3">
-        <v>410100</v>
+        <v>360200</v>
       </c>
       <c r="F26" s="3">
-        <v>233400</v>
+        <v>402300</v>
       </c>
       <c r="G26" s="3">
-        <v>104000</v>
+        <v>229000</v>
       </c>
       <c r="H26" s="3">
-        <v>358100</v>
+        <v>102000</v>
       </c>
       <c r="I26" s="3">
-        <v>308600</v>
+        <v>351300</v>
       </c>
       <c r="J26" s="3">
+        <v>302700</v>
+      </c>
+      <c r="K26" s="3">
         <v>198200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>528600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>226200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>226700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>113100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-152900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>268500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>270000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>143400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>181400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>211500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>231900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>148100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>100900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>228600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>179700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>101000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>778200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>219800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>181500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>366900</v>
+        <v>-163600</v>
       </c>
       <c r="E27" s="3">
-        <v>408200</v>
+        <v>360000</v>
       </c>
       <c r="F27" s="3">
-        <v>230900</v>
+        <v>400400</v>
       </c>
       <c r="G27" s="3">
-        <v>103200</v>
+        <v>226500</v>
       </c>
       <c r="H27" s="3">
-        <v>353300</v>
+        <v>101200</v>
       </c>
       <c r="I27" s="3">
-        <v>307500</v>
+        <v>346600</v>
       </c>
       <c r="J27" s="3">
+        <v>301700</v>
+      </c>
+      <c r="K27" s="3">
         <v>198000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>531500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>226100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>226200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>112500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-146500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>268500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>269700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>142800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>179900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>211500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>231100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>147200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>101200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>226800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>178400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>99000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>780600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>216600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2417,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2410,8 +2467,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2425,14 +2482,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-31800</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2446,8 +2503,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2589,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2675,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2200</v>
-      </c>
       <c r="F32" s="3">
-        <v>5400</v>
+        <v>-2100</v>
       </c>
       <c r="G32" s="3">
-        <v>-58900</v>
+        <v>5300</v>
       </c>
       <c r="H32" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="M32" s="3">
         <v>-14800</v>
       </c>
-      <c r="I32" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-17300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-86400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-26400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-142500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>15100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-20700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-19800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-11600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-38400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-4900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>366900</v>
+        <v>-163600</v>
       </c>
       <c r="E33" s="3">
-        <v>408200</v>
+        <v>360000</v>
       </c>
       <c r="F33" s="3">
-        <v>230900</v>
+        <v>400400</v>
       </c>
       <c r="G33" s="3">
-        <v>103200</v>
+        <v>226500</v>
       </c>
       <c r="H33" s="3">
-        <v>353300</v>
+        <v>101200</v>
       </c>
       <c r="I33" s="3">
-        <v>307500</v>
+        <v>346600</v>
       </c>
       <c r="J33" s="3">
+        <v>301700</v>
+      </c>
+      <c r="K33" s="3">
         <v>198000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>531500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>226100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>226200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>112500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-146500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>268500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>269700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>142800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>179900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>211500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>231100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>147200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>101200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>195100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>178400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>99000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>780600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>216600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2933,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>366900</v>
+        <v>-163600</v>
       </c>
       <c r="E35" s="3">
-        <v>408200</v>
+        <v>360000</v>
       </c>
       <c r="F35" s="3">
-        <v>230900</v>
+        <v>400400</v>
       </c>
       <c r="G35" s="3">
-        <v>103200</v>
+        <v>226500</v>
       </c>
       <c r="H35" s="3">
-        <v>353300</v>
+        <v>101200</v>
       </c>
       <c r="I35" s="3">
-        <v>307500</v>
+        <v>346600</v>
       </c>
       <c r="J35" s="3">
+        <v>301700</v>
+      </c>
+      <c r="K35" s="3">
         <v>198000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>531500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>226100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>226200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>112500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-146500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>268500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>269700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>142800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>179900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>211500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>231100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>147200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>101200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>195100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>178400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>99000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>780600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>216600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3144,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,755 +3176,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3493000</v>
+        <v>3649600</v>
       </c>
       <c r="E41" s="3">
-        <v>3364500</v>
+        <v>3426400</v>
       </c>
       <c r="F41" s="3">
-        <v>3143200</v>
+        <v>3300400</v>
       </c>
       <c r="G41" s="3">
-        <v>3229100</v>
+        <v>3083300</v>
       </c>
       <c r="H41" s="3">
-        <v>2997500</v>
+        <v>3167600</v>
       </c>
       <c r="I41" s="3">
-        <v>2633900</v>
+        <v>2940400</v>
       </c>
       <c r="J41" s="3">
+        <v>2583700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2709900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2696900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2809300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2668600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2773500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2931200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3219900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2944200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2402600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2779000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2770800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2332800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2285000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2527800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2525900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2446500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2758400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2930500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2607000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2525500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>327800</v>
+        <v>376000</v>
       </c>
       <c r="E42" s="3">
-        <v>260600</v>
+        <v>321600</v>
       </c>
       <c r="F42" s="3">
-        <v>157000</v>
+        <v>255600</v>
       </c>
       <c r="G42" s="3">
-        <v>492000</v>
+        <v>154000</v>
       </c>
       <c r="H42" s="3">
-        <v>359400</v>
+        <v>482700</v>
       </c>
       <c r="I42" s="3">
-        <v>122900</v>
+        <v>352500</v>
       </c>
       <c r="J42" s="3">
+        <v>120600</v>
+      </c>
+      <c r="K42" s="3">
         <v>248600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1002800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>392300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>310500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>298000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>286800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>217600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>90000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>317000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>389800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>292900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>275700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>279700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>394700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>342100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>714600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>731400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>497900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>157800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>175500</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4170200</v>
+        <v>3970400</v>
       </c>
       <c r="E43" s="3">
-        <v>4629100</v>
+        <v>4090700</v>
       </c>
       <c r="F43" s="3">
-        <v>4390700</v>
+        <v>4540900</v>
       </c>
       <c r="G43" s="3">
-        <v>4081900</v>
+        <v>4307100</v>
       </c>
       <c r="H43" s="3">
-        <v>3718500</v>
+        <v>4004200</v>
       </c>
       <c r="I43" s="3">
-        <v>3669200</v>
+        <v>3647700</v>
       </c>
       <c r="J43" s="3">
+        <v>3599300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3341300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6364400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2897600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2955900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2713500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2732400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3319800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3421500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3028500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2961400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3200000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3658300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3144100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2748300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3100600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3055200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2624700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2261000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2509700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2325300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3518400</v>
+        <v>3194000</v>
       </c>
       <c r="E44" s="3">
-        <v>3822400</v>
+        <v>3451400</v>
       </c>
       <c r="F44" s="3">
-        <v>3923300</v>
+        <v>3749600</v>
       </c>
       <c r="G44" s="3">
-        <v>3212000</v>
+        <v>3848500</v>
       </c>
       <c r="H44" s="3">
-        <v>3029100</v>
+        <v>3150800</v>
       </c>
       <c r="I44" s="3">
-        <v>2586800</v>
+        <v>2971400</v>
       </c>
       <c r="J44" s="3">
+        <v>2537600</v>
+      </c>
+      <c r="K44" s="3">
         <v>2456800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4092300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1877500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1918000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2198000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2083200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2224300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2033500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2145400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2180400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2257400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2141000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2071700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1876100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1910700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1803700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1689800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1370400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1319200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1353300</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>420900</v>
+        <v>398700</v>
       </c>
       <c r="E45" s="3">
-        <v>665700</v>
+        <v>412900</v>
       </c>
       <c r="F45" s="3">
-        <v>721300</v>
+        <v>653000</v>
       </c>
       <c r="G45" s="3">
-        <v>253700</v>
+        <v>707600</v>
       </c>
       <c r="H45" s="3">
-        <v>577500</v>
+        <v>248900</v>
       </c>
       <c r="I45" s="3">
-        <v>685600</v>
+        <v>566500</v>
       </c>
       <c r="J45" s="3">
+        <v>672600</v>
+      </c>
+      <c r="K45" s="3">
         <v>774900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>618200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>387000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>392800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>477500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>481200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>608600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>538000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>561800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>554500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>637800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>592600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>661500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>588500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>731100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>673600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>810400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>622800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2047000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11930300</v>
+        <v>11588700</v>
       </c>
       <c r="E46" s="3">
-        <v>12742300</v>
+        <v>11703000</v>
       </c>
       <c r="F46" s="3">
-        <v>12335500</v>
+        <v>12499600</v>
       </c>
       <c r="G46" s="3">
-        <v>11268800</v>
+        <v>12100500</v>
       </c>
       <c r="H46" s="3">
-        <v>10682000</v>
+        <v>11054200</v>
       </c>
       <c r="I46" s="3">
-        <v>9698400</v>
+        <v>10478500</v>
       </c>
       <c r="J46" s="3">
+        <v>9513700</v>
+      </c>
+      <c r="K46" s="3">
         <v>9531500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8726900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8363700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8245700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8460600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8514700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9590300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9027200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8455400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8865100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9158900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9000400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8442000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8135400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8610400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8693700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8614700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7682600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8640700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>6876600</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1231500</v>
+        <v>1288100</v>
       </c>
       <c r="E47" s="3">
-        <v>1274200</v>
+        <v>1208000</v>
       </c>
       <c r="F47" s="3">
-        <v>1160500</v>
+        <v>1249900</v>
       </c>
       <c r="G47" s="3">
-        <v>1030600</v>
+        <v>1138400</v>
       </c>
       <c r="H47" s="3">
-        <v>414800</v>
+        <v>1011000</v>
       </c>
       <c r="I47" s="3">
-        <v>372600</v>
+        <v>406900</v>
       </c>
       <c r="J47" s="3">
+        <v>365500</v>
+      </c>
+      <c r="K47" s="3">
         <v>328400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>725400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>246100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>258900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>280700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>292700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>306300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>300800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1386200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1492500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1498700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1515200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1447400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1403400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1460000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1353700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1385500</v>
       </c>
-      <c r="AA47" s="3" t="s">
+      <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>317100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7456800</v>
+        <v>7101600</v>
       </c>
       <c r="E48" s="3">
-        <v>7966400</v>
+        <v>7314700</v>
       </c>
       <c r="F48" s="3">
-        <v>7758000</v>
+        <v>7814700</v>
       </c>
       <c r="G48" s="3">
-        <v>7314800</v>
+        <v>7610200</v>
       </c>
       <c r="H48" s="3">
-        <v>6943300</v>
+        <v>7175500</v>
       </c>
       <c r="I48" s="3">
-        <v>6591000</v>
+        <v>6811000</v>
       </c>
       <c r="J48" s="3">
+        <v>6465500</v>
+      </c>
+      <c r="K48" s="3">
         <v>6398100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11690500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5506000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5468100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5706900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5729700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6098700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5928500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5902900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5795900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5496300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5384500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5208000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4932600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4870000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4685800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4547500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4121600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4223600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4500600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1551800</v>
+        <v>1519600</v>
       </c>
       <c r="E49" s="3">
-        <v>1675000</v>
+        <v>1522300</v>
       </c>
       <c r="F49" s="3">
-        <v>1630600</v>
+        <v>1643100</v>
       </c>
       <c r="G49" s="3">
-        <v>1516900</v>
+        <v>1599500</v>
       </c>
       <c r="H49" s="3">
-        <v>1759400</v>
+        <v>1488000</v>
       </c>
       <c r="I49" s="3">
-        <v>1736500</v>
+        <v>1725900</v>
       </c>
       <c r="J49" s="3">
+        <v>1703400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1737700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3101200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1674600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1824200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2020000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2120500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2234000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2239800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2262400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2436000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2398100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2378400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2277900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2200200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2272200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2276900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2205800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1001000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1092000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>933100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4034,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4120,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1156000</v>
+        <v>1192000</v>
       </c>
       <c r="E52" s="3">
-        <v>1253400</v>
+        <v>1134000</v>
       </c>
       <c r="F52" s="3">
-        <v>1280000</v>
+        <v>1229500</v>
       </c>
       <c r="G52" s="3">
-        <v>1225000</v>
+        <v>1255600</v>
       </c>
       <c r="H52" s="3">
-        <v>872200</v>
+        <v>1201700</v>
       </c>
       <c r="I52" s="3">
-        <v>695500</v>
+        <v>855600</v>
       </c>
       <c r="J52" s="3">
+        <v>682200</v>
+      </c>
+      <c r="K52" s="3">
         <v>439500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>476600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>397000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>418900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>461900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>463500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>458700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>449000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>472400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>558300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>538400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>564400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>528400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>551500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>539100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>565900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>539800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1957400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>599700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4292,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23326400</v>
+        <v>22690100</v>
       </c>
       <c r="E54" s="3">
-        <v>24911400</v>
+        <v>22882100</v>
       </c>
       <c r="F54" s="3">
-        <v>24164500</v>
+        <v>24436900</v>
       </c>
       <c r="G54" s="3">
-        <v>22356100</v>
+        <v>23704200</v>
       </c>
       <c r="H54" s="3">
-        <v>20671700</v>
+        <v>21930300</v>
       </c>
       <c r="I54" s="3">
-        <v>19093900</v>
+        <v>20278000</v>
       </c>
       <c r="J54" s="3">
+        <v>18730200</v>
+      </c>
+      <c r="K54" s="3">
         <v>18435100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16730000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16187300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16215800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16930100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17121200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18687900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17945300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18479200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>19147700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>19090400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18842900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17903800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17223100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>17751700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>17575900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>17293200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>14762600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>14873100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>13158900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4412,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4444,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2842700</v>
+        <v>2533900</v>
       </c>
       <c r="E57" s="3">
-        <v>3358500</v>
+        <v>2788600</v>
       </c>
       <c r="F57" s="3">
-        <v>3898800</v>
+        <v>3294500</v>
       </c>
       <c r="G57" s="3">
-        <v>3382000</v>
+        <v>3824500</v>
       </c>
       <c r="H57" s="3">
-        <v>2920600</v>
+        <v>3317600</v>
       </c>
       <c r="I57" s="3">
-        <v>2767500</v>
+        <v>2864900</v>
       </c>
       <c r="J57" s="3">
+        <v>2714800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2765500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4599600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1983700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1854600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1794400</v>
       </c>
-      <c r="O57" s="3" t="s">
+      <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2111100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1902500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1774100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1824900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1935100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2006800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2067400</v>
       </c>
-      <c r="W57" s="3" t="s">
+      <c r="X57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2138200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2066200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1807900</v>
       </c>
-      <c r="AA57" s="3" t="s">
+      <c r="AB57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1648400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1383400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1900600</v>
+        <v>1866000</v>
       </c>
       <c r="E58" s="3">
-        <v>1813700</v>
+        <v>1864400</v>
       </c>
       <c r="F58" s="3">
-        <v>1467100</v>
+        <v>1779100</v>
       </c>
       <c r="G58" s="3">
-        <v>1362400</v>
+        <v>1439200</v>
       </c>
       <c r="H58" s="3">
-        <v>1508600</v>
+        <v>1336400</v>
       </c>
       <c r="I58" s="3">
-        <v>2115600</v>
+        <v>1479900</v>
       </c>
       <c r="J58" s="3">
+        <v>2075300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2567300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4712700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2542600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2230700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2311200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2507600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2888400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2517300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3350200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3004000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2978100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2652200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2038100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1709800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1551100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1679200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2316800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1066100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1614500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2222200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2913800</v>
+        <v>2841200</v>
       </c>
       <c r="E59" s="3">
-        <v>3280900</v>
+        <v>2858300</v>
       </c>
       <c r="F59" s="3">
-        <v>3080900</v>
+        <v>3218400</v>
       </c>
       <c r="G59" s="3">
-        <v>3064000</v>
+        <v>3022200</v>
       </c>
       <c r="H59" s="3">
-        <v>2718300</v>
+        <v>3005600</v>
       </c>
       <c r="I59" s="3">
-        <v>2623200</v>
+        <v>2666500</v>
       </c>
       <c r="J59" s="3">
+        <v>2573200</v>
+      </c>
+      <c r="K59" s="3">
         <v>2675800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5149800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2103900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1975300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1965400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3826000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2102600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1960800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1905900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2035800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2254600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2165900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1835800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3741600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1669900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1728700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1794900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3170100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1663200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1357600</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7657100</v>
+        <v>7241100</v>
       </c>
       <c r="E60" s="3">
-        <v>8453000</v>
+        <v>7511200</v>
       </c>
       <c r="F60" s="3">
-        <v>8446800</v>
+        <v>8292000</v>
       </c>
       <c r="G60" s="3">
-        <v>7808300</v>
+        <v>8285900</v>
       </c>
       <c r="H60" s="3">
-        <v>7147400</v>
+        <v>7659600</v>
       </c>
       <c r="I60" s="3">
-        <v>7506400</v>
+        <v>7011300</v>
       </c>
       <c r="J60" s="3">
+        <v>7363400</v>
+      </c>
+      <c r="K60" s="3">
         <v>8008500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7290800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6630200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6060600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6070900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6333600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7102100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6380600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7030200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6864600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7167700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6824900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5941300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5451500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5359300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5474200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5919500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4236300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4926200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4963300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3582800</v>
+        <v>3557100</v>
       </c>
       <c r="E61" s="3">
-        <v>3635000</v>
+        <v>3514600</v>
       </c>
       <c r="F61" s="3">
-        <v>3655500</v>
+        <v>3565800</v>
       </c>
       <c r="G61" s="3">
-        <v>3634300</v>
+        <v>3585900</v>
       </c>
       <c r="H61" s="3">
-        <v>3164600</v>
+        <v>3565000</v>
       </c>
       <c r="I61" s="3">
-        <v>1881100</v>
+        <v>3104300</v>
       </c>
       <c r="J61" s="3">
+        <v>1845300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1142000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1313000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1138100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1475700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1620900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1233900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1279800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1693400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1689700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1995800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2044700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2160800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2705700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2656700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2905000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2974300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2470000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1897600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2078800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1355200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1335800</v>
+        <v>1344700</v>
       </c>
       <c r="E62" s="3">
-        <v>1419100</v>
+        <v>1310400</v>
       </c>
       <c r="F62" s="3">
-        <v>1386700</v>
+        <v>1392100</v>
       </c>
       <c r="G62" s="3">
-        <v>1331000</v>
+        <v>1360300</v>
       </c>
       <c r="H62" s="3">
-        <v>1721000</v>
+        <v>1305600</v>
       </c>
       <c r="I62" s="3">
-        <v>1700100</v>
+        <v>1688200</v>
       </c>
       <c r="J62" s="3">
+        <v>1667800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1666800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2347100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1797900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1854000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2015600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2077800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1996700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1953500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1952600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1794400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1669300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1673200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1604900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1600600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1619600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1597900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1582700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1514000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1409500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1440600</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5044,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5130,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5216,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12611900</v>
+        <v>12174700</v>
       </c>
       <c r="E66" s="3">
-        <v>13536300</v>
+        <v>12371700</v>
       </c>
       <c r="F66" s="3">
-        <v>13517600</v>
+        <v>13278500</v>
       </c>
       <c r="G66" s="3">
-        <v>12798800</v>
+        <v>13260100</v>
       </c>
       <c r="H66" s="3">
-        <v>12056900</v>
+        <v>12555000</v>
       </c>
       <c r="I66" s="3">
-        <v>11107500</v>
+        <v>11827200</v>
       </c>
       <c r="J66" s="3">
+        <v>10895900</v>
+      </c>
+      <c r="K66" s="3">
         <v>10837000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9931200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9587600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9417800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9746000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9685900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10427800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10076200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10728900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10717000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10940400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10717600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10314600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9768400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9946100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10106300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10050400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7723300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>8487700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>7822400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5336,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5420,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5506,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5592,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5678,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7957900</v>
+        <v>7604700</v>
       </c>
       <c r="E72" s="3">
-        <v>7737300</v>
+        <v>7806400</v>
       </c>
       <c r="F72" s="3">
-        <v>7302800</v>
+        <v>7589900</v>
       </c>
       <c r="G72" s="3">
-        <v>7164500</v>
+        <v>7163700</v>
       </c>
       <c r="H72" s="3">
-        <v>8552500</v>
+        <v>7028100</v>
       </c>
       <c r="I72" s="3">
-        <v>8285500</v>
+        <v>8389500</v>
       </c>
       <c r="J72" s="3">
+        <v>8127700</v>
+      </c>
+      <c r="K72" s="3">
         <v>7980000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13312500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7800000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8137900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8685500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8954400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9410900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9327100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9027800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9418600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9075300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8816700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8400800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8316200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8215000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8088300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7909900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7731200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>6951300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>6801800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5850,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5936,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6022,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10714500</v>
+        <v>10515400</v>
       </c>
       <c r="E76" s="3">
-        <v>11375100</v>
+        <v>10510400</v>
       </c>
       <c r="F76" s="3">
-        <v>10646900</v>
+        <v>11158400</v>
       </c>
       <c r="G76" s="3">
-        <v>9557300</v>
+        <v>10444100</v>
       </c>
       <c r="H76" s="3">
-        <v>8614900</v>
+        <v>9375300</v>
       </c>
       <c r="I76" s="3">
-        <v>7986500</v>
+        <v>8450800</v>
       </c>
       <c r="J76" s="3">
+        <v>7834300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7598100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6798800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6599700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6798000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7184100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7435300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8260200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7869100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7750300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8430800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8150000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8125300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7589200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7454700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7805600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7469600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7242800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7039400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6385400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>5336600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6194,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>366900</v>
+        <v>-163600</v>
       </c>
       <c r="E81" s="3">
-        <v>408200</v>
+        <v>360000</v>
       </c>
       <c r="F81" s="3">
-        <v>230900</v>
+        <v>400400</v>
       </c>
       <c r="G81" s="3">
-        <v>103200</v>
+        <v>226500</v>
       </c>
       <c r="H81" s="3">
-        <v>353300</v>
+        <v>101200</v>
       </c>
       <c r="I81" s="3">
-        <v>307500</v>
+        <v>346600</v>
       </c>
       <c r="J81" s="3">
+        <v>301700</v>
+      </c>
+      <c r="K81" s="3">
         <v>198000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>531500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>226100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>226200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>112500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-146500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>268500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>269700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>142800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>179900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>211500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>231100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>147200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>101200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>195100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>178400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>99000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>780600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>216600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6405,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>385900</v>
+        <v>365000</v>
       </c>
       <c r="E83" s="3">
-        <v>382900</v>
+        <v>378500</v>
       </c>
       <c r="F83" s="3">
-        <v>375300</v>
+        <v>375600</v>
       </c>
       <c r="G83" s="3">
-        <v>348700</v>
+        <v>368200</v>
       </c>
       <c r="H83" s="3">
-        <v>323500</v>
+        <v>342100</v>
       </c>
       <c r="I83" s="3">
-        <v>315800</v>
+        <v>317300</v>
       </c>
       <c r="J83" s="3">
+        <v>309700</v>
+      </c>
+      <c r="K83" s="3">
         <v>313200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1051800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>265600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>257000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>270700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>296200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>288600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>276700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>270900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>258100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>258600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>249900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>231500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>225800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>216500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>205200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>185800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>204100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>205000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6575,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6661,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6747,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6833,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6919,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>947900</v>
+        <v>566300</v>
       </c>
       <c r="E89" s="3">
-        <v>465700</v>
+        <v>929800</v>
       </c>
       <c r="F89" s="3">
-        <v>-59500</v>
+        <v>456800</v>
       </c>
       <c r="G89" s="3">
-        <v>694300</v>
+        <v>-58400</v>
       </c>
       <c r="H89" s="3">
-        <v>524900</v>
+        <v>681100</v>
       </c>
       <c r="I89" s="3">
-        <v>67600</v>
+        <v>514900</v>
       </c>
       <c r="J89" s="3">
+        <v>66400</v>
+      </c>
+      <c r="K89" s="3">
         <v>28700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1636800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>657800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>493400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>83600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>642000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>816700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>478500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>71500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>479600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>780600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>408400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-329800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>545400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>378100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>79500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-177600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>545700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>390400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>406900</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7039,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-486400</v>
+        <v>-55378000</v>
       </c>
       <c r="E91" s="3">
-        <v>-621100</v>
+        <v>-66175000</v>
       </c>
       <c r="F91" s="3">
-        <v>-511900</v>
+        <v>-84505000</v>
       </c>
       <c r="G91" s="3">
-        <v>-591900</v>
+        <v>-69651000</v>
       </c>
       <c r="H91" s="3">
-        <v>-564600</v>
+        <v>-80535000</v>
       </c>
       <c r="I91" s="3">
-        <v>-534900</v>
+        <v>-76815000</v>
       </c>
       <c r="J91" s="3">
+        <v>-72782000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-449900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1504500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-420000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-395400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-395500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-383700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-355500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-367200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-466200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-541600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-379600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-322700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-384400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-412700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-436500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-377400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-388000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-293800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-413900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-304700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7209,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7295,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-480400</v>
+        <v>-410400</v>
       </c>
       <c r="E94" s="3">
-        <v>-609200</v>
+        <v>-471200</v>
       </c>
       <c r="F94" s="3">
-        <v>-214900</v>
+        <v>-597600</v>
       </c>
       <c r="G94" s="3">
-        <v>-611700</v>
+        <v>-210800</v>
       </c>
       <c r="H94" s="3">
-        <v>-825400</v>
+        <v>-600000</v>
       </c>
       <c r="I94" s="3">
-        <v>-423000</v>
+        <v>-809700</v>
       </c>
       <c r="J94" s="3">
+        <v>-414900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-209300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1640800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-487100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-438900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-359100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-470400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-484300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1010900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-415900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-426400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-384800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-293100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-213600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-383600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-44100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-203600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1593400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>591900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-446200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-348600</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7415,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-147900</v>
+        <v>-200</v>
       </c>
       <c r="E96" s="3">
+        <v>-145100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1500</v>
       </c>
-      <c r="F96" s="3">
-        <v>-123700</v>
-      </c>
       <c r="G96" s="3">
+        <v>-121400</v>
+      </c>
+      <c r="H96" s="3">
         <v>-200</v>
       </c>
-      <c r="H96" s="3">
-        <v>-92600</v>
-      </c>
       <c r="I96" s="3">
+        <v>-90800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-82700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-161200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-83200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-95600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-96100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-8600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-91300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-95200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-79200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-68300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-67100</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-200</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-67000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7585,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7671,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7757,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-54500</v>
+        <v>-42100</v>
       </c>
       <c r="E100" s="3">
-        <v>283500</v>
+        <v>-53500</v>
       </c>
       <c r="F100" s="3">
-        <v>-76200</v>
+        <v>278100</v>
       </c>
       <c r="G100" s="3">
-        <v>-95900</v>
+        <v>-74700</v>
       </c>
       <c r="H100" s="3">
-        <v>581400</v>
+        <v>-94100</v>
       </c>
       <c r="I100" s="3">
-        <v>278300</v>
+        <v>570300</v>
       </c>
       <c r="J100" s="3">
+        <v>273000</v>
+      </c>
+      <c r="K100" s="3">
         <v>72200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>207000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>108500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>72200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>222800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-285400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-112400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-915900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>207300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-113000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>61100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-104900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>236500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-26100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-274500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-226100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1521900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-716900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-170900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>221900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-284600</v>
+        <v>109400</v>
       </c>
       <c r="E101" s="3">
+        <v>-279100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>79900</v>
+      </c>
+      <c r="G101" s="3">
+        <v>259500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>190000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>96300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K101" s="3">
+        <v>42500</v>
+      </c>
+      <c r="L101" s="3">
+        <v>192500</v>
+      </c>
+      <c r="M101" s="3">
+        <v>18900</v>
+      </c>
+      <c r="N101" s="3">
+        <v>9000</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-68800</v>
+      </c>
+      <c r="Q101" s="3">
         <v>81400</v>
       </c>
-      <c r="F101" s="3">
-        <v>264600</v>
-      </c>
-      <c r="G101" s="3">
-        <v>193700</v>
-      </c>
-      <c r="H101" s="3">
-        <v>98100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>16700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>42500</v>
-      </c>
-      <c r="K101" s="3">
-        <v>192500</v>
-      </c>
-      <c r="L101" s="3">
-        <v>18900</v>
-      </c>
-      <c r="M101" s="3">
-        <v>9000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-68800</v>
-      </c>
-      <c r="P101" s="3">
-        <v>81400</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-39800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-109000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>18200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-56500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-12900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>50100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-133700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>19900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>38300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>20800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-97200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>308200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>128500</v>
+        <v>223200</v>
       </c>
       <c r="E102" s="3">
-        <v>221300</v>
+        <v>126000</v>
       </c>
       <c r="F102" s="3">
-        <v>-86000</v>
+        <v>217100</v>
       </c>
       <c r="G102" s="3">
-        <v>231700</v>
+        <v>-84300</v>
       </c>
       <c r="H102" s="3">
-        <v>363600</v>
+        <v>227200</v>
       </c>
       <c r="I102" s="3">
-        <v>-76100</v>
+        <v>356700</v>
       </c>
       <c r="J102" s="3">
+        <v>-74600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-85900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>338000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>298200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>135700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-64500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-182700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>301300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>533800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-246300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-41700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-256800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>79400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-311900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-228300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>323600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>81500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>233900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,380 +665,392 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3402100</v>
+        <v>3458400</v>
       </c>
       <c r="E8" s="3">
-        <v>4232100</v>
+        <v>3241600</v>
       </c>
       <c r="F8" s="3">
-        <v>4408800</v>
+        <v>4032500</v>
       </c>
       <c r="G8" s="3">
-        <v>3680700</v>
+        <v>4200900</v>
       </c>
       <c r="H8" s="3">
-        <v>3664600</v>
+        <v>3507200</v>
       </c>
       <c r="I8" s="3">
-        <v>3602600</v>
+        <v>3491800</v>
       </c>
       <c r="J8" s="3">
+        <v>3432700</v>
+      </c>
+      <c r="K8" s="3">
         <v>3418500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3087400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10486200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2900400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2973600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2639100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2646300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3239800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3402300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3085200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2970100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3311600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3519700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3118500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2775700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3083800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3019800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2617300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2433100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2880700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2664700</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2883400</v>
+        <v>2585800</v>
       </c>
       <c r="E9" s="3">
-        <v>2989400</v>
+        <v>2747500</v>
       </c>
       <c r="F9" s="3">
-        <v>3052100</v>
+        <v>2848500</v>
       </c>
       <c r="G9" s="3">
-        <v>2584400</v>
+        <v>2908100</v>
       </c>
       <c r="H9" s="3">
-        <v>2667200</v>
+        <v>2462500</v>
       </c>
       <c r="I9" s="3">
-        <v>2467800</v>
+        <v>2541400</v>
       </c>
       <c r="J9" s="3">
+        <v>2351400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2342100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2214100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7461600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1989300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2048000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1875100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1963600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2204100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2334900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2205900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2202400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2303600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2451100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2256800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2084000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2201600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2193800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1923900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1831500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2033200</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1915700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>518600</v>
+        <v>872500</v>
       </c>
       <c r="E10" s="3">
-        <v>1242600</v>
+        <v>494200</v>
       </c>
       <c r="F10" s="3">
-        <v>1356800</v>
+        <v>1184000</v>
       </c>
       <c r="G10" s="3">
-        <v>1096400</v>
+        <v>1292800</v>
       </c>
       <c r="H10" s="3">
-        <v>997500</v>
+        <v>1044700</v>
       </c>
       <c r="I10" s="3">
-        <v>1134800</v>
+        <v>950400</v>
       </c>
       <c r="J10" s="3">
+        <v>1081300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1076400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>873300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3024600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>911100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>925600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>764000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>682700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1035700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1067400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>879300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>767700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1008000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1068600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>861700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>691800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>882100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>825900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>693400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>601500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>847600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>749000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,8 +1081,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1155,8 +1168,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,58 +1257,61 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-1600</v>
       </c>
       <c r="E14" s="3">
-        <v>-19200</v>
+        <v>-8500</v>
       </c>
       <c r="F14" s="3">
-        <v>-15700</v>
+        <v>-1800</v>
       </c>
       <c r="G14" s="3">
-        <v>-6500</v>
+        <v>-1500</v>
       </c>
       <c r="H14" s="3">
-        <v>-8400</v>
+        <v>-600</v>
       </c>
       <c r="I14" s="3">
-        <v>-9700</v>
+        <v>-8000</v>
       </c>
       <c r="J14" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-14300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-22000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>161700</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2200</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1306,8 +1325,8 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1327,8 +1346,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1413,8 +1435,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1442,180 +1467,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3545200</v>
+        <v>3277700</v>
       </c>
       <c r="E17" s="3">
-        <v>3739100</v>
+        <v>3378000</v>
       </c>
       <c r="F17" s="3">
-        <v>3863000</v>
+        <v>3562800</v>
       </c>
       <c r="G17" s="3">
-        <v>3359100</v>
+        <v>3680800</v>
       </c>
       <c r="H17" s="3">
-        <v>3481000</v>
+        <v>3200700</v>
       </c>
       <c r="I17" s="3">
-        <v>3172200</v>
+        <v>3316900</v>
       </c>
       <c r="J17" s="3">
+        <v>3022600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3055900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2857200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9693400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2570000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2631100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2481800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2746500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2871800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2999200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2856400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2846300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3002300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3178200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2887400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2677000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2790500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2770200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2467200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1263700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2592300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2418000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-143100</v>
+        <v>180700</v>
       </c>
       <c r="E18" s="3">
-        <v>492900</v>
+        <v>-136400</v>
       </c>
       <c r="F18" s="3">
-        <v>545800</v>
+        <v>469700</v>
       </c>
       <c r="G18" s="3">
-        <v>321600</v>
+        <v>520100</v>
       </c>
       <c r="H18" s="3">
-        <v>183600</v>
+        <v>306400</v>
       </c>
       <c r="I18" s="3">
-        <v>430500</v>
+        <v>174900</v>
       </c>
       <c r="J18" s="3">
+        <v>410200</v>
+      </c>
+      <c r="K18" s="3">
         <v>362600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>230200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>792800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>330400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>342500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>157300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>368000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>403100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>228800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>123800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>309200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>341500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>231100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>98700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>293300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>249600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>150100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1169400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>288400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>246700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1646,180 +1678,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7400</v>
+        <v>-36300</v>
       </c>
       <c r="E20" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
-        <v>2100</v>
-      </c>
       <c r="G20" s="3">
-        <v>-5300</v>
+        <v>2000</v>
       </c>
       <c r="H20" s="3">
-        <v>57800</v>
+        <v>-5000</v>
       </c>
       <c r="I20" s="3">
-        <v>14500</v>
+        <v>55100</v>
       </c>
       <c r="J20" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K20" s="3">
         <v>23100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>17300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>86400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>26400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>13300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>142500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-15100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>20700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>19800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>8500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>11600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>38400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>4900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>214400</v>
+        <v>470300</v>
       </c>
       <c r="E21" s="3">
-        <v>870400</v>
+        <v>204300</v>
       </c>
       <c r="F21" s="3">
-        <v>923600</v>
+        <v>829400</v>
       </c>
       <c r="G21" s="3">
-        <v>684500</v>
+        <v>880000</v>
       </c>
       <c r="H21" s="3">
-        <v>583500</v>
+        <v>652200</v>
       </c>
       <c r="I21" s="3">
-        <v>762300</v>
+        <v>556000</v>
       </c>
       <c r="J21" s="3">
+        <v>726400</v>
+      </c>
+      <c r="K21" s="3">
         <v>695500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>560700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1931000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>610800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>593900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>454400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>182000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>670000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>688700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>507400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>524500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>560900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>576200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>457500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>345200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>529600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>463300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>347400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1411900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>498300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1835,249 +1874,258 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>51300</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
-        <v>3200</v>
+        <v>48900</v>
       </c>
       <c r="J22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K22" s="3">
         <v>7800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>47800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>11100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>8600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>7800</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>8600</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-150600</v>
+        <v>144400</v>
       </c>
       <c r="E23" s="3">
-        <v>491900</v>
+        <v>-143500</v>
       </c>
       <c r="F23" s="3">
-        <v>548000</v>
+        <v>468700</v>
       </c>
       <c r="G23" s="3">
-        <v>316300</v>
+        <v>522100</v>
       </c>
       <c r="H23" s="3">
-        <v>190100</v>
+        <v>301400</v>
       </c>
       <c r="I23" s="3">
-        <v>441800</v>
+        <v>181100</v>
       </c>
       <c r="J23" s="3">
+        <v>421000</v>
+      </c>
+      <c r="K23" s="3">
         <v>377900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>238400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>831400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>338600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>330700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>176700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-122900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>375100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>403900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>226300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>257200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>292600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>316500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>215800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>109200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>302600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>247000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>153100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1200000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>284800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>247900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16800</v>
+        <v>39500</v>
       </c>
       <c r="E24" s="3">
-        <v>131800</v>
+        <v>16000</v>
       </c>
       <c r="F24" s="3">
-        <v>145700</v>
+        <v>125500</v>
       </c>
       <c r="G24" s="3">
-        <v>87300</v>
+        <v>138800</v>
       </c>
       <c r="H24" s="3">
-        <v>88100</v>
+        <v>83200</v>
       </c>
       <c r="I24" s="3">
-        <v>90500</v>
+        <v>83900</v>
       </c>
       <c r="J24" s="3">
+        <v>86200</v>
+      </c>
+      <c r="K24" s="3">
         <v>75200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>302800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>112400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>104000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>63600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>30000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>106600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>133800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>82900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>75700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>81000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>84500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>67600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>74000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>67300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>52100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>421800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>65000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2162,180 +2210,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-167300</v>
+        <v>104800</v>
       </c>
       <c r="E26" s="3">
-        <v>360200</v>
+        <v>-159400</v>
       </c>
       <c r="F26" s="3">
-        <v>402300</v>
+        <v>343200</v>
       </c>
       <c r="G26" s="3">
-        <v>229000</v>
+        <v>383300</v>
       </c>
       <c r="H26" s="3">
-        <v>102000</v>
+        <v>218200</v>
       </c>
       <c r="I26" s="3">
-        <v>351300</v>
+        <v>97200</v>
       </c>
       <c r="J26" s="3">
+        <v>334700</v>
+      </c>
+      <c r="K26" s="3">
         <v>302700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>198200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>528600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>226200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>226700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>113100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-152900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>268500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>270000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>143400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>181400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>211500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>231900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>148100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>100900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>228600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>179700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>101000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>778200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>219800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>181500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-163600</v>
+        <v>101200</v>
       </c>
       <c r="E27" s="3">
-        <v>360000</v>
+        <v>-155900</v>
       </c>
       <c r="F27" s="3">
-        <v>400400</v>
+        <v>343000</v>
       </c>
       <c r="G27" s="3">
-        <v>226500</v>
+        <v>381500</v>
       </c>
       <c r="H27" s="3">
+        <v>215800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>96400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>330200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>301700</v>
+      </c>
+      <c r="L27" s="3">
+        <v>198000</v>
+      </c>
+      <c r="M27" s="3">
+        <v>531500</v>
+      </c>
+      <c r="N27" s="3">
+        <v>226100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>226200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>112500</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-146500</v>
+      </c>
+      <c r="R27" s="3">
+        <v>268500</v>
+      </c>
+      <c r="S27" s="3">
+        <v>269700</v>
+      </c>
+      <c r="T27" s="3">
+        <v>142800</v>
+      </c>
+      <c r="U27" s="3">
+        <v>179900</v>
+      </c>
+      <c r="V27" s="3">
+        <v>211500</v>
+      </c>
+      <c r="W27" s="3">
+        <v>231100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>147200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>101200</v>
       </c>
-      <c r="I27" s="3">
-        <v>346600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>301700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>198000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>531500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>226100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>226200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>112500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-146500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>268500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>269700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>142800</v>
-      </c>
-      <c r="T27" s="3">
-        <v>179900</v>
-      </c>
-      <c r="U27" s="3">
-        <v>211500</v>
-      </c>
-      <c r="V27" s="3">
-        <v>231100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>147200</v>
-      </c>
-      <c r="X27" s="3">
-        <v>101200</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>226800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>178400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>99000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>780600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>216600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2420,8 +2477,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2470,8 +2530,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2485,14 +2545,14 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-31800</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2506,8 +2566,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2592,8 +2655,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2678,180 +2744,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7400</v>
+        <v>36300</v>
       </c>
       <c r="E32" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-2100</v>
-      </c>
       <c r="G32" s="3">
-        <v>5300</v>
+        <v>-2000</v>
       </c>
       <c r="H32" s="3">
-        <v>-57800</v>
+        <v>5000</v>
       </c>
       <c r="I32" s="3">
-        <v>-14500</v>
+        <v>-55100</v>
       </c>
       <c r="J32" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-23100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-17300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-86400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-26400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>14000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-13300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-142500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>15100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-19800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-11600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-38400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-4900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-163600</v>
+        <v>101200</v>
       </c>
       <c r="E33" s="3">
-        <v>360000</v>
+        <v>-155900</v>
       </c>
       <c r="F33" s="3">
-        <v>400400</v>
+        <v>343000</v>
       </c>
       <c r="G33" s="3">
-        <v>226500</v>
+        <v>381500</v>
       </c>
       <c r="H33" s="3">
+        <v>215800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>96400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>330200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>301700</v>
+      </c>
+      <c r="L33" s="3">
+        <v>198000</v>
+      </c>
+      <c r="M33" s="3">
+        <v>531500</v>
+      </c>
+      <c r="N33" s="3">
+        <v>226100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>226200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>112500</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-146500</v>
+      </c>
+      <c r="R33" s="3">
+        <v>268500</v>
+      </c>
+      <c r="S33" s="3">
+        <v>269700</v>
+      </c>
+      <c r="T33" s="3">
+        <v>142800</v>
+      </c>
+      <c r="U33" s="3">
+        <v>179900</v>
+      </c>
+      <c r="V33" s="3">
+        <v>211500</v>
+      </c>
+      <c r="W33" s="3">
+        <v>231100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>147200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>101200</v>
       </c>
-      <c r="I33" s="3">
-        <v>346600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>301700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>198000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>531500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>226100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>226200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>112500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-146500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>268500</v>
-      </c>
-      <c r="R33" s="3">
-        <v>269700</v>
-      </c>
-      <c r="S33" s="3">
-        <v>142800</v>
-      </c>
-      <c r="T33" s="3">
-        <v>179900</v>
-      </c>
-      <c r="U33" s="3">
-        <v>211500</v>
-      </c>
-      <c r="V33" s="3">
-        <v>231100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>147200</v>
-      </c>
-      <c r="X33" s="3">
-        <v>101200</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>195100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>178400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>99000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>780600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>216600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2936,185 +3011,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-163600</v>
+        <v>101200</v>
       </c>
       <c r="E35" s="3">
-        <v>360000</v>
+        <v>-155900</v>
       </c>
       <c r="F35" s="3">
-        <v>400400</v>
+        <v>343000</v>
       </c>
       <c r="G35" s="3">
-        <v>226500</v>
+        <v>381500</v>
       </c>
       <c r="H35" s="3">
+        <v>215800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>96400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>330200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>301700</v>
+      </c>
+      <c r="L35" s="3">
+        <v>198000</v>
+      </c>
+      <c r="M35" s="3">
+        <v>531500</v>
+      </c>
+      <c r="N35" s="3">
+        <v>226100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>226200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>112500</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-146500</v>
+      </c>
+      <c r="R35" s="3">
+        <v>268500</v>
+      </c>
+      <c r="S35" s="3">
+        <v>269700</v>
+      </c>
+      <c r="T35" s="3">
+        <v>142800</v>
+      </c>
+      <c r="U35" s="3">
+        <v>179900</v>
+      </c>
+      <c r="V35" s="3">
+        <v>211500</v>
+      </c>
+      <c r="W35" s="3">
+        <v>231100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>147200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>101200</v>
       </c>
-      <c r="I35" s="3">
-        <v>346600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>301700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>198000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>531500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>226100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>226200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>112500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-146500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>268500</v>
-      </c>
-      <c r="R35" s="3">
-        <v>269700</v>
-      </c>
-      <c r="S35" s="3">
-        <v>142800</v>
-      </c>
-      <c r="T35" s="3">
-        <v>179900</v>
-      </c>
-      <c r="U35" s="3">
-        <v>211500</v>
-      </c>
-      <c r="V35" s="3">
-        <v>231100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>147200</v>
-      </c>
-      <c r="X35" s="3">
-        <v>101200</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>195100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>178400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>99000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>780600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>216600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3145,8 +3229,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3177,782 +3262,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3649600</v>
+        <v>3821000</v>
       </c>
       <c r="E41" s="3">
-        <v>3426400</v>
+        <v>3477500</v>
       </c>
       <c r="F41" s="3">
-        <v>3300400</v>
+        <v>3264900</v>
       </c>
       <c r="G41" s="3">
-        <v>3083300</v>
+        <v>3144800</v>
       </c>
       <c r="H41" s="3">
-        <v>3167600</v>
+        <v>2937900</v>
       </c>
       <c r="I41" s="3">
-        <v>2940400</v>
+        <v>3018300</v>
       </c>
       <c r="J41" s="3">
+        <v>2801700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2583700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2709900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2696900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2809300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2668600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2773500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2931200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3219900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2944200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2402600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2779000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2770800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2332800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2285000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2527800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2525900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2446500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2758400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2930500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2607000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2525500</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>376000</v>
+        <v>307700</v>
       </c>
       <c r="E42" s="3">
-        <v>321600</v>
+        <v>358200</v>
       </c>
       <c r="F42" s="3">
-        <v>255600</v>
+        <v>306400</v>
       </c>
       <c r="G42" s="3">
-        <v>154000</v>
+        <v>243500</v>
       </c>
       <c r="H42" s="3">
-        <v>482700</v>
+        <v>146700</v>
       </c>
       <c r="I42" s="3">
-        <v>352500</v>
+        <v>459900</v>
       </c>
       <c r="J42" s="3">
+        <v>335900</v>
+      </c>
+      <c r="K42" s="3">
         <v>120600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>248600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1002800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>392300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>310500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>298000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>286800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>217600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>90000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>317000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>389800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>292900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>275700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>279700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>394700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>342100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>714600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>731400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>497900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>157800</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>175500</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3970400</v>
+        <v>3897500</v>
       </c>
       <c r="E43" s="3">
-        <v>4090700</v>
+        <v>3952800</v>
       </c>
       <c r="F43" s="3">
-        <v>4540900</v>
+        <v>3897800</v>
       </c>
       <c r="G43" s="3">
-        <v>4307100</v>
+        <v>4326800</v>
       </c>
       <c r="H43" s="3">
-        <v>4004200</v>
+        <v>4104000</v>
       </c>
       <c r="I43" s="3">
-        <v>3647700</v>
+        <v>3815400</v>
       </c>
       <c r="J43" s="3">
+        <v>3475600</v>
+      </c>
+      <c r="K43" s="3">
         <v>3599300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3341300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6364400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2897600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2955900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2713500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2732400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3319800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3421500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3028500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2961400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3200000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3658300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3144100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2748300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3100600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3055200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2624700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2261000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2509700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2325300</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3194000</v>
+        <v>3049200</v>
       </c>
       <c r="E44" s="3">
-        <v>3451400</v>
+        <v>3043400</v>
       </c>
       <c r="F44" s="3">
-        <v>3749600</v>
+        <v>3288700</v>
       </c>
       <c r="G44" s="3">
-        <v>3848500</v>
+        <v>3572800</v>
       </c>
       <c r="H44" s="3">
-        <v>3150800</v>
+        <v>3667100</v>
       </c>
       <c r="I44" s="3">
-        <v>2971400</v>
+        <v>3002200</v>
       </c>
       <c r="J44" s="3">
+        <v>2831300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2537600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2456800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4092300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1877500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1918000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2198000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2083200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2224300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2033500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2145400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2180400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2257400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2141000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2071700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1876100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1910700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1803700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1689800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1370400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1319200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1353300</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>398700</v>
+        <v>518300</v>
       </c>
       <c r="E45" s="3">
-        <v>412900</v>
+        <v>210200</v>
       </c>
       <c r="F45" s="3">
-        <v>653000</v>
+        <v>393400</v>
       </c>
       <c r="G45" s="3">
-        <v>707600</v>
+        <v>622300</v>
       </c>
       <c r="H45" s="3">
-        <v>248900</v>
+        <v>674200</v>
       </c>
       <c r="I45" s="3">
-        <v>566500</v>
+        <v>237200</v>
       </c>
       <c r="J45" s="3">
+        <v>539800</v>
+      </c>
+      <c r="K45" s="3">
         <v>672600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>774900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>618200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>387000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>392800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>477500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>481200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>608600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>538000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>561800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>554500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>637800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>592600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>661500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>588500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>731100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>673600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>810400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>622800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2047000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11588700</v>
+        <v>11593700</v>
       </c>
       <c r="E46" s="3">
-        <v>11703000</v>
+        <v>11042200</v>
       </c>
       <c r="F46" s="3">
-        <v>12499600</v>
+        <v>11151200</v>
       </c>
       <c r="G46" s="3">
-        <v>12100500</v>
+        <v>11910200</v>
       </c>
       <c r="H46" s="3">
-        <v>11054200</v>
+        <v>11529900</v>
       </c>
       <c r="I46" s="3">
-        <v>10478500</v>
+        <v>10532900</v>
       </c>
       <c r="J46" s="3">
+        <v>9984400</v>
+      </c>
+      <c r="K46" s="3">
         <v>9513700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9531500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8726900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8363700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8245700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8460600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8514700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9590300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9027200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8455400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8865100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9158900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9000400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8442000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8135400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8610400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8693700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8614700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7682600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8640700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>6876600</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1288100</v>
+        <v>1333100</v>
       </c>
       <c r="E47" s="3">
-        <v>1208000</v>
+        <v>1227400</v>
       </c>
       <c r="F47" s="3">
-        <v>1249900</v>
+        <v>1151100</v>
       </c>
       <c r="G47" s="3">
-        <v>1138400</v>
+        <v>1191000</v>
       </c>
       <c r="H47" s="3">
-        <v>1011000</v>
+        <v>1084700</v>
       </c>
       <c r="I47" s="3">
-        <v>406900</v>
+        <v>963300</v>
       </c>
       <c r="J47" s="3">
+        <v>387700</v>
+      </c>
+      <c r="K47" s="3">
         <v>365500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>328400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>725400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>246100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>258900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>280700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>292700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>306300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>300800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1386200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1492500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1498700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1515200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1447400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1403400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1460000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1353700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1385500</v>
       </c>
-      <c r="AB47" s="3" t="s">
+      <c r="AC47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>317100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7101600</v>
+        <v>7046700</v>
       </c>
       <c r="E48" s="3">
-        <v>7314700</v>
+        <v>6766800</v>
       </c>
       <c r="F48" s="3">
-        <v>7814700</v>
+        <v>6969800</v>
       </c>
       <c r="G48" s="3">
-        <v>7610200</v>
+        <v>7446200</v>
       </c>
       <c r="H48" s="3">
-        <v>7175500</v>
+        <v>7251300</v>
       </c>
       <c r="I48" s="3">
-        <v>6811000</v>
+        <v>6837100</v>
       </c>
       <c r="J48" s="3">
+        <v>6489800</v>
+      </c>
+      <c r="K48" s="3">
         <v>6465500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6398100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11690500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5506000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5468100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5706900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5729700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6098700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5928500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5902900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5795900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5496300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5384500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5208000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4932600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4870000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4685800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4547500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4121600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4223600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>4500600</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1519600</v>
+        <v>1533200</v>
       </c>
       <c r="E49" s="3">
-        <v>1522300</v>
+        <v>1447900</v>
       </c>
       <c r="F49" s="3">
-        <v>1643100</v>
+        <v>1450500</v>
       </c>
       <c r="G49" s="3">
-        <v>1599500</v>
+        <v>1565600</v>
       </c>
       <c r="H49" s="3">
-        <v>1488000</v>
+        <v>1524100</v>
       </c>
       <c r="I49" s="3">
-        <v>1725900</v>
+        <v>1417800</v>
       </c>
       <c r="J49" s="3">
+        <v>1644500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1703400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1737700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3101200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1674600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1824200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2020000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2120500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2234000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2239800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2262400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2436000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2398100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2378400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2277900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2200200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2272200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2276900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2205800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1001000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1092000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>933100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4037,8 +4150,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4123,94 +4239,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1192000</v>
+        <v>1179500</v>
       </c>
       <c r="E52" s="3">
-        <v>1134000</v>
+        <v>1135800</v>
       </c>
       <c r="F52" s="3">
-        <v>1229500</v>
+        <v>1080500</v>
       </c>
       <c r="G52" s="3">
-        <v>1255600</v>
+        <v>1171500</v>
       </c>
       <c r="H52" s="3">
-        <v>1201700</v>
+        <v>1196400</v>
       </c>
       <c r="I52" s="3">
-        <v>855600</v>
+        <v>1145000</v>
       </c>
       <c r="J52" s="3">
+        <v>815300</v>
+      </c>
+      <c r="K52" s="3">
         <v>682200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>439500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>476600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>397000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>418900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>461900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>463500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>458700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>449000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>472400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>558300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>538400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>564400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>528400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>551500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>539100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>565900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>539800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1957400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>599700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4295,94 +4417,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22690100</v>
+        <v>22686200</v>
       </c>
       <c r="E54" s="3">
-        <v>22882100</v>
+        <v>21620100</v>
       </c>
       <c r="F54" s="3">
-        <v>24436900</v>
+        <v>21803000</v>
       </c>
       <c r="G54" s="3">
-        <v>23704200</v>
+        <v>23284500</v>
       </c>
       <c r="H54" s="3">
-        <v>21930300</v>
+        <v>22586400</v>
       </c>
       <c r="I54" s="3">
-        <v>20278000</v>
+        <v>20896200</v>
       </c>
       <c r="J54" s="3">
+        <v>19321700</v>
+      </c>
+      <c r="K54" s="3">
         <v>18730200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18435100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16730000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16187300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16215800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16930100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17121200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18687900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17945300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18479200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>19147700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>19090400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18842900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17903800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>17223100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>17751700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>17575900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>17293200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>14762600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>14873100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>13158900</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4413,8 +4541,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4445,524 +4574,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2533900</v>
+        <v>2399300</v>
       </c>
       <c r="E57" s="3">
-        <v>2788600</v>
+        <v>2414400</v>
       </c>
       <c r="F57" s="3">
-        <v>3294500</v>
+        <v>2657100</v>
       </c>
       <c r="G57" s="3">
-        <v>3824500</v>
+        <v>3139100</v>
       </c>
       <c r="H57" s="3">
-        <v>3317600</v>
+        <v>3644200</v>
       </c>
       <c r="I57" s="3">
-        <v>2864900</v>
+        <v>3161100</v>
       </c>
       <c r="J57" s="3">
+        <v>2729800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2714800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2765500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4599600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1983700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1854600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1794400</v>
       </c>
-      <c r="P57" s="3" t="s">
+      <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2111100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1902500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1774100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1824900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1935100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2006800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2067400</v>
       </c>
-      <c r="X57" s="3" t="s">
+      <c r="Y57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2138200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2066200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1807900</v>
       </c>
-      <c r="AB57" s="3" t="s">
+      <c r="AC57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1648400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1383400</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1866000</v>
+        <v>2423400</v>
       </c>
       <c r="E58" s="3">
-        <v>1864400</v>
+        <v>1778000</v>
       </c>
       <c r="F58" s="3">
-        <v>1779100</v>
+        <v>1776500</v>
       </c>
       <c r="G58" s="3">
-        <v>1439200</v>
+        <v>1695200</v>
       </c>
       <c r="H58" s="3">
-        <v>1336400</v>
+        <v>1371300</v>
       </c>
       <c r="I58" s="3">
-        <v>1479900</v>
+        <v>1273400</v>
       </c>
       <c r="J58" s="3">
+        <v>1410100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2075300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2567300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4712700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2542600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2230700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2311200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2507600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2888400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2517300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3350200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3004000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2978100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2652200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2038100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1709800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1551100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1679200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2316800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1066100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1614500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>2222200</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2841200</v>
+        <v>2735400</v>
       </c>
       <c r="E59" s="3">
-        <v>2858300</v>
+        <v>2707200</v>
       </c>
       <c r="F59" s="3">
-        <v>3218400</v>
+        <v>2723500</v>
       </c>
       <c r="G59" s="3">
-        <v>3022200</v>
+        <v>3066600</v>
       </c>
       <c r="H59" s="3">
-        <v>3005600</v>
+        <v>2879700</v>
       </c>
       <c r="I59" s="3">
-        <v>2666500</v>
+        <v>2863900</v>
       </c>
       <c r="J59" s="3">
+        <v>2540700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2573200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2675800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5149800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2103900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1975300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1965400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3826000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2102600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1960800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1905900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2035800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2254600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2165900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1835800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3741600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1669900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1728700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1794900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3170100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1663200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1357600</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7241100</v>
+        <v>7558100</v>
       </c>
       <c r="E60" s="3">
-        <v>7511200</v>
+        <v>6899600</v>
       </c>
       <c r="F60" s="3">
-        <v>8292000</v>
+        <v>7157000</v>
       </c>
       <c r="G60" s="3">
-        <v>8285900</v>
+        <v>7901000</v>
       </c>
       <c r="H60" s="3">
-        <v>7659600</v>
+        <v>7895200</v>
       </c>
       <c r="I60" s="3">
-        <v>7011300</v>
+        <v>7298400</v>
       </c>
       <c r="J60" s="3">
+        <v>6680700</v>
+      </c>
+      <c r="K60" s="3">
         <v>7363400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8008500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7290800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6630200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6060600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6070900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6333600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7102100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6380600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7030200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6864600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7167700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6824900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5941300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5451500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5359300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5474200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5919500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4236300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4926200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4963300</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3557100</v>
+        <v>3071900</v>
       </c>
       <c r="E61" s="3">
-        <v>3514600</v>
+        <v>3389300</v>
       </c>
       <c r="F61" s="3">
-        <v>3565800</v>
+        <v>3348900</v>
       </c>
       <c r="G61" s="3">
-        <v>3585900</v>
+        <v>3397600</v>
       </c>
       <c r="H61" s="3">
-        <v>3565000</v>
+        <v>3416800</v>
       </c>
       <c r="I61" s="3">
-        <v>3104300</v>
+        <v>3396900</v>
       </c>
       <c r="J61" s="3">
+        <v>2957900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1845300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1142000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1313000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1138100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1475700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1620900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1233900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1279800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1693400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1689700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1995800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2044700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2160800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2705700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2656700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2905000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2974300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2470000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1897600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2078800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1355200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1344700</v>
+        <v>1386500</v>
       </c>
       <c r="E62" s="3">
-        <v>1310400</v>
+        <v>1281200</v>
       </c>
       <c r="F62" s="3">
-        <v>1392100</v>
+        <v>1248600</v>
       </c>
       <c r="G62" s="3">
-        <v>1360300</v>
+        <v>1326400</v>
       </c>
       <c r="H62" s="3">
-        <v>1305600</v>
+        <v>1296100</v>
       </c>
       <c r="I62" s="3">
-        <v>1688200</v>
+        <v>1244000</v>
       </c>
       <c r="J62" s="3">
+        <v>1608600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1667800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1666800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2347100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1797900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1854000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2015600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2077800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1996700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1953500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1952600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1794400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1669300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1673200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1604900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1600600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1619600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1597900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1582700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1514000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1409500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1440600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5047,8 +5195,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5133,8 +5284,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5219,94 +5373,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12174700</v>
+        <v>12055600</v>
       </c>
       <c r="E66" s="3">
-        <v>12371700</v>
+        <v>11600600</v>
       </c>
       <c r="F66" s="3">
-        <v>13278500</v>
+        <v>11788300</v>
       </c>
       <c r="G66" s="3">
-        <v>13260100</v>
+        <v>12652300</v>
       </c>
       <c r="H66" s="3">
-        <v>12555000</v>
+        <v>12634800</v>
       </c>
       <c r="I66" s="3">
-        <v>11827200</v>
+        <v>11963000</v>
       </c>
       <c r="J66" s="3">
+        <v>11269500</v>
+      </c>
+      <c r="K66" s="3">
         <v>10895900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10837000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9931200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9587600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9417800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9746000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9685900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10427800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10076200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10728900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10717000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10940400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10717600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10314600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9768400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9946100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10106300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10050400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7723300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>8487700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>7822400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5337,8 +5497,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5423,8 +5584,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5509,8 +5673,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5595,8 +5762,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5681,94 +5851,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7604700</v>
+        <v>7209400</v>
       </c>
       <c r="E72" s="3">
-        <v>7806400</v>
+        <v>7246100</v>
       </c>
       <c r="F72" s="3">
-        <v>7589900</v>
+        <v>7438200</v>
       </c>
       <c r="G72" s="3">
-        <v>7163700</v>
+        <v>7232000</v>
       </c>
       <c r="H72" s="3">
-        <v>7028100</v>
+        <v>6825800</v>
       </c>
       <c r="I72" s="3">
-        <v>8389500</v>
+        <v>6696600</v>
       </c>
       <c r="J72" s="3">
+        <v>7993900</v>
+      </c>
+      <c r="K72" s="3">
         <v>8127700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7980000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13312500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7800000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8137900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8685500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8954400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9410900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9327100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9027800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9418600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9075300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8816700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8400800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8316200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8215000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>8088300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7909900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>7731200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>6951300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>6801800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5853,8 +6029,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5939,8 +6118,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6025,94 +6207,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10515400</v>
+        <v>10630500</v>
       </c>
       <c r="E76" s="3">
-        <v>10510400</v>
+        <v>10019500</v>
       </c>
       <c r="F76" s="3">
-        <v>11158400</v>
+        <v>10014700</v>
       </c>
       <c r="G76" s="3">
-        <v>10444100</v>
+        <v>10632200</v>
       </c>
       <c r="H76" s="3">
-        <v>9375300</v>
+        <v>9951600</v>
       </c>
       <c r="I76" s="3">
-        <v>8450800</v>
+        <v>8933200</v>
       </c>
       <c r="J76" s="3">
+        <v>8052300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7834300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7598100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6798800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6599700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6798000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7184100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7435300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8260200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7869100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7750300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8430800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8150000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8125300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7589200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7454700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7805600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7469600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7242800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7039400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>6385400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>5336600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6197,185 +6385,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-163600</v>
+        <v>101200</v>
       </c>
       <c r="E81" s="3">
-        <v>360000</v>
+        <v>-155900</v>
       </c>
       <c r="F81" s="3">
-        <v>400400</v>
+        <v>343000</v>
       </c>
       <c r="G81" s="3">
-        <v>226500</v>
+        <v>381500</v>
       </c>
       <c r="H81" s="3">
+        <v>215800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>96400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>330200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>301700</v>
+      </c>
+      <c r="L81" s="3">
+        <v>198000</v>
+      </c>
+      <c r="M81" s="3">
+        <v>531500</v>
+      </c>
+      <c r="N81" s="3">
+        <v>226100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>226200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>112500</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-146500</v>
+      </c>
+      <c r="R81" s="3">
+        <v>268500</v>
+      </c>
+      <c r="S81" s="3">
+        <v>269700</v>
+      </c>
+      <c r="T81" s="3">
+        <v>142800</v>
+      </c>
+      <c r="U81" s="3">
+        <v>179900</v>
+      </c>
+      <c r="V81" s="3">
+        <v>211500</v>
+      </c>
+      <c r="W81" s="3">
+        <v>231100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>147200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>101200</v>
       </c>
-      <c r="I81" s="3">
-        <v>346600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>301700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>198000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>531500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>226100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>226200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>112500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-146500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>268500</v>
-      </c>
-      <c r="R81" s="3">
-        <v>269700</v>
-      </c>
-      <c r="S81" s="3">
-        <v>142800</v>
-      </c>
-      <c r="T81" s="3">
-        <v>179900</v>
-      </c>
-      <c r="U81" s="3">
-        <v>211500</v>
-      </c>
-      <c r="V81" s="3">
-        <v>231100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>147200</v>
-      </c>
-      <c r="X81" s="3">
-        <v>101200</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>195100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>178400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>99000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>780600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>216600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6406,94 +6603,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>365000</v>
+        <v>326000</v>
       </c>
       <c r="E83" s="3">
-        <v>378500</v>
+        <v>347800</v>
       </c>
       <c r="F83" s="3">
-        <v>375600</v>
+        <v>360700</v>
       </c>
       <c r="G83" s="3">
-        <v>368200</v>
+        <v>357900</v>
       </c>
       <c r="H83" s="3">
-        <v>342100</v>
+        <v>350800</v>
       </c>
       <c r="I83" s="3">
-        <v>317300</v>
+        <v>326000</v>
       </c>
       <c r="J83" s="3">
+        <v>302400</v>
+      </c>
+      <c r="K83" s="3">
         <v>309700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>313200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1051800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>265600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>257000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>270700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>296200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>288600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>276700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>270900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>258100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>258600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>249900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>231500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>225800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>216500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>205200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>185800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>204100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>205000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6578,8 +6779,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6664,8 +6868,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6750,8 +6957,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6836,8 +7046,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6922,94 +7135,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>566300</v>
+        <v>394200</v>
       </c>
       <c r="E89" s="3">
-        <v>929800</v>
+        <v>539600</v>
       </c>
       <c r="F89" s="3">
-        <v>456800</v>
+        <v>886000</v>
       </c>
       <c r="G89" s="3">
-        <v>-58400</v>
+        <v>435200</v>
       </c>
       <c r="H89" s="3">
-        <v>681100</v>
+        <v>-55600</v>
       </c>
       <c r="I89" s="3">
-        <v>514900</v>
+        <v>648900</v>
       </c>
       <c r="J89" s="3">
+        <v>490600</v>
+      </c>
+      <c r="K89" s="3">
         <v>66400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>28700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1636800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>657800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>493400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>83600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>642000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>816700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>478500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>71500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>479600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>780600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>408400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-329800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>545400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>378100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>79500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-177600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>545700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>390400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>406900</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7040,94 +7259,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-60667000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-55378000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-66175000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-84505000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-69651000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-80535000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-76815000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-72782000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-449900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1504500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-420000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-395400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-395500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-383700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-355500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-367200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-466200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-541600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-379600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-322700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-384400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-412700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-436500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-377400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-388000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-293800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-413900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-304700</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7212,8 +7435,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7298,94 +7524,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-410400</v>
+        <v>-340200</v>
       </c>
       <c r="E94" s="3">
-        <v>-471200</v>
+        <v>-391100</v>
       </c>
       <c r="F94" s="3">
-        <v>-597600</v>
+        <v>-449000</v>
       </c>
       <c r="G94" s="3">
-        <v>-210800</v>
+        <v>-569400</v>
       </c>
       <c r="H94" s="3">
-        <v>-600000</v>
+        <v>-200800</v>
       </c>
       <c r="I94" s="3">
-        <v>-809700</v>
+        <v>-571700</v>
       </c>
       <c r="J94" s="3">
+        <v>-771500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-414900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-209300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1640800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-487100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-438900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-359100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-470400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-484300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1010900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-415900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-426400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-384800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-293100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-213600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-383600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-44100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-203600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1593400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>591900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-446200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-348600</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7416,94 +7648,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-137100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-200</v>
       </c>
-      <c r="E96" s="3">
-        <v>-145100</v>
-      </c>
       <c r="F96" s="3">
-        <v>-1500</v>
+        <v>-138200</v>
       </c>
       <c r="G96" s="3">
-        <v>-121400</v>
+        <v>-1400</v>
       </c>
       <c r="H96" s="3">
+        <v>-115700</v>
+      </c>
+      <c r="I96" s="3">
         <v>-200</v>
       </c>
-      <c r="I96" s="3">
-        <v>-90800</v>
-      </c>
       <c r="J96" s="3">
+        <v>-86600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-82700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-161200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-83200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-95600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-96100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-8600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-91300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-95200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-79200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-68300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-67100</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-200</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-67000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7588,8 +7824,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7674,8 +7913,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7760,262 +8002,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-42100</v>
+        <v>109600</v>
       </c>
       <c r="E100" s="3">
-        <v>-53500</v>
+        <v>-40200</v>
       </c>
       <c r="F100" s="3">
-        <v>278100</v>
+        <v>-50900</v>
       </c>
       <c r="G100" s="3">
-        <v>-74700</v>
+        <v>265000</v>
       </c>
       <c r="H100" s="3">
-        <v>-94100</v>
+        <v>-71200</v>
       </c>
       <c r="I100" s="3">
-        <v>570300</v>
+        <v>-89600</v>
       </c>
       <c r="J100" s="3">
+        <v>543400</v>
+      </c>
+      <c r="K100" s="3">
         <v>273000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>72200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>207000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>108500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>72200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>222800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-285400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-112400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-915900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>207300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-113000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>61100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-104900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>236500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-26100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-274500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-226100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1521900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-716900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-170900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>221900</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>109400</v>
+        <v>179900</v>
       </c>
       <c r="E101" s="3">
-        <v>-279100</v>
+        <v>104200</v>
       </c>
       <c r="F101" s="3">
-        <v>79900</v>
+        <v>-266000</v>
       </c>
       <c r="G101" s="3">
-        <v>259500</v>
+        <v>76100</v>
       </c>
       <c r="H101" s="3">
-        <v>190000</v>
+        <v>247300</v>
       </c>
       <c r="I101" s="3">
-        <v>96300</v>
+        <v>181100</v>
       </c>
       <c r="J101" s="3">
+        <v>91700</v>
+      </c>
+      <c r="K101" s="3">
         <v>16400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>42500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>192500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>18900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>9000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-11900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-68800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>81400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-39800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-109000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>18200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-56500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-12900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>50100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-133700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>19900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>38300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>20800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-97200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>308200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>223200</v>
+        <v>343500</v>
       </c>
       <c r="E102" s="3">
-        <v>126000</v>
+        <v>212600</v>
       </c>
       <c r="F102" s="3">
-        <v>217100</v>
+        <v>120100</v>
       </c>
       <c r="G102" s="3">
-        <v>-84300</v>
+        <v>206900</v>
       </c>
       <c r="H102" s="3">
-        <v>227200</v>
+        <v>-80300</v>
       </c>
       <c r="I102" s="3">
-        <v>356700</v>
+        <v>216500</v>
       </c>
       <c r="J102" s="3">
+        <v>339900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-74600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-85900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>338000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>298200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>135700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-64500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-182700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>301300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>533800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-246300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-41700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>400300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-256800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>79400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-311900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-228300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>323600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>81500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>233900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TTDKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,392 +665,404 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3458400</v>
+        <v>3693900</v>
       </c>
       <c r="E8" s="3">
-        <v>3241600</v>
+        <v>3342600</v>
       </c>
       <c r="F8" s="3">
-        <v>4032500</v>
+        <v>3133100</v>
       </c>
       <c r="G8" s="3">
-        <v>4200900</v>
+        <v>3897500</v>
       </c>
       <c r="H8" s="3">
-        <v>3507200</v>
+        <v>4060300</v>
       </c>
       <c r="I8" s="3">
-        <v>3491800</v>
+        <v>3389700</v>
       </c>
       <c r="J8" s="3">
+        <v>3374900</v>
+      </c>
+      <c r="K8" s="3">
         <v>3432700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3418500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3087400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10486200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2900400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2973600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2639100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2646300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3239800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3402300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3085200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2970100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3311600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3519700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3118500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2775700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3083800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3019800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2617300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2433100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2880700</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2664700</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2585800</v>
+        <v>2585400</v>
       </c>
       <c r="E9" s="3">
-        <v>2747500</v>
+        <v>2499200</v>
       </c>
       <c r="F9" s="3">
-        <v>2848500</v>
+        <v>2655500</v>
       </c>
       <c r="G9" s="3">
-        <v>2908100</v>
+        <v>2753100</v>
       </c>
       <c r="H9" s="3">
-        <v>2462500</v>
+        <v>2810800</v>
       </c>
       <c r="I9" s="3">
-        <v>2541400</v>
+        <v>2380100</v>
       </c>
       <c r="J9" s="3">
+        <v>2456300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2351400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2342100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2214100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7461600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1989300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2048000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1875100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1963600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2204100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2334900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2205900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2202400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2303600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2451100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2256800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2084000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2201600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2193800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1923900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1831500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2033200</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1915700</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>872500</v>
+        <v>1108500</v>
       </c>
       <c r="E10" s="3">
-        <v>494200</v>
+        <v>843300</v>
       </c>
       <c r="F10" s="3">
-        <v>1184000</v>
+        <v>477600</v>
       </c>
       <c r="G10" s="3">
-        <v>1292800</v>
+        <v>1144400</v>
       </c>
       <c r="H10" s="3">
-        <v>1044700</v>
+        <v>1249500</v>
       </c>
       <c r="I10" s="3">
-        <v>950400</v>
+        <v>1009700</v>
       </c>
       <c r="J10" s="3">
+        <v>918600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1081300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1076400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>873300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3024600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>911100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>925600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>764000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>682700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1035700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1067400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>879300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>767700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1008000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1068600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>861700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>691800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>882100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>825900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>693400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>601500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>847600</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>749000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1082,8 +1094,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1171,8 +1184,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1260,61 +1276,64 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1600</v>
       </c>
-      <c r="E14" s="3">
-        <v>-8500</v>
-      </c>
       <c r="F14" s="3">
-        <v>-1800</v>
+        <v>-8200</v>
       </c>
       <c r="G14" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-600</v>
       </c>
-      <c r="I14" s="3">
-        <v>-8000</v>
-      </c>
       <c r="J14" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-9200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-14300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-22000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>161700</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2200</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1328,8 +1347,8 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1349,8 +1368,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1438,8 +1460,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1468,186 +1493,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3277700</v>
+        <v>3300500</v>
       </c>
       <c r="E17" s="3">
-        <v>3378000</v>
+        <v>3167900</v>
       </c>
       <c r="F17" s="3">
-        <v>3562800</v>
+        <v>3264900</v>
       </c>
       <c r="G17" s="3">
-        <v>3680800</v>
+        <v>3443500</v>
       </c>
       <c r="H17" s="3">
-        <v>3200700</v>
+        <v>3557600</v>
       </c>
       <c r="I17" s="3">
-        <v>3316900</v>
+        <v>3093600</v>
       </c>
       <c r="J17" s="3">
+        <v>3205800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3022600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3055900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2857200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9693400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2570000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2631100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2481800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2746500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2871800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2999200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2856400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2846300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3002300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3178200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2887400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2677000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2790500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2770200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2467200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1263700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2592300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2418000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>180700</v>
+        <v>393400</v>
       </c>
       <c r="E18" s="3">
-        <v>-136400</v>
+        <v>174600</v>
       </c>
       <c r="F18" s="3">
-        <v>469700</v>
+        <v>-131800</v>
       </c>
       <c r="G18" s="3">
-        <v>520100</v>
+        <v>454000</v>
       </c>
       <c r="H18" s="3">
-        <v>306400</v>
+        <v>502700</v>
       </c>
       <c r="I18" s="3">
-        <v>174900</v>
+        <v>296200</v>
       </c>
       <c r="J18" s="3">
+        <v>169100</v>
+      </c>
+      <c r="K18" s="3">
         <v>410200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>362600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>230200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>792800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>330400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>342500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>157300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>368000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>403100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>228800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>123800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>309200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>341500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>231100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>98700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>293300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>249600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>150100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1169400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>288400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>246700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1679,186 +1711,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-36300</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>-7100</v>
+        <v>-35100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1000</v>
+        <v>-6900</v>
       </c>
       <c r="G20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
-        <v>-5000</v>
-      </c>
       <c r="I20" s="3">
-        <v>55100</v>
+        <v>-4900</v>
       </c>
       <c r="J20" s="3">
+        <v>53200</v>
+      </c>
+      <c r="K20" s="3">
         <v>13900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>23100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>86400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>26400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-14000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>13300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>142500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-7000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-15100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>20700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>19800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>8500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>11600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>38400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>4900</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>470300</v>
+        <v>706400</v>
       </c>
       <c r="E21" s="3">
-        <v>204300</v>
+        <v>454600</v>
       </c>
       <c r="F21" s="3">
-        <v>829400</v>
+        <v>197500</v>
       </c>
       <c r="G21" s="3">
-        <v>880000</v>
+        <v>801600</v>
       </c>
       <c r="H21" s="3">
-        <v>652200</v>
+        <v>850600</v>
       </c>
       <c r="I21" s="3">
-        <v>556000</v>
+        <v>630400</v>
       </c>
       <c r="J21" s="3">
+        <v>537400</v>
+      </c>
+      <c r="K21" s="3">
         <v>726400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>695500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>560700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1931000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>610800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>593900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>454400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>182000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>670000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>688700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>507400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>524500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>560900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>576200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>457500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>345200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>529600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>463300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>347400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1411900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>498300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1877,255 +1916,264 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>48900</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
+        <v>47200</v>
+      </c>
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>47800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>9900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>10500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>11100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>8600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>7800</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>8600</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>144400</v>
+        <v>393300</v>
       </c>
       <c r="E23" s="3">
-        <v>-143500</v>
+        <v>139500</v>
       </c>
       <c r="F23" s="3">
-        <v>468700</v>
+        <v>-138700</v>
       </c>
       <c r="G23" s="3">
-        <v>522100</v>
+        <v>453000</v>
       </c>
       <c r="H23" s="3">
-        <v>301400</v>
+        <v>504700</v>
       </c>
       <c r="I23" s="3">
-        <v>181100</v>
+        <v>291300</v>
       </c>
       <c r="J23" s="3">
+        <v>175100</v>
+      </c>
+      <c r="K23" s="3">
         <v>421000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>377900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>238400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>831400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>338600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>330700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>176700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-122900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>375100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>403900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>226300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>257200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>292600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>316500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>215800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>109200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>302600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>247000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>153100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1200000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>284800</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>247900</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>39500</v>
+        <v>126700</v>
       </c>
       <c r="E24" s="3">
-        <v>16000</v>
+        <v>38200</v>
       </c>
       <c r="F24" s="3">
-        <v>125500</v>
+        <v>15400</v>
       </c>
       <c r="G24" s="3">
-        <v>138800</v>
+        <v>121300</v>
       </c>
       <c r="H24" s="3">
-        <v>83200</v>
+        <v>134200</v>
       </c>
       <c r="I24" s="3">
-        <v>83900</v>
+        <v>80400</v>
       </c>
       <c r="J24" s="3">
+        <v>81100</v>
+      </c>
+      <c r="K24" s="3">
         <v>86200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>75200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>40200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>302800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>112400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>104000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>63600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>30000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>106600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>133800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>82900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>75700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>81000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>84500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>67600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>74000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>67300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>52100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>421800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>65000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2213,186 +2261,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>104800</v>
+        <v>266500</v>
       </c>
       <c r="E26" s="3">
-        <v>-159400</v>
+        <v>101300</v>
       </c>
       <c r="F26" s="3">
-        <v>343200</v>
+        <v>-154100</v>
       </c>
       <c r="G26" s="3">
-        <v>383300</v>
+        <v>331700</v>
       </c>
       <c r="H26" s="3">
-        <v>218200</v>
+        <v>370500</v>
       </c>
       <c r="I26" s="3">
-        <v>97200</v>
+        <v>210900</v>
       </c>
       <c r="J26" s="3">
+        <v>93900</v>
+      </c>
+      <c r="K26" s="3">
         <v>334700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>302700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>198200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>528600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>226200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>226700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>113100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-152900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>268500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>270000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>143400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>181400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>211500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>231900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>148100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>100900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>228600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>179700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>101000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>778200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>219800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>181500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>97800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-150600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>331500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>368800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>208600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>93200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>330200</v>
+      </c>
+      <c r="L27" s="3">
+        <v>301700</v>
+      </c>
+      <c r="M27" s="3">
+        <v>198000</v>
+      </c>
+      <c r="N27" s="3">
+        <v>531500</v>
+      </c>
+      <c r="O27" s="3">
+        <v>226100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>226200</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>112500</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-146500</v>
+      </c>
+      <c r="S27" s="3">
+        <v>268500</v>
+      </c>
+      <c r="T27" s="3">
+        <v>269700</v>
+      </c>
+      <c r="U27" s="3">
+        <v>142800</v>
+      </c>
+      <c r="V27" s="3">
+        <v>179900</v>
+      </c>
+      <c r="W27" s="3">
+        <v>211500</v>
+      </c>
+      <c r="X27" s="3">
+        <v>231100</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>147200</v>
+      </c>
+      <c r="Z27" s="3">
         <v>101200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-155900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>343000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>381500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>215800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>96400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>330200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>301700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>198000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>531500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>226100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>226200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>112500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-146500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>268500</v>
-      </c>
-      <c r="S27" s="3">
-        <v>269700</v>
-      </c>
-      <c r="T27" s="3">
-        <v>142800</v>
-      </c>
-      <c r="U27" s="3">
-        <v>179900</v>
-      </c>
-      <c r="V27" s="3">
-        <v>211500</v>
-      </c>
-      <c r="W27" s="3">
-        <v>231100</v>
-      </c>
-      <c r="X27" s="3">
-        <v>147200</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>101200</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>226800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>178400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>99000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>780600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>216600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2480,8 +2537,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2533,8 +2593,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2548,14 +2608,14 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-31800</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2569,8 +2629,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2658,8 +2721,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2747,186 +2813,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>36300</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>7100</v>
+        <v>35100</v>
       </c>
       <c r="F32" s="3">
-        <v>1000</v>
+        <v>6900</v>
       </c>
       <c r="G32" s="3">
+        <v>900</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
-        <v>5000</v>
-      </c>
       <c r="I32" s="3">
-        <v>-55100</v>
+        <v>4900</v>
       </c>
       <c r="J32" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-13900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-23100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-86400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>14000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-13300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-142500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>7000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>15100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-20700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-19800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-8500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-11600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-38400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-4900</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>97800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-150600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>331500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>368800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>208600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>93200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>330200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>301700</v>
+      </c>
+      <c r="M33" s="3">
+        <v>198000</v>
+      </c>
+      <c r="N33" s="3">
+        <v>531500</v>
+      </c>
+      <c r="O33" s="3">
+        <v>226100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>226200</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>112500</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-146500</v>
+      </c>
+      <c r="S33" s="3">
+        <v>268500</v>
+      </c>
+      <c r="T33" s="3">
+        <v>269700</v>
+      </c>
+      <c r="U33" s="3">
+        <v>142800</v>
+      </c>
+      <c r="V33" s="3">
+        <v>179900</v>
+      </c>
+      <c r="W33" s="3">
+        <v>211500</v>
+      </c>
+      <c r="X33" s="3">
+        <v>231100</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>147200</v>
+      </c>
+      <c r="Z33" s="3">
         <v>101200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-155900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>343000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>381500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>215800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>96400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>330200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>301700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>198000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>531500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>226100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>226200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>112500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-146500</v>
-      </c>
-      <c r="R33" s="3">
-        <v>268500</v>
-      </c>
-      <c r="S33" s="3">
-        <v>269700</v>
-      </c>
-      <c r="T33" s="3">
-        <v>142800</v>
-      </c>
-      <c r="U33" s="3">
-        <v>179900</v>
-      </c>
-      <c r="V33" s="3">
-        <v>211500</v>
-      </c>
-      <c r="W33" s="3">
-        <v>231100</v>
-      </c>
-      <c r="X33" s="3">
-        <v>147200</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>101200</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>195100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>178400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>99000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>780600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>216600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3014,191 +3089,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>97800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-150600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>331500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>368800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>208600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>93200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>330200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>301700</v>
+      </c>
+      <c r="M35" s="3">
+        <v>198000</v>
+      </c>
+      <c r="N35" s="3">
+        <v>531500</v>
+      </c>
+      <c r="O35" s="3">
+        <v>226100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>226200</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>112500</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-146500</v>
+      </c>
+      <c r="S35" s="3">
+        <v>268500</v>
+      </c>
+      <c r="T35" s="3">
+        <v>269700</v>
+      </c>
+      <c r="U35" s="3">
+        <v>142800</v>
+      </c>
+      <c r="V35" s="3">
+        <v>179900</v>
+      </c>
+      <c r="W35" s="3">
+        <v>211500</v>
+      </c>
+      <c r="X35" s="3">
+        <v>231100</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>147200</v>
+      </c>
+      <c r="Z35" s="3">
         <v>101200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-155900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>343000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>381500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>215800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>96400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>330200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>301700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>198000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>531500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>226100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>226200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>112500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-146500</v>
-      </c>
-      <c r="R35" s="3">
-        <v>268500</v>
-      </c>
-      <c r="S35" s="3">
-        <v>269700</v>
-      </c>
-      <c r="T35" s="3">
-        <v>142800</v>
-      </c>
-      <c r="U35" s="3">
-        <v>179900</v>
-      </c>
-      <c r="V35" s="3">
-        <v>211500</v>
-      </c>
-      <c r="W35" s="3">
-        <v>231100</v>
-      </c>
-      <c r="X35" s="3">
-        <v>147200</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>101200</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>195100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>178400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>99000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>780600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>216600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3230,8 +3314,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3263,809 +3348,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3821000</v>
+        <v>4265500</v>
       </c>
       <c r="E41" s="3">
-        <v>3477500</v>
+        <v>3693100</v>
       </c>
       <c r="F41" s="3">
-        <v>3264900</v>
+        <v>3361100</v>
       </c>
       <c r="G41" s="3">
-        <v>3144800</v>
+        <v>3155600</v>
       </c>
       <c r="H41" s="3">
-        <v>2937900</v>
+        <v>3039500</v>
       </c>
       <c r="I41" s="3">
-        <v>3018300</v>
+        <v>2839600</v>
       </c>
       <c r="J41" s="3">
+        <v>2917200</v>
+      </c>
+      <c r="K41" s="3">
         <v>2801700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2583700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2709900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2696900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2809300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2668600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2773500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2931200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3219900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2944200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2402600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2779000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2770800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2332800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2285000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2527800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2525900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2446500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2758400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2930500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2607000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>2525500</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>307700</v>
+        <v>273000</v>
       </c>
       <c r="E42" s="3">
-        <v>358200</v>
+        <v>297400</v>
       </c>
       <c r="F42" s="3">
-        <v>306400</v>
+        <v>346300</v>
       </c>
       <c r="G42" s="3">
-        <v>243500</v>
+        <v>296200</v>
       </c>
       <c r="H42" s="3">
-        <v>146700</v>
+        <v>235400</v>
       </c>
       <c r="I42" s="3">
-        <v>459900</v>
+        <v>141800</v>
       </c>
       <c r="J42" s="3">
+        <v>444500</v>
+      </c>
+      <c r="K42" s="3">
         <v>335900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>120600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>248600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1002800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>392300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>310500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>298000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>286800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>217600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>90000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>317000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>389800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>292900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>275700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>279700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>394700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>342100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>714600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>731400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>497900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>157800</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>175500</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3897500</v>
+        <v>3942900</v>
       </c>
       <c r="E43" s="3">
-        <v>3952800</v>
+        <v>3767000</v>
       </c>
       <c r="F43" s="3">
-        <v>3897800</v>
+        <v>3820500</v>
       </c>
       <c r="G43" s="3">
-        <v>4326800</v>
+        <v>3767300</v>
       </c>
       <c r="H43" s="3">
-        <v>4104000</v>
+        <v>4182000</v>
       </c>
       <c r="I43" s="3">
-        <v>3815400</v>
+        <v>3966600</v>
       </c>
       <c r="J43" s="3">
+        <v>3687600</v>
+      </c>
+      <c r="K43" s="3">
         <v>3475600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3599300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3341300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6364400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2897600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2955900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2713500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2732400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3319800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3421500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3028500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2961400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3200000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3658300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3144100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2748300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3100600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3055200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2624700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2261000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2509700</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>2325300</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3049200</v>
+        <v>2895100</v>
       </c>
       <c r="E44" s="3">
-        <v>3043400</v>
+        <v>2947200</v>
       </c>
       <c r="F44" s="3">
-        <v>3288700</v>
+        <v>2941500</v>
       </c>
       <c r="G44" s="3">
-        <v>3572800</v>
+        <v>3178600</v>
       </c>
       <c r="H44" s="3">
-        <v>3667100</v>
+        <v>3453200</v>
       </c>
       <c r="I44" s="3">
-        <v>3002200</v>
+        <v>3544300</v>
       </c>
       <c r="J44" s="3">
+        <v>2901700</v>
+      </c>
+      <c r="K44" s="3">
         <v>2831300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2537600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2456800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4092300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1877500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1918000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2198000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2083200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2224300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2033500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2145400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2180400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2257400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2141000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2071700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1876100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1910700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1803700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1689800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1370400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1319200</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>1353300</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>518300</v>
+        <v>480400</v>
       </c>
       <c r="E45" s="3">
-        <v>210200</v>
+        <v>501000</v>
       </c>
       <c r="F45" s="3">
-        <v>393400</v>
+        <v>203200</v>
       </c>
       <c r="G45" s="3">
-        <v>622300</v>
+        <v>380200</v>
       </c>
       <c r="H45" s="3">
-        <v>674200</v>
+        <v>601400</v>
       </c>
       <c r="I45" s="3">
-        <v>237200</v>
+        <v>651600</v>
       </c>
       <c r="J45" s="3">
+        <v>229200</v>
+      </c>
+      <c r="K45" s="3">
         <v>539800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>672600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>774900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>618200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>387000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>392800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>477500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>481200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>608600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>538000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>561800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>554500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>637800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>592600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>661500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>588500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>731100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>673600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>810400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>622800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>2047000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>496900</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11593700</v>
+        <v>11856900</v>
       </c>
       <c r="E46" s="3">
-        <v>11042200</v>
+        <v>11205600</v>
       </c>
       <c r="F46" s="3">
-        <v>11151200</v>
+        <v>10672500</v>
       </c>
       <c r="G46" s="3">
-        <v>11910200</v>
+        <v>10777800</v>
       </c>
       <c r="H46" s="3">
-        <v>11529900</v>
+        <v>11511400</v>
       </c>
       <c r="I46" s="3">
-        <v>10532900</v>
+        <v>11143900</v>
       </c>
       <c r="J46" s="3">
+        <v>10180300</v>
+      </c>
+      <c r="K46" s="3">
         <v>9984400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9513700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9531500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8726900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8363700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8245700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8460600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8514700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9590300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9027200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8455400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8865100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9158900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9000400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8442000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8135400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8610400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8693700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8614700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>7682600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>8640700</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>6876600</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1333100</v>
+        <v>1343100</v>
       </c>
       <c r="E47" s="3">
-        <v>1227400</v>
+        <v>1288500</v>
       </c>
       <c r="F47" s="3">
+        <v>1186300</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1112500</v>
+      </c>
+      <c r="H47" s="3">
         <v>1151100</v>
       </c>
-      <c r="G47" s="3">
-        <v>1191000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1084700</v>
-      </c>
       <c r="I47" s="3">
-        <v>963300</v>
+        <v>1048400</v>
       </c>
       <c r="J47" s="3">
+        <v>931000</v>
+      </c>
+      <c r="K47" s="3">
         <v>387700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>365500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>328400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>725400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>246100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>258900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>280700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>292700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>306300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>300800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1386200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1492500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1498700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1515200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1447400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1403400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1460000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1353700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1385500</v>
       </c>
-      <c r="AC47" s="3" t="s">
+      <c r="AD47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>317100</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7046700</v>
+        <v>6851400</v>
       </c>
       <c r="E48" s="3">
-        <v>6766800</v>
+        <v>6810800</v>
       </c>
       <c r="F48" s="3">
-        <v>6969800</v>
+        <v>6540200</v>
       </c>
       <c r="G48" s="3">
-        <v>7446200</v>
+        <v>6736500</v>
       </c>
       <c r="H48" s="3">
-        <v>7251300</v>
+        <v>7196900</v>
       </c>
       <c r="I48" s="3">
-        <v>6837100</v>
+        <v>7008600</v>
       </c>
       <c r="J48" s="3">
+        <v>6608200</v>
+      </c>
+      <c r="K48" s="3">
         <v>6489800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6465500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6398100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11690500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5506000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5468100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5706900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5729700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6098700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5928500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5902900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5795900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5496300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5384500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5208000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4932600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4870000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4685800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4547500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4121600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>4223600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>4500600</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1533200</v>
+        <v>1501000</v>
       </c>
       <c r="E49" s="3">
-        <v>1447900</v>
+        <v>1481800</v>
       </c>
       <c r="F49" s="3">
-        <v>1450500</v>
+        <v>1399400</v>
       </c>
       <c r="G49" s="3">
-        <v>1565600</v>
+        <v>1401900</v>
       </c>
       <c r="H49" s="3">
-        <v>1524100</v>
+        <v>1513200</v>
       </c>
       <c r="I49" s="3">
-        <v>1417800</v>
+        <v>1473100</v>
       </c>
       <c r="J49" s="3">
+        <v>1370400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1644500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1703400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1737700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3101200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1674600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1824200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2020000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2120500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2234000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2239800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2262400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2436000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2398100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2378400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2277900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2200200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2272200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2276900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2205800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1001000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1092000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>933100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4153,8 +4266,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4242,97 +4358,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1179500</v>
+        <v>1140400</v>
       </c>
       <c r="E52" s="3">
-        <v>1135800</v>
+        <v>1140000</v>
       </c>
       <c r="F52" s="3">
-        <v>1080500</v>
+        <v>1097800</v>
       </c>
       <c r="G52" s="3">
-        <v>1171500</v>
+        <v>1044300</v>
       </c>
       <c r="H52" s="3">
-        <v>1196400</v>
+        <v>1132300</v>
       </c>
       <c r="I52" s="3">
-        <v>1145000</v>
+        <v>1156300</v>
       </c>
       <c r="J52" s="3">
+        <v>1106700</v>
+      </c>
+      <c r="K52" s="3">
         <v>815300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>682200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>439500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>476600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>397000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>418900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>461900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>463500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>458700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>449000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>472400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>558300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>538400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>564400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>528400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>551500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>539100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>565900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>539800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1957400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>599700</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4420,97 +4542,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22686200</v>
+        <v>22692800</v>
       </c>
       <c r="E54" s="3">
-        <v>21620100</v>
+        <v>21926700</v>
       </c>
       <c r="F54" s="3">
-        <v>21803000</v>
+        <v>20896300</v>
       </c>
       <c r="G54" s="3">
-        <v>23284500</v>
+        <v>21073100</v>
       </c>
       <c r="H54" s="3">
-        <v>22586400</v>
+        <v>22505000</v>
       </c>
       <c r="I54" s="3">
-        <v>20896200</v>
+        <v>21830300</v>
       </c>
       <c r="J54" s="3">
+        <v>20196600</v>
+      </c>
+      <c r="K54" s="3">
         <v>19321700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18730200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18435100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16730000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16187300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16215800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16930100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17121200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18687900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17945300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18479200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>19147700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>19090400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18842900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>17903800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>17223100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>17751700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>17575900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>17293200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>14762600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>14873100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>13158900</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4542,8 +4670,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4575,542 +4704,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2399300</v>
+        <v>2544700</v>
       </c>
       <c r="E57" s="3">
-        <v>2414400</v>
+        <v>2319000</v>
       </c>
       <c r="F57" s="3">
-        <v>2657100</v>
+        <v>2333600</v>
       </c>
       <c r="G57" s="3">
-        <v>3139100</v>
+        <v>2568100</v>
       </c>
       <c r="H57" s="3">
-        <v>3644200</v>
+        <v>3034000</v>
       </c>
       <c r="I57" s="3">
-        <v>3161100</v>
+        <v>3522200</v>
       </c>
       <c r="J57" s="3">
+        <v>3055300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2729800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2714800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2765500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4599600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1983700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1854600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1794400</v>
       </c>
-      <c r="Q57" s="3" t="s">
+      <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2111100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1902500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1774100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1824900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1935100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2006800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2067400</v>
       </c>
-      <c r="Y57" s="3" t="s">
+      <c r="Z57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2138200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2066200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1807900</v>
       </c>
-      <c r="AC57" s="3" t="s">
+      <c r="AD57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1648400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1383400</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2423400</v>
+        <v>1501700</v>
       </c>
       <c r="E58" s="3">
-        <v>1778000</v>
+        <v>2342200</v>
       </c>
       <c r="F58" s="3">
-        <v>1776500</v>
+        <v>1718500</v>
       </c>
       <c r="G58" s="3">
-        <v>1695200</v>
+        <v>1717000</v>
       </c>
       <c r="H58" s="3">
-        <v>1371300</v>
+        <v>1638500</v>
       </c>
       <c r="I58" s="3">
-        <v>1273400</v>
+        <v>1325400</v>
       </c>
       <c r="J58" s="3">
+        <v>1230800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1410100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2075300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2567300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4712700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2542600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2230700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2311200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2507600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2888400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2517300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3350200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3004000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2978100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2652200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2038100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1709800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1551100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1679200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2316800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1066100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1614500</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>2222200</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2735400</v>
+        <v>2754600</v>
       </c>
       <c r="E59" s="3">
-        <v>2707200</v>
+        <v>2643800</v>
       </c>
       <c r="F59" s="3">
-        <v>2723500</v>
+        <v>2616600</v>
       </c>
       <c r="G59" s="3">
-        <v>3066600</v>
+        <v>2632300</v>
       </c>
       <c r="H59" s="3">
-        <v>2879700</v>
+        <v>2964000</v>
       </c>
       <c r="I59" s="3">
-        <v>2863900</v>
+        <v>2783300</v>
       </c>
       <c r="J59" s="3">
+        <v>2768000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2540700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2573200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2675800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5149800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2103900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1975300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1965400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3826000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2102600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1960800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1905900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2035800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2254600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2165900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1835800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3741600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1669900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1728700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1794900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3170100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1663200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1357600</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7558100</v>
+        <v>6801000</v>
       </c>
       <c r="E60" s="3">
-        <v>6899600</v>
+        <v>7305000</v>
       </c>
       <c r="F60" s="3">
-        <v>7157000</v>
+        <v>6668600</v>
       </c>
       <c r="G60" s="3">
-        <v>7901000</v>
+        <v>6917400</v>
       </c>
       <c r="H60" s="3">
-        <v>7895200</v>
+        <v>7636500</v>
       </c>
       <c r="I60" s="3">
-        <v>7298400</v>
+        <v>7630900</v>
       </c>
       <c r="J60" s="3">
+        <v>7054100</v>
+      </c>
+      <c r="K60" s="3">
         <v>6680700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7363400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8008500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7290800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6630200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6060600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6070900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6333600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7102100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6380600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7030200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6864600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7167700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6824900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5941300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5451500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5359300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5474200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5919500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4236300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4926200</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>4963300</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3071900</v>
+        <v>3636700</v>
       </c>
       <c r="E61" s="3">
-        <v>3389300</v>
+        <v>2969100</v>
       </c>
       <c r="F61" s="3">
-        <v>3348900</v>
+        <v>3275800</v>
       </c>
       <c r="G61" s="3">
-        <v>3397600</v>
+        <v>3236700</v>
       </c>
       <c r="H61" s="3">
-        <v>3416800</v>
+        <v>3283900</v>
       </c>
       <c r="I61" s="3">
-        <v>3396900</v>
+        <v>3302400</v>
       </c>
       <c r="J61" s="3">
+        <v>3283200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2957900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1845300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1142000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1313000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1138100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1475700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1620900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1233900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1279800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1693400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1689700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1995800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2044700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2160800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2705700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2656700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2905000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2974300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2470000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1897600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2078800</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>1355200</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1386500</v>
+        <v>1379400</v>
       </c>
       <c r="E62" s="3">
-        <v>1281200</v>
+        <v>1340100</v>
       </c>
       <c r="F62" s="3">
-        <v>1248600</v>
+        <v>1238400</v>
       </c>
       <c r="G62" s="3">
-        <v>1326400</v>
+        <v>1206800</v>
       </c>
       <c r="H62" s="3">
-        <v>1296100</v>
+        <v>1282000</v>
       </c>
       <c r="I62" s="3">
-        <v>1244000</v>
+        <v>1252700</v>
       </c>
       <c r="J62" s="3">
+        <v>1202400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1608600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1667800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1666800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2347100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1797900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1854000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2015600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2077800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1996700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1953500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1952600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1794400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1669300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1673200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1604900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1600600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1619600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1597900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1582700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1514000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1409500</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1440600</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5198,8 +5346,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5287,8 +5438,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5376,97 +5530,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12055600</v>
+        <v>11862100</v>
       </c>
       <c r="E66" s="3">
-        <v>11600600</v>
+        <v>11652000</v>
       </c>
       <c r="F66" s="3">
-        <v>11788300</v>
+        <v>11212200</v>
       </c>
       <c r="G66" s="3">
-        <v>12652300</v>
+        <v>11393600</v>
       </c>
       <c r="H66" s="3">
-        <v>12634800</v>
+        <v>12228700</v>
       </c>
       <c r="I66" s="3">
-        <v>11963000</v>
+        <v>12211800</v>
       </c>
       <c r="J66" s="3">
+        <v>11562500</v>
+      </c>
+      <c r="K66" s="3">
         <v>11269500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10895900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10837000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9931200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9587600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9417800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9746000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9685900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10427800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10076200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10728900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10717000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10940400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10717600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10314600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9768400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9946100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10106300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>10050400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>7723300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>8487700</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>7822400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5498,8 +5658,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5587,8 +5748,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5676,8 +5840,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5765,8 +5932,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5854,97 +6024,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7209400</v>
+        <v>7231200</v>
       </c>
       <c r="E72" s="3">
-        <v>7246100</v>
+        <v>6968100</v>
       </c>
       <c r="F72" s="3">
-        <v>7438200</v>
+        <v>7003500</v>
       </c>
       <c r="G72" s="3">
-        <v>7232000</v>
+        <v>7189200</v>
       </c>
       <c r="H72" s="3">
-        <v>6825800</v>
+        <v>6989900</v>
       </c>
       <c r="I72" s="3">
-        <v>6696600</v>
+        <v>6597300</v>
       </c>
       <c r="J72" s="3">
+        <v>6472500</v>
+      </c>
+      <c r="K72" s="3">
         <v>7993900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8127700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7980000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13312500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7800000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8137900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8685500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8954400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9410900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9327100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9027800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9418600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9075300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8816700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8400800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8316200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>8215000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>8088300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>7909900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>7731200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>6951300</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>6801800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6032,8 +6208,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6121,8 +6300,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6210,97 +6392,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10630500</v>
+        <v>10830700</v>
       </c>
       <c r="E76" s="3">
-        <v>10019500</v>
+        <v>10274600</v>
       </c>
       <c r="F76" s="3">
-        <v>10014700</v>
+        <v>9684100</v>
       </c>
       <c r="G76" s="3">
-        <v>10632200</v>
+        <v>9679500</v>
       </c>
       <c r="H76" s="3">
-        <v>9951600</v>
+        <v>10276200</v>
       </c>
       <c r="I76" s="3">
-        <v>8933200</v>
+        <v>9618500</v>
       </c>
       <c r="J76" s="3">
+        <v>8634100</v>
+      </c>
+      <c r="K76" s="3">
         <v>8052300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7834300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7598100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6798800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6599700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6798000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7184100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7435300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8260200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7869100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7750300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8430800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8150000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8125300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7589200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7454700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7805600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7469600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7242800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>7039400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>6385400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>5336600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6388,191 +6576,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>97800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-150600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>331500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>368800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>208600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>93200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>330200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>301700</v>
+      </c>
+      <c r="M81" s="3">
+        <v>198000</v>
+      </c>
+      <c r="N81" s="3">
+        <v>531500</v>
+      </c>
+      <c r="O81" s="3">
+        <v>226100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>226200</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>112500</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-146500</v>
+      </c>
+      <c r="S81" s="3">
+        <v>268500</v>
+      </c>
+      <c r="T81" s="3">
+        <v>269700</v>
+      </c>
+      <c r="U81" s="3">
+        <v>142800</v>
+      </c>
+      <c r="V81" s="3">
+        <v>179900</v>
+      </c>
+      <c r="W81" s="3">
+        <v>211500</v>
+      </c>
+      <c r="X81" s="3">
+        <v>231100</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>147200</v>
+      </c>
+      <c r="Z81" s="3">
         <v>101200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-155900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>343000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>381500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>215800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>96400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>330200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>301700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>198000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>531500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>226100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>226200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>112500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-146500</v>
-      </c>
-      <c r="R81" s="3">
-        <v>268500</v>
-      </c>
-      <c r="S81" s="3">
-        <v>269700</v>
-      </c>
-      <c r="T81" s="3">
-        <v>142800</v>
-      </c>
-      <c r="U81" s="3">
-        <v>179900</v>
-      </c>
-      <c r="V81" s="3">
-        <v>211500</v>
-      </c>
-      <c r="W81" s="3">
-        <v>231100</v>
-      </c>
-      <c r="X81" s="3">
-        <v>147200</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>101200</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>195100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>178400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>99000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>780600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>216600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6604,97 +6801,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>326000</v>
+        <v>313100</v>
       </c>
       <c r="E83" s="3">
-        <v>347800</v>
+        <v>315100</v>
       </c>
       <c r="F83" s="3">
-        <v>360700</v>
+        <v>336100</v>
       </c>
       <c r="G83" s="3">
-        <v>357900</v>
+        <v>348600</v>
       </c>
       <c r="H83" s="3">
-        <v>350800</v>
+        <v>345900</v>
       </c>
       <c r="I83" s="3">
-        <v>326000</v>
+        <v>339100</v>
       </c>
       <c r="J83" s="3">
+        <v>315000</v>
+      </c>
+      <c r="K83" s="3">
         <v>302400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>309700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>313200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1051800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>265600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>257000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>270700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>296200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>288600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>276700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>270900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>258100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>258600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>249900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>231500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>225800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>216500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>205200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>185800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>204100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>205000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6782,8 +6983,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6871,8 +7075,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6960,8 +7167,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7049,8 +7259,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7138,97 +7351,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>394200</v>
+        <v>977400</v>
       </c>
       <c r="E89" s="3">
-        <v>539600</v>
+        <v>381000</v>
       </c>
       <c r="F89" s="3">
-        <v>886000</v>
+        <v>521500</v>
       </c>
       <c r="G89" s="3">
-        <v>435200</v>
+        <v>856300</v>
       </c>
       <c r="H89" s="3">
-        <v>-55600</v>
+        <v>420700</v>
       </c>
       <c r="I89" s="3">
-        <v>648900</v>
+        <v>-53700</v>
       </c>
       <c r="J89" s="3">
+        <v>627200</v>
+      </c>
+      <c r="K89" s="3">
         <v>490600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>66400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>28700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1636800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>657800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>493400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>83600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>642000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>816700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>478500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>71500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>479600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>780600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>408400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-329800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>545400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>378100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>79500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-177600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>545700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>390400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>406900</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7260,97 +7479,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-53778000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-60667000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-55378000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-66175000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-84505000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-69651000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-80535000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-76815000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-72782000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-449900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1504500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-420000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-395400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-395500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-383700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-355500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-367200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-466200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-541600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-379600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-322700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-384400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-412700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-436500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-377400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-388000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-293800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-413900</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-304700</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7438,8 +7661,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7527,97 +7753,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-340200</v>
+        <v>-325500</v>
       </c>
       <c r="E94" s="3">
-        <v>-391100</v>
+        <v>-328800</v>
       </c>
       <c r="F94" s="3">
-        <v>-449000</v>
+        <v>-378000</v>
       </c>
       <c r="G94" s="3">
-        <v>-569400</v>
+        <v>-434000</v>
       </c>
       <c r="H94" s="3">
-        <v>-200800</v>
+        <v>-550400</v>
       </c>
       <c r="I94" s="3">
-        <v>-571700</v>
+        <v>-194100</v>
       </c>
       <c r="J94" s="3">
+        <v>-552600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-771500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-414900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-209300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1640800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-487100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-438900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-359100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-470400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-484300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1010900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-415900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-426400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-384800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-293100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-213600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-383600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-44100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-203600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1593400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>591900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-446200</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-348600</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7649,97 +7881,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-137100</v>
+        <v>-900</v>
       </c>
       <c r="E96" s="3">
+        <v>-132500</v>
+      </c>
+      <c r="F96" s="3">
         <v>-200</v>
       </c>
-      <c r="F96" s="3">
-        <v>-138200</v>
-      </c>
       <c r="G96" s="3">
+        <v>-133600</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1400</v>
       </c>
-      <c r="H96" s="3">
-        <v>-115700</v>
-      </c>
       <c r="I96" s="3">
+        <v>-111800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-86600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-82700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-161200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-83200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-95600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-96100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-8600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-91300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-95200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-79200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-68300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-67100</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-200</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-67000</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7827,8 +8063,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7916,8 +8155,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8005,271 +8247,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>109600</v>
+        <v>-222500</v>
       </c>
       <c r="E100" s="3">
-        <v>-40200</v>
+        <v>105900</v>
       </c>
       <c r="F100" s="3">
-        <v>-50900</v>
+        <v>-38800</v>
       </c>
       <c r="G100" s="3">
-        <v>265000</v>
+        <v>-49200</v>
       </c>
       <c r="H100" s="3">
-        <v>-71200</v>
+        <v>256100</v>
       </c>
       <c r="I100" s="3">
-        <v>-89600</v>
+        <v>-68800</v>
       </c>
       <c r="J100" s="3">
+        <v>-86600</v>
+      </c>
+      <c r="K100" s="3">
         <v>543400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>273000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>72200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>207000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>108500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>72200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>222800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-285400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-112400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-915900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>207300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-113000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>61100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-104900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>236500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-26100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-274500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-226100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1521900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-716900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-170900</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>221900</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>179900</v>
+        <v>143000</v>
       </c>
       <c r="E101" s="3">
-        <v>104200</v>
+        <v>173900</v>
       </c>
       <c r="F101" s="3">
-        <v>-266000</v>
+        <v>100800</v>
       </c>
       <c r="G101" s="3">
-        <v>76100</v>
+        <v>-257100</v>
       </c>
       <c r="H101" s="3">
-        <v>247300</v>
+        <v>73600</v>
       </c>
       <c r="I101" s="3">
-        <v>181100</v>
+        <v>239000</v>
       </c>
       <c r="J101" s="3">
+        <v>175000</v>
+      </c>
+      <c r="K101" s="3">
         <v>91700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>16400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>42500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>192500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>18900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>9000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-68800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>81400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-39800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-109000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>18200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-56500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-12900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>50100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-133700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>19900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>38300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>20800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-97200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>308200</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>343500</v>
+        <v>572400</v>
       </c>
       <c r="E102" s="3">
-        <v>212600</v>
+        <v>332000</v>
       </c>
       <c r="F102" s="3">
-        <v>120100</v>
+        <v>205500</v>
       </c>
       <c r="G102" s="3">
-        <v>206900</v>
+        <v>116000</v>
       </c>
       <c r="H102" s="3">
-        <v>-80300</v>
+        <v>199900</v>
       </c>
       <c r="I102" s="3">
-        <v>216500</v>
+        <v>-77600</v>
       </c>
       <c r="J102" s="3">
+        <v>209300</v>
+      </c>
+      <c r="K102" s="3">
         <v>339900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-74600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-85900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>338000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>298200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>135700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-64500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-182700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>301300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>533800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-246300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-41700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>400300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-256800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>79400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-311900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-228300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>323600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>81500</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>233900</v>
       </c>
     </row>
